--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B282598-D881-4B4A-94C9-3BFFF2D8CD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71331BAC-EC87-4E0F-80DC-4677E095F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="45" windowWidth="22980" windowHeight="14460" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="7755" yWindow="165" windowWidth="20310" windowHeight="14910" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="269">
   <si>
     <t>Exarta</t>
   </si>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t>AERI</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>BAYN</t>
   </si>
 </sst>
 </file>
@@ -924,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -948,6 +954,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1020,13 +1029,13 @@
       <sheetName val="Acquisitions"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="3">
           <cell r="S3">
@@ -1044,46 +1053,46 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2694,13 +2703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T128"/>
+  <dimension ref="B2:T129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2714,22 +2723,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3125,7 +3134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>58.53</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>263.08999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -3236,7 +3245,7 @@
         <v>71.27</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>580.95000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
@@ -3258,7 +3267,7 @@
         <v>128.03</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>28.54</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>65</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
@@ -3313,1239 +3322,1259 @@
         <v>349.96</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>63.83</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>4360</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="3">
-        <v>76.08</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3">
-        <v>165.45</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3">
-        <v>125.14</v>
+        <v>165.45</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3">
-        <v>10.46</v>
+        <v>125.14</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="3">
-        <v>39.35</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="3">
-        <v>132.13999999999999</v>
+        <v>39.35</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1978</v>
+        <v>84</v>
+      </c>
+      <c r="D38" s="3">
+        <v>132.13999999999999</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="6">
-        <v>3060</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="3">
-        <v>11.57</v>
+        <v>88</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3060</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="3">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>219.38</v>
       </c>
-      <c r="E42" s="6">
-        <f>D42*[16]Main!$K$3</f>
+      <c r="E43" s="6">
+        <f>D43*[16]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <f>[16]Main!$K$5-[16]Main!$K$6</f>
         <v>3027</v>
       </c>
-      <c r="G42" s="6">
-        <f>E42-F42</f>
+      <c r="G43" s="6">
+        <f>E43-F43</f>
         <v>7437.4260000000013</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="3">
-        <v>93.28</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="3">
-        <v>142.91</v>
+        <v>93.28</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="3">
+        <v>142.91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="3">
         <v>7.71</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="3">
-        <v>11.04</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3">
-        <v>44.14</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="3">
-        <v>35.26</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3">
-        <v>82.53</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D51" s="3">
-        <v>24.78</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="3">
-        <v>4.72</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" s="3">
-        <v>24.53</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="3">
-        <v>23.02</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="3">
-        <v>29.12</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="3">
-        <v>33.17</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="3">
-        <v>53.21</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="3">
-        <v>46.23</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="7">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="D59" s="3">
+        <v>46.23</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="3">
-        <v>18.559999999999999</v>
+        <v>126</v>
+      </c>
+      <c r="D60" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="3">
-        <v>15.75</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" s="3">
-        <v>19.510000000000002</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="3">
-        <v>66.97</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" s="3">
-        <v>54.94</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D65" s="3">
-        <v>38.840000000000003</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D66" s="3">
-        <v>44.14</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D67" s="3">
-        <v>28.03</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D68" s="3">
-        <v>83.92</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D69" s="3">
-        <v>60.72</v>
+        <v>83.92</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="7">
-        <v>12.2</v>
+        <v>146</v>
+      </c>
+      <c r="D70" s="3">
+        <v>60.72</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2.37</v>
+        <v>148</v>
+      </c>
+      <c r="D71" s="7">
+        <v>12.2</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D72" s="3">
-        <v>42.98</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D73" s="3">
-        <v>23.92</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D74" s="3">
-        <v>53.29</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D75" s="3">
-        <v>74.459999999999994</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D76" s="3">
-        <v>48.63</v>
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" s="3">
-        <v>27.73</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D78" s="3">
-        <v>10.119999999999999</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D79" s="3">
-        <v>35.770000000000003</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D80" s="3">
-        <v>14.27</v>
+        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="3">
-        <v>7.36</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D82" s="3">
-        <v>9.35</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83" s="3">
-        <v>43.98</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84" s="3">
-        <v>5.18</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D85" s="3">
-        <v>53.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86" s="3">
-        <v>21.04</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="7">
-        <v>20.7</v>
+        <v>180</v>
+      </c>
+      <c r="D87" s="3">
+        <v>21.04</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" s="3">
-        <v>18.579999999999998</v>
+        <v>182</v>
+      </c>
+      <c r="D88" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D89" s="3">
-        <v>16.12</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D90" s="3">
-        <v>28.41</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D91" s="3">
-        <v>33.86</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D92" s="3">
-        <v>38.35</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D93" s="3">
-        <v>9.6199999999999992</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D94" s="3">
-        <v>25.49</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D95" s="3">
-        <v>11.42</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D96" s="3">
-        <v>26.64</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D97" s="3">
-        <v>30.48</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D98" s="3">
-        <v>12.98</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D99" s="3">
-        <v>10.96</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D100" s="3">
-        <v>2.42</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" s="7">
-        <v>55.5</v>
+        <v>208</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2.42</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="3">
-        <v>10.63</v>
+        <v>210</v>
+      </c>
+      <c r="D102" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103" s="3">
-        <v>33.130000000000003</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D104" s="3">
-        <v>31.52</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D105" s="3">
-        <v>7.62</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D106" s="3">
-        <v>28.55</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D107" s="3">
-        <v>27.02</v>
+        <v>28.55</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D108" s="3">
-        <v>3.17</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D109" s="3">
-        <v>8.76</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D110" s="3">
-        <v>18.010000000000002</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D111" s="3">
-        <v>5.46</v>
+        <v>18.010000000000002</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D112" s="7">
-        <v>36.6</v>
+        <v>230</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5.46</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D113" s="7">
-        <v>40.24</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D114" s="3">
-        <v>22.11</v>
+        <v>234</v>
+      </c>
+      <c r="D114" s="7">
+        <v>40.24</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D115" s="3">
-        <v>10.31</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D116" s="7">
-        <v>1.3</v>
+        <v>238</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D118" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D119" s="3">
         <v>7.06</v>
       </c>
-      <c r="E118" s="6">
-        <f>D118*[17]Main!$J$3</f>
+      <c r="E119" s="6">
+        <f>D119*[17]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F119" s="6">
         <f>[17]Main!$J$5-[17]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="G118" s="8">
-        <f t="shared" ref="G118:G119" si="2">+E118-F118</f>
+      <c r="G119" s="8">
+        <f t="shared" ref="G119:G120" si="2">+E119-F119</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H119" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="5" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D120" s="3">
         <v>14.68</v>
       </c>
-      <c r="E119" s="6">
-        <f>D119*[18]Main!$L$3</f>
+      <c r="E120" s="6">
+        <f>D120*[18]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F120" s="6">
         <f>[18]Main!$L$5-[18]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G120" s="8">
         <f t="shared" si="2"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H120" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="5" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D121" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E120" s="6">
-        <f>+[19]Main!$J$3*D120</f>
+      <c r="E121" s="6">
+        <f>+[19]Main!$J$3*D121</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="F120" s="8">
+      <c r="F121" s="8">
         <f>+[19]Main!$J$5-[19]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="G120" s="8">
-        <f>+E120-F120</f>
+      <c r="G121" s="8">
+        <f>+E121-F121</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H121" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D122" s="3">
         <v>7.57</v>
       </c>
-      <c r="E121" s="6">
-        <f>D121*[20]Main!$M$3</f>
+      <c r="E122" s="6">
+        <f>D122*[20]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F122" s="6">
         <f>[20]Main!$M$5-[20]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="G121" s="8">
-        <f t="shared" ref="G121:G126" si="3">+E121-F121</f>
+      <c r="G122" s="8">
+        <f t="shared" ref="G122:G127" si="3">+E122-F122</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D123" s="7">
         <v>0.7</v>
       </c>
-      <c r="E122" s="6">
-        <f>D122*[21]Main!$M$3</f>
+      <c r="E123" s="6">
+        <f>D123*[21]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F123" s="6">
         <f>[21]Main!$M$5-[21]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G123" s="8">
         <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="5" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <v>1.98</v>
       </c>
-      <c r="E123" s="6">
-        <f>D123*[22]Main!$N$3</f>
+      <c r="E124" s="6">
+        <f>D124*[22]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F124" s="6">
         <f>[22]Main!$N$5-[22]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G124" s="8">
         <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H124" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>0.62</v>
       </c>
-      <c r="E124" s="6">
-        <f>D124*[23]Main!$L$3</f>
+      <c r="E125" s="6">
+        <f>D125*[23]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F125" s="6">
         <f>[23]Main!$L$5-[23]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G125" s="8">
         <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D126" s="3">
         <v>6.12</v>
       </c>
-      <c r="E125" s="6">
-        <f>D125*[24]Main!$M$3</f>
+      <c r="E126" s="6">
+        <f>D126*[24]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F126" s="6">
         <f>[24]Main!$M$5-[24]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G126" s="8">
         <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="5" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D127" s="3">
         <v>0.98</v>
       </c>
-      <c r="E126" s="6">
-        <f>D126*[25]Main!$M$3</f>
+      <c r="E127" s="6">
+        <f>D127*[25]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F127" s="6">
         <f>[25]Main!$M$5-[25]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G127" s="8">
         <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D127" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D129" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -4579,17 +4608,17 @@
     <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B27" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B120" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B123" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B119" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B124" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B121" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B126" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B118" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B125" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B122" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B121" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B124" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B120" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B125" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B122" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B127" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B119" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B126" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B123" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71331BAC-EC87-4E0F-80DC-4677E095F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FAAE9-6186-487B-83D2-315A7E372D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="165" windowWidth="20310" windowHeight="14910" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="8100" yWindow="510" windowWidth="20310" windowHeight="14910" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="292">
   <si>
     <t>Exarta</t>
   </si>
@@ -879,6 +879,75 @@
   </si>
   <si>
     <t>BAYN</t>
+  </si>
+  <si>
+    <t>Samsung Biologics</t>
+  </si>
+  <si>
+    <t>207940 KS</t>
+  </si>
+  <si>
+    <t>WuXi Biologics</t>
+  </si>
+  <si>
+    <t>2269 HK</t>
+  </si>
+  <si>
+    <t>Jiangsu Hengrui</t>
+  </si>
+  <si>
+    <t>600276 CH</t>
+  </si>
+  <si>
+    <t>Biogen</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>Sun Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>SUNP</t>
+  </si>
+  <si>
+    <t>Zhangzhou Pientzehuang</t>
+  </si>
+  <si>
+    <t>600436 CH</t>
+  </si>
+  <si>
+    <t>Shionogi</t>
+  </si>
+  <si>
+    <t>4507 JP</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>Ono</t>
+  </si>
+  <si>
+    <t>4528 JP</t>
+  </si>
+  <si>
+    <t>Eisai</t>
+  </si>
+  <si>
+    <t>4523 JP</t>
+  </si>
+  <si>
+    <t>Kyowa Kirin</t>
+  </si>
+  <si>
+    <t>4151 JP</t>
+  </si>
+  <si>
+    <t>Chongqing Zhifei</t>
+  </si>
+  <si>
+    <t>300122 CH</t>
   </si>
 </sst>
 </file>
@@ -930,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,6 +1023,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,13 +2778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T129"/>
+  <dimension ref="B2:T141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2723,22 +2798,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3364,1217 +3439,1458 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>76.08</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D37" s="3">
         <v>165.45</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D38" s="3">
         <v>125.14</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D39" s="3">
         <v>10.46</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D41" s="3">
         <v>39.35</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D43" s="3">
         <v>132.13999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D44" s="6">
         <v>1978</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D45" s="6">
         <v>3060</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D46" s="3">
         <v>11.57</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D47" s="3">
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D48" s="3">
         <v>219.38</v>
       </c>
-      <c r="E43" s="6">
-        <f>D43*[16]Main!$K$3</f>
+      <c r="E48" s="6">
+        <f>D48*[16]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F48" s="6">
         <f>[16]Main!$K$5-[16]Main!$K$6</f>
         <v>3027</v>
       </c>
-      <c r="G43" s="6">
-        <f>E43-F43</f>
+      <c r="G48" s="6">
+        <f>E48-F48</f>
         <v>7437.4260000000013</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D49" s="3">
         <v>93.28</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D50" s="3">
         <v>142.91</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D53" s="3">
         <v>7.71</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="10" t="s">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D60" s="3">
         <v>11.04</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D61" s="3">
         <v>44.14</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D62" s="3">
         <v>35.26</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D63" s="3">
         <v>82.53</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D64" s="3">
         <v>24.78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="3">
-        <v>24.53</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="3">
-        <v>23.02</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="3">
-        <v>29.12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="3">
-        <v>33.17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="3">
-        <v>53.21</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="3">
-        <v>46.23</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="3">
-        <v>18.559999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="3">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="3">
-        <v>19.510000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="3">
-        <v>66.97</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D65" s="3">
-        <v>54.94</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D66" s="3">
-        <v>38.840000000000003</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D67" s="3">
-        <v>44.14</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D68" s="3">
-        <v>28.03</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D69" s="3">
-        <v>83.92</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D70" s="3">
-        <v>60.72</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="7">
-        <v>12.2</v>
+        <v>124</v>
+      </c>
+      <c r="D71" s="3">
+        <v>46.23</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2.37</v>
+        <v>126</v>
+      </c>
+      <c r="D72" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D73" s="3">
-        <v>42.98</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D74" s="3">
-        <v>23.92</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D75" s="3">
-        <v>53.29</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D76" s="3">
-        <v>74.459999999999994</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D77" s="3">
-        <v>48.63</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D78" s="3">
-        <v>27.73</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D79" s="3">
-        <v>10.119999999999999</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D80" s="3">
-        <v>35.770000000000003</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D81" s="3">
-        <v>14.27</v>
+        <v>83.92</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D82" s="3">
-        <v>7.36</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="3">
-        <v>9.35</v>
+        <v>148</v>
+      </c>
+      <c r="D83" s="7">
+        <v>12.2</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D84" s="3">
-        <v>43.98</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D85" s="3">
-        <v>5.18</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D86" s="3">
-        <v>53.72</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D87" s="3">
-        <v>21.04</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="7">
-        <v>20.7</v>
+        <v>158</v>
+      </c>
+      <c r="D88" s="3">
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D89" s="3">
-        <v>18.579999999999998</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D90" s="3">
-        <v>16.12</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D91" s="3">
-        <v>28.41</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D92" s="3">
-        <v>33.86</v>
+        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D93" s="3">
-        <v>38.35</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D94" s="3">
-        <v>9.6199999999999992</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D95" s="3">
-        <v>25.49</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D96" s="3">
-        <v>11.42</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D97" s="3">
-        <v>26.64</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D98" s="3">
-        <v>30.48</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D99" s="3">
-        <v>12.98</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D100" s="3">
-        <v>10.96</v>
+        <v>182</v>
+      </c>
+      <c r="D100" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D101" s="3">
-        <v>2.42</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="7">
-        <v>55.5</v>
+        <v>186</v>
+      </c>
+      <c r="D102" s="3">
+        <v>16.12</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D103" s="3">
-        <v>10.63</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D104" s="3">
-        <v>33.130000000000003</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D105" s="3">
-        <v>31.52</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D106" s="3">
-        <v>7.62</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D107" s="3">
-        <v>28.55</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D108" s="3">
-        <v>27.02</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D109" s="3">
-        <v>3.17</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D110" s="3">
-        <v>8.76</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D111" s="3">
-        <v>18.010000000000002</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="3">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D114" s="7">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="3">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" s="3">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="3">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" s="3">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" s="3">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121" s="3">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" s="3">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123" s="3">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D124" s="3">
         <v>5.46</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D125" s="7">
         <v>36.6</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D126" s="7">
         <v>40.24</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D127" s="3">
         <v>22.11</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="1" t="s">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D128" s="3">
         <v>10.31</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D129" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D130" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="5" t="s">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D131" s="3">
         <v>7.06</v>
       </c>
-      <c r="E119" s="6">
-        <f>D119*[17]Main!$J$3</f>
+      <c r="E131" s="6">
+        <f>D131*[17]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F131" s="6">
         <f>[17]Main!$J$5-[17]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="G119" s="8">
-        <f t="shared" ref="G119:G120" si="2">+E119-F119</f>
+      <c r="G131" s="8">
+        <f t="shared" ref="G131:G132" si="2">+E131-F131</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="5" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D132" s="3">
         <v>14.68</v>
       </c>
-      <c r="E120" s="6">
-        <f>D120*[18]Main!$L$3</f>
+      <c r="E132" s="6">
+        <f>D132*[18]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F132" s="6">
         <f>[18]Main!$L$5-[18]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G132" s="8">
         <f t="shared" si="2"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D133" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E121" s="6">
-        <f>+[19]Main!$J$3*D121</f>
+      <c r="E133" s="6">
+        <f>+[19]Main!$J$3*D133</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F133" s="8">
         <f>+[19]Main!$J$5-[19]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="G121" s="8">
-        <f>+E121-F121</f>
+      <c r="G133" s="8">
+        <f>+E133-F133</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D134" s="3">
         <v>7.57</v>
       </c>
-      <c r="E122" s="6">
-        <f>D122*[20]Main!$M$3</f>
+      <c r="E134" s="6">
+        <f>D134*[20]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F134" s="6">
         <f>[20]Main!$M$5-[20]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="G122" s="8">
-        <f t="shared" ref="G122:G127" si="3">+E122-F122</f>
+      <c r="G134" s="8">
+        <f t="shared" ref="G134:G139" si="3">+E134-F134</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="5" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D135" s="7">
         <v>0.7</v>
       </c>
-      <c r="E123" s="6">
-        <f>D123*[21]Main!$M$3</f>
+      <c r="E135" s="6">
+        <f>D135*[21]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F135" s="6">
         <f>[21]Main!$M$5-[21]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G135" s="8">
         <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D136" s="3">
         <v>1.98</v>
       </c>
-      <c r="E124" s="6">
-        <f>D124*[22]Main!$N$3</f>
+      <c r="E136" s="6">
+        <f>D136*[22]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F136" s="6">
         <f>[22]Main!$N$5-[22]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G136" s="8">
         <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D137" s="3">
         <v>0.62</v>
       </c>
-      <c r="E125" s="6">
-        <f>D125*[23]Main!$L$3</f>
+      <c r="E137" s="6">
+        <f>D137*[23]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F137" s="6">
         <f>[23]Main!$L$5-[23]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G137" s="8">
         <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="5" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D138" s="3">
         <v>6.12</v>
       </c>
-      <c r="E126" s="6">
-        <f>D126*[24]Main!$M$3</f>
+      <c r="E138" s="6">
+        <f>D138*[24]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F138" s="6">
         <f>[24]Main!$M$5-[24]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G138" s="8">
         <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="5" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D139" s="3">
         <v>0.98</v>
       </c>
-      <c r="E127" s="6">
-        <f>D127*[25]Main!$M$3</f>
+      <c r="E139" s="6">
+        <f>D139*[25]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F139" s="6">
         <f>[25]Main!$M$5-[25]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G139" s="8">
         <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D140" s="3">
         <v>0.61</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D141" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -4608,17 +4924,17 @@
     <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B27" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B121" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B124" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B120" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B125" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B122" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B127" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B119" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B126" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B123" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B133" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B136" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B132" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B137" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B134" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B139" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B131" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B138" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B135" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="B43" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FAAE9-6186-487B-83D2-315A7E372D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA0B0D3-E133-4C11-BAE5-652A1E23B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="510" windowWidth="20310" windowHeight="14910" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="7770" yWindow="390" windowWidth="20745" windowHeight="14490" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="292">
   <si>
     <t>Exarta</t>
   </si>
@@ -1987,6 +1988,81 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Stribild"/>
+      <sheetName val="Truvada"/>
+      <sheetName val="Viread"/>
+      <sheetName val="Ranexa"/>
+      <sheetName val="Atripla"/>
+      <sheetName val="IMS Monthly"/>
+      <sheetName val="IMS"/>
+      <sheetName val="Rx"/>
+      <sheetName val="HBV"/>
+      <sheetName val="darusentan"/>
+      <sheetName val="Letairis"/>
+      <sheetName val="Hepsera"/>
+      <sheetName val="HIV"/>
+      <sheetName val="GS 9137"/>
+      <sheetName val="GS 9132"/>
+      <sheetName val="GS9190"/>
+      <sheetName val="sofosbuvir"/>
+      <sheetName val="idelasilib"/>
+      <sheetName val="GS 9451"/>
+      <sheetName val="Cayston"/>
+      <sheetName val="Tamiflu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>1262</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>6752</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>26208</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2781,10 +2857,10 @@
   <dimension ref="B2:T141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3176,7 +3252,7 @@
         <v>-25217</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G18" si="1">E15-F15</f>
+        <f t="shared" ref="G15:G19" si="1">E15-F15</f>
         <v>128243</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3237,65 +3313,80 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7">
+        <v>60.9</v>
+      </c>
+      <c r="E18" s="6">
+        <f>+D18*[26]Main!$J$3</f>
+        <v>76855.8</v>
+      </c>
+      <c r="F18" s="6">
+        <f>+[26]Main!$J$5-[26]Main!$J$6</f>
+        <v>-19456</v>
+      </c>
+      <c r="G18" s="6">
+        <f>E18-F18</f>
+        <v>96311.8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>175.1</v>
       </c>
-      <c r="E18" s="6">
-        <f>D18*[14]Main!$J$3*EUR</f>
+      <c r="E19" s="6">
+        <f>D19*[14]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <f>([14]Main!$J$5-[14]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>86834.293029173947</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>255.99</v>
       </c>
-      <c r="E19" s="6">
-        <f>D19*[15]Main!$J$3*AUD</f>
+      <c r="E20" s="6">
+        <f>D20*[15]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f>[15]Main!$J$5-[15]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
-      <c r="G19" s="6">
-        <f>E19-F19</f>
+      <c r="G20" s="6">
+        <f>E20-F20</f>
         <v>84029.90898148845</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3">
-        <v>58.53</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
@@ -4908,14 +4999,14 @@
     <hyperlink ref="B11" r:id="rId6" xr:uid="{8513C491-1620-4390-AB90-9384BB1A043B}"/>
     <hyperlink ref="B15" r:id="rId7" xr:uid="{83DA0EB3-074A-48C7-ADA5-0A0973E8354D}"/>
     <hyperlink ref="B6" r:id="rId8" xr:uid="{615921E7-8A8A-4F41-A8F3-1AF78A43F1AC}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{A38EC1E4-9170-422B-A9F5-3B6EB77DF40A}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{A38EC1E4-9170-422B-A9F5-3B6EB77DF40A}"/>
     <hyperlink ref="B9" r:id="rId10" xr:uid="{CCC45DFB-BF73-4A15-8527-F4C3C617F472}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{FC86E1B4-4BA7-43A8-8FCA-CC27867A7922}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{FC86E1B4-4BA7-43A8-8FCA-CC27867A7922}"/>
     <hyperlink ref="B12" r:id="rId12" xr:uid="{F9D09B0D-FACB-4CCA-872E-286E56965815}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{5A59EF45-A9EA-44F3-BECB-EFED8413DCF6}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{316E9202-338F-4301-AEBE-A9FA398A76CC}"/>
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B21" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
     <hyperlink ref="B22" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA0B0D3-E133-4C11-BAE5-652A1E23B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7799B6-6E59-4BB6-B0BC-7CAE08AF29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="390" windowWidth="20745" windowHeight="14490" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9030" yWindow="390" windowWidth="20745" windowHeight="14490" activeTab="2" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="297">
   <si>
     <t>Exarta</t>
   </si>
@@ -949,6 +950,21 @@
   </si>
   <si>
     <t>300122 CH</t>
+  </si>
+  <si>
+    <t>Affilogic</t>
+  </si>
+  <si>
+    <t>Faeth Therapeutics</t>
+  </si>
+  <si>
+    <t>Manifold Bio</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>HQ</t>
   </si>
 </sst>
 </file>
@@ -1582,421 +1598,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>434.77787799999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1403</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>10631</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>456.20380299999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1808.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5806.9000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Remodulin"/>
-      <sheetName val="Tyvaso"/>
-      <sheetName val="Oral"/>
-      <sheetName val="Adcirca"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>47.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>3827</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="CPP-115 Model"/>
-      <sheetName val="LEMS"/>
-      <sheetName val="Firdapse"/>
-      <sheetName val="Ampyra"/>
-      <sheetName val="CPP-115"/>
-      <sheetName val="CPP-109"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>102.780151</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>197.79600000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Humira"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>1778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>7832</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>73474</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Master Pipeline"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -2023,7 +1624,7 @@
       <sheetName val="Tamiflu"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
@@ -2041,28 +1642,476 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>434.77787799999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1403</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>10631</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>456.20380299999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1808.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>5806.9000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Remodulin"/>
+      <sheetName val="Tyvaso"/>
+      <sheetName val="Oral"/>
+      <sheetName val="Adcirca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>47.7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3827</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="CPP-115 Model"/>
+      <sheetName val="LEMS"/>
+      <sheetName val="Firdapse"/>
+      <sheetName val="Ampyra"/>
+      <sheetName val="CPP-115"/>
+      <sheetName val="CPP-109"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>102.780151</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>197.79600000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>40.004356999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>277.88299999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Humira"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>1778</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>7832</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>73474</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="generic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="3">
+          <cell r="J3">
+            <v>64.344476</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>111.794</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>19.475999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>44.710678000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>120.43700000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>184.19892899999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>67.233999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>126.736</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>20.079526999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>16.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0.69799999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>48.69059</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18.687999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>5.4249999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>106.521818</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>965.298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>189.16800000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2856,11 +2905,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
   <dimension ref="B2:T141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3322,11 +3371,11 @@
         <v>60.9</v>
       </c>
       <c r="E18" s="6">
-        <f>+D18*[26]Main!$J$3</f>
+        <f>+D18*[14]Main!$J$3</f>
         <v>76855.8</v>
       </c>
       <c r="F18" s="6">
-        <f>+[26]Main!$J$5-[26]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>-19456</v>
       </c>
       <c r="G18" s="6">
@@ -3348,11 +3397,11 @@
         <v>175.1</v>
       </c>
       <c r="E19" s="6">
-        <f>D19*[14]Main!$J$3*EUR</f>
+        <f>D19*[15]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
       <c r="F19" s="6">
-        <f>([14]Main!$J$5-[14]Main!$J$6)*EUR</f>
+        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
       <c r="G19" s="6">
@@ -3374,11 +3423,11 @@
         <v>255.99</v>
       </c>
       <c r="E20" s="6">
-        <f>D20*[15]Main!$J$3*AUD</f>
+        <f>D20*[16]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
       <c r="F20" s="6">
-        <f>[15]Main!$J$5-[15]Main!$J$6</f>
+        <f>[16]Main!$J$5-[16]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
       <c r="G20" s="6">
@@ -3752,11 +3801,11 @@
         <v>219.38</v>
       </c>
       <c r="E48" s="6">
-        <f>D48*[16]Main!$K$3</f>
+        <f>D48*[17]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="F48" s="6">
-        <f>[16]Main!$K$5-[16]Main!$K$6</f>
+        <f>[17]Main!$K$5-[17]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="G48" s="6">
@@ -3768,53 +3817,59 @@
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>95</v>
+      <c r="B49" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="3">
-        <v>93.28</v>
+        <v>140</v>
+      </c>
+      <c r="D49" s="7">
+        <v>57</v>
+      </c>
+      <c r="E49" s="6">
+        <f>+D49*[27]Main!$L$3</f>
+        <v>6071.7436259999995</v>
+      </c>
+      <c r="F49" s="6">
+        <f>+[27]Main!$L$5-[27]Main!$L$6</f>
+        <v>776.13</v>
+      </c>
+      <c r="G49" s="6">
+        <f>+E49-F49</f>
+        <v>5295.6136259999994</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="3">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <v>142.91</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3830,42 +3885,42 @@
       <c r="T52" s="12"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -3882,10 +3937,10 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -3902,10 +3957,10 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
@@ -3922,10 +3977,10 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -3942,230 +3997,239 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="3">
-        <v>11.04</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61" s="3">
-        <v>44.14</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="3">
-        <v>35.26</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="3">
-        <v>82.53</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" s="3">
-        <v>24.78</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D65" s="3">
-        <v>4.72</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" s="3">
-        <v>24.53</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67" s="3">
-        <v>23.02</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D68" s="3">
-        <v>29.12</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D69" s="3">
-        <v>33.17</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70" s="3">
-        <v>53.21</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3">
-        <v>46.23</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="7">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="D72" s="3">
+        <v>46.23</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="3">
-        <v>18.559999999999999</v>
+        <v>126</v>
+      </c>
+      <c r="D73" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D74" s="3">
-        <v>15.75</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D75" s="3">
-        <v>19.510000000000002</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D76" s="3">
-        <v>66.97</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D77" s="3">
-        <v>54.94</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D78" s="3">
-        <v>38.840000000000003</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D79" s="3">
-        <v>44.14</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
@@ -4740,11 +4804,11 @@
         <v>7.06</v>
       </c>
       <c r="E131" s="6">
-        <f>D131*[17]Main!$J$3</f>
+        <f>D131*[18]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="F131" s="6">
-        <f>[17]Main!$J$5-[17]Main!$J$6</f>
+        <f>[18]Main!$J$5-[18]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="G131" s="8">
@@ -4766,11 +4830,11 @@
         <v>14.68</v>
       </c>
       <c r="E132" s="6">
-        <f>D132*[18]Main!$L$3</f>
+        <f>D132*[19]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="F132" s="6">
-        <f>[18]Main!$L$5-[18]Main!$L$6</f>
+        <f>[19]Main!$L$5-[19]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="G132" s="8">
@@ -4792,11 +4856,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="E133" s="6">
-        <f>+[19]Main!$J$3*D133</f>
+        <f>+[20]Main!$J$3*D133</f>
         <v>312.71415336000001</v>
       </c>
       <c r="F133" s="8">
-        <f>+[19]Main!$J$5-[19]Main!$J$6</f>
+        <f>+[20]Main!$J$5-[20]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="G133" s="8">
@@ -4818,11 +4882,11 @@
         <v>7.57</v>
       </c>
       <c r="E134" s="6">
-        <f>D134*[20]Main!$M$3</f>
+        <f>D134*[21]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="F134" s="6">
-        <f>[20]Main!$M$5-[20]Main!$M$6</f>
+        <f>[21]Main!$M$5-[21]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="G134" s="8">
@@ -4844,11 +4908,11 @@
         <v>0.7</v>
       </c>
       <c r="E135" s="6">
-        <f>D135*[21]Main!$M$3</f>
+        <f>D135*[22]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="F135" s="6">
-        <f>[21]Main!$M$5-[21]Main!$M$6</f>
+        <f>[22]Main!$M$5-[22]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="G135" s="8">
@@ -4870,11 +4934,11 @@
         <v>1.98</v>
       </c>
       <c r="E136" s="6">
-        <f>D136*[22]Main!$N$3</f>
+        <f>D136*[23]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="F136" s="6">
-        <f>[22]Main!$N$5-[22]Main!$N$6</f>
+        <f>[23]Main!$N$5-[23]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="G136" s="8">
@@ -4896,11 +4960,11 @@
         <v>0.62</v>
       </c>
       <c r="E137" s="6">
-        <f>D137*[23]Main!$L$3</f>
+        <f>D137*[24]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="F137" s="6">
-        <f>[23]Main!$L$5-[23]Main!$L$6</f>
+        <f>[24]Main!$L$5-[24]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="G137" s="8">
@@ -4922,11 +4986,11 @@
         <v>6.12</v>
       </c>
       <c r="E138" s="6">
-        <f>D138*[24]Main!$M$3</f>
+        <f>D138*[25]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="F138" s="6">
-        <f>[24]Main!$M$5-[24]Main!$M$6</f>
+        <f>[25]Main!$M$5-[25]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="G138" s="8">
@@ -4948,11 +5012,11 @@
         <v>0.98</v>
       </c>
       <c r="E139" s="6">
-        <f>D139*[25]Main!$M$3</f>
+        <f>D139*[26]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="F139" s="6">
-        <f>[25]Main!$M$5-[25]Main!$M$6</f>
+        <f>[26]Main!$M$5-[26]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="G139" s="8">
@@ -5026,6 +5090,7 @@
     <hyperlink ref="B135" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5088,28 +5153,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7799B6-6E59-4BB6-B0BC-7CAE08AF29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF9B4F-5C24-4CE2-8912-708C5CEE0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="390" windowWidth="20745" windowHeight="14490" activeTab="2" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21660" windowHeight="9585" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,6 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
-    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="299">
   <si>
     <t>Exarta</t>
   </si>
@@ -965,6 +964,12 @@
   </si>
   <si>
     <t>HQ</t>
+  </si>
+  <si>
+    <t>Avista Therapeutics</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -1775,6 +1780,39 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>106.521818</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>965.298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>189.16800000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="CPP-115 Model"/>
       <sheetName val="LEMS"/>
@@ -1808,35 +1846,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1880,31 +1889,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="generic"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2079,39 +2082,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Empaveli"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>106.521818</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>965.298</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>189.16800000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2905,11 +2875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
   <dimension ref="B2:T141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3827,11 +3797,11 @@
         <v>57</v>
       </c>
       <c r="E49" s="6">
-        <f>+D49*[27]Main!$L$3</f>
+        <f>+D49*[18]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="F49" s="6">
-        <f>+[27]Main!$L$5-[27]Main!$L$6</f>
+        <f>+[18]Main!$L$5-[18]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="G49" s="6">
@@ -4804,11 +4774,11 @@
         <v>7.06</v>
       </c>
       <c r="E131" s="6">
-        <f>D131*[18]Main!$J$3</f>
+        <f>D131*[19]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="F131" s="6">
-        <f>[18]Main!$J$5-[18]Main!$J$6</f>
+        <f>[19]Main!$J$5-[19]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="G131" s="8">
@@ -4830,11 +4800,11 @@
         <v>14.68</v>
       </c>
       <c r="E132" s="6">
-        <f>D132*[19]Main!$L$3</f>
+        <f>D132*[20]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="F132" s="6">
-        <f>[19]Main!$L$5-[19]Main!$L$6</f>
+        <f>[20]Main!$L$5-[20]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="G132" s="8">
@@ -4855,17 +4825,11 @@
       <c r="D133" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E133" s="6">
-        <f>+[20]Main!$J$3*D133</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="F133" s="8">
-        <f>+[20]Main!$J$5-[20]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="8"/>
       <c r="G133" s="8">
         <f>+E133-F133</f>
-        <v>220.39615336000003</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>18</v>
@@ -5153,18 +5117,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5175,22 +5148,22 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>294</v>
       </c>
@@ -5201,7 +5174,15 @@
         <v>295</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{65B99B04-A55D-44D7-8C7C-94C201F1ED0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFF9B4F-5C24-4CE2-8912-708C5CEE0E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB24F7BE-8EA0-4880-B6A1-F5ACCA7019BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21660" windowHeight="9585" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="12270" yWindow="3885" windowWidth="15675" windowHeight="10425" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -2082,6 +2083,41 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>64.344476</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>111.794</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>19.475999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2876,10 +2912,10 @@
   <dimension ref="B2:T141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G133" sqref="G133"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4825,11 +4861,17 @@
       <c r="D133" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="8"/>
+      <c r="E133" s="6">
+        <f>D133*[27]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="F133" s="8">
+        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
+        <v>92.317999999999998</v>
+      </c>
       <c r="G133" s="8">
         <f>+E133-F133</f>
-        <v>0</v>
+        <v>220.39615336000003</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>18</v>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB24F7BE-8EA0-4880-B6A1-F5ACCA7019BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED8376-D2B6-4340-9566-F6DF44209013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="3885" windowWidth="15675" windowHeight="10425" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="7440" yWindow="2430" windowWidth="20310" windowHeight="9705" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,8 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
   <si>
     <t>Exarta</t>
   </si>
@@ -971,6 +973,9 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>InnoRNA</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1055,6 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1919,25 +1925,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1953,17 +1965,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>184.19892899999999</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>67.233999999999995</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>126.736</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1981,18 +1993,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2010,18 +2022,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2039,18 +2051,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2069,12 +2081,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>21.362773000000001</v>
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>55.28</v>
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -2093,31 +2105,85 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
+          <cell r="M3">
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
+          <cell r="M5">
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>102.46286600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>6252.2330000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>608.99199999999996</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.326908</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2912,10 +2978,10 @@
   <dimension ref="B2:T141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3445,7 +3511,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3457,192 +3523,198 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3">
-        <v>71.27</v>
+        <v>10.46</v>
+      </c>
+      <c r="E22" s="6">
+        <f>D22*[29]Main!$M$3</f>
+        <v>12680.93945768</v>
+      </c>
+      <c r="F22" s="6">
+        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <v>-18665.5</v>
+      </c>
+      <c r="G22" s="6">
+        <f>E22-F22</f>
+        <v>31346.43945768</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3">
-        <v>580.95000000000005</v>
+        <v>71.27</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3">
-        <v>128.03</v>
+        <v>580.95000000000005</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3311</v>
+        <v>58</v>
+      </c>
+      <c r="D25" s="3">
+        <v>128.03</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="3">
-        <v>137.09</v>
+        <v>60</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3311</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3">
-        <v>28.54</v>
+        <v>137.09</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>13.12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="3">
-        <v>349.96</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>349.96</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="3">
-        <v>63.83</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3">
+        <v>63.83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>4360</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="6"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <v>76.08</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -3658,36 +3730,45 @@
       <c r="T36" s="11"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="3">
-        <v>165.45</v>
-      </c>
+      <c r="B37" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3">
-        <v>125.14</v>
+        <v>165.45</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3">
-        <v>10.46</v>
+        <v>125.14</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
@@ -3742,7 +3823,7 @@
       <c r="T42" s="11"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3750,6 +3831,21 @@
       </c>
       <c r="D43" s="3">
         <v>132.13999999999999</v>
+      </c>
+      <c r="E43" s="6">
+        <f>D43*[28]Main!$L$3</f>
+        <v>13539.443113239999</v>
+      </c>
+      <c r="F43" s="6">
+        <f>[28]Main!$L$5-[28]Main!$L$6</f>
+        <v>5643.241</v>
+      </c>
+      <c r="G43" s="6">
+        <f>E43-F43</f>
+        <v>7896.2021132399987</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
@@ -4862,11 +4958,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="E133" s="6">
-        <f>D133*[27]Main!$J$3</f>
+        <f>D133*[21]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="F133" s="8">
-        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
+        <f>+[21]Main!$J$5-[21]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="G133" s="8">
@@ -4888,11 +4984,11 @@
         <v>7.57</v>
       </c>
       <c r="E134" s="6">
-        <f>D134*[21]Main!$M$3</f>
+        <f>D134*[22]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="F134" s="6">
-        <f>[21]Main!$M$5-[21]Main!$M$6</f>
+        <f>[22]Main!$M$5-[22]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="G134" s="8">
@@ -4914,11 +5010,11 @@
         <v>0.7</v>
       </c>
       <c r="E135" s="6">
-        <f>D135*[22]Main!$M$3</f>
+        <f>D135*[23]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="F135" s="6">
-        <f>[22]Main!$M$5-[22]Main!$M$6</f>
+        <f>[23]Main!$M$5-[23]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="G135" s="8">
@@ -4940,11 +5036,11 @@
         <v>1.98</v>
       </c>
       <c r="E136" s="6">
-        <f>D136*[23]Main!$N$3</f>
+        <f>D136*[24]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="F136" s="6">
-        <f>[23]Main!$N$5-[23]Main!$N$6</f>
+        <f>[24]Main!$N$5-[24]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="G136" s="8">
@@ -4966,11 +5062,11 @@
         <v>0.62</v>
       </c>
       <c r="E137" s="6">
-        <f>D137*[24]Main!$L$3</f>
+        <f>D137*[25]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="F137" s="6">
-        <f>[24]Main!$L$5-[24]Main!$L$6</f>
+        <f>[25]Main!$L$5-[25]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="G137" s="8">
@@ -4992,11 +5088,11 @@
         <v>6.12</v>
       </c>
       <c r="E138" s="6">
-        <f>D138*[25]Main!$M$3</f>
+        <f>D138*[26]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="F138" s="6">
-        <f>[25]Main!$M$5-[25]Main!$M$6</f>
+        <f>[26]Main!$M$5-[26]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="G138" s="8">
@@ -5018,11 +5114,11 @@
         <v>0.98</v>
       </c>
       <c r="E139" s="6">
-        <f>D139*[26]Main!$M$3</f>
+        <f>D139*[27]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="F139" s="6">
-        <f>[26]Main!$M$5-[26]Main!$M$6</f>
+        <f>[27]Main!$M$5-[27]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="G139" s="8">
@@ -5078,13 +5174,13 @@
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B21" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B27" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
     <hyperlink ref="B133" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
     <hyperlink ref="B136" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
     <hyperlink ref="B132" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
@@ -5097,6 +5193,8 @@
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="B43" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5159,13 +5257,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5221,6 +5319,11 @@
         <v>297</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{65B99B04-A55D-44D7-8C7C-94C201F1ED0E}"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED8376-D2B6-4340-9566-F6DF44209013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2555DDB-7464-406B-9671-003AD79F7C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2430" windowWidth="20310" windowHeight="9705" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
     <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="302">
   <si>
     <t>Exarta</t>
   </si>
@@ -976,6 +977,12 @@
   </si>
   <si>
     <t>InnoRNA</t>
+  </si>
+  <si>
+    <t>Veru</t>
+  </si>
+  <si>
+    <t>VERU</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1064,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1748,6 +1755,66 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.326908</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>102.46286600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>6252.2330000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>608.99199999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Remodulin"/>
       <sheetName val="Tyvaso"/>
@@ -1777,82 +1844,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Empaveli"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>106.521818</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>965.298</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>189.16800000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="CPP-115 Model"/>
-      <sheetName val="LEMS"/>
-      <sheetName val="Firdapse"/>
-      <sheetName val="Ampyra"/>
-      <sheetName val="CPP-115"/>
-      <sheetName val="CPP-109"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>102.780151</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>197.79600000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1896,25 +1887,29 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>40.004356999999999</v>
+            <v>106.521818</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>277.88299999999998</v>
+            <v>965.298</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
+            <v>189.16800000000001</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1926,30 +1921,38 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
+      <sheetName val="CPP-115 Model"/>
+      <sheetName val="LEMS"/>
+      <sheetName val="Firdapse"/>
+      <sheetName val="Ampyra"/>
+      <sheetName val="CPP-115"/>
+      <sheetName val="CPP-109"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>64.344476</v>
+            <v>102.780151</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>111.794</v>
+            <v>197.79600000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>19.475999999999999</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1964,17 +1967,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
@@ -1989,25 +1992,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2022,18 +2031,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2051,18 +2060,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2080,18 +2089,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2109,18 +2118,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2134,27 +2143,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>102.46286600000001</v>
+          <cell r="M3">
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>6252.2330000000002</v>
+          <cell r="M5">
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>608.99199999999996</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2170,17 +2177,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>1212.326908</v>
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>752.4</v>
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>19417.900000000001</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2243,6 +2250,53 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Trikafta"/>
+      <sheetName val="Kalydeco"/>
+      <sheetName val="Symdeko"/>
+      <sheetName val="CTX001"/>
+      <sheetName val="VX-880"/>
+      <sheetName val="inaxaplin"/>
+      <sheetName val="IP"/>
+      <sheetName val="Compounds"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>255.75596100000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>8238.1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2975,13 +3029,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T141"/>
+  <dimension ref="B2:T142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2995,22 +3049,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3511,7 +3565,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3519,6 +3573,21 @@
       </c>
       <c r="D21" s="3">
         <v>263.08999999999997</v>
+      </c>
+      <c r="E21" s="6">
+        <f>+D21*[30]Main!$M$3</f>
+        <v>67286.835779489993</v>
+      </c>
+      <c r="F21" s="6">
+        <f>+[30]Main!$M$5-[30]Main!$M$6</f>
+        <v>8238.1</v>
+      </c>
+      <c r="G21" s="6">
+        <f>E21-F21</f>
+        <v>59048.735779489994</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
@@ -3532,11 +3601,11 @@
         <v>10.46</v>
       </c>
       <c r="E22" s="6">
-        <f>D22*[29]Main!$M$3</f>
+        <f>D22*[17]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="F22" s="6">
-        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <f>[17]Main!$M$5-[17]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="G22" s="6">
@@ -3833,11 +3902,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="E43" s="6">
-        <f>D43*[28]Main!$L$3</f>
+        <f>D43*[18]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="F43" s="6">
-        <f>[28]Main!$L$5-[28]Main!$L$6</f>
+        <f>[18]Main!$L$5-[18]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="G43" s="6">
@@ -3903,11 +3972,11 @@
         <v>219.38</v>
       </c>
       <c r="E48" s="6">
-        <f>D48*[17]Main!$K$3</f>
+        <f>D48*[19]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="F48" s="6">
-        <f>[17]Main!$K$5-[17]Main!$K$6</f>
+        <f>[19]Main!$K$5-[19]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="G48" s="6">
@@ -3929,11 +3998,11 @@
         <v>57</v>
       </c>
       <c r="E49" s="6">
-        <f>+D49*[18]Main!$L$3</f>
+        <f>+D49*[20]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="F49" s="6">
-        <f>+[18]Main!$L$5-[18]Main!$L$6</f>
+        <f>+[20]Main!$L$5-[20]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="G49" s="6">
@@ -4906,11 +4975,11 @@
         <v>7.06</v>
       </c>
       <c r="E131" s="6">
-        <f>D131*[19]Main!$J$3</f>
+        <f>D131*[21]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="F131" s="6">
-        <f>[19]Main!$J$5-[19]Main!$J$6</f>
+        <f>[21]Main!$J$5-[21]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="G131" s="8">
@@ -4932,11 +5001,11 @@
         <v>14.68</v>
       </c>
       <c r="E132" s="6">
-        <f>D132*[20]Main!$L$3</f>
+        <f>D132*[22]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="F132" s="6">
-        <f>[20]Main!$L$5-[20]Main!$L$6</f>
+        <f>[22]Main!$L$5-[22]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="G132" s="8">
@@ -4958,11 +5027,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="E133" s="6">
-        <f>D133*[21]Main!$J$3</f>
+        <f>D133*[23]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="F133" s="8">
-        <f>+[21]Main!$J$5-[21]Main!$J$6</f>
+        <f>+[23]Main!$J$5-[23]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="G133" s="8">
@@ -4984,11 +5053,11 @@
         <v>7.57</v>
       </c>
       <c r="E134" s="6">
-        <f>D134*[22]Main!$M$3</f>
+        <f>D134*[24]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="F134" s="6">
-        <f>[22]Main!$M$5-[22]Main!$M$6</f>
+        <f>[24]Main!$M$5-[24]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="G134" s="8">
@@ -5010,11 +5079,11 @@
         <v>0.7</v>
       </c>
       <c r="E135" s="6">
-        <f>D135*[23]Main!$M$3</f>
+        <f>D135*[25]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="F135" s="6">
-        <f>[23]Main!$M$5-[23]Main!$M$6</f>
+        <f>[25]Main!$M$5-[25]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="G135" s="8">
@@ -5036,11 +5105,11 @@
         <v>1.98</v>
       </c>
       <c r="E136" s="6">
-        <f>D136*[24]Main!$N$3</f>
+        <f>D136*[26]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="F136" s="6">
-        <f>[24]Main!$N$5-[24]Main!$N$6</f>
+        <f>[26]Main!$N$5-[26]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="G136" s="8">
@@ -5062,11 +5131,11 @@
         <v>0.62</v>
       </c>
       <c r="E137" s="6">
-        <f>D137*[25]Main!$L$3</f>
+        <f>D137*[27]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="F137" s="6">
-        <f>[25]Main!$L$5-[25]Main!$L$6</f>
+        <f>[27]Main!$L$5-[27]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="G137" s="8">
@@ -5088,11 +5157,11 @@
         <v>6.12</v>
       </c>
       <c r="E138" s="6">
-        <f>D138*[26]Main!$M$3</f>
+        <f>D138*[28]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="F138" s="6">
-        <f>[26]Main!$M$5-[26]Main!$M$6</f>
+        <f>[28]Main!$M$5-[28]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="G138" s="8">
@@ -5114,11 +5183,11 @@
         <v>0.98</v>
       </c>
       <c r="E139" s="6">
-        <f>D139*[27]Main!$M$3</f>
+        <f>D139*[29]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="F139" s="6">
-        <f>[27]Main!$M$5-[27]Main!$M$6</f>
+        <f>[29]Main!$M$5-[29]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="G139" s="8">
@@ -5149,6 +5218,14 @@
       </c>
       <c r="D141" s="3">
         <v>5.55</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5197,6 +5274,7 @@
     <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2555DDB-7464-406B-9671-003AD79F7C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE34F4A-6A38-478C-A9CD-CED4600B2E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
@@ -1755,6 +1755,59 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Trikafta"/>
+      <sheetName val="Orkambi"/>
+      <sheetName val="Symdeko"/>
+      <sheetName val="Kalydeco"/>
+      <sheetName val="CTX001"/>
+      <sheetName val="VX-880"/>
+      <sheetName val="VX-121"/>
+      <sheetName val="VX-548"/>
+      <sheetName val="inaxaplin"/>
+      <sheetName val="IP"/>
+      <sheetName val="Compounds"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>255.75596100000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>8238.1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1779,7 +1832,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1805,45 +1858,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Remodulin"/>
-      <sheetName val="Tyvaso"/>
-      <sheetName val="Oral"/>
-      <sheetName val="Adcirca"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>47.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>3827</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1887,6 +1901,45 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Remodulin"/>
+      <sheetName val="Tyvaso"/>
+      <sheetName val="Oral"/>
+      <sheetName val="Adcirca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>47.7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3827</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Empaveli"/>
       <sheetName val="Model"/>
     </sheetNames>
@@ -1915,7 +1968,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1958,7 +2011,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1987,7 +2040,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2017,35 +2070,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2061,17 +2085,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>184.19892899999999</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>67.233999999999995</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>126.736</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2089,18 +2113,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2118,18 +2142,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2147,18 +2171,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2177,12 +2201,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>21.362773000000001</v>
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>55.28</v>
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -2260,26 +2284,17 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Trikafta"/>
-      <sheetName val="Kalydeco"/>
-      <sheetName val="Symdeko"/>
-      <sheetName val="CTX001"/>
-      <sheetName val="VX-880"/>
-      <sheetName val="inaxaplin"/>
-      <sheetName val="IP"/>
-      <sheetName val="Compounds"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>255.75596100000001</v>
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>8238.1</v>
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
@@ -2288,15 +2303,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3035,7 +3041,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3575,11 +3581,11 @@
         <v>263.08999999999997</v>
       </c>
       <c r="E21" s="6">
-        <f>+D21*[30]Main!$M$3</f>
+        <f>+D21*[17]Main!$M$3</f>
         <v>67286.835779489993</v>
       </c>
       <c r="F21" s="6">
-        <f>+[30]Main!$M$5-[30]Main!$M$6</f>
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>8238.1</v>
       </c>
       <c r="G21" s="6">
@@ -3601,11 +3607,11 @@
         <v>10.46</v>
       </c>
       <c r="E22" s="6">
-        <f>D22*[17]Main!$M$3</f>
+        <f>D22*[18]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="F22" s="6">
-        <f>[17]Main!$M$5-[17]Main!$M$6</f>
+        <f>[18]Main!$M$5-[18]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="G22" s="6">
@@ -3902,11 +3908,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="E43" s="6">
-        <f>D43*[18]Main!$L$3</f>
+        <f>D43*[19]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="F43" s="6">
-        <f>[18]Main!$L$5-[18]Main!$L$6</f>
+        <f>[19]Main!$L$5-[19]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="G43" s="6">
@@ -3972,11 +3978,11 @@
         <v>219.38</v>
       </c>
       <c r="E48" s="6">
-        <f>D48*[19]Main!$K$3</f>
+        <f>D48*[20]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="F48" s="6">
-        <f>[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>[20]Main!$K$5-[20]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="G48" s="6">
@@ -3998,11 +4004,11 @@
         <v>57</v>
       </c>
       <c r="E49" s="6">
-        <f>+D49*[20]Main!$L$3</f>
+        <f>+D49*[21]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="F49" s="6">
-        <f>+[20]Main!$L$5-[20]Main!$L$6</f>
+        <f>+[21]Main!$L$5-[21]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="G49" s="6">
@@ -4975,11 +4981,11 @@
         <v>7.06</v>
       </c>
       <c r="E131" s="6">
-        <f>D131*[21]Main!$J$3</f>
+        <f>D131*[22]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="F131" s="6">
-        <f>[21]Main!$J$5-[21]Main!$J$6</f>
+        <f>[22]Main!$J$5-[22]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="G131" s="8">
@@ -5001,11 +5007,11 @@
         <v>14.68</v>
       </c>
       <c r="E132" s="6">
-        <f>D132*[22]Main!$L$3</f>
+        <f>D132*[23]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="F132" s="6">
-        <f>[22]Main!$L$5-[22]Main!$L$6</f>
+        <f>[23]Main!$L$5-[23]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="G132" s="8">
@@ -5027,11 +5033,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="E133" s="6">
-        <f>D133*[23]Main!$J$3</f>
+        <f>D133*[24]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="F133" s="8">
-        <f>+[23]Main!$J$5-[23]Main!$J$6</f>
+        <f>+[24]Main!$J$5-[24]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="G133" s="8">
@@ -5053,11 +5059,11 @@
         <v>7.57</v>
       </c>
       <c r="E134" s="6">
-        <f>D134*[24]Main!$M$3</f>
+        <f>D134*[25]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="F134" s="6">
-        <f>[24]Main!$M$5-[24]Main!$M$6</f>
+        <f>[25]Main!$M$5-[25]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="G134" s="8">
@@ -5079,11 +5085,11 @@
         <v>0.7</v>
       </c>
       <c r="E135" s="6">
-        <f>D135*[25]Main!$M$3</f>
+        <f>D135*[26]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="F135" s="6">
-        <f>[25]Main!$M$5-[25]Main!$M$6</f>
+        <f>[26]Main!$M$5-[26]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="G135" s="8">
@@ -5105,11 +5111,11 @@
         <v>1.98</v>
       </c>
       <c r="E136" s="6">
-        <f>D136*[26]Main!$N$3</f>
+        <f>D136*[27]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="F136" s="6">
-        <f>[26]Main!$N$5-[26]Main!$N$6</f>
+        <f>[27]Main!$N$5-[27]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="G136" s="8">
@@ -5131,11 +5137,11 @@
         <v>0.62</v>
       </c>
       <c r="E137" s="6">
-        <f>D137*[27]Main!$L$3</f>
+        <f>D137*[28]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="F137" s="6">
-        <f>[27]Main!$L$5-[27]Main!$L$6</f>
+        <f>[28]Main!$L$5-[28]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="G137" s="8">
@@ -5157,11 +5163,11 @@
         <v>6.12</v>
       </c>
       <c r="E138" s="6">
-        <f>D138*[28]Main!$M$3</f>
+        <f>D138*[29]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="F138" s="6">
-        <f>[28]Main!$M$5-[28]Main!$M$6</f>
+        <f>[29]Main!$M$5-[29]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="G138" s="8">
@@ -5183,11 +5189,11 @@
         <v>0.98</v>
       </c>
       <c r="E139" s="6">
-        <f>D139*[29]Main!$M$3</f>
+        <f>D139*[30]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="F139" s="6">
-        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <f>[30]Main!$M$5-[30]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="G139" s="8">

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE34F4A-6A38-478C-A9CD-CED4600B2E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E5681E-AEB1-43B9-B9F0-63F0E3729122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9300" yWindow="7485" windowWidth="19320" windowHeight="7605" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <externalReference r:id="rId31"/>
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="302">
   <si>
     <t>Exarta</t>
   </si>
@@ -1786,18 +1787,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2299,6 +2300,35 @@
         </row>
         <row r="6">
           <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.073863000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>112.015</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
@@ -3038,10 +3068,10 @@
   <dimension ref="B2:T142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4772,7 +4802,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>207</v>
       </c>
@@ -4783,7 +4813,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>209</v>
       </c>
@@ -4794,7 +4824,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>211</v>
       </c>
@@ -4805,7 +4835,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>213</v>
       </c>
@@ -4816,7 +4846,7 @@
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>215</v>
       </c>
@@ -4827,7 +4857,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>217</v>
       </c>
@@ -4838,7 +4868,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>219</v>
       </c>
@@ -4849,7 +4879,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>221</v>
       </c>
@@ -4860,378 +4890,396 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="E121" s="6">
+        <f>D121*[31]Main!$L$3</f>
+        <v>1253.1559559500001</v>
+      </c>
+      <c r="F121" s="6">
+        <f>+[31]Main!$L$5-[31]Main!$L$6</f>
+        <v>112.015</v>
+      </c>
+      <c r="G121" s="6">
+        <f>+E121-F121</f>
+        <v>1141.14095595</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D122" s="3">
         <v>3.17</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <v>8.76</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>5.46</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D126" s="7">
         <v>36.6</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D127" s="7">
         <v>40.24</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D128" s="3">
         <v>22.11</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D128" s="3">
-        <v>10.31</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D129" s="7">
-        <v>1.3</v>
+        <v>238</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D131" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="5" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D132" s="3">
         <v>7.06</v>
       </c>
-      <c r="E131" s="6">
-        <f>D131*[22]Main!$J$3</f>
+      <c r="E132" s="6">
+        <f>D132*[22]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F132" s="6">
         <f>[22]Main!$J$5-[22]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="G131" s="8">
-        <f t="shared" ref="G131:G132" si="2">+E131-F131</f>
+      <c r="G132" s="8">
+        <f t="shared" ref="G132:G133" si="2">+E132-F132</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="5" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D133" s="3">
         <v>14.68</v>
       </c>
-      <c r="E132" s="6">
-        <f>D132*[23]Main!$L$3</f>
+      <c r="E133" s="6">
+        <f>D133*[23]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F133" s="6">
         <f>[23]Main!$L$5-[23]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G133" s="8">
         <f t="shared" si="2"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="5" t="s">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D134" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E133" s="6">
-        <f>D133*[24]Main!$J$3</f>
+      <c r="E134" s="6">
+        <f>D134*[24]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F134" s="8">
         <f>+[24]Main!$J$5-[24]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="G133" s="8">
-        <f>+E133-F133</f>
+      <c r="G134" s="8">
+        <f>+E134-F134</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="5" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D135" s="3">
         <v>7.57</v>
       </c>
-      <c r="E134" s="6">
-        <f>D134*[25]Main!$M$3</f>
+      <c r="E135" s="6">
+        <f>D135*[25]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F135" s="6">
         <f>[25]Main!$M$5-[25]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="G134" s="8">
-        <f t="shared" ref="G134:G139" si="3">+E134-F134</f>
+      <c r="G135" s="8">
+        <f t="shared" ref="G135:G140" si="3">+E135-F135</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="5" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D136" s="7">
         <v>0.7</v>
       </c>
-      <c r="E135" s="6">
-        <f>D135*[26]Main!$M$3</f>
+      <c r="E136" s="6">
+        <f>D136*[26]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F136" s="6">
         <f>[26]Main!$M$5-[26]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G136" s="8">
         <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="5" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D137" s="3">
         <v>1.98</v>
       </c>
-      <c r="E136" s="6">
-        <f>D136*[27]Main!$N$3</f>
+      <c r="E137" s="6">
+        <f>D137*[27]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F137" s="6">
         <f>[27]Main!$N$5-[27]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G137" s="8">
         <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D138" s="3">
         <v>0.62</v>
       </c>
-      <c r="E137" s="6">
-        <f>D137*[28]Main!$L$3</f>
+      <c r="E138" s="6">
+        <f>D138*[28]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F138" s="6">
         <f>[28]Main!$L$5-[28]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G138" s="8">
         <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D139" s="3">
         <v>6.12</v>
       </c>
-      <c r="E138" s="6">
-        <f>D138*[29]Main!$M$3</f>
+      <c r="E139" s="6">
+        <f>D139*[29]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F139" s="6">
         <f>[29]Main!$M$5-[29]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G139" s="8">
         <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D140" s="3">
         <v>0.98</v>
       </c>
-      <c r="E139" s="6">
-        <f>D139*[30]Main!$M$3</f>
+      <c r="E140" s="6">
+        <f>D140*[30]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F140" s="6">
         <f>[30]Main!$M$5-[30]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G140" s="8">
         <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D140" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D141" s="3">
-        <v>5.55</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>301</v>
+        <v>263</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D142" s="3">
+        <v>5.55</v>
       </c>
     </row>
   </sheetData>
@@ -5264,23 +5312,24 @@
     <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B28" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B29" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B133" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B136" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B132" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B137" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B134" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B139" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B131" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B138" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B135" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B134" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B137" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B133" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B138" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B135" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B140" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B132" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B139" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B136" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
     <hyperlink ref="B43" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="B121" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E5681E-AEB1-43B9-B9F0-63F0E3729122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B4552E-F94C-4890-9DC7-12FCFA0975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="7485" windowWidth="19320" windowHeight="7605" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9975" yWindow="5775" windowWidth="18645" windowHeight="9315" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="305">
   <si>
     <t>Exarta</t>
   </si>
@@ -659,9 +660,6 @@
     <t>ARVN</t>
   </si>
   <si>
-    <t>BioCrtyst</t>
-  </si>
-  <si>
     <t>BCRX</t>
   </si>
   <si>
@@ -984,6 +982,18 @@
   </si>
   <si>
     <t>VERU</t>
+  </si>
+  <si>
+    <t>Empirico</t>
+  </si>
+  <si>
+    <t>Everest Medicines</t>
+  </si>
+  <si>
+    <t>1952 HK</t>
+  </si>
+  <si>
+    <t>BioCryst</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1066,6 +1076,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,13 +1154,13 @@
       <sheetName val="Acquisitions"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="3">
           <cell r="S3">
@@ -1165,46 +1178,46 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1975,6 +1988,68 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>311.48201699999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>869.93499999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="sabizabulin"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.073863000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>112.015</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="CPP-115 Model"/>
       <sheetName val="LEMS"/>
       <sheetName val="Firdapse"/>
@@ -2007,70 +2082,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2085,17 +2096,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
@@ -2110,25 +2121,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2143,18 +2160,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2172,18 +2189,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2201,18 +2218,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2289,18 +2306,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2318,17 +2335,46 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>80.073863000000003</v>
+          <cell r="M3">
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>112.015</v>
+          <cell r="M5">
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
             <v>0</v>
           </cell>
         </row>
@@ -3065,13 +3111,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T142"/>
+  <dimension ref="B2:T143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3085,22 +3131,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3742,10 +3788,10 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -3784,10 +3830,10 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="D34" s="6"/>
       <c r="I34" s="11"/>
@@ -3816,10 +3862,10 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -3836,10 +3882,10 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -3878,10 +3924,10 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -3909,10 +3955,10 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -4073,10 +4119,10 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -4093,10 +4139,10 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -4124,10 +4170,10 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -4144,10 +4190,10 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -4164,10 +4210,10 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
@@ -4184,10 +4230,10 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -4204,10 +4250,10 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
@@ -4224,10 +4270,10 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
@@ -4450,7 +4496,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>143</v>
       </c>
@@ -4461,7 +4507,7 @@
         <v>83.92</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
@@ -4472,7 +4518,7 @@
         <v>60.72</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>147</v>
       </c>
@@ -4483,7 +4529,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>149</v>
       </c>
@@ -4494,7 +4540,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>151</v>
       </c>
@@ -4505,7 +4551,7 @@
         <v>42.98</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>153</v>
       </c>
@@ -4516,7 +4562,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>155</v>
       </c>
@@ -4527,7 +4573,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>157</v>
       </c>
@@ -4538,7 +4584,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>159</v>
       </c>
@@ -4549,7 +4595,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>161</v>
       </c>
@@ -4560,8 +4606,8 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -4570,8 +4616,23 @@
       <c r="D91" s="3">
         <v>10.119999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="6">
+        <f>+D91*[22]Main!$N$3</f>
+        <v>3152.1980120399994</v>
+      </c>
+      <c r="F91" s="6">
+        <f>+[22]Main!$N$5-[22]Main!$N$6</f>
+        <v>869.93499999999995</v>
+      </c>
+      <c r="G91" s="6">
+        <f>+E91-F91</f>
+        <v>2282.2630120399995</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>165</v>
       </c>
@@ -4582,7 +4643,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>167</v>
       </c>
@@ -4593,7 +4654,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>169</v>
       </c>
@@ -4604,7 +4665,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>171</v>
       </c>
@@ -4615,7 +4676,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>173</v>
       </c>
@@ -4626,7 +4687,7 @@
         <v>43.98</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>175</v>
       </c>
@@ -4637,7 +4698,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>177</v>
       </c>
@@ -4648,7 +4709,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>179</v>
       </c>
@@ -4659,7 +4720,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>181</v>
       </c>
@@ -4670,7 +4731,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>183</v>
       </c>
@@ -4681,7 +4742,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>185</v>
       </c>
@@ -4692,7 +4753,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>187</v>
       </c>
@@ -4703,7 +4764,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>189</v>
       </c>
@@ -4714,7 +4775,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>191</v>
       </c>
@@ -4725,406 +4786,400 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D106" s="3">
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D107" s="3">
         <v>25.49</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B108" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="14"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D109" s="3">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D108" s="3">
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D110" s="3">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D109" s="3">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D111" s="3">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D110" s="3">
-        <v>30.48</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="D112" s="3">
         <v>12.98</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D112" s="3">
-        <v>10.96</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D113" s="3">
-        <v>2.42</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D114" s="7">
-        <v>55.5</v>
+        <v>207</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.42</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D115" s="3">
-        <v>10.63</v>
+        <v>209</v>
+      </c>
+      <c r="D115" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D116" s="3">
-        <v>33.130000000000003</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D117" s="3">
-        <v>31.52</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D118" s="3">
-        <v>7.62</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D119" s="3">
-        <v>28.55</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D120" s="3">
+      <c r="D121" s="3">
         <v>27.02</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D121" s="3">
+      <c r="D122" s="3">
         <v>15.65</v>
       </c>
-      <c r="E121" s="6">
-        <f>D121*[31]Main!$L$3</f>
+      <c r="E122" s="6">
+        <f>D122*[23]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
-      <c r="F121" s="6">
-        <f>+[31]Main!$L$5-[31]Main!$L$6</f>
+      <c r="F122" s="6">
+        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
         <v>112.015</v>
       </c>
-      <c r="G121" s="6">
-        <f>+E121-F121</f>
+      <c r="G122" s="6">
+        <f>+E122-F122</f>
         <v>1141.14095595</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D122" s="3">
-        <v>3.17</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D123" s="3">
-        <v>8.76</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D124" s="3">
-        <v>18.010000000000002</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D125" s="3">
-        <v>5.46</v>
+        <v>18.010000000000002</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D126" s="7">
-        <v>36.6</v>
+        <v>229</v>
+      </c>
+      <c r="D126" s="3">
+        <v>5.46</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D127" s="7">
-        <v>40.24</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D128" s="3">
-        <v>22.11</v>
+        <v>233</v>
+      </c>
+      <c r="D128" s="7">
+        <v>40.24</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D129" s="3">
-        <v>10.31</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D130" s="7">
-        <v>1.3</v>
+        <v>237</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D131" s="3">
+      <c r="D132" s="3">
         <v>3.35</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D132" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="E132" s="6">
-        <f>D132*[22]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="F132" s="6">
-        <f>[22]Main!$J$5-[22]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="G132" s="8">
-        <f t="shared" ref="G132:G133" si="2">+E132-F132</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D133" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="E133" s="6">
+        <f>D133*[24]Main!$J$3</f>
+        <v>725.62786605999997</v>
+      </c>
+      <c r="F133" s="6">
+        <f>[24]Main!$J$5-[24]Main!$J$6</f>
+        <v>197.79600000000002</v>
+      </c>
+      <c r="G133" s="8">
+        <f t="shared" ref="G133:G134" si="2">+E133-F133</f>
+        <v>527.83186605999992</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D133" s="3">
+      <c r="D134" s="3">
         <v>14.68</v>
       </c>
-      <c r="E133" s="6">
-        <f>D133*[23]Main!$L$3</f>
+      <c r="E134" s="6">
+        <f>D134*[25]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F133" s="6">
-        <f>[23]Main!$L$5-[23]Main!$L$6</f>
+      <c r="F134" s="6">
+        <f>[25]Main!$L$5-[25]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G134" s="8">
         <f t="shared" si="2"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D134" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E134" s="6">
-        <f>D134*[24]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="F134" s="8">
-        <f>+[24]Main!$J$5-[24]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="G134" s="8">
-        <f>+E134-F134</f>
-        <v>220.39615336000003</v>
-      </c>
       <c r="H134" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D135" s="3">
-        <v>7.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E135" s="6">
-        <f>D135*[25]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="F135" s="6">
-        <f>[25]Main!$M$5-[25]Main!$M$6</f>
-        <v>120.43700000000001</v>
+        <f>D135*[26]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="F135" s="8">
+        <f>+[26]Main!$J$5-[26]Main!$J$6</f>
+        <v>92.317999999999998</v>
       </c>
       <c r="G135" s="8">
-        <f t="shared" ref="G135:G140" si="3">+E135-F135</f>
-        <v>218.02283246000002</v>
+        <f>+E135-F135</f>
+        <v>220.39615336000003</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>18</v>
@@ -5132,153 +5187,179 @@
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D136" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="E136" s="6">
+        <f>D136*[27]Main!$M$3</f>
+        <v>338.45983246000003</v>
+      </c>
+      <c r="F136" s="6">
+        <f>[27]Main!$M$5-[27]Main!$M$6</f>
+        <v>120.43700000000001</v>
+      </c>
+      <c r="G136" s="8">
+        <f t="shared" ref="G136:G141" si="3">+E136-F136</f>
+        <v>218.02283246000002</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D136" s="7">
+      <c r="D137" s="7">
         <v>0.7</v>
       </c>
-      <c r="E136" s="6">
-        <f>D136*[26]Main!$M$3</f>
+      <c r="E137" s="6">
+        <f>D137*[28]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F136" s="6">
-        <f>[26]Main!$M$5-[26]Main!$M$6</f>
+      <c r="F137" s="6">
+        <f>[28]Main!$M$5-[28]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G137" s="8">
         <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D137" s="3">
+      <c r="D138" s="3">
         <v>1.98</v>
       </c>
-      <c r="E137" s="6">
-        <f>D137*[27]Main!$N$3</f>
+      <c r="E138" s="6">
+        <f>D138*[29]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F137" s="6">
-        <f>[27]Main!$N$5-[27]Main!$N$6</f>
+      <c r="F138" s="6">
+        <f>[29]Main!$N$5-[29]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G138" s="8">
         <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D138" s="3">
+      <c r="D139" s="3">
         <v>0.62</v>
       </c>
-      <c r="E138" s="6">
-        <f>D138*[28]Main!$L$3</f>
+      <c r="E139" s="6">
+        <f>D139*[30]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F138" s="6">
-        <f>[28]Main!$L$5-[28]Main!$L$6</f>
+      <c r="F139" s="6">
+        <f>[30]Main!$L$5-[30]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G139" s="8">
         <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D139" s="3">
+      <c r="D140" s="3">
         <v>6.12</v>
       </c>
-      <c r="E139" s="6">
-        <f>D139*[29]Main!$M$3</f>
+      <c r="E140" s="6">
+        <f>D140*[31]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F139" s="6">
-        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+      <c r="F140" s="6">
+        <f>[31]Main!$M$5-[31]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G140" s="8">
         <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D140" s="3">
+      <c r="D141" s="3">
         <v>0.98</v>
       </c>
-      <c r="E140" s="6">
-        <f>D140*[30]Main!$M$3</f>
+      <c r="E141" s="6">
+        <f>D141*[32]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F140" s="6">
-        <f>[30]Main!$M$5-[30]Main!$M$6</f>
+      <c r="F141" s="6">
+        <f>[32]Main!$M$5-[32]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G141" s="8">
         <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D141" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D142" s="3">
+      <c r="D143" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -5312,24 +5393,25 @@
     <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B28" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B29" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B134" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B137" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B133" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B138" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B135" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B140" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B132" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B139" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B136" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B135" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B138" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B134" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B139" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B136" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B141" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B133" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B140" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B137" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
     <hyperlink ref="B43" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B121" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B122" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B91" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -5390,13 +5472,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5407,7 +5489,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5418,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5428,33 +5510,38 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B4552E-F94C-4890-9DC7-12FCFA0975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234FD00A-18C8-4E5F-BC9F-A27794CA6C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="5775" windowWidth="18645" windowHeight="9315" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="7440" yWindow="45" windowWidth="21585" windowHeight="15525" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,7 @@
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="305">
   <si>
     <t>Exarta</t>
   </si>
@@ -1154,13 +1155,13 @@
       <sheetName val="Acquisitions"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="3">
           <cell r="S3">
@@ -1178,46 +1179,46 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2379,6 +2380,65 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Jakafi"/>
+      <sheetName val="Olumiant"/>
+      <sheetName val="NEJM letter"/>
+      <sheetName val="Tabrecta"/>
+      <sheetName val="INCB 13739"/>
+      <sheetName val="INCB7839"/>
+      <sheetName val="INCB24360"/>
+      <sheetName val="INCB 7839"/>
+      <sheetName val="INCB 8696"/>
+      <sheetName val="Dexelvucitabine"/>
+      <sheetName val="INCB 15050"/>
+      <sheetName val="INCB28050"/>
+      <sheetName val="Old Model"/>
+      <sheetName val="JAK field"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>221.505011</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>2721</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3117,7 +3177,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3700,192 +3760,198 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3">
-        <v>71.27</v>
+        <v>580.95000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3">
-        <v>580.95000000000005</v>
+        <v>128.03</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3">
-        <v>128.03</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3311</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3311</v>
+        <v>62</v>
+      </c>
+      <c r="D26" s="3">
+        <v>137.09</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3">
-        <v>137.09</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3">
-        <v>28.54</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>65</v>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3">
-        <v>13.12</v>
+        <v>63.83</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3">
-        <v>349.96</v>
+        <v>72</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4360</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>266</v>
+      <c r="B31" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+        <v>275</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3">
-        <v>63.83</v>
+        <v>125.14</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4360</v>
+        <v>74</v>
+      </c>
+      <c r="D33" s="3">
+        <v>76.08</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3">
+        <v>71.27</v>
+      </c>
+      <c r="E34" s="6">
+        <f>+D34*[33]Main!$K$3</f>
+        <v>15786.66213397</v>
+      </c>
+      <c r="F34" s="6">
+        <f>+[33]Main!$K$5-[33]Main!$K$6</f>
+        <v>2721</v>
+      </c>
+      <c r="G34" s="6">
+        <f>E34-F34</f>
+        <v>13065.66213397</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>73</v>
+      <c r="B35" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D35" s="3">
-        <v>76.08</v>
+        <v>28.54</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>270</v>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D36" s="3">
+        <v>349.96</v>
+      </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -3901,25 +3967,34 @@
       <c r="T37" s="11"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3">
-        <v>165.45</v>
-      </c>
+      <c r="B38" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3">
-        <v>125.14</v>
+        <v>165.45</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
@@ -5386,13 +5461,13 @@
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B21" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
+    <hyperlink ref="B34" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="B35" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
     <hyperlink ref="B135" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
     <hyperlink ref="B138" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
     <hyperlink ref="B134" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234FD00A-18C8-4E5F-BC9F-A27794CA6C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F1514-B5D7-4CA2-A6D1-AD90E8AB0CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="45" windowWidth="21585" windowHeight="15525" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9660" yWindow="2280" windowWidth="18810" windowHeight="13215" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="FX" sheetId="2" r:id="rId2"/>
     <sheet name="Private" sheetId="3" r:id="rId3"/>
+    <sheet name="Acquisitions" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -51,6 +51,7 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="310">
   <si>
     <t>Exarta</t>
   </si>
@@ -995,6 +996,21 @@
   </si>
   <si>
     <t>BioCryst</t>
+  </si>
+  <si>
+    <t>GW Pharma</t>
+  </si>
+  <si>
+    <t>Acquiree</t>
+  </si>
+  <si>
+    <t>Acquirer</t>
+  </si>
+  <si>
+    <t>Hikma</t>
+  </si>
+  <si>
+    <t>HIK LN</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1077,6 +1093,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1853,26 +1872,62 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Jakafi"/>
+      <sheetName val="NEJM letter"/>
+      <sheetName val="Opzelura"/>
+      <sheetName val="Olumiant"/>
+      <sheetName val="Minjuvi"/>
+      <sheetName val="Tabrecta"/>
+      <sheetName val="Pemazyre"/>
+      <sheetName val="retifanlimab"/>
+      <sheetName val="parsaclisib"/>
+      <sheetName val="INCB7839"/>
+      <sheetName val="INCB24360"/>
+      <sheetName val="INCB 7839"/>
+      <sheetName val="INCB 8696"/>
+      <sheetName val="Dexelvucitabine"/>
+      <sheetName val="INCB 13739"/>
+      <sheetName val="INCB 15050"/>
+      <sheetName val="Old Model"/>
+      <sheetName val="JAK field"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>102.46286600000001</v>
+          <cell r="K3">
+            <v>221.505011</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>6252.2330000000002</v>
+          <cell r="K5">
+            <v>2721</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>608.99199999999996</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1917,6 +1972,37 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>102.46286600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>6252.2330000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>608.99199999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="Remodulin"/>
       <sheetName val="Tyvaso"/>
       <sheetName val="Oral"/>
@@ -1950,7 +2036,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1983,7 +2069,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2014,7 +2100,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2045,7 +2131,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2088,7 +2174,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2117,7 +2203,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2147,35 +2233,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2191,17 +2248,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>184.19892899999999</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>67.233999999999995</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>126.736</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2219,18 +2276,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2307,18 +2364,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2336,18 +2393,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2366,12 +2423,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>21.362773000000001</v>
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>55.28</v>
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -2390,55 +2447,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Jakafi"/>
-      <sheetName val="Olumiant"/>
-      <sheetName val="NEJM letter"/>
-      <sheetName val="Tabrecta"/>
-      <sheetName val="INCB 13739"/>
-      <sheetName val="INCB7839"/>
-      <sheetName val="INCB24360"/>
-      <sheetName val="INCB 7839"/>
-      <sheetName val="INCB 8696"/>
-      <sheetName val="Dexelvucitabine"/>
-      <sheetName val="INCB 15050"/>
-      <sheetName val="INCB28050"/>
-      <sheetName val="Old Model"/>
-      <sheetName val="JAK field"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>221.505011</v>
+          <cell r="M3">
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>2721</v>
+          <cell r="M5">
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
+          <cell r="M6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2814,7 +2841,7 @@
       <sheetName val="Orencia"/>
       <sheetName val="Yervoy"/>
       <sheetName val="Eliquis"/>
-      <sheetName val="elotuzumab"/>
+      <sheetName val="Empliciti"/>
       <sheetName val="Avapro"/>
       <sheetName val="Plavix"/>
       <sheetName val="Abilify"/>
@@ -2828,7 +2855,6 @@
       <sheetName val="790052"/>
       <sheetName val="Discontinuations"/>
       <sheetName val="brivanib"/>
-      <sheetName val="apixaban"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2868,7 +2894,6 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3171,13 +3196,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T143"/>
+  <dimension ref="B2:T144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3191,22 +3216,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3909,11 +3934,11 @@
         <v>71.27</v>
       </c>
       <c r="E34" s="6">
-        <f>+D34*[33]Main!$K$3</f>
+        <f>+D34*[19]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="F34" s="6">
-        <f>+[33]Main!$K$5-[33]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="G34" s="6">
@@ -4059,11 +4084,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="E43" s="6">
-        <f>D43*[19]Main!$L$3</f>
+        <f>D43*[20]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="F43" s="6">
-        <f>[19]Main!$L$5-[19]Main!$L$6</f>
+        <f>[20]Main!$L$5-[20]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="G43" s="6">
@@ -4129,11 +4154,11 @@
         <v>219.38</v>
       </c>
       <c r="E48" s="6">
-        <f>D48*[20]Main!$K$3</f>
+        <f>D48*[21]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="F48" s="6">
-        <f>[20]Main!$K$5-[20]Main!$K$6</f>
+        <f>[21]Main!$K$5-[21]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="G48" s="6">
@@ -4155,11 +4180,11 @@
         <v>57</v>
       </c>
       <c r="E49" s="6">
-        <f>+D49*[21]Main!$L$3</f>
+        <f>+D49*[22]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="F49" s="6">
-        <f>+[21]Main!$L$5-[21]Main!$L$6</f>
+        <f>+[22]Main!$L$5-[22]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="G49" s="6">
@@ -4395,7 +4420,7 @@
         <v>82.53</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>109</v>
       </c>
@@ -4406,7 +4431,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>111</v>
       </c>
@@ -4417,7 +4442,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
@@ -4428,7 +4453,7 @@
         <v>24.53</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>115</v>
       </c>
@@ -4439,7 +4464,7 @@
         <v>23.02</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
@@ -4450,837 +4475,831 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>33.17</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>53.21</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>46.23</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D75" s="3">
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D76" s="3">
         <v>15.75</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>19.510000000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="3">
         <v>66.97</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <v>54.94</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="3">
         <v>38.840000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" s="3">
-        <v>28.03</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" s="3">
-        <v>83.92</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D82" s="3">
-        <v>60.72</v>
+        <v>83.92</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="7">
-        <v>12.2</v>
+        <v>146</v>
+      </c>
+      <c r="D83" s="3">
+        <v>60.72</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="3">
-        <v>2.37</v>
+        <v>148</v>
+      </c>
+      <c r="D84" s="7">
+        <v>12.2</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D85" s="3">
-        <v>42.98</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D86" s="3">
-        <v>23.92</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D87" s="3">
-        <v>53.29</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88" s="3">
-        <v>74.459999999999994</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D89" s="3">
-        <v>48.63</v>
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="3">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D91" s="3">
         <v>27.73</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="5" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D92" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="E91" s="6">
-        <f>+D91*[22]Main!$N$3</f>
+      <c r="E92" s="6">
+        <f>+D92*[23]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
-      <c r="F91" s="6">
-        <f>+[22]Main!$N$5-[22]Main!$N$6</f>
+      <c r="F92" s="6">
+        <f>+[23]Main!$N$5-[23]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
-      <c r="G91" s="6">
-        <f>+E91-F91</f>
+      <c r="G92" s="6">
+        <f>+E92-F92</f>
         <v>2282.2630120399995</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D92" s="3">
-        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D93" s="3">
-        <v>14.27</v>
+        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D94" s="3">
-        <v>7.36</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" s="3">
-        <v>9.35</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D96" s="3">
-        <v>43.98</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D97" s="3">
-        <v>5.18</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D98" s="3">
-        <v>53.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D99" s="3">
-        <v>21.04</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" s="7">
-        <v>20.7</v>
+        <v>180</v>
+      </c>
+      <c r="D100" s="3">
+        <v>21.04</v>
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="3">
-        <v>18.579999999999998</v>
+        <v>182</v>
+      </c>
+      <c r="D101" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D102" s="3">
-        <v>16.12</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D103" s="3">
-        <v>28.41</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D104" s="3">
-        <v>33.86</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D105" s="3">
-        <v>38.35</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D106" s="3">
-        <v>9.6199999999999992</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D108" s="3">
         <v>25.49</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B108" s="10" t="s">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B109" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="14"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D109" s="3">
-        <v>11.42</v>
-      </c>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="14"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D110" s="3">
-        <v>26.64</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D111" s="3">
-        <v>30.48</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D112" s="3">
-        <v>12.98</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D113" s="3">
-        <v>10.96</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D114" s="3">
-        <v>2.42</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D115" s="7">
-        <v>55.5</v>
+        <v>207</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2.42</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D116" s="3">
-        <v>10.63</v>
+        <v>209</v>
+      </c>
+      <c r="D116" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D117" s="3">
-        <v>33.130000000000003</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D118" s="3">
-        <v>31.52</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D119" s="3">
-        <v>7.62</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D120" s="3">
-        <v>28.55</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D122" s="3">
         <v>27.02</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <v>15.65</v>
       </c>
-      <c r="E122" s="6">
-        <f>D122*[23]Main!$L$3</f>
+      <c r="E123" s="6">
+        <f>D123*[24]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
-      <c r="F122" s="6">
-        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
+      <c r="F123" s="6">
+        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
         <v>112.015</v>
       </c>
-      <c r="G122" s="6">
-        <f>+E122-F122</f>
+      <c r="G123" s="6">
+        <f>+E123-F123</f>
         <v>1141.14095595</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D123" s="3">
-        <v>3.17</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D124" s="3">
-        <v>8.76</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D125" s="3">
-        <v>18.010000000000002</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D126" s="3">
-        <v>5.46</v>
+        <v>18.010000000000002</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D127" s="7">
-        <v>36.6</v>
+        <v>229</v>
+      </c>
+      <c r="D127" s="3">
+        <v>5.46</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D128" s="7">
-        <v>40.24</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D129" s="3">
-        <v>22.11</v>
+        <v>233</v>
+      </c>
+      <c r="D129" s="7">
+        <v>40.24</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D130" s="3">
-        <v>10.31</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D131" s="7">
-        <v>1.3</v>
+        <v>237</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D133" s="3">
         <v>3.35</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D133" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="E133" s="6">
-        <f>D133*[24]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="F133" s="6">
-        <f>[24]Main!$J$5-[24]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="G133" s="8">
-        <f t="shared" ref="G133:G134" si="2">+E133-F133</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="E134" s="6">
+        <f>D134*[25]Main!$J$3</f>
+        <v>725.62786605999997</v>
+      </c>
+      <c r="F134" s="6">
+        <f>[25]Main!$J$5-[25]Main!$J$6</f>
+        <v>197.79600000000002</v>
+      </c>
+      <c r="G134" s="8">
+        <f t="shared" ref="G134:G135" si="2">+E134-F134</f>
+        <v>527.83186605999992</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D135" s="3">
         <v>14.68</v>
       </c>
-      <c r="E134" s="6">
-        <f>D134*[25]Main!$L$3</f>
+      <c r="E135" s="6">
+        <f>D135*[26]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F134" s="6">
-        <f>[25]Main!$L$5-[25]Main!$L$6</f>
+      <c r="F135" s="6">
+        <f>[26]Main!$L$5-[26]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G135" s="8">
         <f t="shared" si="2"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D135" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E135" s="6">
-        <f>D135*[26]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="F135" s="8">
-        <f>+[26]Main!$J$5-[26]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="G135" s="8">
-        <f>+E135-F135</f>
-        <v>220.39615336000003</v>
-      </c>
       <c r="H135" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D136" s="3">
-        <v>7.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E136" s="6">
-        <f>D136*[27]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="F136" s="6">
-        <f>[27]Main!$M$5-[27]Main!$M$6</f>
-        <v>120.43700000000001</v>
+        <f>D136*[27]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="F136" s="8">
+        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
+        <v>92.317999999999998</v>
       </c>
       <c r="G136" s="8">
-        <f t="shared" ref="G136:G141" si="3">+E136-F136</f>
-        <v>218.02283246000002</v>
+        <f>+E136-F136</f>
+        <v>220.39615336000003</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>18</v>
@@ -5288,153 +5307,179 @@
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D137" s="7">
-        <v>0.7</v>
+        <v>249</v>
+      </c>
+      <c r="D137" s="3">
+        <v>7.57</v>
       </c>
       <c r="E137" s="6">
         <f>D137*[28]Main!$M$3</f>
-        <v>128.9392503</v>
+        <v>338.45983246000003</v>
       </c>
       <c r="F137" s="6">
         <f>[28]Main!$M$5-[28]Main!$M$6</f>
+        <v>120.43700000000001</v>
+      </c>
+      <c r="G137" s="8">
+        <f t="shared" ref="G137:G142" si="3">+E137-F137</f>
+        <v>218.02283246000002</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E138" s="6">
+        <f>D138*[29]Main!$M$3</f>
+        <v>128.9392503</v>
+      </c>
+      <c r="F138" s="6">
+        <f>[29]Main!$M$5-[29]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G138" s="8">
         <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D139" s="3">
         <v>1.98</v>
       </c>
-      <c r="E138" s="6">
-        <f>D138*[29]Main!$N$3</f>
+      <c r="E139" s="6">
+        <f>D139*[30]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F138" s="6">
-        <f>[29]Main!$N$5-[29]Main!$N$6</f>
+      <c r="F139" s="6">
+        <f>[30]Main!$N$5-[30]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G139" s="8">
         <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D140" s="3">
         <v>0.62</v>
       </c>
-      <c r="E139" s="6">
-        <f>D139*[30]Main!$L$3</f>
+      <c r="E140" s="6">
+        <f>D140*[31]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F139" s="6">
-        <f>[30]Main!$L$5-[30]Main!$L$6</f>
+      <c r="F140" s="6">
+        <f>[31]Main!$L$5-[31]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G140" s="8">
         <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D141" s="3">
         <v>6.12</v>
       </c>
-      <c r="E140" s="6">
-        <f>D140*[31]Main!$M$3</f>
+      <c r="E141" s="6">
+        <f>D141*[32]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F140" s="6">
-        <f>[31]Main!$M$5-[31]Main!$M$6</f>
+      <c r="F141" s="6">
+        <f>[32]Main!$M$5-[32]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G141" s="8">
         <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="5" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D142" s="3">
         <v>0.98</v>
       </c>
-      <c r="E141" s="6">
-        <f>D141*[32]Main!$M$3</f>
+      <c r="E142" s="6">
+        <f>D142*[33]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F141" s="6">
-        <f>[32]Main!$M$5-[32]Main!$M$6</f>
+      <c r="F142" s="6">
+        <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G142" s="8">
         <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H142" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D142" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D144" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -5468,22 +5513,22 @@
     <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B35" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B27" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B135" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B138" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B134" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B139" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B136" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B141" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B133" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B140" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B137" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B136" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B139" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B135" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B140" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B137" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B142" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B134" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B141" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B138" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
     <hyperlink ref="B43" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B122" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="B91" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="B123" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B92" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
@@ -5625,4 +5670,50 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F650EA-F83A-4483-B12E-DBBE9EC4FA2A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D25979DB-5EBB-4C30-9F58-BD318CF0CEE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F1514-B5D7-4CA2-A6D1-AD90E8AB0CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D593E1-D79D-4EE6-B471-AF40416F25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2280" windowWidth="18810" windowHeight="13215" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9735" yWindow="1635" windowWidth="18810" windowHeight="13215" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="312">
   <si>
     <t>Exarta</t>
   </si>
@@ -1011,6 +1012,12 @@
   </si>
   <si>
     <t>HIK LN</t>
+  </si>
+  <si>
+    <t>Siga</t>
+  </si>
+  <si>
+    <t>SIGA</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1093,6 +1100,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2466,6 +2476,45 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Potential award"/>
+      <sheetName val="TPOXX"/>
+      <sheetName val="Legal"/>
+      <sheetName val="Pipeline"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>72.566367</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>153.25991400000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3196,13 +3245,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T144"/>
+  <dimension ref="B2:T145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3216,22 +3265,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -4981,7 +5030,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>202</v>
       </c>
@@ -4992,7 +5041,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>204</v>
       </c>
@@ -5003,7 +5052,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>206</v>
       </c>
@@ -5014,7 +5063,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>208</v>
       </c>
@@ -5025,7 +5074,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>210</v>
       </c>
@@ -5036,7 +5085,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>212</v>
       </c>
@@ -5047,7 +5096,7 @@
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>214</v>
       </c>
@@ -5058,7 +5107,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>216</v>
       </c>
@@ -5069,7 +5118,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>218</v>
       </c>
@@ -5080,7 +5129,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
         <v>220</v>
       </c>
@@ -5091,7 +5140,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
         <v>299</v>
       </c>
@@ -5117,369 +5166,407 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B124" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="E124" s="6">
+        <f>+D124*[34]Main!$L$3</f>
+        <v>1228.5485933099999</v>
+      </c>
+      <c r="F124" s="6">
+        <f>+[34]Main!$L$5-[34]Main!$L$6</f>
+        <v>153.25991400000001</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" ref="G124" si="2">+E124-F124</f>
+        <v>1075.2886793099999</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>3.17</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D126" s="3">
         <v>8.76</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D127" s="3">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D128" s="3">
         <v>5.46</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D128" s="7">
-        <v>36.6</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D129" s="7">
-        <v>40.24</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D130" s="3">
-        <v>22.11</v>
+        <v>233</v>
+      </c>
+      <c r="D130" s="7">
+        <v>40.24</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D131" s="3">
-        <v>10.31</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D132" s="7">
-        <v>1.3</v>
+        <v>237</v>
+      </c>
+      <c r="D132" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D134" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="5" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D135" s="3">
         <v>7.06</v>
       </c>
-      <c r="E134" s="6">
-        <f>D134*[25]Main!$J$3</f>
+      <c r="E135" s="6">
+        <f>D135*[25]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F135" s="6">
         <f>[25]Main!$J$5-[25]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="G134" s="8">
-        <f t="shared" ref="G134:G135" si="2">+E134-F134</f>
+      <c r="G135" s="8">
+        <f t="shared" ref="G135:G136" si="3">+E135-F135</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="5" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D136" s="3">
         <v>14.68</v>
       </c>
-      <c r="E135" s="6">
-        <f>D135*[26]Main!$L$3</f>
+      <c r="E136" s="6">
+        <f>D136*[26]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F136" s="6">
         <f>[26]Main!$L$5-[26]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G135" s="8">
-        <f t="shared" si="2"/>
+      <c r="G136" s="8">
+        <f t="shared" si="3"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="5" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D137" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E136" s="6">
-        <f>D136*[27]Main!$J$3</f>
+      <c r="E137" s="6">
+        <f>D137*[27]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F137" s="8">
         <f>+[27]Main!$J$5-[27]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="G136" s="8">
-        <f>+E136-F136</f>
+      <c r="G137" s="8">
+        <f>+E137-F137</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D138" s="3">
         <v>7.57</v>
       </c>
-      <c r="E137" s="6">
-        <f>D137*[28]Main!$M$3</f>
+      <c r="E138" s="6">
+        <f>D138*[28]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F138" s="6">
         <f>[28]Main!$M$5-[28]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="G137" s="8">
-        <f t="shared" ref="G137:G142" si="3">+E137-F137</f>
+      <c r="G138" s="8">
+        <f t="shared" ref="G138:G143" si="4">+E138-F138</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D139" s="7">
         <v>0.7</v>
       </c>
-      <c r="E138" s="6">
-        <f>D138*[29]Main!$M$3</f>
+      <c r="E139" s="6">
+        <f>D139*[29]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F139" s="6">
         <f>[29]Main!$M$5-[29]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G138" s="8">
-        <f t="shared" si="3"/>
+      <c r="G139" s="8">
+        <f t="shared" si="4"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D140" s="3">
         <v>1.98</v>
       </c>
-      <c r="E139" s="6">
-        <f>D139*[30]Main!$N$3</f>
+      <c r="E140" s="6">
+        <f>D140*[30]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F140" s="6">
         <f>[30]Main!$N$5-[30]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G139" s="8">
-        <f t="shared" si="3"/>
+      <c r="G140" s="8">
+        <f t="shared" si="4"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D141" s="3">
         <v>0.62</v>
       </c>
-      <c r="E140" s="6">
-        <f>D140*[31]Main!$L$3</f>
+      <c r="E141" s="6">
+        <f>D141*[31]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F141" s="6">
         <f>[31]Main!$L$5-[31]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G140" s="8">
-        <f t="shared" si="3"/>
+      <c r="G141" s="8">
+        <f t="shared" si="4"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="5" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D142" s="3">
         <v>6.12</v>
       </c>
-      <c r="E141" s="6">
-        <f>D141*[32]Main!$M$3</f>
+      <c r="E142" s="6">
+        <f>D142*[32]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F142" s="6">
         <f>[32]Main!$M$5-[32]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G141" s="8">
-        <f t="shared" si="3"/>
+      <c r="G142" s="8">
+        <f t="shared" si="4"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H142" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D143" s="3">
         <v>0.98</v>
       </c>
-      <c r="E142" s="6">
-        <f>D142*[33]Main!$M$3</f>
+      <c r="E143" s="6">
+        <f>D143*[33]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F143" s="6">
         <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G142" s="8">
-        <f t="shared" si="3"/>
+      <c r="G143" s="8">
+        <f t="shared" si="4"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D143" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D145" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -5513,15 +5600,15 @@
     <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B35" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B27" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B136" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B139" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B135" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B140" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B137" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B142" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B134" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B141" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B138" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B137" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B140" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B136" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B141" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B138" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B143" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B135" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B142" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B139" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
@@ -5529,9 +5616,10 @@
     <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
     <hyperlink ref="B123" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
     <hyperlink ref="B92" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="B124" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D593E1-D79D-4EE6-B471-AF40416F25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630FA293-B6CD-4FA0-AA27-0471E99DB35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="1635" windowWidth="18810" windowHeight="13215" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="11040" yWindow="1980" windowWidth="17760" windowHeight="13500" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="314">
   <si>
     <t>Exarta</t>
   </si>
@@ -1018,6 +1019,12 @@
   </si>
   <si>
     <t>SIGA</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Q222</t>
   </si>
 </sst>
 </file>
@@ -2084,6 +2091,35 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>233</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>426</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>763</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
@@ -2110,7 +2146,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2141,7 +2177,46 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Potential award"/>
+      <sheetName val="TPOXX"/>
+      <sheetName val="Legal"/>
+      <sheetName val="Pipeline"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>72.566367</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>153.25991400000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2184,7 +2259,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2213,7 +2288,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2243,64 +2318,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2374,18 +2391,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2403,18 +2420,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2432,18 +2449,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2461,18 +2478,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2486,35 +2503,54 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Potential award"/>
-      <sheetName val="TPOXX"/>
-      <sheetName val="Legal"/>
-      <sheetName val="Pipeline"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>72.566367</v>
+          <cell r="M3">
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>153.25991400000001</v>
+          <cell r="M5">
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="M6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2637,9 +2673,9 @@
       <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="L3">
@@ -2657,40 +2693,40 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3245,13 +3281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:T145"/>
+  <dimension ref="B2:U145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3259,30 +3295,30 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="9.140625" style="3"/>
-    <col min="9" max="20" width="9.140625" style="4"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="9.140625" style="3"/>
+    <col min="10" max="21" width="9.140625" style="4"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I2" s="17" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3304,44 +3340,47 @@
       <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="4">
         <v>2022</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>2023</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>2024</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>2025</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>2026</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>2027</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>2022</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>2023</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>2024</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>2025</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>2026</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>2027</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3366,8 +3405,12 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I4" s="6">
+        <f>+[1]Main!$S$3</f>
+        <v>2631.4018040000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3393,7 +3436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -3419,7 +3462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
@@ -3445,7 +3488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -3468,10 +3511,14 @@
         <v>259586.74</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="I8" s="6">
+        <f>+[5]Main!$L$3*1000</f>
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3494,7 +3541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -3520,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -3546,7 +3593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -3572,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3598,7 +3645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -3624,7 +3671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
@@ -3650,7 +3697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -3676,7 +3723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -3702,7 +3749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
@@ -3728,7 +3775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -3754,7 +3801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3780,7 +3827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
@@ -3806,7 +3853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
@@ -3832,7 +3879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
@@ -3843,7 +3890,7 @@
         <v>580.95000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
@@ -3854,7 +3901,7 @@
         <v>128.03</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
@@ -3865,7 +3912,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
@@ -3876,7 +3923,7 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
@@ -3887,14 +3934,13 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3906,8 +3952,9 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>69</v>
       </c>
@@ -3918,7 +3965,7 @@
         <v>63.83</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
@@ -3929,7 +3976,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
         <v>274</v>
       </c>
@@ -3937,7 +3984,6 @@
         <v>275</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -3949,8 +3995,9 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="11"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
@@ -3961,7 +4008,7 @@
         <v>125.14</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
@@ -3972,7 +4019,7 @@
         <v>76.08</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
@@ -3998,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
@@ -4009,7 +4056,7 @@
         <v>28.54</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
@@ -4020,14 +4067,13 @@
         <v>349.96</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -4039,15 +4085,15 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U37" s="11"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>268</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -4059,8 +4105,9 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="11"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
@@ -4071,14 +4118,13 @@
         <v>165.45</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
         <v>272</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -4090,8 +4136,9 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="11"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
@@ -4102,14 +4149,13 @@
         <v>39.35</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
@@ -4121,8 +4167,9 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="11"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>83</v>
       </c>
@@ -4148,7 +4195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
@@ -4159,7 +4206,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
@@ -4170,7 +4217,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
@@ -4181,7 +4228,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
@@ -4192,7 +4239,7 @@
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>93</v>
       </c>
@@ -4218,7 +4265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>139</v>
       </c>
@@ -4244,56 +4291,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1721.48</v>
+      </c>
+      <c r="E50" s="6">
+        <f>+D50*I50/100*GBP</f>
+        <v>4746.2735717200003</v>
+      </c>
+      <c r="F50" s="6">
+        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
+        <v>-337</v>
+      </c>
+      <c r="G50" s="6">
+        <f>+E50-F50</f>
+        <v>5083.2735717200003</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="6">
+        <f>+[23]Main!$K$3</f>
+        <v>233</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <v>93.28</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="3">
         <v>142.91</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
@@ -4305,46 +4373,46 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="U53" s="12"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B54" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>7.71</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
@@ -4356,15 +4424,15 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="12"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I57" s="12"/>
+        <v>286</v>
+      </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
@@ -4376,15 +4444,15 @@
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="12"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="I58" s="12"/>
+        <v>284</v>
+      </c>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
@@ -4396,15 +4464,15 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="12"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I59" s="12"/>
+        <v>281</v>
+      </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -4416,135 +4484,136 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="12"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="3">
         <v>11.04</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D63" s="3">
         <v>44.14</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D64" s="3">
         <v>35.26</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="3">
         <v>82.53</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="3">
         <v>24.78</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="3">
         <v>4.72</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="3">
         <v>24.53</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="3">
         <v>23.02</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="3">
         <v>29.12</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>119</v>
       </c>
@@ -4555,7 +4624,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>121</v>
       </c>
@@ -4566,7 +4635,7 @@
         <v>53.21</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4646,7 @@
         <v>46.23</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>125</v>
       </c>
@@ -4588,7 +4657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>127</v>
       </c>
@@ -4599,7 +4668,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>129</v>
       </c>
@@ -4610,7 +4679,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
@@ -4621,7 +4690,7 @@
         <v>19.510000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>133</v>
       </c>
@@ -4632,7 +4701,7 @@
         <v>66.97</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>135</v>
       </c>
@@ -4643,7 +4712,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>137</v>
       </c>
@@ -4786,11 +4855,11 @@
         <v>10.119999999999999</v>
       </c>
       <c r="E92" s="6">
-        <f>+D92*[23]Main!$N$3</f>
+        <f>+D92*[24]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
       <c r="F92" s="6">
-        <f>+[23]Main!$N$5-[23]Main!$N$6</f>
+        <f>+[24]Main!$N$5-[24]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
       <c r="G92" s="6">
@@ -4845,7 +4914,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>173</v>
       </c>
@@ -4856,7 +4925,7 @@
         <v>43.98</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>175</v>
       </c>
@@ -4867,7 +4936,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>177</v>
       </c>
@@ -4878,7 +4947,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>179</v>
       </c>
@@ -4889,7 +4958,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>181</v>
       </c>
@@ -4900,7 +4969,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>183</v>
       </c>
@@ -4911,7 +4980,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>185</v>
       </c>
@@ -4922,7 +4991,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>187</v>
       </c>
@@ -4933,7 +5002,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>189</v>
       </c>
@@ -4944,7 +5013,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>191</v>
       </c>
@@ -4955,7 +5024,7 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>304</v>
       </c>
@@ -4966,7 +5035,7 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>194</v>
       </c>
@@ -4977,14 +5046,13 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B109" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I109" s="14"/>
       <c r="J109" s="14"/>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
@@ -4996,8 +5064,9 @@
       <c r="R109" s="14"/>
       <c r="S109" s="14"/>
       <c r="T109" s="14"/>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U109" s="14"/>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>196</v>
       </c>
@@ -5008,7 +5077,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>198</v>
       </c>
@@ -5019,7 +5088,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>200</v>
       </c>
@@ -5030,7 +5099,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>202</v>
       </c>
@@ -5041,7 +5110,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>204</v>
       </c>
@@ -5052,7 +5121,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>206</v>
       </c>
@@ -5063,7 +5132,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>208</v>
       </c>
@@ -5074,7 +5143,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>210</v>
       </c>
@@ -5085,7 +5154,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>212</v>
       </c>
@@ -5096,7 +5165,7 @@
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>214</v>
       </c>
@@ -5107,7 +5176,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>216</v>
       </c>
@@ -5118,7 +5187,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>218</v>
       </c>
@@ -5129,7 +5198,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
         <v>220</v>
       </c>
@@ -5140,7 +5209,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
         <v>299</v>
       </c>
@@ -5151,11 +5220,11 @@
         <v>15.65</v>
       </c>
       <c r="E123" s="6">
-        <f>D123*[24]Main!$L$3</f>
+        <f>D123*[25]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
       <c r="F123" s="6">
-        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
         <v>112.015</v>
       </c>
       <c r="G123" s="6">
@@ -5166,7 +5235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
         <v>310</v>
       </c>
@@ -5177,11 +5246,11 @@
         <v>16.93</v>
       </c>
       <c r="E124" s="6">
-        <f>+D124*[34]Main!$L$3</f>
+        <f>+D124*[26]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
       <c r="F124" s="6">
-        <f>+[34]Main!$L$5-[34]Main!$L$6</f>
+        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
       <c r="G124" s="6">
@@ -5191,7 +5260,6 @@
       <c r="H124" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I124" s="16"/>
       <c r="J124" s="16"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
@@ -5203,8 +5271,9 @@
       <c r="R124" s="16"/>
       <c r="S124" s="16"/>
       <c r="T124" s="16"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U124" s="16"/>
+    </row>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>222</v>
       </c>
@@ -5215,7 +5284,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>224</v>
       </c>
@@ -5226,7 +5295,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>226</v>
       </c>
@@ -5237,7 +5306,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>228</v>
       </c>
@@ -5325,11 +5394,11 @@
         <v>7.06</v>
       </c>
       <c r="E135" s="6">
-        <f>D135*[25]Main!$J$3</f>
+        <f>D135*[27]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="F135" s="6">
-        <f>[25]Main!$J$5-[25]Main!$J$6</f>
+        <f>[27]Main!$J$5-[27]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="G135" s="8">
@@ -5351,11 +5420,11 @@
         <v>14.68</v>
       </c>
       <c r="E136" s="6">
-        <f>D136*[26]Main!$L$3</f>
+        <f>D136*[28]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="F136" s="6">
-        <f>[26]Main!$L$5-[26]Main!$L$6</f>
+        <f>[28]Main!$L$5-[28]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="G136" s="8">
@@ -5377,11 +5446,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="E137" s="6">
-        <f>D137*[27]Main!$J$3</f>
+        <f>D137*[29]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="F137" s="8">
-        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
+        <f>+[29]Main!$J$5-[29]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="G137" s="8">
@@ -5403,11 +5472,11 @@
         <v>7.57</v>
       </c>
       <c r="E138" s="6">
-        <f>D138*[28]Main!$M$3</f>
+        <f>D138*[30]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="F138" s="6">
-        <f>[28]Main!$M$5-[28]Main!$M$6</f>
+        <f>[30]Main!$M$5-[30]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="G138" s="8">
@@ -5429,11 +5498,11 @@
         <v>0.7</v>
       </c>
       <c r="E139" s="6">
-        <f>D139*[29]Main!$M$3</f>
+        <f>D139*[31]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="F139" s="6">
-        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <f>[31]Main!$M$5-[31]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="G139" s="8">
@@ -5455,11 +5524,11 @@
         <v>1.98</v>
       </c>
       <c r="E140" s="6">
-        <f>D140*[30]Main!$N$3</f>
+        <f>D140*[32]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="F140" s="6">
-        <f>[30]Main!$N$5-[30]Main!$N$6</f>
+        <f>[32]Main!$N$5-[32]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="G140" s="8">
@@ -5481,11 +5550,11 @@
         <v>0.62</v>
       </c>
       <c r="E141" s="6">
-        <f>D141*[31]Main!$L$3</f>
+        <f>D141*[33]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="F141" s="6">
-        <f>[31]Main!$L$5-[31]Main!$L$6</f>
+        <f>[33]Main!$L$5-[33]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="G141" s="8">
@@ -5507,11 +5576,11 @@
         <v>6.12</v>
       </c>
       <c r="E142" s="6">
-        <f>D142*[32]Main!$M$3</f>
+        <f>D142*[34]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="F142" s="6">
-        <f>[32]Main!$M$5-[32]Main!$M$6</f>
+        <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="G142" s="8">
@@ -5533,11 +5602,11 @@
         <v>0.98</v>
       </c>
       <c r="E143" s="6">
-        <f>D143*[33]Main!$M$3</f>
+        <f>D143*[35]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="F143" s="6">
-        <f>[33]Main!$M$5-[33]Main!$M$6</f>
+        <f>[35]Main!$M$5-[35]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="G143" s="8">
@@ -5572,8 +5641,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{31FFFB9E-A269-4EC0-9451-78F4F00A4890}"/>
@@ -5617,9 +5686,10 @@
     <hyperlink ref="B123" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
     <hyperlink ref="B92" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
     <hyperlink ref="B124" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630FA293-B6CD-4FA0-AA27-0471E99DB35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39B8AD5-A041-4845-8CA4-C28207F9A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="1980" windowWidth="17760" windowHeight="13500" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="10410" yWindow="2700" windowWidth="17760" windowHeight="11475" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="319">
   <si>
     <t>Exarta</t>
   </si>
@@ -1025,6 +1025,21 @@
   </si>
   <si>
     <t>Q222</t>
+  </si>
+  <si>
+    <t>Altimmune</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>Atai</t>
+  </si>
+  <si>
+    <t>ATAI</t>
+  </si>
+  <si>
+    <t>Last</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1115,6 +1130,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1954,12 +1975,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Humira"/>
+      <sheetName val="Rinvoq"/>
+      <sheetName val="Skyrizi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="3">
           <cell r="K3">
             <v>1778</v>
@@ -1976,8 +2001,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2182,6 +2209,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Monkeypox"/>
       <sheetName val="Model"/>
       <sheetName val="Potential award"/>
       <sheetName val="TPOXX"/>
@@ -2211,6 +2239,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2673,9 +2702,9 @@
       <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="L3">
@@ -2693,40 +2722,40 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2787,8 +2816,8 @@
       <sheetName val="vorapaxar"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="K3">
@@ -2806,25 +2835,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3281,13 +3310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:U145"/>
+  <dimension ref="B2:V147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3295,30 +3324,30 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="9" width="9.140625" style="3"/>
-    <col min="10" max="21" width="9.140625" style="4"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="9.140625" style="3"/>
+    <col min="11" max="22" width="9.140625" style="4"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="J2" s="17" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3329,58 +3358,61 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="4">
         <v>2022</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>2023</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>2024</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>2025</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>2026</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>2027</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>2022</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>2023</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>2024</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>2025</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>2026</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>2027</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3391,26 +3423,26 @@
         <v>169.99</v>
       </c>
       <c r="E4" s="6">
+        <f>+[1]Main!$S$3</f>
+        <v>2631.4018040000001</v>
+      </c>
+      <c r="F4" s="6">
         <f>D4*[1]Main!$S$3</f>
         <v>447311.99266196002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>+[1]Main!$S$5-[1]Main!$S$6</f>
         <v>-2760</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4-F4</f>
+      <c r="H4" s="6">
+        <f>F4-G4</f>
         <v>450071.99266196002</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6">
-        <f>+[1]Main!$S$3</f>
-        <v>2631.4018040000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3421,22 +3453,29 @@
         <v>138.28</v>
       </c>
       <c r="E5" s="6">
-        <f>D5*[2]Main!$K$3</f>
+        <f>+[2]Main!$K$3</f>
+        <v>1778</v>
+      </c>
+      <c r="F5" s="6">
+        <f>+D5*[2]Main!$K$3</f>
         <v>245861.84</v>
       </c>
-      <c r="F5" s="6">
-        <f>[2]Main!$K$5-[2]Main!$K$6</f>
+      <c r="G5" s="6">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>-65642</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G13" si="0">E5-F5</f>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H13" si="0">F5-G5</f>
         <v>311503.83999999997</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J5" s="18">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -3446,23 +3485,23 @@
       <c r="D6" s="7">
         <v>290.89999999999998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f>D6*[3]Main!$K$3</f>
         <v>276401.41571309994</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>[3]Main!$K$5-[3]Main!$K$6</f>
         <v>-11213.199999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>287614.61571309995</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
@@ -3472,23 +3511,23 @@
       <c r="D7" s="3">
         <v>303.35000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>(D7*[4]Main!$K$3)/CHF</f>
         <v>248747.31077758429</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>([4]Main!$K$5-[4]Main!$K$6)/CHF</f>
         <v>-18611.822559164022</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>267359.13333674835</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -3499,26 +3538,29 @@
         <v>46.53</v>
       </c>
       <c r="E8" s="6">
+        <f>+[5]Main!$L$3*1000</f>
+        <v>5758</v>
+      </c>
+      <c r="F8" s="6">
         <f>D8*[5]Main!$L$3*1000</f>
         <v>267919.74</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>([5]Main!$L$5-[5]Main!$L$6)*1000</f>
         <v>8332.9999999999909</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>259586.74</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="6">
-        <f>+[5]Main!$L$3*1000</f>
-        <v>5758</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J8" s="18">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3528,20 +3570,20 @@
       <c r="D9" s="3">
         <v>105.58</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f>D9*[6]Main!$K$3</f>
         <v>241070.81400000001</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>241070.81400000001</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -3551,23 +3593,23 @@
       <c r="D10" s="3">
         <v>84.62</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f>D10*[7]Main!$K$3</f>
         <v>213987.48121550001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>[7]Main!$K$5-[7]Main!$K$6</f>
         <v>-22550</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>236537.48121550001</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -3577,23 +3619,23 @@
       <c r="D11" s="3">
         <v>81.06</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>D11*[8]Main!$L$3</f>
         <v>179352.13207506001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-10678</v>
       </c>
-      <c r="G11" s="6">
-        <f>E11-F11</f>
+      <c r="H11" s="6">
+        <f>F11-G11</f>
         <v>190030.13207506001</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -3603,23 +3645,23 @@
       <c r="D12" s="3">
         <v>73.77</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f>D12*[9]Main!$L$3</f>
         <v>157061.07127166999</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-30004</v>
       </c>
-      <c r="G12" s="6">
-        <f>E12-F12</f>
+      <c r="H12" s="6">
+        <f>F12-G12</f>
         <v>187065.07127166999</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3629,23 +3671,23 @@
       <c r="D13" s="3">
         <v>246.73</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f>D13*[10]Main!$K$3</f>
         <v>131753.82</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-30310</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>162063.82</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -3655,23 +3697,23 @@
       <c r="D14" s="7">
         <v>49.2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f>D14*[11]Main!$L$3*2</f>
         <v>123482.16000000002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
         <v>-10384.598400000001</v>
       </c>
-      <c r="G14" s="6">
-        <f>E14-F14</f>
+      <c r="H14" s="6">
+        <f>F14-G14</f>
         <v>133866.75840000002</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
@@ -3681,23 +3723,23 @@
       <c r="D15" s="7">
         <v>66</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <f>D15*[12]Main!$L$3</f>
         <v>103026</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <f>[12]Main!$L$5-[12]Main!$L$6</f>
         <v>-25217</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" ref="G15:G19" si="1">E15-F15</f>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15:H19" si="1">F15-G15</f>
         <v>128243</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
@@ -3707,23 +3749,23 @@
       <c r="D16" s="3">
         <v>41.27</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>D16*[13]Main!$K$4/2</f>
         <v>104578.18000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>127534.20000000001</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -3733,23 +3775,23 @@
       <c r="D17" s="6">
         <v>1683.8</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f>D17*[13]Main!$K$4/100*GBP</f>
         <v>100976.8865672</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>123932.9065672</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
@@ -3759,23 +3801,23 @@
       <c r="D18" s="7">
         <v>60.9</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f>+D18*[14]Main!$J$3</f>
         <v>76855.8</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>-19456</v>
       </c>
-      <c r="G18" s="6">
-        <f>E18-F18</f>
+      <c r="H18" s="6">
+        <f>F18-G18</f>
         <v>96311.8</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -3785,23 +3827,23 @@
       <c r="D19" s="7">
         <v>175.1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f>D19*[15]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>86834.293029173947</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3811,23 +3853,23 @@
       <c r="D20" s="3">
         <v>255.99</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f>D20*[16]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f>[16]Main!$J$5-[16]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
-      <c r="G20" s="6">
-        <f>E20-F20</f>
+      <c r="H20" s="6">
+        <f>F20-G20</f>
         <v>84029.90898148845</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>51</v>
       </c>
@@ -3837,23 +3879,23 @@
       <c r="D21" s="3">
         <v>263.08999999999997</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f>+D21*[17]Main!$M$3</f>
         <v>67286.835779489993</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>8238.1</v>
       </c>
-      <c r="G21" s="6">
-        <f>E21-F21</f>
+      <c r="H21" s="6">
+        <f>F21-G21</f>
         <v>59048.735779489994</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
@@ -3863,23 +3905,23 @@
       <c r="D22" s="3">
         <v>10.46</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f>D22*[18]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <f>[18]Main!$M$5-[18]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
-      <c r="G22" s="6">
-        <f>E22-F22</f>
+      <c r="H22" s="6">
+        <f>F22-G22</f>
         <v>31346.43945768</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
@@ -3890,7 +3932,7 @@
         <v>580.95000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
@@ -3901,7 +3943,7 @@
         <v>128.03</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
@@ -3912,7 +3954,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
@@ -3923,7 +3965,7 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
@@ -3934,14 +3976,13 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3953,8 +3994,9 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>69</v>
       </c>
@@ -3965,7 +4007,7 @@
         <v>63.83</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
@@ -3976,7 +4018,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
         <v>274</v>
       </c>
@@ -3984,7 +4026,6 @@
         <v>275</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -3996,8 +4037,9 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
@@ -4008,7 +4050,7 @@
         <v>125.14</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
@@ -4019,7 +4061,7 @@
         <v>76.08</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
@@ -4029,23 +4071,23 @@
       <c r="D34" s="3">
         <v>71.27</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <f>+D34*[19]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2721</v>
       </c>
-      <c r="G34" s="6">
-        <f>E34-F34</f>
+      <c r="H34" s="6">
+        <f>F34-G34</f>
         <v>13065.66213397</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
@@ -4056,7 +4098,7 @@
         <v>28.54</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
@@ -4067,14 +4109,13 @@
         <v>349.96</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -4086,15 +4127,15 @@
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V37" s="11"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>268</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -4106,8 +4147,9 @@
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="11"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
@@ -4118,14 +4160,13 @@
         <v>165.45</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
         <v>272</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -4137,8 +4178,9 @@
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
@@ -4149,14 +4191,13 @@
         <v>39.35</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -4168,8 +4209,9 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>83</v>
       </c>
@@ -4179,23 +4221,23 @@
       <c r="D43" s="3">
         <v>132.13999999999999</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <f>D43*[20]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <f>[20]Main!$L$5-[20]Main!$L$6</f>
         <v>5643.241</v>
       </c>
-      <c r="G43" s="6">
-        <f>E43-F43</f>
+      <c r="H43" s="6">
+        <f>F43-G43</f>
         <v>7896.2021132399987</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
@@ -4206,7 +4248,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
@@ -4217,7 +4259,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
@@ -4228,7 +4270,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
@@ -4239,7 +4281,7 @@
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>93</v>
       </c>
@@ -4249,23 +4291,23 @@
       <c r="D48" s="3">
         <v>219.38</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <f>D48*[21]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <f>[21]Main!$K$5-[21]Main!$K$6</f>
         <v>3027</v>
       </c>
-      <c r="G48" s="6">
-        <f>E48-F48</f>
+      <c r="H48" s="6">
+        <f>F48-G48</f>
         <v>7437.4260000000013</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>139</v>
       </c>
@@ -4275,23 +4317,23 @@
       <c r="D49" s="7">
         <v>57</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <f>+D49*[22]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <f>+[22]Main!$L$5-[22]Main!$L$6</f>
         <v>776.13</v>
       </c>
-      <c r="G49" s="6">
-        <f>+E49-F49</f>
+      <c r="H49" s="6">
+        <f>+F49-G49</f>
         <v>5295.6136259999994</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>308</v>
       </c>
@@ -4302,25 +4344,24 @@
         <v>1721.48</v>
       </c>
       <c r="E50" s="6">
-        <f>+D50*I50/100*GBP</f>
+        <f>+[23]Main!$K$3</f>
+        <v>233</v>
+      </c>
+      <c r="F50" s="6">
+        <f>+D50*E50/100*GBP</f>
         <v>4746.2735717200003</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <f>+[23]Main!$K$5-[23]Main!$K$6</f>
         <v>-337</v>
       </c>
-      <c r="G50" s="6">
-        <f>+E50-F50</f>
+      <c r="H50" s="6">
+        <f>+F50-G50</f>
         <v>5083.2735717200003</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="6">
-        <f>+[23]Main!$K$3</f>
-        <v>233</v>
-      </c>
-      <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -4332,8 +4373,9 @@
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="15"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
@@ -4344,7 +4386,7 @@
         <v>93.28</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
@@ -4355,14 +4397,13 @@
         <v>142.91</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
         <v>282</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -4374,15 +4415,15 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="12"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
@@ -4394,8 +4435,9 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="12"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
@@ -4406,14 +4448,13 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
@@ -4425,15 +4466,15 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="12"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>285</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
@@ -4445,15 +4486,15 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="12"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>283</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
@@ -4465,15 +4506,15 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="12"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
@@ -4485,15 +4526,15 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="12"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
@@ -4505,8 +4546,9 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="12"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>264</v>
       </c>
@@ -4514,7 +4556,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
@@ -4525,7 +4567,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>103</v>
       </c>
@@ -4536,7 +4578,7 @@
         <v>44.14</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
@@ -4723,7 +4765,7 @@
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>141</v>
       </c>
@@ -4734,7 +4776,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>143</v>
       </c>
@@ -4745,7 +4787,7 @@
         <v>83.92</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>145</v>
       </c>
@@ -4756,7 +4798,7 @@
         <v>60.72</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
@@ -4767,7 +4809,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>149</v>
       </c>
@@ -4778,7 +4820,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>151</v>
       </c>
@@ -4789,7 +4831,7 @@
         <v>42.98</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>153</v>
       </c>
@@ -4800,7 +4842,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>155</v>
       </c>
@@ -4811,7 +4853,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>157</v>
       </c>
@@ -4822,7 +4864,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>159</v>
       </c>
@@ -4833,7 +4875,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>161</v>
       </c>
@@ -4844,7 +4886,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
         <v>163</v>
       </c>
@@ -4854,23 +4896,23 @@
       <c r="D92" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="E92" s="6">
+      <c r="F92" s="6">
         <f>+D92*[24]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
-      <c r="F92" s="6">
+      <c r="G92" s="6">
         <f>+[24]Main!$N$5-[24]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
-      <c r="G92" s="6">
-        <f>+E92-F92</f>
+      <c r="H92" s="6">
+        <f>+F92-G92</f>
         <v>2282.2630120399995</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>165</v>
       </c>
@@ -4881,7 +4923,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>167</v>
       </c>
@@ -4892,7 +4934,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>169</v>
       </c>
@@ -4903,7 +4945,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>171</v>
       </c>
@@ -4914,7 +4956,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>173</v>
       </c>
@@ -4925,7 +4967,7 @@
         <v>43.98</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>175</v>
       </c>
@@ -4936,7 +4978,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>177</v>
       </c>
@@ -4947,7 +4989,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>179</v>
       </c>
@@ -4958,7 +5000,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>181</v>
       </c>
@@ -4969,7 +5011,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>183</v>
       </c>
@@ -4980,7 +5022,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>185</v>
       </c>
@@ -4991,7 +5033,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>187</v>
       </c>
@@ -5002,7 +5044,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>189</v>
       </c>
@@ -5013,7 +5055,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>191</v>
       </c>
@@ -5024,7 +5066,7 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>304</v>
       </c>
@@ -5035,7 +5077,7 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>194</v>
       </c>
@@ -5046,14 +5088,13 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B109" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="J109" s="14"/>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
@@ -5065,8 +5106,9 @@
       <c r="S109" s="14"/>
       <c r="T109" s="14"/>
       <c r="U109" s="14"/>
-    </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V109" s="14"/>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>196</v>
       </c>
@@ -5077,7 +5119,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>198</v>
       </c>
@@ -5088,7 +5130,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>200</v>
       </c>
@@ -5099,7 +5141,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>202</v>
       </c>
@@ -5110,7 +5152,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>204</v>
       </c>
@@ -5121,7 +5163,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>206</v>
       </c>
@@ -5132,7 +5174,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>208</v>
       </c>
@@ -5143,7 +5185,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>210</v>
       </c>
@@ -5154,7 +5196,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>212</v>
       </c>
@@ -5165,7 +5207,7 @@
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>214</v>
       </c>
@@ -5176,7 +5218,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
         <v>216</v>
       </c>
@@ -5187,7 +5229,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>218</v>
       </c>
@@ -5198,7 +5240,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
         <v>220</v>
       </c>
@@ -5209,7 +5251,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
         <v>299</v>
       </c>
@@ -5219,23 +5261,23 @@
       <c r="D123" s="3">
         <v>15.65</v>
       </c>
-      <c r="E123" s="6">
+      <c r="F123" s="6">
         <f>D123*[25]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
-      <c r="F123" s="6">
+      <c r="G123" s="6">
         <f>+[25]Main!$L$5-[25]Main!$L$6</f>
         <v>112.015</v>
       </c>
-      <c r="G123" s="6">
-        <f>+E123-F123</f>
+      <c r="H123" s="6">
+        <f>+F123-G123</f>
         <v>1141.14095595</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
         <v>310</v>
       </c>
@@ -5245,22 +5287,24 @@
       <c r="D124" s="3">
         <v>16.93</v>
       </c>
-      <c r="E124" s="6">
+      <c r="F124" s="6">
         <f>+D124*[26]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
-      <c r="F124" s="6">
+      <c r="G124" s="6">
         <f>+[26]Main!$L$5-[26]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
-      <c r="G124" s="6">
-        <f t="shared" ref="G124" si="2">+E124-F124</f>
+      <c r="H124" s="6">
+        <f t="shared" ref="H124" si="2">+F124-G124</f>
         <v>1075.2886793099999</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J124" s="16"/>
+      <c r="J124" s="18">
+        <v>44771</v>
+      </c>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -5272,8 +5316,9 @@
       <c r="S124" s="16"/>
       <c r="T124" s="16"/>
       <c r="U124" s="16"/>
-    </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V124" s="16"/>
+    </row>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
         <v>222</v>
       </c>
@@ -5284,7 +5329,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>224</v>
       </c>
@@ -5295,7 +5340,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
         <v>226</v>
       </c>
@@ -5306,343 +5351,395 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B128" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D128" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="F128" s="3">
+        <v>630</v>
+      </c>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="17"/>
+      <c r="U128" s="17"/>
+      <c r="V128" s="17"/>
+    </row>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B129" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D129" s="3">
+        <v>11.93</v>
+      </c>
+      <c r="F129" s="3">
+        <v>516</v>
+      </c>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
+      <c r="R129" s="17"/>
+      <c r="S129" s="17"/>
+      <c r="T129" s="17"/>
+      <c r="U129" s="17"/>
+      <c r="V129" s="17"/>
+    </row>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D130" s="3">
         <v>5.46</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D131" s="7">
         <v>36.6</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D132" s="7">
         <v>40.24</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D133" s="3">
         <v>22.11</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D134" s="3">
         <v>10.31</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D135" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D136" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="5" t="s">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B137" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D137" s="3">
         <v>7.06</v>
       </c>
-      <c r="E135" s="6">
-        <f>D135*[27]Main!$J$3</f>
+      <c r="F137" s="6">
+        <f>D137*[27]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="F135" s="6">
+      <c r="G137" s="6">
         <f>[27]Main!$J$5-[27]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="G135" s="8">
-        <f t="shared" ref="G135:G136" si="3">+E135-F135</f>
+      <c r="H137" s="8">
+        <f t="shared" ref="H137:H138" si="3">+F137-G137</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="5" t="s">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D138" s="3">
         <v>14.68</v>
       </c>
-      <c r="E136" s="6">
-        <f>D136*[28]Main!$L$3</f>
+      <c r="F138" s="6">
+        <f>D138*[28]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F136" s="6">
+      <c r="G138" s="6">
         <f>[28]Main!$L$5-[28]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G136" s="8">
+      <c r="H138" s="8">
         <f t="shared" si="3"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="I138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D139" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E137" s="6">
-        <f>D137*[29]Main!$J$3</f>
+      <c r="F139" s="6">
+        <f>D139*[29]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="F137" s="8">
+      <c r="G139" s="8">
         <f>+[29]Main!$J$5-[29]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="G137" s="8">
-        <f>+E137-F137</f>
+      <c r="H139" s="8">
+        <f>+F139-G139</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="I139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B140" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D140" s="3">
         <v>7.57</v>
       </c>
-      <c r="E138" s="6">
-        <f>D138*[30]Main!$M$3</f>
+      <c r="F140" s="6">
+        <f>D140*[30]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="F138" s="6">
+      <c r="G140" s="6">
         <f>[30]Main!$M$5-[30]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="G138" s="8">
-        <f t="shared" ref="G138:G143" si="4">+E138-F138</f>
+      <c r="H140" s="8">
+        <f t="shared" ref="H140:H145" si="4">+F140-G140</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B141" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D141" s="7">
         <v>0.7</v>
       </c>
-      <c r="E139" s="6">
-        <f>D139*[31]Main!$M$3</f>
+      <c r="F141" s="6">
+        <f>D141*[31]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F139" s="6">
+      <c r="G141" s="6">
         <f>[31]Main!$M$5-[31]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G139" s="8">
+      <c r="H141" s="8">
         <f t="shared" si="4"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D142" s="3">
         <v>1.98</v>
       </c>
-      <c r="E140" s="6">
-        <f>D140*[32]Main!$N$3</f>
+      <c r="F142" s="6">
+        <f>D142*[32]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F140" s="6">
+      <c r="G142" s="6">
         <f>[32]Main!$N$5-[32]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G140" s="8">
+      <c r="H142" s="8">
         <f t="shared" si="4"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="5" t="s">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D143" s="3">
         <v>0.62</v>
       </c>
-      <c r="E141" s="6">
-        <f>D141*[33]Main!$L$3</f>
+      <c r="F143" s="6">
+        <f>D143*[33]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F141" s="6">
+      <c r="G143" s="6">
         <f>[33]Main!$L$5-[33]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G141" s="8">
+      <c r="H143" s="8">
         <f t="shared" si="4"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B144" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D144" s="3">
         <v>6.12</v>
       </c>
-      <c r="E142" s="6">
-        <f>D142*[34]Main!$M$3</f>
+      <c r="F144" s="6">
+        <f>D144*[34]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F142" s="6">
+      <c r="G144" s="6">
         <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G142" s="8">
+      <c r="H144" s="8">
         <f t="shared" si="4"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="5" t="s">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D145" s="3">
         <v>0.98</v>
       </c>
-      <c r="E143" s="6">
-        <f>D143*[35]Main!$M$3</f>
+      <c r="F145" s="6">
+        <f>D145*[35]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F143" s="6">
+      <c r="G145" s="6">
         <f>[35]Main!$M$5-[35]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G143" s="8">
+      <c r="H145" s="8">
         <f t="shared" si="4"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D146" s="3">
         <v>0.61</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" s="1" t="s">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D147" s="3">
         <v>5.55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{31FFFB9E-A269-4EC0-9451-78F4F00A4890}"/>
@@ -5669,15 +5766,15 @@
     <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B35" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B27" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B137" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B140" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B136" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B141" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B138" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B143" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B135" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B142" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B139" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B139" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B142" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B138" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B143" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B140" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B145" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B137" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B144" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B141" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39B8AD5-A041-4845-8CA4-C28207F9A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A7716-6F68-41DB-BD81-BCA2294C6B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="2700" windowWidth="17760" windowHeight="11475" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="8505" yWindow="3045" windowWidth="17760" windowHeight="11475" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="319">
   <si>
     <t>Exarta</t>
   </si>
@@ -1162,15 +1163,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Management"/>
+      <sheetName val="Markets"/>
+      <sheetName val="Debt"/>
+      <sheetName val="IMS"/>
       <sheetName val="IP"/>
-      <sheetName val="Pipeline"/>
-      <sheetName val="Markets"/>
-      <sheetName val="Management"/>
-      <sheetName val="Pricing"/>
-      <sheetName val="IMS"/>
-      <sheetName val="Old Drugs"/>
+      <sheetName val="Master Pipeline"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Stelara"/>
       <sheetName val="Remicade"/>
       <sheetName val="Procrit"/>
       <sheetName val="Invega"/>
@@ -1190,7 +1191,6 @@
       <sheetName val="Contraceptives"/>
       <sheetName val="Simponi"/>
       <sheetName val="Xarelto"/>
-      <sheetName val="Stelara"/>
       <sheetName val="Tapentadol"/>
       <sheetName val="riplivirine"/>
       <sheetName val="Sustenna"/>
@@ -1212,70 +1212,69 @@
       <sheetName val="Acquisitions"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
         <row r="3">
-          <cell r="S3">
+          <cell r="R3">
             <v>2631.4018040000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="S5">
+          <cell r="R5">
             <v>30388</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="S6">
+          <cell r="R6">
             <v>33148</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2585,6 +2584,73 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Management and Structure"/>
+      <sheetName val="Debt"/>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Tecentriq"/>
+      <sheetName val="Diagnostics"/>
+      <sheetName val="MabThera"/>
+      <sheetName val="Avastin"/>
+      <sheetName val="Avastin Model"/>
+      <sheetName val="Herceptin"/>
+      <sheetName val="Pegasys"/>
+      <sheetName val="Xeloda"/>
+      <sheetName val="Actemra"/>
+      <sheetName val="Lucentis"/>
+      <sheetName val="Tarceva"/>
+      <sheetName val="R1626"/>
+      <sheetName val="pertuzumab"/>
+      <sheetName val="dalcetrapib"/>
+      <sheetName val="taspoglutide"/>
+      <sheetName val="Mircera"/>
+      <sheetName val="aleglitazar"/>
+      <sheetName val="Failures"/>
+      <sheetName val="ocrelizumab"/>
+      <sheetName val="Kadcyla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="K3">
+            <v>800.40300000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2816,8 +2882,8 @@
       <sheetName val="vorapaxar"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="K3">
@@ -2835,25 +2901,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3310,13 +3376,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:V147"/>
+  <dimension ref="B2:W147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3329,7 +3395,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
@@ -3347,7 +3413,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3411,8 +3477,11 @@
       <c r="V3" s="4">
         <v>2027</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3423,15 +3492,15 @@
         <v>169.99</v>
       </c>
       <c r="E4" s="6">
-        <f>+[1]Main!$S$3</f>
+        <f>+[1]Main!$R$3</f>
         <v>2631.4018040000001</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*[1]Main!$S$3</f>
+        <f>D4*[1]Main!$R$3</f>
         <v>447311.99266196002</v>
       </c>
       <c r="G4" s="6">
-        <f>+[1]Main!$S$5-[1]Main!$S$6</f>
+        <f>+[1]Main!$R$5-[1]Main!$R$6</f>
         <v>-2760</v>
       </c>
       <c r="H4" s="6">
@@ -3441,8 +3510,11 @@
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J4" s="18">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3475,7 +3547,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -3501,7 +3573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
@@ -3510,6 +3582,10 @@
       </c>
       <c r="D7" s="3">
         <v>303.35000000000002</v>
+      </c>
+      <c r="E7" s="6">
+        <f>+[36]Main!$K$3</f>
+        <v>800.40300000000002</v>
       </c>
       <c r="F7" s="6">
         <f>(D7*[4]Main!$K$3)/CHF</f>
@@ -3526,8 +3602,14 @@
       <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J7" s="18">
+        <v>44772</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -3560,7 +3642,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3583,7 +3665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
@@ -3609,7 +3691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -3635,7 +3717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -3661,7 +3743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3687,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
@@ -3713,7 +3795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
@@ -3739,7 +3821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A7716-6F68-41DB-BD81-BCA2294C6B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D60163-3B8E-44F9-932B-1BCCB8B80943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="3045" windowWidth="17760" windowHeight="11475" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="8700" yWindow="1215" windowWidth="18975" windowHeight="13935" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,6 @@
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
-    <externalReference r:id="rId40"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="323">
   <si>
     <t>Exarta</t>
   </si>
@@ -1041,6 +1040,18 @@
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>Innovent</t>
+  </si>
+  <si>
+    <t>1801 HK</t>
+  </si>
+  <si>
+    <t>I-Mab</t>
+  </si>
+  <si>
+    <t>IMAB</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1141,6 +1152,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1173,8 +1190,9 @@
       <sheetName val="Model"/>
       <sheetName val="Stelara"/>
       <sheetName val="Remicade"/>
+      <sheetName val="Ponvory"/>
+      <sheetName val="Invega"/>
       <sheetName val="Procrit"/>
-      <sheetName val="Invega"/>
       <sheetName val="Consta"/>
       <sheetName val="Aciphex"/>
       <sheetName val="Levaquin"/>
@@ -1212,29 +1230,1302 @@
       <sheetName val="Acquisitions"/>
     </sheetNames>
     <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="3">
+          <cell r="R3">
+            <v>2631.4018040000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="R5">
+            <v>30388</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="R6">
+            <v>33148</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RX Rank"/>
+      <sheetName val="RX Alpha"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Lovenox"/>
+      <sheetName val="Lantus"/>
+      <sheetName val="Plavix"/>
+      <sheetName val="Multaq"/>
+      <sheetName val="idraparinux"/>
+      <sheetName val="SR 58611"/>
+      <sheetName val="Eplivanserin"/>
+      <sheetName val="SSR 591813"/>
+      <sheetName val="Xaliproden"/>
+      <sheetName val="Alvocidib"/>
+      <sheetName val="SR 121463"/>
+      <sheetName val="BSI-201"/>
+      <sheetName val="Zimulti"/>
+      <sheetName val="teriflunomide"/>
+      <sheetName val="Failures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="L3">
+            <v>1254.9000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>10098</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>20306</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Crestor"/>
+      <sheetName val="Seroquel"/>
+      <sheetName val="Symbicort"/>
+      <sheetName val="Nexium-Prilosec"/>
+      <sheetName val="Toprol-XL"/>
+      <sheetName val="Atacand"/>
+      <sheetName val="CytoFab"/>
+      <sheetName val="Zactima"/>
+      <sheetName val="Brilinta"/>
+      <sheetName val="4121"/>
+      <sheetName val="0837"/>
+      <sheetName val="2171"/>
+      <sheetName val="3480"/>
+      <sheetName val="6244"/>
+      <sheetName val="4054"/>
+      <sheetName val="Iressa"/>
+      <sheetName val="Exanta"/>
+      <sheetName val="dapagliflozin"/>
+      <sheetName val="Failures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>1561</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>5823</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>31040</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Advair"/>
+      <sheetName val="Relovair"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Avandia"/>
+      <sheetName val="Valtrex"/>
+      <sheetName val="Serevent"/>
+      <sheetName val="Votrient"/>
+      <sheetName val="Avodart"/>
+      <sheetName val="Flovent"/>
+      <sheetName val="Tykerb"/>
+      <sheetName val="Imitrex"/>
+      <sheetName val="Lamictal"/>
+      <sheetName val="Trexima"/>
+      <sheetName val="Combivir"/>
+      <sheetName val="Allermist"/>
+      <sheetName val="Avandaryl"/>
+      <sheetName val="Trizivir"/>
+      <sheetName val="Lexiva"/>
+      <sheetName val="Wellbutrin"/>
+      <sheetName val="Paxil"/>
+      <sheetName val="Requip"/>
+      <sheetName val="Flonase"/>
+      <sheetName val="Vestipitant"/>
+      <sheetName val="MAGE"/>
+      <sheetName val="Arzerra"/>
+      <sheetName val="eltrombopag"/>
+      <sheetName val="Cervarix"/>
+      <sheetName val="Horizant"/>
+      <sheetName val="716155"/>
+      <sheetName val="699"/>
+      <sheetName val="Potiga"/>
+      <sheetName val="GSK786"/>
+      <sheetName val="GSK436"/>
+      <sheetName val="GSK212"/>
+      <sheetName val="GSK968"/>
+      <sheetName val="Relenza"/>
+      <sheetName val="IPX066"/>
+      <sheetName val="Benlysta"/>
+      <sheetName val="Amigal"/>
+      <sheetName val="Arixtra"/>
+      <sheetName val="Pandemrix"/>
+      <sheetName val="MenHibrix"/>
+      <sheetName val="Rotarix"/>
+      <sheetName val="darapladib"/>
+      <sheetName val="Synflorix"/>
+      <sheetName val="GSK572"/>
+      <sheetName val="mepolizumab"/>
+      <sheetName val="denosumab"/>
+      <sheetName val="Syncria"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="K4">
+            <v>5068</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>19400</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Stribild"/>
+      <sheetName val="Truvada"/>
+      <sheetName val="Viread"/>
+      <sheetName val="Ranexa"/>
+      <sheetName val="Atripla"/>
+      <sheetName val="IMS Monthly"/>
+      <sheetName val="IMS"/>
+      <sheetName val="Rx"/>
+      <sheetName val="HBV"/>
+      <sheetName val="darusentan"/>
+      <sheetName val="Letairis"/>
+      <sheetName val="Hepsera"/>
+      <sheetName val="HIV"/>
+      <sheetName val="GS 9137"/>
+      <sheetName val="GS 9132"/>
+      <sheetName val="GS9190"/>
+      <sheetName val="sofosbuvir"/>
+      <sheetName val="idelasilib"/>
+      <sheetName val="GS 9451"/>
+      <sheetName val="Cayston"/>
+      <sheetName val="Tamiflu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>1262</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>6752</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>26208</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>434.77787799999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1403</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>10631</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>456.20380299999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1808.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>5806.9000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Trikafta"/>
+      <sheetName val="Orkambi"/>
+      <sheetName val="Symdeko"/>
+      <sheetName val="Kalydeco"/>
+      <sheetName val="CTX001"/>
+      <sheetName val="VX-880"/>
+      <sheetName val="VX-121"/>
+      <sheetName val="VX-548"/>
+      <sheetName val="inaxaplin"/>
+      <sheetName val="IP"/>
+      <sheetName val="Compounds"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>255.75596100000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>8238.1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.326908</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Jakafi"/>
+      <sheetName val="NEJM letter"/>
+      <sheetName val="Opzelura"/>
+      <sheetName val="Olumiant"/>
+      <sheetName val="Minjuvi"/>
+      <sheetName val="Tabrecta"/>
+      <sheetName val="Pemazyre"/>
+      <sheetName val="retifanlimab"/>
+      <sheetName val="parsaclisib"/>
+      <sheetName val="INCB7839"/>
+      <sheetName val="INCB24360"/>
+      <sheetName val="INCB 7839"/>
+      <sheetName val="INCB 8696"/>
+      <sheetName val="Dexelvucitabine"/>
+      <sheetName val="INCB 13739"/>
+      <sheetName val="INCB 15050"/>
+      <sheetName val="Old Model"/>
+      <sheetName val="JAK field"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>221.505011</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>2721</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>102.46286600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>6252.2330000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>608.99199999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Humira"/>
+      <sheetName val="Rinvoq"/>
+      <sheetName val="Skyrizi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="K3">
+            <v>1778</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>7832</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>73474</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Remodulin"/>
+      <sheetName val="Tyvaso"/>
+      <sheetName val="Oral"/>
+      <sheetName val="Adcirca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>47.7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3827</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>106.521818</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>965.298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>189.16800000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>233</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>426</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>763</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>311.48201699999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>869.93499999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="sabizabulin"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.073863000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>112.015</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Monkeypox"/>
+      <sheetName val="Model"/>
+      <sheetName val="Potential award"/>
+      <sheetName val="TPOXX"/>
+      <sheetName val="Legal"/>
+      <sheetName val="Pipeline"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>72.566367</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>153.25991400000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="CPP-115 Model"/>
+      <sheetName val="LEMS"/>
+      <sheetName val="Firdapse"/>
+      <sheetName val="Ampyra"/>
+      <sheetName val="CPP-115"/>
+      <sheetName val="CPP-109"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>102.780151</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>197.79600000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>40.004356999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>277.88299999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>64.344476</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>111.794</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>19.475999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>44.710678000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>120.43700000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Management and Structure"/>
+      <sheetName val="Debt"/>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Tecentriq"/>
+      <sheetName val="Diagnostics"/>
+      <sheetName val="MabThera"/>
+      <sheetName val="Avastin"/>
+      <sheetName val="Avastin Model"/>
+      <sheetName val="Herceptin"/>
+      <sheetName val="Pegasys"/>
+      <sheetName val="Xeloda"/>
+      <sheetName val="Actemra"/>
+      <sheetName val="Lucentis"/>
+      <sheetName val="Tarceva"/>
+      <sheetName val="R1626"/>
+      <sheetName val="pertuzumab"/>
+      <sheetName val="dalcetrapib"/>
+      <sheetName val="taspoglutide"/>
+      <sheetName val="Mircera"/>
+      <sheetName val="aleglitazar"/>
+      <sheetName val="Failures"/>
+      <sheetName val="ocrelizumab"/>
+      <sheetName val="Kadcyla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="K3">
+            <v>800.40300000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>13031</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>31198</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>184.19892899999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>67.233999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>126.736</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>20.079526999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>16.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0.69799999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>48.69059</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18.687999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>5.4249999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Zyprexa"/>
+      <sheetName val="Cymbalta"/>
+      <sheetName val="Strattera"/>
+      <sheetName val="Forteo"/>
+      <sheetName val="Evista"/>
+      <sheetName val="Cialis"/>
+      <sheetName val="Gemzar"/>
+      <sheetName val="Alimta"/>
+      <sheetName val="Exenatide"/>
+      <sheetName val="Effient"/>
+      <sheetName val="Enzastaurin"/>
+      <sheetName val="Arzoxifene"/>
+      <sheetName val="LY2062430"/>
+      <sheetName val="LY2140023"/>
+    </sheetNames>
+    <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>950.15955899999994</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>5295.6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>16508.8</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="R3">
-            <v>2631.4018040000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="R5">
-            <v>30388</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="R6">
-            <v>33148</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
@@ -1245,42 +2536,367 @@
       <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Approved Products"/>
+      <sheetName val="Management"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Enbrel"/>
+      <sheetName val="Prevnar"/>
+      <sheetName val="Lyrica"/>
+      <sheetName val="Axitinib"/>
+      <sheetName val="Chantix"/>
+      <sheetName val="Norvasc"/>
+      <sheetName val="Spiriva"/>
+      <sheetName val="Xalkori"/>
+      <sheetName val="Viagra"/>
+      <sheetName val="Celebrex"/>
+      <sheetName val="Detrol"/>
+      <sheetName val="Geodon"/>
+      <sheetName val="Sutent"/>
+      <sheetName val="Lipitor"/>
+      <sheetName val="Chantix Model"/>
+      <sheetName val="Toviaz"/>
+      <sheetName val="Diflucan"/>
+      <sheetName val="Cardura"/>
+      <sheetName val="Vfend"/>
+      <sheetName val="Zyvox"/>
+      <sheetName val="Selzentry"/>
+      <sheetName val="PF868554"/>
+      <sheetName val="Aricept"/>
+      <sheetName val="tofacitinib"/>
+      <sheetName val="Zithromax"/>
+      <sheetName val="Genotropin"/>
+      <sheetName val="tanezumab"/>
+      <sheetName val="Accupril"/>
+      <sheetName val="Fablyn"/>
+      <sheetName val="apixaban"/>
+      <sheetName val="Acquisitions"/>
+      <sheetName val="Failures"/>
+      <sheetName val="IP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="L3">
+            <v>5.758</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>44.633999999999993</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>36.301000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Victoza"/>
+      <sheetName val="NovoLog"/>
+      <sheetName val="Levemir"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>2283.3000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Crixivan"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Vytorin"/>
+      <sheetName val="Gardasil"/>
+      <sheetName val="Rotateq"/>
+      <sheetName val="Fosamax"/>
+      <sheetName val="Arcoxia"/>
+      <sheetName val="Zostavax"/>
+      <sheetName val="Singulair"/>
+      <sheetName val="Januvia"/>
+      <sheetName val="Zolinza"/>
+      <sheetName val="odanacatib"/>
+      <sheetName val="524"/>
+      <sheetName val="517"/>
+      <sheetName val="Isentress"/>
+      <sheetName val="rolofylline"/>
+      <sheetName val="taranabant"/>
+      <sheetName val="telcagepant"/>
+      <sheetName val="457"/>
+      <sheetName val="vorapaxar"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="K3">
+            <v>2528.8050250000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>9244</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>31794</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IMS Dollars"/>
+      <sheetName val="Sandoz"/>
+      <sheetName val="IMS Alpha"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Diovan"/>
+      <sheetName val="Diovan Model"/>
+      <sheetName val="Gleevec"/>
+      <sheetName val="Zometa"/>
+      <sheetName val="Lucentis"/>
+      <sheetName val="Femara"/>
+      <sheetName val="Sandostatin"/>
+      <sheetName val="Exjade"/>
+      <sheetName val="Tekturna"/>
+      <sheetName val="Lamisil"/>
+      <sheetName val="Focalin"/>
+      <sheetName val="Aclasta"/>
+      <sheetName val="indacaterol"/>
+      <sheetName val="Galvus"/>
+      <sheetName val="Tasigna"/>
+      <sheetName val="FTY720"/>
+      <sheetName val="Exforge"/>
+      <sheetName val="Lotrel"/>
+      <sheetName val="Afinitor"/>
+      <sheetName val="Ilaris"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Vaccines"/>
+      <sheetName val="Menveo"/>
+      <sheetName val="Xolair"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="L3">
+            <v>2212.5849010000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>10678</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Opdivo"/>
+      <sheetName val="Orencia"/>
+      <sheetName val="Yervoy"/>
+      <sheetName val="Eliquis"/>
+      <sheetName val="Empliciti"/>
+      <sheetName val="Avapro"/>
+      <sheetName val="Plavix"/>
+      <sheetName val="Abilify"/>
+      <sheetName val="Reyataz"/>
+      <sheetName val="Sprycel"/>
+      <sheetName val="Erbitux"/>
+      <sheetName val="Onglyza"/>
+      <sheetName val="Sustiva"/>
+      <sheetName val="dapagliflozin"/>
+      <sheetName val="ixabepilone"/>
+      <sheetName val="790052"/>
+      <sheetName val="Discontinuations"/>
+      <sheetName val="brivanib"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="L3">
+            <v>2129.0642710000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>14968</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>44972</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1416,1664 +3032,6 @@
       <sheetData sheetId="54"/>
       <sheetData sheetId="55"/>
       <sheetData sheetId="56"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RX Rank"/>
-      <sheetName val="RX Alpha"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Lovenox"/>
-      <sheetName val="Lantus"/>
-      <sheetName val="Plavix"/>
-      <sheetName val="Multaq"/>
-      <sheetName val="idraparinux"/>
-      <sheetName val="SR 58611"/>
-      <sheetName val="Eplivanserin"/>
-      <sheetName val="SSR 591813"/>
-      <sheetName val="Xaliproden"/>
-      <sheetName val="Alvocidib"/>
-      <sheetName val="SR 121463"/>
-      <sheetName val="BSI-201"/>
-      <sheetName val="Zimulti"/>
-      <sheetName val="teriflunomide"/>
-      <sheetName val="Failures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="L3">
-            <v>1254.9000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>10098</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>20306</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Crestor"/>
-      <sheetName val="Seroquel"/>
-      <sheetName val="Symbicort"/>
-      <sheetName val="Nexium-Prilosec"/>
-      <sheetName val="Toprol-XL"/>
-      <sheetName val="Atacand"/>
-      <sheetName val="CytoFab"/>
-      <sheetName val="Zactima"/>
-      <sheetName val="Brilinta"/>
-      <sheetName val="4121"/>
-      <sheetName val="0837"/>
-      <sheetName val="2171"/>
-      <sheetName val="3480"/>
-      <sheetName val="6244"/>
-      <sheetName val="4054"/>
-      <sheetName val="Iressa"/>
-      <sheetName val="Exanta"/>
-      <sheetName val="dapagliflozin"/>
-      <sheetName val="Failures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>1561</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>5823</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>31040</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Advair"/>
-      <sheetName val="Relovair"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Avandia"/>
-      <sheetName val="Valtrex"/>
-      <sheetName val="Serevent"/>
-      <sheetName val="Votrient"/>
-      <sheetName val="Avodart"/>
-      <sheetName val="Flovent"/>
-      <sheetName val="Tykerb"/>
-      <sheetName val="Imitrex"/>
-      <sheetName val="Lamictal"/>
-      <sheetName val="Trexima"/>
-      <sheetName val="Combivir"/>
-      <sheetName val="Allermist"/>
-      <sheetName val="Avandaryl"/>
-      <sheetName val="Trizivir"/>
-      <sheetName val="Lexiva"/>
-      <sheetName val="Wellbutrin"/>
-      <sheetName val="Paxil"/>
-      <sheetName val="Requip"/>
-      <sheetName val="Flonase"/>
-      <sheetName val="Vestipitant"/>
-      <sheetName val="MAGE"/>
-      <sheetName val="Arzerra"/>
-      <sheetName val="eltrombopag"/>
-      <sheetName val="Cervarix"/>
-      <sheetName val="Horizant"/>
-      <sheetName val="716155"/>
-      <sheetName val="699"/>
-      <sheetName val="Potiga"/>
-      <sheetName val="GSK786"/>
-      <sheetName val="GSK436"/>
-      <sheetName val="GSK212"/>
-      <sheetName val="GSK968"/>
-      <sheetName val="Relenza"/>
-      <sheetName val="IPX066"/>
-      <sheetName val="Benlysta"/>
-      <sheetName val="Amigal"/>
-      <sheetName val="Arixtra"/>
-      <sheetName val="Pandemrix"/>
-      <sheetName val="MenHibrix"/>
-      <sheetName val="Rotarix"/>
-      <sheetName val="darapladib"/>
-      <sheetName val="Synflorix"/>
-      <sheetName val="GSK572"/>
-      <sheetName val="mepolizumab"/>
-      <sheetName val="denosumab"/>
-      <sheetName val="Syncria"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
-            <v>5068</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>19400</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Stribild"/>
-      <sheetName val="Truvada"/>
-      <sheetName val="Viread"/>
-      <sheetName val="Ranexa"/>
-      <sheetName val="Atripla"/>
-      <sheetName val="IMS Monthly"/>
-      <sheetName val="IMS"/>
-      <sheetName val="Rx"/>
-      <sheetName val="HBV"/>
-      <sheetName val="darusentan"/>
-      <sheetName val="Letairis"/>
-      <sheetName val="Hepsera"/>
-      <sheetName val="HIV"/>
-      <sheetName val="GS 9137"/>
-      <sheetName val="GS 9132"/>
-      <sheetName val="GS9190"/>
-      <sheetName val="sofosbuvir"/>
-      <sheetName val="idelasilib"/>
-      <sheetName val="GS 9451"/>
-      <sheetName val="Cayston"/>
-      <sheetName val="Tamiflu"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="J3">
-            <v>1262</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>6752</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>26208</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>434.77787799999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1403</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>10631</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>456.20380299999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1808.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5806.9000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Trikafta"/>
-      <sheetName val="Orkambi"/>
-      <sheetName val="Symdeko"/>
-      <sheetName val="Kalydeco"/>
-      <sheetName val="CTX001"/>
-      <sheetName val="VX-880"/>
-      <sheetName val="VX-121"/>
-      <sheetName val="VX-548"/>
-      <sheetName val="inaxaplin"/>
-      <sheetName val="IP"/>
-      <sheetName val="Compounds"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>255.75596100000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>8238.1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>1212.326908</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>752.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>19417.900000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Jakafi"/>
-      <sheetName val="NEJM letter"/>
-      <sheetName val="Opzelura"/>
-      <sheetName val="Olumiant"/>
-      <sheetName val="Minjuvi"/>
-      <sheetName val="Tabrecta"/>
-      <sheetName val="Pemazyre"/>
-      <sheetName val="retifanlimab"/>
-      <sheetName val="parsaclisib"/>
-      <sheetName val="INCB7839"/>
-      <sheetName val="INCB24360"/>
-      <sheetName val="INCB 7839"/>
-      <sheetName val="INCB 8696"/>
-      <sheetName val="Dexelvucitabine"/>
-      <sheetName val="INCB 13739"/>
-      <sheetName val="INCB 15050"/>
-      <sheetName val="Old Model"/>
-      <sheetName val="JAK field"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>221.505011</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>2721</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Humira"/>
-      <sheetName val="Rinvoq"/>
-      <sheetName val="Skyrizi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="K3">
-            <v>1778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>7832</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>73474</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>102.46286600000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>6252.2330000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>608.99199999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Remodulin"/>
-      <sheetName val="Tyvaso"/>
-      <sheetName val="Oral"/>
-      <sheetName val="Adcirca"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>47.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>3827</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Empaveli"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>106.521818</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>965.298</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>189.16800000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>233</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>426</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>763</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>311.48201699999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>869.93499999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="sabizabulin"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>80.073863000000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>112.015</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Monkeypox"/>
-      <sheetName val="Model"/>
-      <sheetName val="Potential award"/>
-      <sheetName val="TPOXX"/>
-      <sheetName val="Legal"/>
-      <sheetName val="Pipeline"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>72.566367</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>153.25991400000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="CPP-115 Model"/>
-      <sheetName val="LEMS"/>
-      <sheetName val="Firdapse"/>
-      <sheetName val="Ampyra"/>
-      <sheetName val="CPP-115"/>
-      <sheetName val="CPP-109"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>102.780151</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>197.79600000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Zyprexa"/>
-      <sheetName val="Cymbalta"/>
-      <sheetName val="Strattera"/>
-      <sheetName val="Forteo"/>
-      <sheetName val="Evista"/>
-      <sheetName val="Cialis"/>
-      <sheetName val="Gemzar"/>
-      <sheetName val="Alimta"/>
-      <sheetName val="Exenatide"/>
-      <sheetName val="Effient"/>
-      <sheetName val="Enzastaurin"/>
-      <sheetName val="Arzoxifene"/>
-      <sheetName val="LY2062430"/>
-      <sheetName val="LY2140023"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>950.15955899999994</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>5295.6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>16508.8</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Management and Structure"/>
-      <sheetName val="Debt"/>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Tecentriq"/>
-      <sheetName val="Diagnostics"/>
-      <sheetName val="MabThera"/>
-      <sheetName val="Avastin"/>
-      <sheetName val="Avastin Model"/>
-      <sheetName val="Herceptin"/>
-      <sheetName val="Pegasys"/>
-      <sheetName val="Xeloda"/>
-      <sheetName val="Actemra"/>
-      <sheetName val="Lucentis"/>
-      <sheetName val="Tarceva"/>
-      <sheetName val="R1626"/>
-      <sheetName val="pertuzumab"/>
-      <sheetName val="dalcetrapib"/>
-      <sheetName val="taspoglutide"/>
-      <sheetName val="Mircera"/>
-      <sheetName val="aleglitazar"/>
-      <sheetName val="Failures"/>
-      <sheetName val="ocrelizumab"/>
-      <sheetName val="Kadcyla"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="K3">
-            <v>800.40300000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Management and Structure"/>
-      <sheetName val="Debt"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Diagnostics"/>
-      <sheetName val="MabThera"/>
-      <sheetName val="Avastin"/>
-      <sheetName val="Avastin Model"/>
-      <sheetName val="Herceptin"/>
-      <sheetName val="Pegasys"/>
-      <sheetName val="Xeloda"/>
-      <sheetName val="Actemra"/>
-      <sheetName val="Lucentis"/>
-      <sheetName val="Tarceva"/>
-      <sheetName val="R1626"/>
-      <sheetName val="pertuzumab"/>
-      <sheetName val="dalcetrapib"/>
-      <sheetName val="taspoglutide"/>
-      <sheetName val="Mircera"/>
-      <sheetName val="aleglitazar"/>
-      <sheetName val="Failures"/>
-      <sheetName val="ocrelizumab"/>
-      <sheetName val="T-DM1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="K3">
-            <v>800.40300000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>13031</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>31198</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Approved Products"/>
-      <sheetName val="Management"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Enbrel"/>
-      <sheetName val="Prevnar"/>
-      <sheetName val="Lyrica"/>
-      <sheetName val="Axitinib"/>
-      <sheetName val="Chantix"/>
-      <sheetName val="Norvasc"/>
-      <sheetName val="Spiriva"/>
-      <sheetName val="Xalkori"/>
-      <sheetName val="Viagra"/>
-      <sheetName val="Celebrex"/>
-      <sheetName val="Detrol"/>
-      <sheetName val="Geodon"/>
-      <sheetName val="Sutent"/>
-      <sheetName val="Lipitor"/>
-      <sheetName val="Chantix Model"/>
-      <sheetName val="Toviaz"/>
-      <sheetName val="Diflucan"/>
-      <sheetName val="Cardura"/>
-      <sheetName val="Vfend"/>
-      <sheetName val="Zyvox"/>
-      <sheetName val="Selzentry"/>
-      <sheetName val="PF868554"/>
-      <sheetName val="Aricept"/>
-      <sheetName val="tofacitinib"/>
-      <sheetName val="Zithromax"/>
-      <sheetName val="Genotropin"/>
-      <sheetName val="tanezumab"/>
-      <sheetName val="Accupril"/>
-      <sheetName val="Fablyn"/>
-      <sheetName val="apixaban"/>
-      <sheetName val="Acquisitions"/>
-      <sheetName val="Failures"/>
-      <sheetName val="IP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3">
-            <v>5.758</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>44.633999999999993</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>36.301000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Victoza"/>
-      <sheetName val="NovoLog"/>
-      <sheetName val="Levemir"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2283.3000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Crixivan"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Vytorin"/>
-      <sheetName val="Gardasil"/>
-      <sheetName val="Rotateq"/>
-      <sheetName val="Fosamax"/>
-      <sheetName val="Arcoxia"/>
-      <sheetName val="Zostavax"/>
-      <sheetName val="Singulair"/>
-      <sheetName val="Januvia"/>
-      <sheetName val="Zolinza"/>
-      <sheetName val="odanacatib"/>
-      <sheetName val="524"/>
-      <sheetName val="517"/>
-      <sheetName val="Isentress"/>
-      <sheetName val="rolofylline"/>
-      <sheetName val="taranabant"/>
-      <sheetName val="telcagepant"/>
-      <sheetName val="457"/>
-      <sheetName val="vorapaxar"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="K3">
-            <v>2528.8050250000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>9244</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>31794</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IMS Dollars"/>
-      <sheetName val="Sandoz"/>
-      <sheetName val="IMS Alpha"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Diovan"/>
-      <sheetName val="Diovan Model"/>
-      <sheetName val="Gleevec"/>
-      <sheetName val="Zometa"/>
-      <sheetName val="Lucentis"/>
-      <sheetName val="Femara"/>
-      <sheetName val="Sandostatin"/>
-      <sheetName val="Exjade"/>
-      <sheetName val="Tekturna"/>
-      <sheetName val="Lamisil"/>
-      <sheetName val="Focalin"/>
-      <sheetName val="Aclasta"/>
-      <sheetName val="indacaterol"/>
-      <sheetName val="Galvus"/>
-      <sheetName val="Tasigna"/>
-      <sheetName val="FTY720"/>
-      <sheetName val="Exforge"/>
-      <sheetName val="Lotrel"/>
-      <sheetName val="Afinitor"/>
-      <sheetName val="Ilaris"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Vaccines"/>
-      <sheetName val="Menveo"/>
-      <sheetName val="Xolair"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3">
-            <v>2212.5849010000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>10678</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Opdivo"/>
-      <sheetName val="Orencia"/>
-      <sheetName val="Yervoy"/>
-      <sheetName val="Eliquis"/>
-      <sheetName val="Empliciti"/>
-      <sheetName val="Avapro"/>
-      <sheetName val="Plavix"/>
-      <sheetName val="Abilify"/>
-      <sheetName val="Reyataz"/>
-      <sheetName val="Sprycel"/>
-      <sheetName val="Erbitux"/>
-      <sheetName val="Onglyza"/>
-      <sheetName val="Sustiva"/>
-      <sheetName val="dapagliflozin"/>
-      <sheetName val="ixabepilone"/>
-      <sheetName val="790052"/>
-      <sheetName val="Discontinuations"/>
-      <sheetName val="brivanib"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="L3">
-            <v>2129.0642710000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>14968</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>44972</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3376,13 +3334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:W147"/>
+  <dimension ref="B2:W149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3396,22 +3354,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3557,12 +3515,16 @@
       <c r="D6" s="7">
         <v>290.89999999999998</v>
       </c>
+      <c r="E6" s="6">
+        <f>+[35]Main!$J$3</f>
+        <v>950.15955899999994</v>
+      </c>
       <c r="F6" s="6">
-        <f>D6*[3]Main!$K$3</f>
+        <f>+D6*E6</f>
         <v>276401.41571309994</v>
       </c>
       <c r="G6" s="6">
-        <f>[3]Main!$K$5-[3]Main!$K$6</f>
+        <f>+[35]Main!$J$5-[35]Main!$J$6</f>
         <v>-11213.199999999999</v>
       </c>
       <c r="H6" s="6">
@@ -3572,6 +3534,12 @@
       <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="J6" s="18">
+        <v>44774</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1876</v>
+      </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -3584,20 +3552,20 @@
         <v>303.35000000000002</v>
       </c>
       <c r="E7" s="6">
-        <f>+[36]Main!$K$3</f>
+        <f>+[3]Main!$K$3</f>
         <v>800.40300000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>(D7*[4]Main!$K$3)/CHF</f>
-        <v>248747.31077758429</v>
+        <f>+E7*D7</f>
+        <v>242802.25005000003</v>
       </c>
       <c r="G7" s="6">
-        <f>([4]Main!$K$5-[4]Main!$K$6)/CHF</f>
-        <v>-18611.822559164022</v>
+        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
+        <v>-18167</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>267359.13333674835</v>
+        <v>260969.25005000003</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>25</v>
@@ -3620,15 +3588,15 @@
         <v>46.53</v>
       </c>
       <c r="E8" s="6">
-        <f>+[5]Main!$L$3*1000</f>
+        <f>+[4]Main!$L$3*1000</f>
         <v>5758</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*[5]Main!$L$3*1000</f>
+        <f>D8*[4]Main!$L$3*1000</f>
         <v>267919.74</v>
       </c>
       <c r="G8" s="6">
-        <f>([5]Main!$L$5-[5]Main!$L$6)*1000</f>
+        <f>([4]Main!$L$5-[4]Main!$L$6)*1000</f>
         <v>8332.9999999999909</v>
       </c>
       <c r="H8" s="6">
@@ -3653,7 +3621,7 @@
         <v>105.58</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*[6]Main!$K$3</f>
+        <f>D9*[5]Main!$K$3</f>
         <v>241070.81400000001</v>
       </c>
       <c r="G9" s="6"/>
@@ -3676,11 +3644,11 @@
         <v>84.62</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*[7]Main!$K$3</f>
+        <f>D10*[6]Main!$K$3</f>
         <v>213987.48121550001</v>
       </c>
       <c r="G10" s="6">
-        <f>[7]Main!$K$5-[7]Main!$K$6</f>
+        <f>[6]Main!$K$5-[6]Main!$K$6</f>
         <v>-22550</v>
       </c>
       <c r="H10" s="6">
@@ -3702,11 +3670,11 @@
         <v>81.06</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*[8]Main!$L$3</f>
+        <f>D11*[7]Main!$L$3</f>
         <v>179352.13207506001</v>
       </c>
       <c r="G11" s="6">
-        <f>[8]Main!$L$5-[8]Main!$L$6</f>
+        <f>[7]Main!$L$5-[7]Main!$L$6</f>
         <v>-10678</v>
       </c>
       <c r="H11" s="6">
@@ -3728,11 +3696,11 @@
         <v>73.77</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*[9]Main!$L$3</f>
+        <f>D12*[8]Main!$L$3</f>
         <v>157061.07127166999</v>
       </c>
       <c r="G12" s="6">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-30004</v>
       </c>
       <c r="H12" s="6">
@@ -3754,11 +3722,11 @@
         <v>246.73</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*[10]Main!$K$3</f>
+        <f>D13*[9]Main!$K$3</f>
         <v>131753.82</v>
       </c>
       <c r="G13" s="6">
-        <f>[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>[9]Main!$K$5-[9]Main!$K$6</f>
         <v>-30310</v>
       </c>
       <c r="H13" s="6">
@@ -3780,11 +3748,11 @@
         <v>49.2</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*[11]Main!$L$3*2</f>
+        <f>D14*[10]Main!$L$3*2</f>
         <v>123482.16000000002</v>
       </c>
       <c r="G14" s="6">
-        <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
+        <f>([10]Main!$L$5-[10]Main!$L$6)*EUR</f>
         <v>-10384.598400000001</v>
       </c>
       <c r="H14" s="6">
@@ -3806,11 +3774,11 @@
         <v>66</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*[12]Main!$L$3</f>
+        <f>D15*[11]Main!$L$3</f>
         <v>103026</v>
       </c>
       <c r="G15" s="6">
-        <f>[12]Main!$L$5-[12]Main!$L$6</f>
+        <f>[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-25217</v>
       </c>
       <c r="H15" s="6">
@@ -3832,11 +3800,11 @@
         <v>41.27</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*[13]Main!$K$4/2</f>
+        <f>D16*[12]Main!$K$4/2</f>
         <v>104578.18000000001</v>
       </c>
       <c r="G16" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
+        <f>([12]Main!$K$6-[12]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H16" s="6">
@@ -3858,11 +3826,11 @@
         <v>1683.8</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*[13]Main!$K$4/100*GBP</f>
+        <f>D17*[12]Main!$K$4/100*GBP</f>
         <v>100976.8865672</v>
       </c>
       <c r="G17" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
+        <f>([12]Main!$K$6-[12]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H17" s="6">
@@ -3884,11 +3852,11 @@
         <v>60.9</v>
       </c>
       <c r="F18" s="6">
-        <f>+D18*[14]Main!$J$3</f>
+        <f>+D18*[13]Main!$J$3</f>
         <v>76855.8</v>
       </c>
       <c r="G18" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>-19456</v>
       </c>
       <c r="H18" s="6">
@@ -3910,11 +3878,11 @@
         <v>175.1</v>
       </c>
       <c r="F19" s="6">
-        <f>D19*[15]Main!$J$3*EUR</f>
+        <f>D19*[14]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
       <c r="G19" s="6">
-        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
+        <f>([14]Main!$J$5-[14]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
       <c r="H19" s="6">
@@ -3936,11 +3904,11 @@
         <v>255.99</v>
       </c>
       <c r="F20" s="6">
-        <f>D20*[16]Main!$J$3*AUD</f>
+        <f>D20*[15]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
       <c r="G20" s="6">
-        <f>[16]Main!$J$5-[16]Main!$J$6</f>
+        <f>[15]Main!$J$5-[15]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
       <c r="H20" s="6">
@@ -3962,11 +3930,11 @@
         <v>263.08999999999997</v>
       </c>
       <c r="F21" s="6">
-        <f>+D21*[17]Main!$M$3</f>
+        <f>+D21*[16]Main!$M$3</f>
         <v>67286.835779489993</v>
       </c>
       <c r="G21" s="6">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
+        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
         <v>8238.1</v>
       </c>
       <c r="H21" s="6">
@@ -3988,11 +3956,11 @@
         <v>10.46</v>
       </c>
       <c r="F22" s="6">
-        <f>D22*[18]Main!$M$3</f>
+        <f>D22*[17]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="G22" s="6">
-        <f>[18]Main!$M$5-[18]Main!$M$6</f>
+        <f>[17]Main!$M$5-[17]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="H22" s="6">
@@ -4154,11 +4122,11 @@
         <v>71.27</v>
       </c>
       <c r="F34" s="6">
-        <f>+D34*[19]Main!$K$3</f>
+        <f>+D34*[18]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="G34" s="6">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="H34" s="6">
@@ -4304,11 +4272,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="F43" s="6">
-        <f>D43*[20]Main!$L$3</f>
+        <f>D43*[19]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="G43" s="6">
-        <f>[20]Main!$L$5-[20]Main!$L$6</f>
+        <f>[19]Main!$L$5-[19]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="H43" s="6">
@@ -4374,11 +4342,11 @@
         <v>219.38</v>
       </c>
       <c r="F48" s="6">
-        <f>D48*[21]Main!$K$3</f>
+        <f>D48*[20]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="G48" s="6">
-        <f>[21]Main!$K$5-[21]Main!$K$6</f>
+        <f>[20]Main!$K$5-[20]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="H48" s="6">
@@ -4400,11 +4368,11 @@
         <v>57</v>
       </c>
       <c r="F49" s="6">
-        <f>+D49*[22]Main!$L$3</f>
+        <f>+D49*[21]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="G49" s="6">
-        <f>+[22]Main!$L$5-[22]Main!$L$6</f>
+        <f>+[21]Main!$L$5-[21]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="H49" s="6">
@@ -4426,7 +4394,7 @@
         <v>1721.48</v>
       </c>
       <c r="E50" s="6">
-        <f>+[23]Main!$K$3</f>
+        <f>+[22]Main!$K$3</f>
         <v>233</v>
       </c>
       <c r="F50" s="6">
@@ -4434,7 +4402,7 @@
         <v>4746.2735717200003</v>
       </c>
       <c r="G50" s="6">
-        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
         <v>-337</v>
       </c>
       <c r="H50" s="6">
@@ -4847,7 +4815,7 @@
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>141</v>
       </c>
@@ -4858,7 +4826,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>143</v>
       </c>
@@ -4869,7 +4837,7 @@
         <v>83.92</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>145</v>
       </c>
@@ -4880,7 +4848,7 @@
         <v>60.72</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
@@ -4891,7 +4859,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>149</v>
       </c>
@@ -4902,919 +4870,965 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B86" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>42.98</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="3">
         <v>23.92</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D89" s="3">
         <v>53.29</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D90" s="3">
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D91" s="3">
         <v>48.63</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D92" s="3">
         <v>27.73</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="5" t="s">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="F92" s="6">
-        <f>+D92*[24]Main!$N$3</f>
+      <c r="F93" s="6">
+        <f>+D93*[23]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
-      <c r="G92" s="6">
-        <f>+[24]Main!$N$5-[24]Main!$N$6</f>
+      <c r="G93" s="6">
+        <f>+[23]Main!$N$5-[23]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
-      <c r="H92" s="6">
-        <f>+F92-G92</f>
+      <c r="H93" s="6">
+        <f>+F93-G93</f>
         <v>2282.2630120399995</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D94" s="3">
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D95" s="3">
         <v>14.27</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D96" s="3">
         <v>7.36</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D96" s="3">
-        <v>9.35</v>
       </c>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D97" s="3">
-        <v>43.98</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D98" s="3">
-        <v>5.18</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D99" s="3">
-        <v>53.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D100" s="3">
-        <v>21.04</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="7">
-        <v>20.7</v>
+        <v>180</v>
+      </c>
+      <c r="D101" s="3">
+        <v>21.04</v>
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D102" s="3">
-        <v>18.579999999999998</v>
-      </c>
+      <c r="B102" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="3">
-        <v>16.12</v>
+        <v>182</v>
+      </c>
+      <c r="D103" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D104" s="3">
-        <v>28.41</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D105" s="3">
-        <v>33.86</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D106" s="3">
-        <v>38.35</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D107" s="3">
-        <v>9.6199999999999992</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D108" s="3">
-        <v>25.49</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B109" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="14"/>
+      <c r="B109" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9.6199999999999992</v>
+      </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D110" s="3">
-        <v>11.42</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="3">
-        <v>26.64</v>
-      </c>
+      <c r="B111" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D112" s="3">
-        <v>30.48</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D113" s="3">
-        <v>12.98</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D114" s="3">
-        <v>10.96</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D115" s="3">
-        <v>2.42</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="7">
-        <v>55.5</v>
+        <v>205</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10.96</v>
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D117" s="3">
-        <v>10.63</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D118" s="3">
-        <v>33.130000000000003</v>
+        <v>209</v>
+      </c>
+      <c r="D118" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D119" s="3">
-        <v>31.52</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D120" s="3">
-        <v>7.62</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D121" s="3">
-        <v>28.55</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" s="3">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D124" s="3">
         <v>27.02</v>
       </c>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B123" s="5" t="s">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B125" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D125" s="3">
         <v>15.65</v>
       </c>
-      <c r="F123" s="6">
-        <f>D123*[25]Main!$L$3</f>
+      <c r="F125" s="6">
+        <f>D125*[24]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G125" s="6">
+        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
+        <v>112.015</v>
+      </c>
+      <c r="H125" s="6">
+        <f>+F125-G125</f>
+        <v>1141.14095595</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B126" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="F126" s="6">
+        <f>+D126*[25]Main!$L$3</f>
+        <v>1228.5485933099999</v>
+      </c>
+      <c r="G126" s="6">
         <f>+[25]Main!$L$5-[25]Main!$L$6</f>
-        <v>112.015</v>
-      </c>
-      <c r="H123" s="6">
-        <f>+F123-G123</f>
-        <v>1141.14095595</v>
-      </c>
-      <c r="I123" s="3" t="s">
+        <v>153.25991400000001</v>
+      </c>
+      <c r="H126" s="6">
+        <f t="shared" ref="H126" si="2">+F126-G126</f>
+        <v>1075.2886793099999</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D124" s="3">
-        <v>16.93</v>
-      </c>
-      <c r="F124" s="6">
-        <f>+D124*[26]Main!$L$3</f>
-        <v>1228.5485933099999</v>
-      </c>
-      <c r="G124" s="6">
-        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
-        <v>153.25991400000001</v>
-      </c>
-      <c r="H124" s="6">
-        <f t="shared" ref="H124" si="2">+F124-G124</f>
-        <v>1075.2886793099999</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J124" s="18">
+      <c r="J126" s="18">
         <v>44771</v>
       </c>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="16"/>
-      <c r="T124" s="16"/>
-      <c r="U124" s="16"/>
-      <c r="V124" s="16"/>
-    </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D125" s="3">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" s="3">
-        <v>8.76</v>
-      </c>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="3">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" s="3">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D129" s="3">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B128" s="10" t="s">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B130" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D130" s="3">
         <v>3.92</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F130" s="3">
         <v>630</v>
       </c>
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
-      <c r="R128" s="17"/>
-      <c r="S128" s="17"/>
-      <c r="T128" s="17"/>
-      <c r="U128" s="17"/>
-      <c r="V128" s="17"/>
-    </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B129" s="10" t="s">
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="17"/>
+      <c r="T130" s="17"/>
+      <c r="U130" s="17"/>
+      <c r="V130" s="17"/>
+    </row>
+    <row r="131" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B131" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D131" s="3">
         <v>11.93</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F131" s="3">
         <v>516</v>
       </c>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="17"/>
-      <c r="V129" s="17"/>
-    </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D130" s="3">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D131" s="7">
-        <v>36.6</v>
-      </c>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="17"/>
+      <c r="T131" s="17"/>
+      <c r="U131" s="17"/>
+      <c r="V131" s="17"/>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D132" s="7">
-        <v>40.24</v>
+        <v>229</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5.46</v>
       </c>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D133" s="3">
-        <v>22.11</v>
+        <v>231</v>
+      </c>
+      <c r="D133" s="7">
+        <v>36.6</v>
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D134" s="3">
-        <v>10.31</v>
+        <v>233</v>
+      </c>
+      <c r="D134" s="7">
+        <v>40.24</v>
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D135" s="7">
-        <v>1.3</v>
+        <v>235</v>
+      </c>
+      <c r="D135" s="3">
+        <v>22.11</v>
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" s="3">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D138" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D139" s="3">
         <v>7.06</v>
       </c>
-      <c r="F137" s="6">
-        <f>D137*[27]Main!$J$3</f>
+      <c r="F139" s="6">
+        <f>D139*[26]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="G137" s="6">
-        <f>[27]Main!$J$5-[27]Main!$J$6</f>
+      <c r="G139" s="6">
+        <f>[26]Main!$J$5-[26]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="H137" s="8">
-        <f t="shared" ref="H137:H138" si="3">+F137-G137</f>
+      <c r="H139" s="8">
+        <f t="shared" ref="H139:H140" si="3">+F139-G139</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="I139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B140" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D140" s="3">
         <v>14.68</v>
       </c>
-      <c r="F138" s="6">
-        <f>D138*[28]Main!$L$3</f>
+      <c r="F140" s="6">
+        <f>D140*[27]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="G138" s="6">
-        <f>[28]Main!$L$5-[28]Main!$L$6</f>
+      <c r="G140" s="6">
+        <f>[27]Main!$L$5-[27]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="H138" s="8">
+      <c r="H140" s="8">
         <f t="shared" si="3"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="I138" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D139" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F139" s="6">
-        <f>D139*[29]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="G139" s="8">
-        <f>+[29]Main!$J$5-[29]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="H139" s="8">
-        <f>+F139-G139</f>
-        <v>220.39615336000003</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D140" s="3">
-        <v>7.57</v>
-      </c>
-      <c r="F140" s="6">
-        <f>D140*[30]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="G140" s="6">
-        <f>[30]Main!$M$5-[30]Main!$M$6</f>
-        <v>120.43700000000001</v>
-      </c>
-      <c r="H140" s="8">
-        <f t="shared" ref="H140:H145" si="4">+F140-G140</f>
-        <v>218.02283246000002</v>
-      </c>
       <c r="I140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B141" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D141" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F141" s="6">
+        <f>D141*[28]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G141" s="8">
+        <f>+[28]Main!$J$5-[28]Main!$J$6</f>
+        <v>92.317999999999998</v>
+      </c>
+      <c r="H141" s="8">
+        <f>+F141-G141</f>
+        <v>220.39615336000003</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="F142" s="6">
+        <f>D142*[29]Main!$M$3</f>
+        <v>338.45983246000003</v>
+      </c>
+      <c r="G142" s="6">
+        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <v>120.43700000000001</v>
+      </c>
+      <c r="H142" s="8">
+        <f t="shared" ref="H142:H147" si="4">+F142-G142</f>
+        <v>218.02283246000002</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D143" s="7">
         <v>0.7</v>
       </c>
-      <c r="F141" s="6">
-        <f>D141*[31]Main!$M$3</f>
+      <c r="F143" s="6">
+        <f>D143*[30]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="G141" s="6">
-        <f>[31]Main!$M$5-[31]Main!$M$6</f>
+      <c r="G143" s="6">
+        <f>[30]Main!$M$5-[30]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="H141" s="8">
+      <c r="H143" s="8">
         <f t="shared" si="4"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="I141" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B144" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D144" s="3">
         <v>1.98</v>
       </c>
-      <c r="F142" s="6">
-        <f>D142*[32]Main!$N$3</f>
+      <c r="F144" s="6">
+        <f>D144*[31]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="G142" s="6">
-        <f>[32]Main!$N$5-[32]Main!$N$6</f>
+      <c r="G144" s="6">
+        <f>[31]Main!$N$5-[31]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H144" s="8">
         <f t="shared" si="4"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B143" s="5" t="s">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D145" s="3">
         <v>0.62</v>
       </c>
-      <c r="F143" s="6">
-        <f>D143*[33]Main!$L$3</f>
+      <c r="F145" s="6">
+        <f>D145*[32]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="G143" s="6">
-        <f>[33]Main!$L$5-[33]Main!$L$6</f>
+      <c r="G145" s="6">
+        <f>[32]Main!$L$5-[32]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="H143" s="8">
+      <c r="H145" s="8">
         <f t="shared" si="4"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B144" s="5" t="s">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D146" s="3">
         <v>6.12</v>
       </c>
-      <c r="F144" s="6">
-        <f>D144*[34]Main!$M$3</f>
+      <c r="F146" s="6">
+        <f>D146*[33]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="G144" s="6">
-        <f>[34]Main!$M$5-[34]Main!$M$6</f>
+      <c r="G146" s="6">
+        <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="H144" s="8">
+      <c r="H146" s="8">
         <f t="shared" si="4"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="5" t="s">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D147" s="3">
         <v>0.98</v>
       </c>
-      <c r="F145" s="6">
-        <f>D145*[35]Main!$M$3</f>
+      <c r="F147" s="6">
+        <f>D147*[34]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="G145" s="6">
-        <f>[35]Main!$M$5-[35]Main!$M$6</f>
+      <c r="G147" s="6">
+        <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="H145" s="8">
+      <c r="H147" s="8">
         <f t="shared" si="4"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D148" s="3">
         <v>0.61</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="1" t="s">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D149" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -5848,23 +5862,23 @@
     <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B35" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B27" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B139" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B142" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B138" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B143" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B140" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B145" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B137" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B144" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B141" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B141" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B144" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B140" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B145" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B142" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B147" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B139" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B146" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B143" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
     <hyperlink ref="B43" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B123" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="B92" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="B124" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="B125" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B93" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="B126" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
     <hyperlink ref="B50" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D60163-3B8E-44F9-932B-1BCCB8B80943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D75FB-4854-4131-B346-6C68885E3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8700" yWindow="1215" windowWidth="18975" windowHeight="13935" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="328">
   <si>
     <t>Exarta</t>
   </si>
@@ -109,12 +109,6 @@
     <t>GBP/USD</t>
   </si>
   <si>
-    <t>EV/E</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
     <t>Ticker</t>
   </si>
   <si>
@@ -1052,14 +1046,36 @@
   </si>
   <si>
     <t>IMAB</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>EV/EPS</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Terminal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0\x"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1103,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1156,6 +1172,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1303,1603 +1328,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="RX Rank"/>
-      <sheetName val="RX Alpha"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Lovenox"/>
-      <sheetName val="Lantus"/>
-      <sheetName val="Plavix"/>
-      <sheetName val="Multaq"/>
-      <sheetName val="idraparinux"/>
-      <sheetName val="SR 58611"/>
-      <sheetName val="Eplivanserin"/>
-      <sheetName val="SSR 591813"/>
-      <sheetName val="Xaliproden"/>
-      <sheetName val="Alvocidib"/>
-      <sheetName val="SR 121463"/>
-      <sheetName val="BSI-201"/>
-      <sheetName val="Zimulti"/>
-      <sheetName val="teriflunomide"/>
-      <sheetName val="Failures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="L3">
-            <v>1254.9000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>10098</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>20306</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Crestor"/>
-      <sheetName val="Seroquel"/>
-      <sheetName val="Symbicort"/>
-      <sheetName val="Nexium-Prilosec"/>
-      <sheetName val="Toprol-XL"/>
-      <sheetName val="Atacand"/>
-      <sheetName val="CytoFab"/>
-      <sheetName val="Zactima"/>
-      <sheetName val="Brilinta"/>
-      <sheetName val="4121"/>
-      <sheetName val="0837"/>
-      <sheetName val="2171"/>
-      <sheetName val="3480"/>
-      <sheetName val="6244"/>
-      <sheetName val="4054"/>
-      <sheetName val="Iressa"/>
-      <sheetName val="Exanta"/>
-      <sheetName val="dapagliflozin"/>
-      <sheetName val="Failures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>1561</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>5823</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>31040</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Advair"/>
-      <sheetName val="Relovair"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Avandia"/>
-      <sheetName val="Valtrex"/>
-      <sheetName val="Serevent"/>
-      <sheetName val="Votrient"/>
-      <sheetName val="Avodart"/>
-      <sheetName val="Flovent"/>
-      <sheetName val="Tykerb"/>
-      <sheetName val="Imitrex"/>
-      <sheetName val="Lamictal"/>
-      <sheetName val="Trexima"/>
-      <sheetName val="Combivir"/>
-      <sheetName val="Allermist"/>
-      <sheetName val="Avandaryl"/>
-      <sheetName val="Trizivir"/>
-      <sheetName val="Lexiva"/>
-      <sheetName val="Wellbutrin"/>
-      <sheetName val="Paxil"/>
-      <sheetName val="Requip"/>
-      <sheetName val="Flonase"/>
-      <sheetName val="Vestipitant"/>
-      <sheetName val="MAGE"/>
-      <sheetName val="Arzerra"/>
-      <sheetName val="eltrombopag"/>
-      <sheetName val="Cervarix"/>
-      <sheetName val="Horizant"/>
-      <sheetName val="716155"/>
-      <sheetName val="699"/>
-      <sheetName val="Potiga"/>
-      <sheetName val="GSK786"/>
-      <sheetName val="GSK436"/>
-      <sheetName val="GSK212"/>
-      <sheetName val="GSK968"/>
-      <sheetName val="Relenza"/>
-      <sheetName val="IPX066"/>
-      <sheetName val="Benlysta"/>
-      <sheetName val="Amigal"/>
-      <sheetName val="Arixtra"/>
-      <sheetName val="Pandemrix"/>
-      <sheetName val="MenHibrix"/>
-      <sheetName val="Rotarix"/>
-      <sheetName val="darapladib"/>
-      <sheetName val="Synflorix"/>
-      <sheetName val="GSK572"/>
-      <sheetName val="mepolizumab"/>
-      <sheetName val="denosumab"/>
-      <sheetName val="Syncria"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
-            <v>5068</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>19400</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Stribild"/>
-      <sheetName val="Truvada"/>
-      <sheetName val="Viread"/>
-      <sheetName val="Ranexa"/>
-      <sheetName val="Atripla"/>
-      <sheetName val="IMS Monthly"/>
-      <sheetName val="IMS"/>
-      <sheetName val="Rx"/>
-      <sheetName val="HBV"/>
-      <sheetName val="darusentan"/>
-      <sheetName val="Letairis"/>
-      <sheetName val="Hepsera"/>
-      <sheetName val="HIV"/>
-      <sheetName val="GS 9137"/>
-      <sheetName val="GS 9132"/>
-      <sheetName val="GS9190"/>
-      <sheetName val="sofosbuvir"/>
-      <sheetName val="idelasilib"/>
-      <sheetName val="GS 9451"/>
-      <sheetName val="Cayston"/>
-      <sheetName val="Tamiflu"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="J3">
-            <v>1262</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>6752</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>26208</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>434.77787799999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1403</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>10631</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>456.20380299999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>1808.8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5806.9000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Trikafta"/>
-      <sheetName val="Orkambi"/>
-      <sheetName val="Symdeko"/>
-      <sheetName val="Kalydeco"/>
-      <sheetName val="CTX001"/>
-      <sheetName val="VX-880"/>
-      <sheetName val="VX-121"/>
-      <sheetName val="VX-548"/>
-      <sheetName val="inaxaplin"/>
-      <sheetName val="IP"/>
-      <sheetName val="Compounds"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>255.75596100000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>8238.1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>1212.326908</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>752.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>19417.900000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Jakafi"/>
-      <sheetName val="NEJM letter"/>
-      <sheetName val="Opzelura"/>
-      <sheetName val="Olumiant"/>
-      <sheetName val="Minjuvi"/>
-      <sheetName val="Tabrecta"/>
-      <sheetName val="Pemazyre"/>
-      <sheetName val="retifanlimab"/>
-      <sheetName val="parsaclisib"/>
-      <sheetName val="INCB7839"/>
-      <sheetName val="INCB24360"/>
-      <sheetName val="INCB 7839"/>
-      <sheetName val="INCB 8696"/>
-      <sheetName val="Dexelvucitabine"/>
-      <sheetName val="INCB 13739"/>
-      <sheetName val="INCB 15050"/>
-      <sheetName val="Old Model"/>
-      <sheetName val="JAK field"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>221.505011</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>2721</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>102.46286600000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>6252.2330000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>608.99199999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Humira"/>
-      <sheetName val="Rinvoq"/>
-      <sheetName val="Skyrizi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="K3">
-            <v>1778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>7832</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>73474</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Remodulin"/>
-      <sheetName val="Tyvaso"/>
-      <sheetName val="Oral"/>
-      <sheetName val="Adcirca"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>47.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>3827</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Empaveli"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>106.521818</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>965.298</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>189.16800000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>233</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>426</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>763</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>311.48201699999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>869.93499999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="sabizabulin"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>80.073863000000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>112.015</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Monkeypox"/>
-      <sheetName val="Model"/>
-      <sheetName val="Potential award"/>
-      <sheetName val="TPOXX"/>
-      <sheetName val="Legal"/>
-      <sheetName val="Pipeline"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>72.566367</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>153.25991400000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="CPP-115 Model"/>
-      <sheetName val="LEMS"/>
-      <sheetName val="Firdapse"/>
-      <sheetName val="Ampyra"/>
-      <sheetName val="CPP-115"/>
-      <sheetName val="CPP-109"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>102.780151</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>197.79600000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Management and Structure"/>
-      <sheetName val="Debt"/>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Tecentriq"/>
-      <sheetName val="Diagnostics"/>
-      <sheetName val="MabThera"/>
-      <sheetName val="Avastin"/>
-      <sheetName val="Avastin Model"/>
-      <sheetName val="Herceptin"/>
-      <sheetName val="Pegasys"/>
-      <sheetName val="Xeloda"/>
-      <sheetName val="Actemra"/>
-      <sheetName val="Lucentis"/>
-      <sheetName val="Tarceva"/>
-      <sheetName val="R1626"/>
-      <sheetName val="pertuzumab"/>
-      <sheetName val="dalcetrapib"/>
-      <sheetName val="taspoglutide"/>
-      <sheetName val="Mircera"/>
-      <sheetName val="aleglitazar"/>
-      <sheetName val="Failures"/>
-      <sheetName val="ocrelizumab"/>
-      <sheetName val="Kadcyla"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="K3">
-            <v>800.40300000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>13031</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>31198</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Zyprexa"/>
-      <sheetName val="Cymbalta"/>
-      <sheetName val="Strattera"/>
-      <sheetName val="Forteo"/>
-      <sheetName val="Evista"/>
-      <sheetName val="Cialis"/>
-      <sheetName val="Gemzar"/>
-      <sheetName val="Alimta"/>
-      <sheetName val="Exenatide"/>
-      <sheetName val="Effient"/>
-      <sheetName val="Enzastaurin"/>
-      <sheetName val="Arzoxifene"/>
-      <sheetName val="LY2062430"/>
-      <sheetName val="LY2140023"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="J3">
-            <v>950.15955899999994</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>5295.6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>16508.8</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Approved Products"/>
-      <sheetName val="Management"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Enbrel"/>
-      <sheetName val="Prevnar"/>
-      <sheetName val="Lyrica"/>
-      <sheetName val="Axitinib"/>
-      <sheetName val="Chantix"/>
-      <sheetName val="Norvasc"/>
-      <sheetName val="Spiriva"/>
-      <sheetName val="Xalkori"/>
-      <sheetName val="Viagra"/>
-      <sheetName val="Celebrex"/>
-      <sheetName val="Detrol"/>
-      <sheetName val="Geodon"/>
-      <sheetName val="Sutent"/>
-      <sheetName val="Lipitor"/>
-      <sheetName val="Chantix Model"/>
-      <sheetName val="Toviaz"/>
-      <sheetName val="Diflucan"/>
-      <sheetName val="Cardura"/>
-      <sheetName val="Vfend"/>
-      <sheetName val="Zyvox"/>
-      <sheetName val="Selzentry"/>
-      <sheetName val="PF868554"/>
-      <sheetName val="Aricept"/>
-      <sheetName val="tofacitinib"/>
-      <sheetName val="Zithromax"/>
-      <sheetName val="Genotropin"/>
-      <sheetName val="tanezumab"/>
-      <sheetName val="Accupril"/>
-      <sheetName val="Fablyn"/>
-      <sheetName val="apixaban"/>
-      <sheetName val="Acquisitions"/>
-      <sheetName val="Failures"/>
-      <sheetName val="IP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3">
-            <v>5.758</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>44.633999999999993</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>36.301000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Victoza"/>
-      <sheetName val="NovoLog"/>
-      <sheetName val="Levemir"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2283.3000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Crixivan"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Vytorin"/>
-      <sheetName val="Gardasil"/>
-      <sheetName val="Rotateq"/>
-      <sheetName val="Fosamax"/>
-      <sheetName val="Arcoxia"/>
-      <sheetName val="Zostavax"/>
-      <sheetName val="Singulair"/>
-      <sheetName val="Januvia"/>
-      <sheetName val="Zolinza"/>
-      <sheetName val="odanacatib"/>
-      <sheetName val="524"/>
-      <sheetName val="517"/>
-      <sheetName val="Isentress"/>
-      <sheetName val="rolofylline"/>
-      <sheetName val="taranabant"/>
-      <sheetName val="telcagepant"/>
-      <sheetName val="457"/>
-      <sheetName val="vorapaxar"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="K3">
-            <v>2528.8050250000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>9244</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>31794</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IMS Dollars"/>
-      <sheetName val="Sandoz"/>
-      <sheetName val="IMS Alpha"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Diovan"/>
-      <sheetName val="Diovan Model"/>
-      <sheetName val="Gleevec"/>
-      <sheetName val="Zometa"/>
-      <sheetName val="Lucentis"/>
-      <sheetName val="Femara"/>
-      <sheetName val="Sandostatin"/>
-      <sheetName val="Exjade"/>
-      <sheetName val="Tekturna"/>
-      <sheetName val="Lamisil"/>
-      <sheetName val="Focalin"/>
-      <sheetName val="Aclasta"/>
-      <sheetName val="indacaterol"/>
-      <sheetName val="Galvus"/>
-      <sheetName val="Tasigna"/>
-      <sheetName val="FTY720"/>
-      <sheetName val="Exforge"/>
-      <sheetName val="Lotrel"/>
-      <sheetName val="Afinitor"/>
-      <sheetName val="Ilaris"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Vaccines"/>
-      <sheetName val="Menveo"/>
-      <sheetName val="Xolair"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="L3">
-            <v>2212.5849010000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>10678</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Opdivo"/>
-      <sheetName val="Orencia"/>
-      <sheetName val="Yervoy"/>
-      <sheetName val="Eliquis"/>
-      <sheetName val="Empliciti"/>
-      <sheetName val="Avapro"/>
-      <sheetName val="Plavix"/>
-      <sheetName val="Abilify"/>
-      <sheetName val="Reyataz"/>
-      <sheetName val="Sprycel"/>
-      <sheetName val="Erbitux"/>
-      <sheetName val="Onglyza"/>
-      <sheetName val="Sustiva"/>
-      <sheetName val="dapagliflozin"/>
-      <sheetName val="ixabepilone"/>
-      <sheetName val="790052"/>
-      <sheetName val="Discontinuations"/>
-      <sheetName val="brivanib"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="L3">
-            <v>2129.0642710000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>14968</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>44972</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Epo Global Model"/>
@@ -3032,6 +1460,1644 @@
       <sheetData sheetId="54"/>
       <sheetData sheetId="55"/>
       <sheetData sheetId="56"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RX Rank"/>
+      <sheetName val="RX Alpha"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Lovenox"/>
+      <sheetName val="Lantus"/>
+      <sheetName val="Plavix"/>
+      <sheetName val="Multaq"/>
+      <sheetName val="idraparinux"/>
+      <sheetName val="SR 58611"/>
+      <sheetName val="Eplivanserin"/>
+      <sheetName val="SSR 591813"/>
+      <sheetName val="Xaliproden"/>
+      <sheetName val="Alvocidib"/>
+      <sheetName val="SR 121463"/>
+      <sheetName val="BSI-201"/>
+      <sheetName val="Zimulti"/>
+      <sheetName val="teriflunomide"/>
+      <sheetName val="Failures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="L3">
+            <v>1254.9000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>10098</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>20306</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Crestor"/>
+      <sheetName val="Seroquel"/>
+      <sheetName val="Symbicort"/>
+      <sheetName val="Nexium-Prilosec"/>
+      <sheetName val="Toprol-XL"/>
+      <sheetName val="Atacand"/>
+      <sheetName val="CytoFab"/>
+      <sheetName val="Zactima"/>
+      <sheetName val="Brilinta"/>
+      <sheetName val="4121"/>
+      <sheetName val="0837"/>
+      <sheetName val="2171"/>
+      <sheetName val="3480"/>
+      <sheetName val="6244"/>
+      <sheetName val="4054"/>
+      <sheetName val="Iressa"/>
+      <sheetName val="Exanta"/>
+      <sheetName val="dapagliflozin"/>
+      <sheetName val="Failures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>1561</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>5823</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>31040</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Advair"/>
+      <sheetName val="Relovair"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Avandia"/>
+      <sheetName val="Valtrex"/>
+      <sheetName val="Serevent"/>
+      <sheetName val="Votrient"/>
+      <sheetName val="Avodart"/>
+      <sheetName val="Flovent"/>
+      <sheetName val="Tykerb"/>
+      <sheetName val="Imitrex"/>
+      <sheetName val="Lamictal"/>
+      <sheetName val="Trexima"/>
+      <sheetName val="Combivir"/>
+      <sheetName val="Allermist"/>
+      <sheetName val="Avandaryl"/>
+      <sheetName val="Trizivir"/>
+      <sheetName val="Lexiva"/>
+      <sheetName val="Wellbutrin"/>
+      <sheetName val="Paxil"/>
+      <sheetName val="Requip"/>
+      <sheetName val="Flonase"/>
+      <sheetName val="Vestipitant"/>
+      <sheetName val="MAGE"/>
+      <sheetName val="Arzerra"/>
+      <sheetName val="eltrombopag"/>
+      <sheetName val="Cervarix"/>
+      <sheetName val="Horizant"/>
+      <sheetName val="716155"/>
+      <sheetName val="699"/>
+      <sheetName val="Potiga"/>
+      <sheetName val="GSK786"/>
+      <sheetName val="GSK436"/>
+      <sheetName val="GSK212"/>
+      <sheetName val="GSK968"/>
+      <sheetName val="Relenza"/>
+      <sheetName val="IPX066"/>
+      <sheetName val="Benlysta"/>
+      <sheetName val="Amigal"/>
+      <sheetName val="Arixtra"/>
+      <sheetName val="Pandemrix"/>
+      <sheetName val="MenHibrix"/>
+      <sheetName val="Rotarix"/>
+      <sheetName val="darapladib"/>
+      <sheetName val="Synflorix"/>
+      <sheetName val="GSK572"/>
+      <sheetName val="mepolizumab"/>
+      <sheetName val="denosumab"/>
+      <sheetName val="Syncria"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="K4">
+            <v>5068</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>19400</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Stribild"/>
+      <sheetName val="Truvada"/>
+      <sheetName val="Viread"/>
+      <sheetName val="Ranexa"/>
+      <sheetName val="Atripla"/>
+      <sheetName val="IMS Monthly"/>
+      <sheetName val="IMS"/>
+      <sheetName val="Rx"/>
+      <sheetName val="HBV"/>
+      <sheetName val="darusentan"/>
+      <sheetName val="Letairis"/>
+      <sheetName val="Hepsera"/>
+      <sheetName val="HIV"/>
+      <sheetName val="GS 9137"/>
+      <sheetName val="GS 9132"/>
+      <sheetName val="GS9190"/>
+      <sheetName val="sofosbuvir"/>
+      <sheetName val="idelasilib"/>
+      <sheetName val="GS 9451"/>
+      <sheetName val="Cayston"/>
+      <sheetName val="Tamiflu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>1262</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>6752</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>26208</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>434.77787799999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1403</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>10631</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>456.20380299999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>1808.8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>5806.9000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Trikafta"/>
+      <sheetName val="Orkambi"/>
+      <sheetName val="Symdeko"/>
+      <sheetName val="Kalydeco"/>
+      <sheetName val="CTX001"/>
+      <sheetName val="VX-880"/>
+      <sheetName val="VX-121"/>
+      <sheetName val="VX-548"/>
+      <sheetName val="inaxaplin"/>
+      <sheetName val="IP"/>
+      <sheetName val="Compounds"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>255.75596100000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>8238.1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.326908</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Jakafi"/>
+      <sheetName val="NEJM letter"/>
+      <sheetName val="Opzelura"/>
+      <sheetName val="Olumiant"/>
+      <sheetName val="Minjuvi"/>
+      <sheetName val="Tabrecta"/>
+      <sheetName val="Pemazyre"/>
+      <sheetName val="retifanlimab"/>
+      <sheetName val="parsaclisib"/>
+      <sheetName val="INCB7839"/>
+      <sheetName val="INCB24360"/>
+      <sheetName val="INCB 7839"/>
+      <sheetName val="INCB 8696"/>
+      <sheetName val="Dexelvucitabine"/>
+      <sheetName val="INCB 13739"/>
+      <sheetName val="INCB 15050"/>
+      <sheetName val="Old Model"/>
+      <sheetName val="JAK field"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>221.505011</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>2721</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Humira"/>
+      <sheetName val="Rinvoq"/>
+      <sheetName val="Skyrizi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="K3">
+            <v>1778</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>7832</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>73474</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>102.46286600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>6252.2330000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>608.99199999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Remodulin"/>
+      <sheetName val="Tyvaso"/>
+      <sheetName val="Oral"/>
+      <sheetName val="Adcirca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>47.7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3827</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>106.521818</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>965.298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>189.16800000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>233</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>426</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>763</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>311.48201699999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>869.93499999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="sabizabulin"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.073863000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>112.015</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Monkeypox"/>
+      <sheetName val="Model"/>
+      <sheetName val="Potential award"/>
+      <sheetName val="TPOXX"/>
+      <sheetName val="Legal"/>
+      <sheetName val="Pipeline"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>72.566367</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>153.25991400000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="CPP-115 Model"/>
+      <sheetName val="LEMS"/>
+      <sheetName val="Firdapse"/>
+      <sheetName val="Ampyra"/>
+      <sheetName val="CPP-115"/>
+      <sheetName val="CPP-109"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>102.780151</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>197.79600000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>40.004356999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>277.88299999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>64.344476</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>111.794</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>19.475999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Zyprexa"/>
+      <sheetName val="Cymbalta"/>
+      <sheetName val="Strattera"/>
+      <sheetName val="Forteo"/>
+      <sheetName val="Evista"/>
+      <sheetName val="Cialis"/>
+      <sheetName val="Gemzar"/>
+      <sheetName val="Alimta"/>
+      <sheetName val="Exenatide"/>
+      <sheetName val="Effient"/>
+      <sheetName val="Enzastaurin"/>
+      <sheetName val="Arzoxifene"/>
+      <sheetName val="LY2062430"/>
+      <sheetName val="LY2140023"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>950.15955899999994</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>5295.6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>16508.8</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="67">
+          <cell r="DC67">
+            <v>8.8854650460225582</v>
+          </cell>
+          <cell r="DD67">
+            <v>8.8116701708569245</v>
+          </cell>
+          <cell r="DE67">
+            <v>17.313879580268342</v>
+          </cell>
+          <cell r="DF67">
+            <v>19.878447039056095</v>
+          </cell>
+          <cell r="DG67">
+            <v>23.297348786222955</v>
+          </cell>
+          <cell r="DH67">
+            <v>24.083288683817315</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="DM80">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="DM81">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="DM82">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="DM84">
+            <v>193.79899328583781</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>44.710678000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>120.43700000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>184.19892899999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>67.233999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>126.736</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>20.079526999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>16.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0.69799999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>48.69059</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18.687999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>5.4249999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Management and Structure"/>
+      <sheetName val="Debt"/>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Tecentriq"/>
+      <sheetName val="Diagnostics"/>
+      <sheetName val="MabThera"/>
+      <sheetName val="Avastin"/>
+      <sheetName val="Avastin Model"/>
+      <sheetName val="Herceptin"/>
+      <sheetName val="Pegasys"/>
+      <sheetName val="Xeloda"/>
+      <sheetName val="Actemra"/>
+      <sheetName val="Lucentis"/>
+      <sheetName val="Tarceva"/>
+      <sheetName val="R1626"/>
+      <sheetName val="pertuzumab"/>
+      <sheetName val="dalcetrapib"/>
+      <sheetName val="taspoglutide"/>
+      <sheetName val="Mircera"/>
+      <sheetName val="aleglitazar"/>
+      <sheetName val="Failures"/>
+      <sheetName val="ocrelizumab"/>
+      <sheetName val="Kadcyla"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="K3">
+            <v>800.40300000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>13031</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>31198</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Approved Products"/>
+      <sheetName val="Management"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Enbrel"/>
+      <sheetName val="Prevnar"/>
+      <sheetName val="Lyrica"/>
+      <sheetName val="Axitinib"/>
+      <sheetName val="Chantix"/>
+      <sheetName val="Norvasc"/>
+      <sheetName val="Spiriva"/>
+      <sheetName val="Xalkori"/>
+      <sheetName val="Viagra"/>
+      <sheetName val="Celebrex"/>
+      <sheetName val="Detrol"/>
+      <sheetName val="Geodon"/>
+      <sheetName val="Sutent"/>
+      <sheetName val="Lipitor"/>
+      <sheetName val="Chantix Model"/>
+      <sheetName val="Toviaz"/>
+      <sheetName val="Diflucan"/>
+      <sheetName val="Cardura"/>
+      <sheetName val="Vfend"/>
+      <sheetName val="Zyvox"/>
+      <sheetName val="Selzentry"/>
+      <sheetName val="PF868554"/>
+      <sheetName val="Aricept"/>
+      <sheetName val="tofacitinib"/>
+      <sheetName val="Zithromax"/>
+      <sheetName val="Genotropin"/>
+      <sheetName val="tanezumab"/>
+      <sheetName val="Accupril"/>
+      <sheetName val="Fablyn"/>
+      <sheetName val="apixaban"/>
+      <sheetName val="Acquisitions"/>
+      <sheetName val="Failures"/>
+      <sheetName val="IP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="L3">
+            <v>5.758</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>44.633999999999993</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>36.301000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Victoza"/>
+      <sheetName val="NovoLog"/>
+      <sheetName val="Levemir"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>2283.3000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Crixivan"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Vytorin"/>
+      <sheetName val="Gardasil"/>
+      <sheetName val="Rotateq"/>
+      <sheetName val="Fosamax"/>
+      <sheetName val="Arcoxia"/>
+      <sheetName val="Zostavax"/>
+      <sheetName val="Singulair"/>
+      <sheetName val="Januvia"/>
+      <sheetName val="Zolinza"/>
+      <sheetName val="odanacatib"/>
+      <sheetName val="524"/>
+      <sheetName val="517"/>
+      <sheetName val="Isentress"/>
+      <sheetName val="rolofylline"/>
+      <sheetName val="taranabant"/>
+      <sheetName val="telcagepant"/>
+      <sheetName val="457"/>
+      <sheetName val="vorapaxar"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="K3">
+            <v>2528.8050250000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>9244</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>31794</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IMS Dollars"/>
+      <sheetName val="Sandoz"/>
+      <sheetName val="IMS Alpha"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Diovan"/>
+      <sheetName val="Diovan Model"/>
+      <sheetName val="Gleevec"/>
+      <sheetName val="Zometa"/>
+      <sheetName val="Lucentis"/>
+      <sheetName val="Femara"/>
+      <sheetName val="Sandostatin"/>
+      <sheetName val="Exjade"/>
+      <sheetName val="Tekturna"/>
+      <sheetName val="Lamisil"/>
+      <sheetName val="Focalin"/>
+      <sheetName val="Aclasta"/>
+      <sheetName val="indacaterol"/>
+      <sheetName val="Galvus"/>
+      <sheetName val="Tasigna"/>
+      <sheetName val="FTY720"/>
+      <sheetName val="Exforge"/>
+      <sheetName val="Lotrel"/>
+      <sheetName val="Afinitor"/>
+      <sheetName val="Ilaris"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Vaccines"/>
+      <sheetName val="Menveo"/>
+      <sheetName val="Xolair"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="L3">
+            <v>2212.5849010000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>10678</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Opdivo"/>
+      <sheetName val="Orencia"/>
+      <sheetName val="Yervoy"/>
+      <sheetName val="Eliquis"/>
+      <sheetName val="Empliciti"/>
+      <sheetName val="Avapro"/>
+      <sheetName val="Plavix"/>
+      <sheetName val="Abilify"/>
+      <sheetName val="Reyataz"/>
+      <sheetName val="Sprycel"/>
+      <sheetName val="Erbitux"/>
+      <sheetName val="Onglyza"/>
+      <sheetName val="Sustiva"/>
+      <sheetName val="dapagliflozin"/>
+      <sheetName val="ixabepilone"/>
+      <sheetName val="790052"/>
+      <sheetName val="Discontinuations"/>
+      <sheetName val="brivanib"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="L3">
+            <v>2129.0642710000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>14968</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>44972</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3334,13 +3400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:W149"/>
+  <dimension ref="B2:AB149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3348,103 +3414,120 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="10" width="9.140625" style="3"/>
-    <col min="11" max="22" width="9.140625" style="4"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="3" customWidth="1"/>
+    <col min="6" max="15" width="9.140625" style="3"/>
+    <col min="16" max="27" width="9.140625" style="4"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="K2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P2" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V2" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2025</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2026</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2027</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>2025</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2026</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>2027</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2023</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="N3" s="4">
-        <v>2025</v>
-      </c>
-      <c r="O3" s="4">
-        <v>2026</v>
-      </c>
-      <c r="P3" s="4">
-        <v>2027</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="R3" s="4">
-        <v>2023</v>
-      </c>
-      <c r="S3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="T3" s="4">
-        <v>2025</v>
-      </c>
-      <c r="U3" s="4">
-        <v>2026</v>
-      </c>
-      <c r="V3" s="4">
-        <v>2027</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>169.99</v>
@@ -3466,18 +3549,23 @@
         <v>450071.99266196002</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" s="18">
         <v>44772</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>138.28</v>
@@ -3499,24 +3587,29 @@
         <v>311503.83999999997</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="18">
         <v>44771</v>
       </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
         <v>290.89999999999998</v>
       </c>
       <c r="E6" s="6">
-        <f>+[35]Main!$J$3</f>
+        <f>+[3]Main!$J$3</f>
         <v>950.15955899999994</v>
       </c>
       <c r="F6" s="6">
@@ -3524,7 +3617,7 @@
         <v>276401.41571309994</v>
       </c>
       <c r="G6" s="6">
-        <f>+[35]Main!$J$5-[35]Main!$J$6</f>
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
         <v>-11213.199999999999</v>
       </c>
       <c r="H6" s="6">
@@ -3532,27 +3625,95 @@
         <v>287614.61571309995</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" s="18">
         <v>44774</v>
       </c>
-      <c r="W6" s="1">
+      <c r="K6" s="7">
+        <f>+[3]Model!$DM$84</f>
+        <v>193.79899328583781</v>
+      </c>
+      <c r="L6" s="22">
+        <f>K6/D6-1</f>
+        <v>-0.33379514167810986</v>
+      </c>
+      <c r="M6" s="22">
+        <f>[3]Model!$DM$80</f>
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="22">
+        <f>[3]Model!$DM$81</f>
+        <v>-0.01</v>
+      </c>
+      <c r="O6" s="22">
+        <f>[3]Model!$DM$82</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6" s="24">
+        <f>($H$6/$E$6)/V6</f>
+        <v>34.06702797542119</v>
+      </c>
+      <c r="Q6" s="24">
+        <f>($H$6/$E$6)/W6</f>
+        <v>34.35232826787027</v>
+      </c>
+      <c r="R6" s="24">
+        <f>($H$6/$E$6)/X6</f>
+        <v>17.483163429324609</v>
+      </c>
+      <c r="S6" s="24">
+        <f>($H$6/$E$6)/Y6</f>
+        <v>15.227617414114208</v>
+      </c>
+      <c r="T6" s="24">
+        <f>($H$6/$E$6)/Z6</f>
+        <v>12.992954223035117</v>
+      </c>
+      <c r="U6" s="24">
+        <f>($H$6/$E$6)/AA6</f>
+        <v>12.568938996312276</v>
+      </c>
+      <c r="V6" s="23">
+        <f>+[3]Model!DC67</f>
+        <v>8.8854650460225582</v>
+      </c>
+      <c r="W6" s="23">
+        <f>+[3]Model!DD67</f>
+        <v>8.8116701708569245</v>
+      </c>
+      <c r="X6" s="23">
+        <f>+[3]Model!DE67</f>
+        <v>17.313879580268342</v>
+      </c>
+      <c r="Y6" s="23">
+        <f>+[3]Model!DF67</f>
+        <v>19.878447039056095</v>
+      </c>
+      <c r="Z6" s="23">
+        <f>+[3]Model!DG67</f>
+        <v>23.297348786222955</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>+[3]Model!DH67</f>
+        <v>24.083288683817315</v>
+      </c>
+      <c r="AB6" s="1">
         <v>1876</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>303.35000000000002</v>
       </c>
       <c r="E7" s="6">
-        <f>+[3]Main!$K$3</f>
+        <f>+[4]Main!$K$3</f>
         <v>800.40300000000002</v>
       </c>
       <c r="F7" s="6">
@@ -3560,7 +3721,7 @@
         <v>242802.25005000003</v>
       </c>
       <c r="G7" s="6">
-        <f>+[3]Main!$K$5-[3]Main!$K$6</f>
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
         <v>-18167</v>
       </c>
       <c r="H7" s="6">
@@ -3568,35 +3729,40 @@
         <v>260969.25005000003</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="18">
         <v>44772</v>
       </c>
-      <c r="W7" s="1">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="AB7" s="1">
         <v>1896</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>46.53</v>
       </c>
       <c r="E8" s="6">
-        <f>+[4]Main!$L$3*1000</f>
+        <f>+[5]Main!$L$3*1000</f>
         <v>5758</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*[4]Main!$L$3*1000</f>
+        <f>D8*[5]Main!$L$3*1000</f>
         <v>267919.74</v>
       </c>
       <c r="G8" s="6">
-        <f>([4]Main!$L$5-[4]Main!$L$6)*1000</f>
+        <f>([5]Main!$L$5-[5]Main!$L$6)*1000</f>
         <v>8332.9999999999909</v>
       </c>
       <c r="H8" s="6">
@@ -3604,24 +3770,29 @@
         <v>259586.74</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J8" s="18">
         <v>44770</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>105.58</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*[5]Main!$K$3</f>
+        <f>D9*[6]Main!$K$3</f>
         <v>241070.81400000001</v>
       </c>
       <c r="G9" s="6"/>
@@ -3630,25 +3801,25 @@
         <v>241070.81400000001</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>84.62</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*[6]Main!$K$3</f>
+        <f>D10*[7]Main!$K$3</f>
         <v>213987.48121550001</v>
       </c>
       <c r="G10" s="6">
-        <f>[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>[7]Main!$K$5-[7]Main!$K$6</f>
         <v>-22550</v>
       </c>
       <c r="H10" s="6">
@@ -3656,25 +3827,25 @@
         <v>236537.48121550001</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>81.06</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*[7]Main!$L$3</f>
+        <f>D11*[8]Main!$L$3</f>
         <v>179352.13207506001</v>
       </c>
       <c r="G11" s="6">
-        <f>[7]Main!$L$5-[7]Main!$L$6</f>
+        <f>[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-10678</v>
       </c>
       <c r="H11" s="6">
@@ -3682,25 +3853,25 @@
         <v>190030.13207506001</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3">
         <v>73.77</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*[8]Main!$L$3</f>
+        <f>D12*[9]Main!$L$3</f>
         <v>157061.07127166999</v>
       </c>
       <c r="G12" s="6">
-        <f>[8]Main!$L$5-[8]Main!$L$6</f>
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-30004</v>
       </c>
       <c r="H12" s="6">
@@ -3708,25 +3879,25 @@
         <v>187065.07127166999</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3">
         <v>246.73</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*[9]Main!$K$3</f>
+        <f>D13*[10]Main!$K$3</f>
         <v>131753.82</v>
       </c>
       <c r="G13" s="6">
-        <f>[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-30310</v>
       </c>
       <c r="H13" s="6">
@@ -3734,25 +3905,25 @@
         <v>162063.82</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
         <v>49.2</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*[10]Main!$L$3*2</f>
+        <f>D14*[11]Main!$L$3*2</f>
         <v>123482.16000000002</v>
       </c>
       <c r="G14" s="6">
-        <f>([10]Main!$L$5-[10]Main!$L$6)*EUR</f>
+        <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
         <v>-10384.598400000001</v>
       </c>
       <c r="H14" s="6">
@@ -3760,25 +3931,25 @@
         <v>133866.75840000002</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
         <v>66</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*[11]Main!$L$3</f>
+        <f>D15*[12]Main!$L$3</f>
         <v>103026</v>
       </c>
       <c r="G15" s="6">
-        <f>[11]Main!$L$5-[11]Main!$L$6</f>
+        <f>[12]Main!$L$5-[12]Main!$L$6</f>
         <v>-25217</v>
       </c>
       <c r="H15" s="6">
@@ -3786,25 +3957,25 @@
         <v>128243</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3">
         <v>41.27</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*[12]Main!$K$4/2</f>
+        <f>D16*[13]Main!$K$4/2</f>
         <v>104578.18000000001</v>
       </c>
       <c r="G16" s="6">
-        <f>([12]Main!$K$6-[12]Main!$K$7)*GBP</f>
+        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H16" s="6">
@@ -3812,25 +3983,25 @@
         <v>127534.20000000001</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="6">
         <v>1683.8</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*[12]Main!$K$4/100*GBP</f>
+        <f>D17*[13]Main!$K$4/100*GBP</f>
         <v>100976.8865672</v>
       </c>
       <c r="G17" s="6">
-        <f>([12]Main!$K$6-[12]Main!$K$7)*GBP</f>
+        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H17" s="6">
@@ -3838,25 +4009,25 @@
         <v>123932.9065672</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
         <v>60.9</v>
       </c>
       <c r="F18" s="6">
-        <f>+D18*[13]Main!$J$3</f>
+        <f>+D18*[14]Main!$J$3</f>
         <v>76855.8</v>
       </c>
       <c r="G18" s="6">
-        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>-19456</v>
       </c>
       <c r="H18" s="6">
@@ -3864,25 +4035,25 @@
         <v>96311.8</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
         <v>175.1</v>
       </c>
       <c r="F19" s="6">
-        <f>D19*[14]Main!$J$3*EUR</f>
+        <f>D19*[15]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
       <c r="G19" s="6">
-        <f>([14]Main!$J$5-[14]Main!$J$6)*EUR</f>
+        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
       <c r="H19" s="6">
@@ -3890,25 +4061,25 @@
         <v>86834.293029173947</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3">
         <v>255.99</v>
       </c>
       <c r="F20" s="6">
-        <f>D20*[15]Main!$J$3*AUD</f>
+        <f>D20*[16]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
       <c r="G20" s="6">
-        <f>[15]Main!$J$5-[15]Main!$J$6</f>
+        <f>[16]Main!$J$5-[16]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
       <c r="H20" s="6">
@@ -3916,25 +4087,25 @@
         <v>84029.90898148845</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3">
         <v>263.08999999999997</v>
       </c>
       <c r="F21" s="6">
-        <f>+D21*[16]Main!$M$3</f>
+        <f>+D21*[17]Main!$M$3</f>
         <v>67286.835779489993</v>
       </c>
       <c r="G21" s="6">
-        <f>+[16]Main!$M$5-[16]Main!$M$6</f>
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>8238.1</v>
       </c>
       <c r="H21" s="6">
@@ -3942,25 +4113,25 @@
         <v>59048.735779489994</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3">
         <v>10.46</v>
       </c>
       <c r="F22" s="6">
-        <f>D22*[17]Main!$M$3</f>
+        <f>D22*[18]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="G22" s="6">
-        <f>[17]Main!$M$5-[17]Main!$M$6</f>
+        <f>[18]Main!$M$5-[18]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="H22" s="6">
@@ -3968,76 +4139,71 @@
         <v>31346.43945768</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3">
         <v>580.95000000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3">
         <v>128.03</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6">
         <v>3311</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <v>137.09</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3">
         <v>13.12</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+        <v>265</v>
+      </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -4045,42 +4211,42 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3">
         <v>63.83</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="6">
         <v>4360</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
@@ -4088,45 +4254,50 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3">
         <v>125.14</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3">
         <v>76.08</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3">
         <v>71.27</v>
       </c>
       <c r="F34" s="6">
-        <f>+D34*[18]Main!$K$3</f>
+        <f>+D34*[19]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="G34" s="6">
-        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="H34" s="6">
@@ -4134,43 +4305,38 @@
         <v>13065.66213397</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="3">
         <v>28.54</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3">
         <v>349.96</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+        <v>269</v>
+      </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
@@ -4178,19 +4344,19 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+        <v>267</v>
+      </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
@@ -4198,30 +4364,30 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3">
         <v>165.45</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
+        <v>271</v>
+      </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
@@ -4229,30 +4395,30 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3">
         <v>39.35</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B42" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+        <v>275</v>
+      </c>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -4260,23 +4426,28 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" s="3">
         <v>132.13999999999999</v>
       </c>
       <c r="F43" s="6">
-        <f>D43*[19]Main!$L$3</f>
+        <f>D43*[20]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="G43" s="6">
-        <f>[19]Main!$L$5-[19]Main!$L$6</f>
+        <f>[20]Main!$L$5-[20]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="H43" s="6">
@@ -4284,69 +4455,69 @@
         <v>7896.2021132399987</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="6">
         <v>1978</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="6">
         <v>3060</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="3">
         <v>11.57</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="3">
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="3">
         <v>219.38</v>
       </c>
       <c r="F48" s="6">
-        <f>D48*[20]Main!$K$3</f>
+        <f>D48*[21]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="G48" s="6">
-        <f>[20]Main!$K$5-[20]Main!$K$6</f>
+        <f>[21]Main!$K$5-[21]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="H48" s="6">
@@ -4354,25 +4525,25 @@
         <v>7437.4260000000013</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="7">
         <v>57</v>
       </c>
       <c r="F49" s="6">
-        <f>+D49*[21]Main!$L$3</f>
+        <f>+D49*[22]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="G49" s="6">
-        <f>+[21]Main!$L$5-[21]Main!$L$6</f>
+        <f>+[22]Main!$L$5-[22]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="H49" s="6">
@@ -4380,21 +4551,21 @@
         <v>5295.6136259999994</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D50" s="7">
         <v>1721.48</v>
       </c>
       <c r="E50" s="6">
-        <f>+[22]Main!$K$3</f>
+        <f>+[23]Main!$K$3</f>
         <v>233</v>
       </c>
       <c r="F50" s="6">
@@ -4402,7 +4573,7 @@
         <v>4746.2735717200003</v>
       </c>
       <c r="G50" s="6">
-        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
         <v>-337</v>
       </c>
       <c r="H50" s="6">
@@ -4410,13 +4581,8 @@
         <v>5083.2735717200003</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
+        <v>23</v>
+      </c>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="15"/>
@@ -4424,41 +4590,41 @@
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D51" s="3">
         <v>93.28</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" s="3">
         <v>142.91</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
+        <v>280</v>
+      </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
@@ -4466,19 +4632,19 @@
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+        <v>288</v>
+      </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
@@ -4486,30 +4652,30 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D55" s="3">
         <v>7.71</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+        <v>286</v>
+      </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
@@ -4517,19 +4683,19 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+        <v>284</v>
+      </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
@@ -4537,19 +4703,19 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+        <v>282</v>
+      </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
@@ -4557,19 +4723,19 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+        <v>279</v>
+      </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
@@ -4577,19 +4743,19 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
+        <v>277</v>
+      </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
@@ -4597,43 +4763,48 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D62" s="3">
         <v>11.04</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D63" s="3">
         <v>44.14</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D64" s="3">
         <v>35.26</v>
@@ -4641,10 +4812,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="3">
         <v>82.53</v>
@@ -4652,10 +4823,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D66" s="3">
         <v>24.78</v>
@@ -4663,10 +4834,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D67" s="3">
         <v>4.72</v>
@@ -4674,10 +4845,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D68" s="3">
         <v>24.53</v>
@@ -4685,10 +4856,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D69" s="3">
         <v>23.02</v>
@@ -4696,10 +4867,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D70" s="3">
         <v>29.12</v>
@@ -4707,10 +4878,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D71" s="3">
         <v>33.17</v>
@@ -4718,10 +4889,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D72" s="3">
         <v>53.21</v>
@@ -4729,10 +4900,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" s="3">
         <v>46.23</v>
@@ -4740,10 +4911,10 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74" s="7">
         <v>70</v>
@@ -4751,10 +4922,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D75" s="3">
         <v>18.559999999999999</v>
@@ -4762,10 +4933,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D76" s="3">
         <v>15.75</v>
@@ -4773,10 +4944,10 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D77" s="3">
         <v>19.510000000000002</v>
@@ -4784,10 +4955,10 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D78" s="3">
         <v>66.97</v>
@@ -4795,10 +4966,10 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D79" s="3">
         <v>54.94</v>
@@ -4806,85 +4977,80 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" s="3">
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D81" s="3">
         <v>28.03</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D82" s="3">
         <v>83.92</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" s="3">
         <v>60.72</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D84" s="7">
         <v>12.2</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D85" s="3">
         <v>2.37</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D86" s="3">
         <v>4.26</v>
       </c>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
       <c r="R86" s="19"/>
@@ -4892,92 +5058,97 @@
       <c r="T86" s="19"/>
       <c r="U86" s="19"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="1">
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D87" s="3">
         <v>42.98</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D88" s="3">
         <v>23.92</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D89" s="3">
         <v>53.29</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D90" s="3">
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D91" s="3">
         <v>48.63</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D92" s="3">
         <v>27.73</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="3">
         <v>10.119999999999999</v>
       </c>
       <c r="F93" s="6">
-        <f>+D93*[23]Main!$N$3</f>
+        <f>+D93*[24]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
       <c r="G93" s="6">
-        <f>+[23]Main!$N$5-[23]Main!$N$6</f>
+        <f>+[24]Main!$N$5-[24]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
       <c r="H93" s="6">
@@ -4985,109 +5156,104 @@
         <v>2282.2630120399995</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" s="3">
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D95" s="3">
         <v>14.27</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3">
         <v>7.36</v>
       </c>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D97" s="3">
         <v>9.35</v>
       </c>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D98" s="3">
         <v>43.98</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D99" s="3">
         <v>5.18</v>
       </c>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D100" s="3">
         <v>53.72</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D101" s="3">
         <v>21.04</v>
       </c>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
+        <v>320</v>
+      </c>
       <c r="P102" s="20"/>
       <c r="Q102" s="20"/>
       <c r="R102" s="20"/>
@@ -5095,107 +5261,107 @@
       <c r="T102" s="20"/>
       <c r="U102" s="20"/>
       <c r="V102" s="20"/>
-    </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="20"/>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D103" s="7">
         <v>20.7</v>
       </c>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D104" s="3">
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D105" s="3">
         <v>16.12</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D106" s="3">
         <v>28.41</v>
       </c>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D107" s="3">
         <v>33.86</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D108" s="3">
         <v>38.35</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D109" s="3">
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D110" s="3">
         <v>25.49</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
+        <v>301</v>
+      </c>
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
       <c r="R111" s="14"/>
@@ -5203,166 +5369,171 @@
       <c r="T111" s="14"/>
       <c r="U111" s="14"/>
       <c r="V111" s="14"/>
-    </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="14"/>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D112" s="3">
         <v>11.42</v>
       </c>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D113" s="3">
         <v>26.64</v>
       </c>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D114" s="3">
         <v>30.48</v>
       </c>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D115" s="3">
         <v>12.98</v>
       </c>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D116" s="3">
         <v>10.96</v>
       </c>
     </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D117" s="3">
         <v>2.42</v>
       </c>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D118" s="7">
         <v>55.5</v>
       </c>
     </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D119" s="3">
         <v>10.63</v>
       </c>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D120" s="3">
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D121" s="3">
         <v>31.52</v>
       </c>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D122" s="3">
         <v>7.62</v>
       </c>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D123" s="3">
         <v>28.55</v>
       </c>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D124" s="3">
         <v>27.02</v>
       </c>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D125" s="3">
         <v>15.65</v>
       </c>
       <c r="F125" s="6">
-        <f>D125*[24]Main!$L$3</f>
+        <f>D125*[25]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
       <c r="G125" s="6">
-        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
         <v>112.015</v>
       </c>
       <c r="H125" s="6">
@@ -5370,25 +5541,25 @@
         <v>1141.14095595</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B126" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D126" s="3">
         <v>16.93</v>
       </c>
       <c r="F126" s="6">
-        <f>+D126*[25]Main!$L$3</f>
+        <f>+D126*[26]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
       <c r="G126" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
       <c r="H126" s="6">
@@ -5396,16 +5567,16 @@
         <v>1075.2886793099999</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J126" s="18">
         <v>44771</v>
       </c>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
       <c r="P126" s="16"/>
       <c r="Q126" s="16"/>
       <c r="R126" s="16"/>
@@ -5413,46 +5584,51 @@
       <c r="T126" s="16"/>
       <c r="U126" s="16"/>
       <c r="V126" s="16"/>
-    </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W126" s="16"/>
+      <c r="X126" s="16"/>
+      <c r="Y126" s="16"/>
+      <c r="Z126" s="16"/>
+      <c r="AA126" s="16"/>
+    </row>
+    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D127" s="3">
         <v>3.17</v>
       </c>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D128" s="3">
         <v>8.76</v>
       </c>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D129" s="3">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B130" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D130" s="3">
         <v>3.92</v>
@@ -5460,11 +5636,6 @@
       <c r="F130" s="3">
         <v>630</v>
       </c>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
       <c r="R130" s="17"/>
@@ -5472,13 +5643,18 @@
       <c r="T130" s="17"/>
       <c r="U130" s="17"/>
       <c r="V130" s="17"/>
-    </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W130" s="17"/>
+      <c r="X130" s="17"/>
+      <c r="Y130" s="17"/>
+      <c r="Z130" s="17"/>
+      <c r="AA130" s="17"/>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D131" s="3">
         <v>11.93</v>
@@ -5486,11 +5662,6 @@
       <c r="F131" s="3">
         <v>516</v>
       </c>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
@@ -5498,100 +5669,105 @@
       <c r="T131" s="17"/>
       <c r="U131" s="17"/>
       <c r="V131" s="17"/>
-    </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W131" s="17"/>
+      <c r="X131" s="17"/>
+      <c r="Y131" s="17"/>
+      <c r="Z131" s="17"/>
+      <c r="AA131" s="17"/>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D132" s="3">
         <v>5.46</v>
       </c>
     </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D133" s="7">
         <v>36.6</v>
       </c>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D134" s="7">
         <v>40.24</v>
       </c>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D135" s="3">
         <v>22.11</v>
       </c>
     </row>
-    <row r="136" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D136" s="3">
         <v>10.31</v>
       </c>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D137" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D138" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B139" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D139" s="3">
         <v>7.06</v>
       </c>
       <c r="F139" s="6">
-        <f>D139*[26]Main!$J$3</f>
+        <f>D139*[27]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="G139" s="6">
-        <f>[26]Main!$J$5-[26]Main!$J$6</f>
+        <f>[27]Main!$J$5-[27]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="H139" s="8">
@@ -5599,25 +5775,25 @@
         <v>527.83186605999992</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B140" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D140" s="3">
         <v>14.68</v>
       </c>
       <c r="F140" s="6">
-        <f>D140*[27]Main!$L$3</f>
+        <f>D140*[28]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="G140" s="6">
-        <f>[27]Main!$L$5-[27]Main!$L$6</f>
+        <f>[28]Main!$L$5-[28]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="H140" s="8">
@@ -5625,25 +5801,25 @@
         <v>309.38096075999994</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B141" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D141" s="3">
         <v>4.8600000000000003</v>
       </c>
       <c r="F141" s="6">
-        <f>D141*[28]Main!$J$3</f>
+        <f>D141*[29]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="G141" s="8">
-        <f>+[28]Main!$J$5-[28]Main!$J$6</f>
+        <f>+[29]Main!$J$5-[29]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="H141" s="8">
@@ -5651,25 +5827,25 @@
         <v>220.39615336000003</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B142" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D142" s="3">
         <v>7.57</v>
       </c>
       <c r="F142" s="6">
-        <f>D142*[29]Main!$M$3</f>
+        <f>D142*[30]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="G142" s="6">
-        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <f>[30]Main!$M$5-[30]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="H142" s="8">
@@ -5677,25 +5853,25 @@
         <v>218.02283246000002</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B143" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D143" s="7">
         <v>0.7</v>
       </c>
       <c r="F143" s="6">
-        <f>D143*[30]Main!$M$3</f>
+        <f>D143*[31]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="G143" s="6">
-        <f>[30]Main!$M$5-[30]Main!$M$6</f>
+        <f>[31]Main!$M$5-[31]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="H143" s="8">
@@ -5703,25 +5879,25 @@
         <v>188.44125030000001</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B144" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D144" s="3">
         <v>1.98</v>
       </c>
       <c r="F144" s="6">
-        <f>D144*[31]Main!$N$3</f>
+        <f>D144*[32]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="G144" s="6">
-        <f>[31]Main!$N$5-[31]Main!$N$6</f>
+        <f>[32]Main!$N$5-[32]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="H144" s="8">
@@ -5729,25 +5905,25 @@
         <v>23.815463459999997</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D145" s="3">
         <v>0.62</v>
       </c>
       <c r="F145" s="6">
-        <f>D145*[32]Main!$L$3</f>
+        <f>D145*[33]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="G145" s="6">
-        <f>[32]Main!$L$5-[32]Main!$L$6</f>
+        <f>[33]Main!$L$5-[33]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="H145" s="8">
@@ -5755,25 +5931,25 @@
         <v>16.925165800000002</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D146" s="3">
         <v>6.12</v>
       </c>
       <c r="F146" s="6">
-        <f>D146*[33]Main!$M$3</f>
+        <f>D146*[34]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="G146" s="6">
-        <f>[33]Main!$M$5-[33]Main!$M$6</f>
+        <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="H146" s="8">
@@ -5781,25 +5957,25 @@
         <v>-5.7159167599999847</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D147" s="3">
         <v>0.98</v>
       </c>
       <c r="F147" s="6">
-        <f>D147*[34]Main!$M$3</f>
+        <f>D147*[35]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="G147" s="6">
-        <f>[34]Main!$M$5-[34]Main!$M$6</f>
+        <f>[35]Main!$M$5-[35]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="H147" s="8">
@@ -5807,15 +5983,15 @@
         <v>-34.344482460000002</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D148" s="3">
         <v>0.61</v>
@@ -5823,10 +5999,10 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D149" s="3">
         <v>5.55</v>
@@ -5834,8 +6010,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{31FFFB9E-A269-4EC0-9451-78F4F00A4890}"/>
@@ -5960,7 +6136,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5971,7 +6147,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5981,38 +6157,38 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6042,23 +6218,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D75FB-4854-4131-B346-6C68885E3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB321E-7A38-469A-8B7F-BC36BB789C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1215" windowWidth="18975" windowHeight="13935" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="3660" yWindow="105" windowWidth="23460" windowHeight="14730" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="329">
   <si>
     <t>Exarta</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t>Terminal</t>
+  </si>
+  <si>
+    <t>NOVOB</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1181,6 +1184,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1330,212 +1336,6 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Epo Global Model"/>
-      <sheetName val="Epo Bottoms-Up Model"/>
-      <sheetName val="EPO Pricing - Rebates"/>
-      <sheetName val="EPO Share"/>
-      <sheetName val="EPO Pricing,Reimbursement"/>
-      <sheetName val="IMS EPOs"/>
-      <sheetName val="NDC EPOs"/>
-      <sheetName val="Enbrel"/>
-      <sheetName val="Enbrel Top-Down"/>
-      <sheetName val="Enbrel NDC"/>
-      <sheetName val="Enbrel IMS"/>
-      <sheetName val="Neulasta"/>
-      <sheetName val="Neupogen"/>
-      <sheetName val="G-CSF Top-Down"/>
-      <sheetName val="GCSF IMS"/>
-      <sheetName val="NDC GCSFs"/>
-      <sheetName val="IP"/>
-      <sheetName val="EPO CHF"/>
-      <sheetName val="EPO MDS"/>
-      <sheetName val="Epo Comp"/>
-      <sheetName val="Epo Science"/>
-      <sheetName val="CERA legal"/>
-      <sheetName val="CERA clinical"/>
-      <sheetName val="David Legal"/>
-      <sheetName val="Epogen"/>
-      <sheetName val="EPO safety"/>
-      <sheetName val="Aranesp"/>
-      <sheetName val="G-CSF"/>
-      <sheetName val="Sensipar"/>
-      <sheetName val="Kepivance"/>
-      <sheetName val="Vectibix"/>
-      <sheetName val="Denosumab"/>
-      <sheetName val="Denosumab trials"/>
-      <sheetName val="Kineret"/>
-      <sheetName val="706"/>
-      <sheetName val="531"/>
-      <sheetName val="108"/>
-      <sheetName val="114"/>
-      <sheetName val="223"/>
-      <sheetName val="386"/>
-      <sheetName val="479"/>
-      <sheetName val="102"/>
-      <sheetName val="655"/>
-      <sheetName val="785"/>
-      <sheetName val="811"/>
-      <sheetName val="208"/>
-      <sheetName val="714"/>
-      <sheetName val="Failures"/>
-      <sheetName val="FG-2216"/>
-      <sheetName val="Affymax"/>
-      <sheetName val="Reimbursement"/>
-      <sheetName val="MDRX Aranesp Sales"/>
-      <sheetName val="MDRX Procrit sales"/>
-      <sheetName val="Capture Rate Thesis"/>
-      <sheetName val="Management"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>534</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>6544</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>36854</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RX Rank"/>
-      <sheetName val="RX Alpha"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Lovenox"/>
-      <sheetName val="Lantus"/>
-      <sheetName val="Plavix"/>
-      <sheetName val="Multaq"/>
-      <sheetName val="idraparinux"/>
-      <sheetName val="SR 58611"/>
-      <sheetName val="Eplivanserin"/>
-      <sheetName val="SSR 591813"/>
-      <sheetName val="Xaliproden"/>
-      <sheetName val="Alvocidib"/>
-      <sheetName val="SR 121463"/>
-      <sheetName val="BSI-201"/>
-      <sheetName val="Zimulti"/>
-      <sheetName val="teriflunomide"/>
-      <sheetName val="Failures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="L3">
-            <v>1254.9000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>10098</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>20306</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
       <sheetName val="Crestor"/>
       <sheetName val="Seroquel"/>
       <sheetName val="Symbicort"/>
@@ -1599,7 +1399,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1728,7 +1528,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1803,7 +1603,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1834,7 +1634,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1865,7 +1665,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1918,7 +1718,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1947,7 +1747,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2014,6 +1814,76 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>102.46286600000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>6252.2330000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>608.99199999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Remodulin"/>
+      <sheetName val="Tyvaso"/>
+      <sheetName val="Oral"/>
+      <sheetName val="Adcirca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>47.7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3827</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2058,27 +1928,29 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>102.46286600000001</v>
+            <v>106.521818</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>6252.2330000000002</v>
+            <v>965.298</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>608.99199999999996</v>
+            <v>189.16800000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2089,103 +1961,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Remodulin"/>
-      <sheetName val="Tyvaso"/>
-      <sheetName val="Oral"/>
-      <sheetName val="Adcirca"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>47.7</v>
+            <v>233</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>3827</v>
+            <v>426</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>800</v>
+            <v>763</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Empaveli"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>106.521818</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>965.298</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>189.16800000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>233</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>426</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>763</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2216,7 +2016,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2247,7 +2047,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2288,7 +2088,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2331,7 +2131,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2360,7 +2160,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2390,6 +2190,64 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>44.710678000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>120.43700000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>184.19892899999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>67.233999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>126.736</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2418,7 +2276,7 @@
       <sheetName val="LY2140023"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
@@ -2478,20 +2336,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2506,18 +2364,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2535,18 +2393,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2564,18 +2422,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2593,18 +2451,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="M3">
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="M5">
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2618,25 +2476,35 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Type 2 Diabetes"/>
+      <sheetName val="Victoza"/>
+      <sheetName val="NovoLog"/>
+      <sheetName val="Levemir"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="J3">
+            <v>2283.3000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="J5">
+            <v>20612</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="J6">
+            <v>25480</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2646,26 +2514,70 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Master Pipeline"/>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Keytruda"/>
+      <sheetName val="Vytorin"/>
+      <sheetName val="Gardasil"/>
+      <sheetName val="Rotateq"/>
+      <sheetName val="Fosamax"/>
+      <sheetName val="Arcoxia"/>
+      <sheetName val="Zostavax"/>
+      <sheetName val="Singulair"/>
+      <sheetName val="Januvia"/>
+      <sheetName val="Zolinza"/>
+      <sheetName val="odanacatib"/>
+      <sheetName val="524"/>
+      <sheetName val="517"/>
+      <sheetName val="Isentress"/>
+      <sheetName val="rolofylline"/>
+      <sheetName val="taranabant"/>
+      <sheetName val="telcagepant"/>
+      <sheetName val="457"/>
+      <sheetName val="vorapaxar"/>
+      <sheetName val="Crixivan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
+          <cell r="J3">
+            <v>2528.8050250000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
+          <cell r="J5">
+            <v>9244</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="J6">
+            <v>31794</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2855,104 +2767,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Victoza"/>
-      <sheetName val="NovoLog"/>
-      <sheetName val="Levemir"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>2283.3000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Crixivan"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Vytorin"/>
-      <sheetName val="Gardasil"/>
-      <sheetName val="Rotateq"/>
-      <sheetName val="Fosamax"/>
-      <sheetName val="Arcoxia"/>
-      <sheetName val="Zostavax"/>
-      <sheetName val="Singulair"/>
-      <sheetName val="Januvia"/>
-      <sheetName val="Zolinza"/>
-      <sheetName val="odanacatib"/>
-      <sheetName val="524"/>
-      <sheetName val="517"/>
-      <sheetName val="Isentress"/>
-      <sheetName val="rolofylline"/>
-      <sheetName val="taranabant"/>
-      <sheetName val="telcagepant"/>
-      <sheetName val="457"/>
-      <sheetName val="vorapaxar"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="K3">
-            <v>2528.8050250000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>9244</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>31794</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="IMS Dollars"/>
       <sheetName val="Sandoz"/>
       <sheetName val="IMS Alpha"/>
@@ -3034,7 +2848,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3098,6 +2912,212 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Epo Global Model"/>
+      <sheetName val="Epo Bottoms-Up Model"/>
+      <sheetName val="EPO Pricing - Rebates"/>
+      <sheetName val="EPO Share"/>
+      <sheetName val="EPO Pricing,Reimbursement"/>
+      <sheetName val="IMS EPOs"/>
+      <sheetName val="NDC EPOs"/>
+      <sheetName val="Enbrel"/>
+      <sheetName val="Enbrel Top-Down"/>
+      <sheetName val="Enbrel NDC"/>
+      <sheetName val="Enbrel IMS"/>
+      <sheetName val="Neulasta"/>
+      <sheetName val="Neupogen"/>
+      <sheetName val="G-CSF Top-Down"/>
+      <sheetName val="GCSF IMS"/>
+      <sheetName val="NDC GCSFs"/>
+      <sheetName val="IP"/>
+      <sheetName val="EPO CHF"/>
+      <sheetName val="EPO MDS"/>
+      <sheetName val="Epo Comp"/>
+      <sheetName val="Epo Science"/>
+      <sheetName val="CERA legal"/>
+      <sheetName val="CERA clinical"/>
+      <sheetName val="David Legal"/>
+      <sheetName val="Epogen"/>
+      <sheetName val="EPO safety"/>
+      <sheetName val="Aranesp"/>
+      <sheetName val="G-CSF"/>
+      <sheetName val="Sensipar"/>
+      <sheetName val="Kepivance"/>
+      <sheetName val="Vectibix"/>
+      <sheetName val="Denosumab"/>
+      <sheetName val="Denosumab trials"/>
+      <sheetName val="Kineret"/>
+      <sheetName val="706"/>
+      <sheetName val="531"/>
+      <sheetName val="108"/>
+      <sheetName val="114"/>
+      <sheetName val="223"/>
+      <sheetName val="386"/>
+      <sheetName val="479"/>
+      <sheetName val="102"/>
+      <sheetName val="655"/>
+      <sheetName val="785"/>
+      <sheetName val="811"/>
+      <sheetName val="208"/>
+      <sheetName val="714"/>
+      <sheetName val="Failures"/>
+      <sheetName val="FG-2216"/>
+      <sheetName val="Affymax"/>
+      <sheetName val="Reimbursement"/>
+      <sheetName val="MDRX Aranesp Sales"/>
+      <sheetName val="MDRX Procrit sales"/>
+      <sheetName val="Capture Rate Thesis"/>
+      <sheetName val="Management"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>534</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>6544</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>36854</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RX Rank"/>
+      <sheetName val="RX Alpha"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Lovenox"/>
+      <sheetName val="Lantus"/>
+      <sheetName val="Plavix"/>
+      <sheetName val="Multaq"/>
+      <sheetName val="idraparinux"/>
+      <sheetName val="SR 58611"/>
+      <sheetName val="Eplivanserin"/>
+      <sheetName val="SSR 591813"/>
+      <sheetName val="Xaliproden"/>
+      <sheetName val="Alvocidib"/>
+      <sheetName val="SR 121463"/>
+      <sheetName val="BSI-201"/>
+      <sheetName val="Zimulti"/>
+      <sheetName val="teriflunomide"/>
+      <sheetName val="Failures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="L3">
+            <v>1254.9000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>10098</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>20306</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3400,13 +3420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:AB149"/>
+  <dimension ref="B2:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3422,22 +3442,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3583,7 +3603,7 @@
         <v>-65642</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H13" si="0">F5-G5</f>
+        <f t="shared" ref="H5:H14" si="0">F5-G5</f>
         <v>311503.83999999997</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -3651,27 +3671,27 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P6" s="24">
-        <f>($H$6/$E$6)/V6</f>
+        <f t="shared" ref="P6:U6" si="1">($H$6/$E$6)/V6</f>
         <v>34.06702797542119</v>
       </c>
       <c r="Q6" s="24">
-        <f>($H$6/$E$6)/W6</f>
+        <f t="shared" si="1"/>
         <v>34.35232826787027</v>
       </c>
       <c r="R6" s="24">
-        <f>($H$6/$E$6)/X6</f>
+        <f t="shared" si="1"/>
         <v>17.483163429324609</v>
       </c>
       <c r="S6" s="24">
-        <f>($H$6/$E$6)/Y6</f>
+        <f t="shared" si="1"/>
         <v>15.227617414114208</v>
       </c>
       <c r="T6" s="24">
-        <f>($H$6/$E$6)/Z6</f>
+        <f t="shared" si="1"/>
         <v>12.992954223035117</v>
       </c>
       <c r="U6" s="24">
-        <f>($H$6/$E$6)/AA6</f>
+        <f t="shared" si="1"/>
         <v>12.568938996312276</v>
       </c>
       <c r="V6" s="23">
@@ -3788,95 +3808,131 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
-        <v>105.58</v>
+      <c r="D9" s="7">
+        <v>106</v>
+      </c>
+      <c r="E9" s="6">
+        <f>+[34]Main!$J$3</f>
+        <v>2283.3000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*[6]Main!$K$3</f>
-        <v>241070.81400000001</v>
-      </c>
-      <c r="G9" s="6"/>
+        <f>+E9*D9</f>
+        <v>242029.80000000002</v>
+      </c>
+      <c r="G9" s="6">
+        <f>([34]Main!$J$5-[34]Main!$J$6)/DKK</f>
+        <v>-665.40001913640151</v>
+      </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>241070.81400000001</v>
+        <v>242695.20001913642</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J9" s="18">
+        <v>44776</v>
+      </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3">
-        <v>84.62</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="7">
+        <v>775</v>
+      </c>
+      <c r="E10" s="6">
+        <f>+[34]Main!$J$3</f>
+        <v>2283.3000000000002</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*[7]Main!$K$3</f>
-        <v>213987.48121550001</v>
+        <f>+D10*E10/DKK</f>
+        <v>241878.3061550869</v>
       </c>
       <c r="G10" s="6">
-        <f>[7]Main!$K$5-[7]Main!$K$6</f>
-        <v>-22550</v>
+        <f>([34]Main!$J$5-[34]Main!$J$6)/DKK</f>
+        <v>-665.40001913640151</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>236537.48121550001</v>
+        <v>242543.70617422331</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J10" s="18">
+        <v>44776</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
-        <v>81.06</v>
+        <v>84.62</v>
+      </c>
+      <c r="E11" s="6">
+        <f>+[35]Main!$J$3</f>
+        <v>2528.8050250000001</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*[8]Main!$L$3</f>
-        <v>179352.13207506001</v>
+        <f>+D11*E11</f>
+        <v>213987.48121550001</v>
       </c>
       <c r="G11" s="6">
-        <f>[8]Main!$L$5-[8]Main!$L$6</f>
-        <v>-10678</v>
+        <f>+[35]Main!$J$5-[35]Main!$J$6</f>
+        <v>-22550</v>
       </c>
       <c r="H11" s="6">
-        <f>F11-G11</f>
-        <v>190030.13207506001</v>
+        <f t="shared" si="0"/>
+        <v>236537.48121550001</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J11" s="18">
+        <v>44778</v>
+      </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
-        <v>73.77</v>
+        <v>81.06</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*[9]Main!$L$3</f>
-        <v>157061.07127166999</v>
+        <f>D12*[6]Main!$L$3</f>
+        <v>179352.13207506001</v>
       </c>
       <c r="G12" s="6">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>-30004</v>
+        <f>[6]Main!$L$5-[6]Main!$L$6</f>
+        <v>-10678</v>
       </c>
       <c r="H12" s="6">
         <f>F12-G12</f>
-        <v>187065.07127166999</v>
+        <v>190030.13207506001</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>16</v>
@@ -3884,103 +3940,103 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3">
+        <v>73.77</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*[7]Main!$L$3</f>
+        <v>157061.07127166999</v>
+      </c>
+      <c r="G13" s="6">
+        <f>[7]Main!$L$5-[7]Main!$L$6</f>
+        <v>-30004</v>
+      </c>
+      <c r="H13" s="6">
+        <f>F13-G13</f>
+        <v>187065.07127166999</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>246.73</v>
       </c>
-      <c r="F13" s="6">
-        <f>D13*[10]Main!$K$3</f>
+      <c r="F14" s="6">
+        <f>D14*[8]Main!$K$3</f>
         <v>131753.82</v>
       </c>
-      <c r="G13" s="6">
-        <f>[10]Main!$K$5-[10]Main!$K$6</f>
+      <c r="G14" s="6">
+        <f>[8]Main!$K$5-[8]Main!$K$6</f>
         <v>-30310</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>162063.82</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
-        <v>49.2</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*[11]Main!$L$3*2</f>
-        <v>123482.16000000002</v>
-      </c>
-      <c r="G14" s="6">
-        <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
-        <v>-10384.598400000001</v>
-      </c>
-      <c r="H14" s="6">
-        <f>F14-G14</f>
-        <v>133866.75840000002</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>66</v>
+        <v>49.2</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*[12]Main!$L$3</f>
-        <v>103026</v>
+        <f>D15*[9]Main!$L$3*2</f>
+        <v>123482.16000000002</v>
       </c>
       <c r="G15" s="6">
-        <f>[12]Main!$L$5-[12]Main!$L$6</f>
-        <v>-25217</v>
+        <f>([9]Main!$L$5-[9]Main!$L$6)*EUR</f>
+        <v>-10384.598400000001</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H19" si="1">F15-G15</f>
-        <v>128243</v>
+        <f>F15-G15</f>
+        <v>133866.75840000002</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3">
-        <v>41.27</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
+        <v>66</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*[13]Main!$K$4/2</f>
-        <v>104578.18000000001</v>
+        <f>D16*[10]Main!$L$3</f>
+        <v>103026</v>
       </c>
       <c r="G16" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
-        <v>-22956.02</v>
+        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>-25217</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>127534.20000000001</v>
+        <f t="shared" ref="H16:H20" si="2">F16-G16</f>
+        <v>128243</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>16</v>
@@ -3991,22 +4047,22 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1683.8</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41.27</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*[13]Main!$K$4/100*GBP</f>
-        <v>100976.8865672</v>
+        <f>D17*[11]Main!$K$4/2</f>
+        <v>104578.18000000001</v>
       </c>
       <c r="G17" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
+        <f>([11]Main!$K$6-[11]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>123932.9065672</v>
+        <f t="shared" si="2"/>
+        <v>127534.20000000001</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>16</v>
@@ -4014,129 +4070,129 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="7">
-        <v>60.9</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1683.8</v>
       </c>
       <c r="F18" s="6">
-        <f>+D18*[14]Main!$J$3</f>
-        <v>76855.8</v>
+        <f>D18*[11]Main!$K$4/100*GBP</f>
+        <v>100976.8865672</v>
       </c>
       <c r="G18" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>-19456</v>
+        <f>([11]Main!$K$6-[11]Main!$K$7)*GBP</f>
+        <v>-22956.02</v>
       </c>
       <c r="H18" s="6">
-        <f>F18-G18</f>
-        <v>96311.8</v>
+        <f t="shared" si="2"/>
+        <v>123932.9065672</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>175.1</v>
+        <v>60.9</v>
       </c>
       <c r="F19" s="6">
-        <f>D19*[15]Main!$J$3*EUR</f>
-        <v>77446.648629173942</v>
+        <f>+D19*[12]Main!$J$3</f>
+        <v>76855.8</v>
       </c>
       <c r="G19" s="6">
-        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
-        <v>-9387.644400000001</v>
+        <f>+[12]Main!$J$5-[12]Main!$J$6</f>
+        <v>-19456</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>86834.293029173947</v>
+        <f>F19-G19</f>
+        <v>96311.8</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7">
+        <v>175.1</v>
+      </c>
+      <c r="F20" s="6">
+        <f>D20*[13]Main!$J$3*EUR</f>
+        <v>77446.648629173942</v>
+      </c>
+      <c r="G20" s="6">
+        <f>([13]Main!$J$5-[13]Main!$J$6)*EUR</f>
+        <v>-9387.644400000001</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>86834.293029173947</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>255.99</v>
       </c>
-      <c r="F20" s="6">
-        <f>D20*[16]Main!$J$3*AUD</f>
+      <c r="F21" s="6">
+        <f>D21*[14]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
-      <c r="G20" s="6">
-        <f>[16]Main!$J$5-[16]Main!$J$6</f>
+      <c r="G21" s="6">
+        <f>[14]Main!$J$5-[14]Main!$J$6</f>
         <v>-3998.1000000000004</v>
-      </c>
-      <c r="H20" s="6">
-        <f>F20-G20</f>
-        <v>84029.90898148845</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3">
-        <v>263.08999999999997</v>
-      </c>
-      <c r="F21" s="6">
-        <f>+D21*[17]Main!$M$3</f>
-        <v>67286.835779489993</v>
-      </c>
-      <c r="G21" s="6">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
-        <v>8238.1</v>
       </c>
       <c r="H21" s="6">
         <f>F21-G21</f>
-        <v>59048.735779489994</v>
+        <v>84029.90898148845</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>77</v>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3">
-        <v>10.46</v>
+        <v>263.08999999999997</v>
       </c>
       <c r="F22" s="6">
-        <f>D22*[18]Main!$M$3</f>
-        <v>12680.93945768</v>
+        <f>+D22*[15]Main!$M$3</f>
+        <v>67286.835779489993</v>
       </c>
       <c r="G22" s="6">
-        <f>[18]Main!$M$5-[18]Main!$M$6</f>
-        <v>-18665.5</v>
+        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
+        <v>8238.1</v>
       </c>
       <c r="H22" s="6">
         <f>F22-G22</f>
-        <v>31346.43945768</v>
+        <v>59048.735779489994</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
@@ -4144,218 +4200,224 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3">
-        <v>580.95000000000005</v>
+        <v>10.46</v>
+      </c>
+      <c r="F23" s="6">
+        <f>D23*[16]Main!$M$3</f>
+        <v>12680.93945768</v>
+      </c>
+      <c r="G23" s="6">
+        <f>[16]Main!$M$5-[16]Main!$M$6</f>
+        <v>-18665.5</v>
+      </c>
+      <c r="H23" s="6">
+        <f>F23-G23</f>
+        <v>31346.43945768</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3">
-        <v>128.03</v>
+        <v>580.95000000000005</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3311</v>
+        <v>56</v>
+      </c>
+      <c r="D25" s="3">
+        <v>128.03</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3">
-        <v>137.09</v>
+        <v>58</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3311</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3">
+        <v>137.09</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>13.12</v>
       </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="3">
-        <v>63.83</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>63.83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>4360</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="3">
-        <v>125.14</v>
-      </c>
+      <c r="D32" s="6"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3">
+        <v>125.14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>76.08</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="3">
-        <v>71.27</v>
-      </c>
-      <c r="F34" s="6">
-        <f>+D34*[19]Main!$K$3</f>
-        <v>15786.66213397</v>
-      </c>
-      <c r="G34" s="6">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
-        <v>2721</v>
-      </c>
-      <c r="H34" s="6">
-        <f>F34-G34</f>
-        <v>13065.66213397</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3">
+        <v>71.27</v>
+      </c>
+      <c r="F35" s="6">
+        <f>+D35*[17]Main!$K$3</f>
+        <v>15786.66213397</v>
+      </c>
+      <c r="G35" s="6">
+        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
+        <v>2721</v>
+      </c>
+      <c r="H35" s="6">
+        <f>F35-G35</f>
+        <v>13065.66213397</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="3">
         <v>28.54</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>349.96</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -4371,184 +4433,178 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="3">
         <v>165.45</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B40" s="10" t="s">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <v>39.35</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="10" t="s">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B43" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="3">
         <v>132.13999999999999</v>
       </c>
-      <c r="F43" s="6">
-        <f>D43*[20]Main!$L$3</f>
+      <c r="F44" s="6">
+        <f>D44*[18]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
-      <c r="G43" s="6">
-        <f>[20]Main!$L$5-[20]Main!$L$6</f>
+      <c r="G44" s="6">
+        <f>[18]Main!$L$5-[18]Main!$L$6</f>
         <v>5643.241</v>
       </c>
-      <c r="H43" s="6">
-        <f>F43-G43</f>
+      <c r="H44" s="6">
+        <f>F44-G44</f>
         <v>7896.2021132399987</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1978</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D45" s="6">
-        <v>3060</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="3">
-        <v>11.57</v>
+        <v>86</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3060</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="3">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
         <v>145.13999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="3">
-        <v>219.38</v>
-      </c>
-      <c r="F48" s="6">
-        <f>D48*[21]Main!$K$3</f>
-        <v>10464.426000000001</v>
-      </c>
-      <c r="G48" s="6">
-        <f>[21]Main!$K$5-[21]Main!$K$6</f>
-        <v>3027</v>
-      </c>
-      <c r="H48" s="6">
-        <f>F48-G48</f>
-        <v>7437.4260000000013</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="7">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="D49" s="3">
+        <v>219.38</v>
       </c>
       <c r="F49" s="6">
-        <f>+D49*[22]Main!$L$3</f>
-        <v>6071.7436259999995</v>
+        <f>D49*[19]Main!$K$3</f>
+        <v>10464.426000000001</v>
       </c>
       <c r="G49" s="6">
-        <f>+[22]Main!$L$5-[22]Main!$L$6</f>
-        <v>776.13</v>
+        <f>[19]Main!$K$5-[19]Main!$K$6</f>
+        <v>3027</v>
       </c>
       <c r="H49" s="6">
-        <f>+F49-G49</f>
-        <v>5295.6136259999994</v>
+        <f>F49-G49</f>
+        <v>7437.4260000000013</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
@@ -4556,94 +4612,100 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>307</v>
+        <v>137</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D50" s="7">
-        <v>1721.48</v>
-      </c>
-      <c r="E50" s="6">
-        <f>+[23]Main!$K$3</f>
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="F50" s="6">
-        <f>+D50*E50/100*GBP</f>
-        <v>4746.2735717200003</v>
+        <f>+D50*[20]Main!$L$3</f>
+        <v>6071.7436259999995</v>
       </c>
       <c r="G50" s="6">
-        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
-        <v>-337</v>
+        <f>+[20]Main!$L$5-[20]Main!$L$6</f>
+        <v>776.13</v>
       </c>
       <c r="H50" s="6">
         <f>+F50-G50</f>
+        <v>5295.6136259999994</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1721.48</v>
+      </c>
+      <c r="E51" s="6">
+        <f>+[21]Main!$K$3</f>
+        <v>233</v>
+      </c>
+      <c r="F51" s="6">
+        <f>+D51*E51/100*GBP</f>
+        <v>4746.2735717200003</v>
+      </c>
+      <c r="G51" s="6">
+        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
+        <v>-337</v>
+      </c>
+      <c r="H51" s="6">
+        <f>+F51-G51</f>
         <v>5083.2735717200003</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="3">
-        <v>93.28</v>
-      </c>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="3">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>142.91</v>
       </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -4659,42 +4721,42 @@
       <c r="AA54" s="12"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -4711,10 +4773,10 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -4731,10 +4793,10 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -4751,10 +4813,10 @@
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -4771,896 +4833,890 @@
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="3">
-        <v>11.04</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" s="3">
-        <v>44.14</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3">
-        <v>35.26</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D65" s="3">
-        <v>82.53</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D66" s="3">
-        <v>24.78</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D67" s="3">
-        <v>4.72</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D68" s="3">
-        <v>24.53</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" s="3">
-        <v>23.02</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" s="3">
-        <v>29.12</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D71" s="3">
-        <v>33.17</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D72" s="3">
-        <v>53.21</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D73" s="3">
-        <v>46.23</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="7">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="D74" s="3">
+        <v>46.23</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="3">
-        <v>18.559999999999999</v>
+        <v>124</v>
+      </c>
+      <c r="D75" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" s="3">
-        <v>15.75</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="3">
-        <v>19.510000000000002</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D78" s="3">
-        <v>66.97</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D79" s="3">
-        <v>54.94</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D80" s="3">
-        <v>38.840000000000003</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D81" s="3">
-        <v>28.03</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" s="3">
-        <v>83.92</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D83" s="3">
-        <v>60.72</v>
+        <v>83.92</v>
       </c>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="7">
-        <v>12.2</v>
+        <v>144</v>
+      </c>
+      <c r="D84" s="3">
+        <v>60.72</v>
       </c>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D86" s="3">
         <v>2.37</v>
       </c>
     </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B86" s="10" t="s">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B87" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>4.26</v>
       </c>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="1">
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="1">
         <v>2011</v>
-      </c>
-    </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="3">
-        <v>42.98</v>
       </c>
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D88" s="3">
-        <v>23.92</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D89" s="3">
-        <v>53.29</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D90" s="3">
-        <v>74.459999999999994</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D91" s="3">
-        <v>48.63</v>
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="3">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D93" s="3">
         <v>27.73</v>
       </c>
     </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B93" s="5" t="s">
+    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B94" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D94" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="F93" s="6">
-        <f>+D93*[24]Main!$N$3</f>
+      <c r="F94" s="6">
+        <f>+D94*[22]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
-      <c r="G93" s="6">
-        <f>+[24]Main!$N$5-[24]Main!$N$6</f>
+      <c r="G94" s="6">
+        <f>+[22]Main!$N$5-[22]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
-      <c r="H93" s="6">
-        <f>+F93-G93</f>
+      <c r="H94" s="6">
+        <f>+F94-G94</f>
         <v>2282.2630120399995</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="3">
-        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D95" s="3">
-        <v>14.27</v>
+        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D96" s="3">
-        <v>7.36</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D97" s="3">
-        <v>9.35</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D98" s="3">
-        <v>43.98</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D99" s="3">
-        <v>5.18</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D100" s="3">
-        <v>53.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="3">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D102" s="3">
         <v>21.04</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B102" s="10" t="s">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B103" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="20"/>
-      <c r="W102" s="20"/>
-      <c r="X102" s="20"/>
-      <c r="Y102" s="20"/>
-      <c r="Z102" s="20"/>
-      <c r="AA102" s="20"/>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D103" s="7">
-        <v>20.7</v>
-      </c>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
+      <c r="AA103" s="20"/>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" s="3">
-        <v>18.579999999999998</v>
+        <v>180</v>
+      </c>
+      <c r="D104" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D105" s="3">
-        <v>16.12</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D106" s="3">
-        <v>28.41</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D107" s="3">
-        <v>33.86</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D108" s="3">
-        <v>38.35</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D109" s="3">
-        <v>9.6199999999999992</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D111" s="3">
         <v>25.49</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B111" s="10" t="s">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B112" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="14"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="14"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
-      <c r="AA111" s="14"/>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D112" s="3">
-        <v>11.42</v>
-      </c>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="14"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
+      <c r="AA112" s="14"/>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D113" s="3">
-        <v>26.64</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D114" s="3">
-        <v>30.48</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D115" s="3">
-        <v>12.98</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D116" s="3">
-        <v>10.96</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D117" s="3">
-        <v>2.42</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D118" s="7">
-        <v>55.5</v>
+        <v>205</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2.42</v>
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D119" s="3">
-        <v>10.63</v>
+        <v>207</v>
+      </c>
+      <c r="D119" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D120" s="3">
-        <v>33.130000000000003</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D121" s="3">
-        <v>31.52</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D122" s="3">
-        <v>7.62</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D123" s="3">
-        <v>28.55</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D124" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>27.02</v>
-      </c>
-    </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="F125" s="6">
-        <f>D125*[25]Main!$L$3</f>
-        <v>1253.1559559500001</v>
-      </c>
-      <c r="G125" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
-        <v>112.015</v>
-      </c>
-      <c r="H125" s="6">
-        <f>+F125-G125</f>
-        <v>1141.14095595</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B126" s="5" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D126" s="3">
-        <v>16.93</v>
+        <v>15.65</v>
       </c>
       <c r="F126" s="6">
-        <f>+D126*[26]Main!$L$3</f>
-        <v>1228.5485933099999</v>
+        <f>D126*[23]Main!$L$3</f>
+        <v>1253.1559559500001</v>
       </c>
       <c r="G126" s="6">
-        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
-        <v>153.25991400000001</v>
+        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
+        <v>112.015</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" ref="H126" si="2">+F126-G126</f>
-        <v>1075.2886793099999</v>
+        <f>+F126-G126</f>
+        <v>1141.14095595</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="18">
+    </row>
+    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B127" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D127" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="F127" s="6">
+        <f>+D127*[24]Main!$L$3</f>
+        <v>1228.5485933099999</v>
+      </c>
+      <c r="G127" s="6">
+        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
+        <v>153.25991400000001</v>
+      </c>
+      <c r="H127" s="6">
+        <f t="shared" ref="H127" si="3">+F127-G127</f>
+        <v>1075.2886793099999</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="18">
         <v>44771</v>
       </c>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-      <c r="U126" s="16"/>
-      <c r="V126" s="16"/>
-      <c r="W126" s="16"/>
-      <c r="X126" s="16"/>
-      <c r="Y126" s="16"/>
-      <c r="Z126" s="16"/>
-      <c r="AA126" s="16"/>
-    </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D127" s="3">
-        <v>3.17</v>
-      </c>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="16"/>
+      <c r="W127" s="16"/>
+      <c r="X127" s="16"/>
+      <c r="Y127" s="16"/>
+      <c r="Z127" s="16"/>
+      <c r="AA127" s="16"/>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D128" s="3">
-        <v>8.76</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" s="3">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D130" s="3">
         <v>18.010000000000002</v>
       </c>
-    </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B130" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D130" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="F130" s="3">
-        <v>630</v>
-      </c>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
-      <c r="R130" s="17"/>
-      <c r="S130" s="17"/>
-      <c r="T130" s="17"/>
-      <c r="U130" s="17"/>
-      <c r="V130" s="17"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="17"/>
-      <c r="Y130" s="17"/>
-      <c r="Z130" s="17"/>
-      <c r="AA130" s="17"/>
     </row>
     <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D131" s="3">
-        <v>11.93</v>
+        <v>3.92</v>
       </c>
       <c r="F131" s="3">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
@@ -5676,129 +5732,129 @@
       <c r="AA131" s="17"/>
     </row>
     <row r="132" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>227</v>
+      <c r="B132" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D132" s="3">
-        <v>5.46</v>
-      </c>
+        <v>11.93</v>
+      </c>
+      <c r="F132" s="3">
+        <v>516</v>
+      </c>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
+      <c r="R132" s="17"/>
+      <c r="S132" s="17"/>
+      <c r="T132" s="17"/>
+      <c r="U132" s="17"/>
+      <c r="V132" s="17"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="17"/>
+      <c r="Y132" s="17"/>
+      <c r="Z132" s="17"/>
+      <c r="AA132" s="17"/>
     </row>
     <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D133" s="7">
-        <v>36.6</v>
+        <v>227</v>
+      </c>
+      <c r="D133" s="3">
+        <v>5.46</v>
       </c>
     </row>
     <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D134" s="7">
-        <v>40.24</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D135" s="3">
-        <v>22.11</v>
+        <v>231</v>
+      </c>
+      <c r="D135" s="7">
+        <v>40.24</v>
       </c>
     </row>
     <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D136" s="3">
-        <v>10.31</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="137" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D137" s="7">
-        <v>1.3</v>
+        <v>235</v>
+      </c>
+      <c r="D137" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D138" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D139" s="3">
         <v>3.35</v>
-      </c>
-    </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D139" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="F139" s="6">
-        <f>D139*[27]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="G139" s="6">
-        <f>[27]Main!$J$5-[27]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="H139" s="8">
-        <f t="shared" ref="H139:H140" si="3">+F139-G139</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B140" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D140" s="3">
-        <v>14.68</v>
+        <v>7.06</v>
       </c>
       <c r="F140" s="6">
-        <f>D140*[28]Main!$L$3</f>
-        <v>587.26396075999992</v>
+        <f>D140*[25]Main!$J$3</f>
+        <v>725.62786605999997</v>
       </c>
       <c r="G140" s="6">
-        <f>[28]Main!$L$5-[28]Main!$L$6</f>
-        <v>277.88299999999998</v>
+        <f>[25]Main!$J$5-[25]Main!$J$6</f>
+        <v>197.79600000000002</v>
       </c>
       <c r="H140" s="8">
-        <f t="shared" si="3"/>
-        <v>309.38096075999994</v>
+        <f t="shared" ref="H140:H141" si="4">+F140-G140</f>
+        <v>527.83186605999992</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>16</v>
@@ -5806,25 +5862,25 @@
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B141" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D141" s="3">
-        <v>4.8600000000000003</v>
+        <v>14.68</v>
       </c>
       <c r="F141" s="6">
-        <f>D141*[29]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="G141" s="8">
-        <f>+[29]Main!$J$5-[29]Main!$J$6</f>
-        <v>92.317999999999998</v>
+        <f>D141*[26]Main!$L$3</f>
+        <v>587.26396075999992</v>
+      </c>
+      <c r="G141" s="6">
+        <f>[26]Main!$L$5-[26]Main!$L$6</f>
+        <v>277.88299999999998</v>
       </c>
       <c r="H141" s="8">
-        <f>+F141-G141</f>
-        <v>220.39615336000003</v>
+        <f t="shared" si="4"/>
+        <v>309.38096075999994</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>16</v>
@@ -5832,25 +5888,25 @@
     </row>
     <row r="142" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B142" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D142" s="3">
-        <v>7.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F142" s="6">
-        <f>D142*[30]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="G142" s="6">
-        <f>[30]Main!$M$5-[30]Main!$M$6</f>
-        <v>120.43700000000001</v>
+        <f>D142*[27]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G142" s="8">
+        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
+        <v>92.317999999999998</v>
       </c>
       <c r="H142" s="8">
-        <f t="shared" ref="H142:H147" si="4">+F142-G142</f>
-        <v>218.02283246000002</v>
+        <f>+F142-G142</f>
+        <v>220.39615336000003</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>16</v>
@@ -5858,25 +5914,25 @@
     </row>
     <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B143" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D143" s="7">
-        <v>0.7</v>
+        <v>247</v>
+      </c>
+      <c r="D143" s="3">
+        <v>7.57</v>
       </c>
       <c r="F143" s="6">
-        <f>D143*[31]Main!$M$3</f>
-        <v>128.9392503</v>
+        <f>D143*[28]Main!$M$3</f>
+        <v>338.45983246000003</v>
       </c>
       <c r="G143" s="6">
-        <f>[31]Main!$M$5-[31]Main!$M$6</f>
-        <v>-59.50200000000001</v>
+        <f>[28]Main!$M$5-[28]Main!$M$6</f>
+        <v>120.43700000000001</v>
       </c>
       <c r="H143" s="8">
-        <f t="shared" si="4"/>
-        <v>188.44125030000001</v>
+        <f t="shared" ref="H143:H148" si="5">+F143-G143</f>
+        <v>218.02283246000002</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>16</v>
@@ -5884,25 +5940,25 @@
     </row>
     <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B144" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D144" s="3">
-        <v>1.98</v>
+        <v>249</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0.7</v>
       </c>
       <c r="F144" s="6">
-        <f>D144*[32]Main!$N$3</f>
-        <v>39.757463459999997</v>
+        <f>D144*[29]Main!$M$3</f>
+        <v>128.9392503</v>
       </c>
       <c r="G144" s="6">
-        <f>[32]Main!$N$5-[32]Main!$N$6</f>
-        <v>15.942</v>
+        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+        <v>-59.50200000000001</v>
       </c>
       <c r="H144" s="8">
-        <f t="shared" si="4"/>
-        <v>23.815463459999997</v>
+        <f t="shared" si="5"/>
+        <v>188.44125030000001</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>16</v>
@@ -5910,25 +5966,25 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D145" s="3">
-        <v>0.62</v>
+        <v>1.98</v>
       </c>
       <c r="F145" s="6">
-        <f>D145*[33]Main!$L$3</f>
-        <v>30.1881658</v>
+        <f>D145*[30]Main!$N$3</f>
+        <v>39.757463459999997</v>
       </c>
       <c r="G145" s="6">
-        <f>[33]Main!$L$5-[33]Main!$L$6</f>
-        <v>13.262999999999998</v>
+        <f>[30]Main!$N$5-[30]Main!$N$6</f>
+        <v>15.942</v>
       </c>
       <c r="H145" s="8">
-        <f t="shared" si="4"/>
-        <v>16.925165800000002</v>
+        <f t="shared" si="5"/>
+        <v>23.815463459999997</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>16</v>
@@ -5936,25 +5992,25 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D146" s="3">
-        <v>6.12</v>
+        <v>0.62</v>
       </c>
       <c r="F146" s="6">
-        <f>D146*[34]Main!$M$3</f>
-        <v>125.46108324000001</v>
+        <f>D146*[31]Main!$L$3</f>
+        <v>30.1881658</v>
       </c>
       <c r="G146" s="6">
-        <f>[34]Main!$M$5-[34]Main!$M$6</f>
-        <v>131.17699999999999</v>
+        <f>[31]Main!$L$5-[31]Main!$L$6</f>
+        <v>13.262999999999998</v>
       </c>
       <c r="H146" s="8">
-        <f t="shared" si="4"/>
-        <v>-5.7159167599999847</v>
+        <f t="shared" si="5"/>
+        <v>16.925165800000002</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>16</v>
@@ -5962,49 +6018,75 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D147" s="3">
-        <v>0.98</v>
+        <v>6.12</v>
       </c>
       <c r="F147" s="6">
-        <f>D147*[35]Main!$M$3</f>
-        <v>20.935517539999999</v>
+        <f>D147*[32]Main!$M$3</f>
+        <v>125.46108324000001</v>
       </c>
       <c r="G147" s="6">
-        <f>[35]Main!$M$5-[35]Main!$M$6</f>
-        <v>55.28</v>
+        <f>[32]Main!$M$5-[32]Main!$M$6</f>
+        <v>131.17699999999999</v>
       </c>
       <c r="H147" s="8">
-        <f t="shared" si="4"/>
-        <v>-34.344482460000002</v>
+        <f t="shared" si="5"/>
+        <v>-5.7159167599999847</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="1" t="s">
-        <v>258</v>
+      <c r="B148" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D148" s="3">
-        <v>0.61</v>
+        <v>0.98</v>
+      </c>
+      <c r="F148" s="6">
+        <f>D148*[33]Main!$M$3</f>
+        <v>20.935517539999999</v>
+      </c>
+      <c r="G148" s="6">
+        <f>[33]Main!$M$5-[33]Main!$M$6</f>
+        <v>55.28</v>
+      </c>
+      <c r="H148" s="8">
+        <f t="shared" si="5"/>
+        <v>-34.344482460000002</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D150" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -6015,50 +6097,51 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{31FFFB9E-A269-4EC0-9451-78F4F00A4890}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{C156021C-BE99-4BC0-AA7F-F8904621CB69}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{C156021C-BE99-4BC0-AA7F-F8904621CB69}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{087C38CF-D4BE-425F-8F38-C4129E6AE209}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{60368EA6-8CB5-4BF4-AD11-2511F2B2CC10}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{60368EA6-8CB5-4BF4-AD11-2511F2B2CC10}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{686D20FF-3704-45CC-8366-56508FB00F00}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{8513C491-1620-4390-AB90-9384BB1A043B}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{83DA0EB3-074A-48C7-ADA5-0A0973E8354D}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{8513C491-1620-4390-AB90-9384BB1A043B}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{83DA0EB3-074A-48C7-ADA5-0A0973E8354D}"/>
     <hyperlink ref="B6" r:id="rId8" xr:uid="{615921E7-8A8A-4F41-A8F3-1AF78A43F1AC}"/>
-    <hyperlink ref="B19" r:id="rId9" xr:uid="{A38EC1E4-9170-422B-A9F5-3B6EB77DF40A}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{A38EC1E4-9170-422B-A9F5-3B6EB77DF40A}"/>
     <hyperlink ref="B9" r:id="rId10" xr:uid="{CCC45DFB-BF73-4A15-8527-F4C3C617F472}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{FC86E1B4-4BA7-43A8-8FCA-CC27867A7922}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{F9D09B0D-FACB-4CCA-872E-286E56965815}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{5A59EF45-A9EA-44F3-BECB-EFED8413DCF6}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{316E9202-338F-4301-AEBE-A9FA398A76CC}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{FC86E1B4-4BA7-43A8-8FCA-CC27867A7922}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{F9D09B0D-FACB-4CCA-872E-286E56965815}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{5A59EF45-A9EA-44F3-BECB-EFED8413DCF6}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{316E9202-338F-4301-AEBE-A9FA398A76CC}"/>
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B34" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B35" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B141" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B144" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B140" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B145" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B142" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B147" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B139" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B146" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B143" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
-    <hyperlink ref="B17" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="B48" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
-    <hyperlink ref="B49" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="B43" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
-    <hyperlink ref="B22" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B125" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="B93" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="B126" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
-    <hyperlink ref="B50" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
+    <hyperlink ref="B35" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="B36" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
+    <hyperlink ref="B142" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B145" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B141" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B146" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B143" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B148" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B140" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B147" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B144" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B18" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
+    <hyperlink ref="B49" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="B50" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="B23" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="B126" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B94" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="B127" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="B51" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="B10" r:id="rId43" xr:uid="{F2359CF1-2AD9-4995-B3BE-132C87B2B53D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB321E-7A38-469A-8B7F-BC36BB789C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905AC5E-1996-43F9-A6A0-44168A70297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="105" windowWidth="23460" windowHeight="14730" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="-26595" yWindow="1830" windowWidth="26250" windowHeight="17190" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,8 @@
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="334">
   <si>
     <t>Exarta</t>
   </si>
@@ -1070,6 +1072,21 @@
   </si>
   <si>
     <t>NOVOB</t>
+  </si>
+  <si>
+    <t>MiroBio</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>$405m</t>
+  </si>
+  <si>
+    <t>Avalo</t>
+  </si>
+  <si>
+    <t>AVTX</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1184,6 +1201,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1336,6 +1356,212 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Epo Global Model"/>
+      <sheetName val="Epo Bottoms-Up Model"/>
+      <sheetName val="EPO Pricing - Rebates"/>
+      <sheetName val="EPO Share"/>
+      <sheetName val="EPO Pricing,Reimbursement"/>
+      <sheetName val="IMS EPOs"/>
+      <sheetName val="NDC EPOs"/>
+      <sheetName val="Enbrel"/>
+      <sheetName val="Enbrel Top-Down"/>
+      <sheetName val="Enbrel NDC"/>
+      <sheetName val="Enbrel IMS"/>
+      <sheetName val="Neulasta"/>
+      <sheetName val="Neupogen"/>
+      <sheetName val="G-CSF Top-Down"/>
+      <sheetName val="GCSF IMS"/>
+      <sheetName val="NDC GCSFs"/>
+      <sheetName val="IP"/>
+      <sheetName val="EPO CHF"/>
+      <sheetName val="EPO MDS"/>
+      <sheetName val="Epo Comp"/>
+      <sheetName val="Epo Science"/>
+      <sheetName val="CERA legal"/>
+      <sheetName val="CERA clinical"/>
+      <sheetName val="David Legal"/>
+      <sheetName val="Epogen"/>
+      <sheetName val="EPO safety"/>
+      <sheetName val="Aranesp"/>
+      <sheetName val="G-CSF"/>
+      <sheetName val="Sensipar"/>
+      <sheetName val="Kepivance"/>
+      <sheetName val="Vectibix"/>
+      <sheetName val="Denosumab"/>
+      <sheetName val="Denosumab trials"/>
+      <sheetName val="Kineret"/>
+      <sheetName val="706"/>
+      <sheetName val="531"/>
+      <sheetName val="108"/>
+      <sheetName val="114"/>
+      <sheetName val="223"/>
+      <sheetName val="386"/>
+      <sheetName val="479"/>
+      <sheetName val="102"/>
+      <sheetName val="655"/>
+      <sheetName val="785"/>
+      <sheetName val="811"/>
+      <sheetName val="208"/>
+      <sheetName val="714"/>
+      <sheetName val="Failures"/>
+      <sheetName val="FG-2216"/>
+      <sheetName val="Affymax"/>
+      <sheetName val="Reimbursement"/>
+      <sheetName val="MDRX Aranesp Sales"/>
+      <sheetName val="MDRX Procrit sales"/>
+      <sheetName val="Capture Rate Thesis"/>
+      <sheetName val="Management"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>534</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>6544</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>36854</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RX Rank"/>
+      <sheetName val="RX Alpha"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Lovenox"/>
+      <sheetName val="Lantus"/>
+      <sheetName val="Plavix"/>
+      <sheetName val="Multaq"/>
+      <sheetName val="idraparinux"/>
+      <sheetName val="SR 58611"/>
+      <sheetName val="Eplivanserin"/>
+      <sheetName val="SSR 591813"/>
+      <sheetName val="Xaliproden"/>
+      <sheetName val="Alvocidib"/>
+      <sheetName val="SR 121463"/>
+      <sheetName val="BSI-201"/>
+      <sheetName val="Zimulti"/>
+      <sheetName val="teriflunomide"/>
+      <sheetName val="Failures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="L3">
+            <v>1254.9000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>10098</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>20306</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="Crestor"/>
       <sheetName val="Seroquel"/>
       <sheetName val="Symbicort"/>
@@ -1399,7 +1625,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1528,18 +1754,20 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Master Pipeline"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Biktarvy"/>
       <sheetName val="Stribild"/>
       <sheetName val="Truvada"/>
       <sheetName val="Viread"/>
       <sheetName val="Ranexa"/>
       <sheetName val="Atripla"/>
+      <sheetName val="Harvoni"/>
       <sheetName val="IMS Monthly"/>
       <sheetName val="IMS"/>
       <sheetName val="Rx"/>
@@ -1598,12 +1826,14 @@
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1634,7 +1864,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1665,7 +1895,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1718,7 +1948,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1747,7 +1977,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1814,76 +2044,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>102.46286600000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>6252.2330000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>608.99199999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Remodulin"/>
-      <sheetName val="Tyvaso"/>
-      <sheetName val="Oral"/>
-      <sheetName val="Adcirca"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>47.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>3827</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1928,29 +2088,27 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Empaveli"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>106.521818</v>
+            <v>102.46286600000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>965.298</v>
+            <v>6252.2330000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>189.16800000000001</v>
+            <v>608.99199999999996</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1961,6 +2119,78 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Remodulin"/>
+      <sheetName val="Tyvaso"/>
+      <sheetName val="Oral"/>
+      <sheetName val="Adcirca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>47.7</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>3827</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>800</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Empaveli"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>106.521818</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>965.298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>189.16800000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1985,7 +2215,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2016,7 +2246,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2047,7 +2277,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2077,18 +2307,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2131,7 +2361,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2160,7 +2390,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2190,64 +2420,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2364,18 +2536,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2393,18 +2565,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2422,18 +2594,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2451,18 +2623,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2476,35 +2648,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Type 2 Diabetes"/>
-      <sheetName val="Victoza"/>
-      <sheetName val="NovoLog"/>
-      <sheetName val="Levemir"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>2283.3000000000002</v>
+          <cell r="M3">
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>20612</v>
+          <cell r="M5">
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>25480</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2514,70 +2676,98 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Keytruda"/>
-      <sheetName val="Vytorin"/>
-      <sheetName val="Gardasil"/>
-      <sheetName val="Rotateq"/>
-      <sheetName val="Fosamax"/>
-      <sheetName val="Arcoxia"/>
-      <sheetName val="Zostavax"/>
-      <sheetName val="Singulair"/>
-      <sheetName val="Januvia"/>
-      <sheetName val="Zolinza"/>
-      <sheetName val="odanacatib"/>
-      <sheetName val="524"/>
-      <sheetName val="517"/>
-      <sheetName val="Isentress"/>
-      <sheetName val="rolofylline"/>
-      <sheetName val="taranabant"/>
-      <sheetName val="telcagepant"/>
-      <sheetName val="457"/>
-      <sheetName val="vorapaxar"/>
-      <sheetName val="Crixivan"/>
+      <sheetName val="Consta"/>
+      <sheetName val="Vivitrol"/>
+      <sheetName val="Byetta LAR"/>
+      <sheetName val="Discontinued - ALKS27"/>
+      <sheetName val="Jansenn Contract"/>
+      <sheetName val="ALKS33"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>2528.8050250000001</v>
+          <cell r="L3">
+            <v>164.25427500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>9244</v>
+          <cell r="L5">
+            <v>759.97699999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>31794</v>
+          <cell r="L6">
+            <v>294.53699999999998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>9.4141049999999993</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>11.249000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>18.713000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2767,6 +2957,118 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Type 2 Diabetes"/>
+      <sheetName val="Victoza"/>
+      <sheetName val="NovoLog"/>
+      <sheetName val="Levemir"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>2283.3000000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>20612</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>25480</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Keytruda"/>
+      <sheetName val="Vytorin"/>
+      <sheetName val="Gardasil"/>
+      <sheetName val="Rotateq"/>
+      <sheetName val="Fosamax"/>
+      <sheetName val="Arcoxia"/>
+      <sheetName val="Zostavax"/>
+      <sheetName val="Singulair"/>
+      <sheetName val="Januvia"/>
+      <sheetName val="Zolinza"/>
+      <sheetName val="odanacatib"/>
+      <sheetName val="524"/>
+      <sheetName val="517"/>
+      <sheetName val="Isentress"/>
+      <sheetName val="rolofylline"/>
+      <sheetName val="taranabant"/>
+      <sheetName val="telcagepant"/>
+      <sheetName val="457"/>
+      <sheetName val="vorapaxar"/>
+      <sheetName val="Crixivan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>2528.8050250000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>9244</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>31794</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="IMS Dollars"/>
       <sheetName val="Sandoz"/>
       <sheetName val="IMS Alpha"/>
@@ -2848,7 +3150,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2912,212 +3214,6 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Epo Global Model"/>
-      <sheetName val="Epo Bottoms-Up Model"/>
-      <sheetName val="EPO Pricing - Rebates"/>
-      <sheetName val="EPO Share"/>
-      <sheetName val="EPO Pricing,Reimbursement"/>
-      <sheetName val="IMS EPOs"/>
-      <sheetName val="NDC EPOs"/>
-      <sheetName val="Enbrel"/>
-      <sheetName val="Enbrel Top-Down"/>
-      <sheetName val="Enbrel NDC"/>
-      <sheetName val="Enbrel IMS"/>
-      <sheetName val="Neulasta"/>
-      <sheetName val="Neupogen"/>
-      <sheetName val="G-CSF Top-Down"/>
-      <sheetName val="GCSF IMS"/>
-      <sheetName val="NDC GCSFs"/>
-      <sheetName val="IP"/>
-      <sheetName val="EPO CHF"/>
-      <sheetName val="EPO MDS"/>
-      <sheetName val="Epo Comp"/>
-      <sheetName val="Epo Science"/>
-      <sheetName val="CERA legal"/>
-      <sheetName val="CERA clinical"/>
-      <sheetName val="David Legal"/>
-      <sheetName val="Epogen"/>
-      <sheetName val="EPO safety"/>
-      <sheetName val="Aranesp"/>
-      <sheetName val="G-CSF"/>
-      <sheetName val="Sensipar"/>
-      <sheetName val="Kepivance"/>
-      <sheetName val="Vectibix"/>
-      <sheetName val="Denosumab"/>
-      <sheetName val="Denosumab trials"/>
-      <sheetName val="Kineret"/>
-      <sheetName val="706"/>
-      <sheetName val="531"/>
-      <sheetName val="108"/>
-      <sheetName val="114"/>
-      <sheetName val="223"/>
-      <sheetName val="386"/>
-      <sheetName val="479"/>
-      <sheetName val="102"/>
-      <sheetName val="655"/>
-      <sheetName val="785"/>
-      <sheetName val="811"/>
-      <sheetName val="208"/>
-      <sheetName val="714"/>
-      <sheetName val="Failures"/>
-      <sheetName val="FG-2216"/>
-      <sheetName val="Affymax"/>
-      <sheetName val="Reimbursement"/>
-      <sheetName val="MDRX Aranesp Sales"/>
-      <sheetName val="MDRX Procrit sales"/>
-      <sheetName val="Capture Rate Thesis"/>
-      <sheetName val="Management"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>534</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>6544</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>36854</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RX Rank"/>
-      <sheetName val="RX Alpha"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Lovenox"/>
-      <sheetName val="Lantus"/>
-      <sheetName val="Plavix"/>
-      <sheetName val="Multaq"/>
-      <sheetName val="idraparinux"/>
-      <sheetName val="SR 58611"/>
-      <sheetName val="Eplivanserin"/>
-      <sheetName val="SSR 591813"/>
-      <sheetName val="Xaliproden"/>
-      <sheetName val="Alvocidib"/>
-      <sheetName val="SR 121463"/>
-      <sheetName val="BSI-201"/>
-      <sheetName val="Zimulti"/>
-      <sheetName val="teriflunomide"/>
-      <sheetName val="Failures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="L3">
-            <v>1254.9000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>10098</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>20306</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3420,13 +3516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:AB150"/>
+  <dimension ref="B2:AB151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3442,22 +3538,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3812,7 +3908,7 @@
         <v>106</v>
       </c>
       <c r="E9" s="6">
-        <f>+[34]Main!$J$3</f>
+        <f>+[6]Main!$J$3</f>
         <v>2283.3000000000002</v>
       </c>
       <c r="F9" s="6">
@@ -3820,7 +3916,7 @@
         <v>242029.80000000002</v>
       </c>
       <c r="G9" s="6">
-        <f>([34]Main!$J$5-[34]Main!$J$6)/DKK</f>
+        <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
         <v>-665.40001913640151</v>
       </c>
       <c r="H9" s="6">
@@ -3845,7 +3941,7 @@
         <v>775</v>
       </c>
       <c r="E10" s="6">
-        <f>+[34]Main!$J$3</f>
+        <f>+[6]Main!$J$3</f>
         <v>2283.3000000000002</v>
       </c>
       <c r="F10" s="6">
@@ -3853,7 +3949,7 @@
         <v>241878.3061550869</v>
       </c>
       <c r="G10" s="6">
-        <f>([34]Main!$J$5-[34]Main!$J$6)/DKK</f>
+        <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
         <v>-665.40001913640151</v>
       </c>
       <c r="H10" s="6">
@@ -3890,7 +3986,7 @@
         <v>84.62</v>
       </c>
       <c r="E11" s="6">
-        <f>+[35]Main!$J$3</f>
+        <f>+[7]Main!$J$3</f>
         <v>2528.8050250000001</v>
       </c>
       <c r="F11" s="6">
@@ -3898,7 +3994,7 @@
         <v>213987.48121550001</v>
       </c>
       <c r="G11" s="6">
-        <f>+[35]Main!$J$5-[35]Main!$J$6</f>
+        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
         <v>-22550</v>
       </c>
       <c r="H11" s="6">
@@ -3923,11 +4019,11 @@
         <v>81.06</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*[6]Main!$L$3</f>
+        <f>D12*[8]Main!$L$3</f>
         <v>179352.13207506001</v>
       </c>
       <c r="G12" s="6">
-        <f>[6]Main!$L$5-[6]Main!$L$6</f>
+        <f>[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-10678</v>
       </c>
       <c r="H12" s="6">
@@ -3949,11 +4045,11 @@
         <v>73.77</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*[7]Main!$L$3</f>
+        <f>D13*[9]Main!$L$3</f>
         <v>157061.07127166999</v>
       </c>
       <c r="G13" s="6">
-        <f>[7]Main!$L$5-[7]Main!$L$6</f>
+        <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-30004</v>
       </c>
       <c r="H13" s="6">
@@ -3975,11 +4071,11 @@
         <v>246.73</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*[8]Main!$K$3</f>
+        <f>D14*[10]Main!$K$3</f>
         <v>131753.82</v>
       </c>
       <c r="G14" s="6">
-        <f>[8]Main!$K$5-[8]Main!$K$6</f>
+        <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-30310</v>
       </c>
       <c r="H14" s="6">
@@ -4001,11 +4097,11 @@
         <v>49.2</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*[9]Main!$L$3*2</f>
+        <f>D15*[11]Main!$L$3*2</f>
         <v>123482.16000000002</v>
       </c>
       <c r="G15" s="6">
-        <f>([9]Main!$L$5-[9]Main!$L$6)*EUR</f>
+        <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
         <v>-10384.598400000001</v>
       </c>
       <c r="H15" s="6">
@@ -4027,11 +4123,11 @@
         <v>66</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*[10]Main!$L$3</f>
+        <f>D16*[12]Main!$L$3</f>
         <v>103026</v>
       </c>
       <c r="G16" s="6">
-        <f>[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>[12]Main!$L$5-[12]Main!$L$6</f>
         <v>-25217</v>
       </c>
       <c r="H16" s="6">
@@ -4053,11 +4149,11 @@
         <v>41.27</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*[11]Main!$K$4/2</f>
+        <f>D17*[13]Main!$K$4/2</f>
         <v>104578.18000000001</v>
       </c>
       <c r="G17" s="6">
-        <f>([11]Main!$K$6-[11]Main!$K$7)*GBP</f>
+        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H17" s="6">
@@ -4079,11 +4175,11 @@
         <v>1683.8</v>
       </c>
       <c r="F18" s="6">
-        <f>D18*[11]Main!$K$4/100*GBP</f>
+        <f>D18*[13]Main!$K$4/100*GBP</f>
         <v>100976.8865672</v>
       </c>
       <c r="G18" s="6">
-        <f>([11]Main!$K$6-[11]Main!$K$7)*GBP</f>
+        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H18" s="6">
@@ -4104,12 +4200,16 @@
       <c r="D19" s="7">
         <v>60.9</v>
       </c>
+      <c r="E19" s="6">
+        <f>+[14]Main!$J$3</f>
+        <v>1262</v>
+      </c>
       <c r="F19" s="6">
-        <f>+D19*[12]Main!$J$3</f>
+        <f>+D19*E19</f>
         <v>76855.8</v>
       </c>
       <c r="G19" s="6">
-        <f>+[12]Main!$J$5-[12]Main!$J$6</f>
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
         <v>-19456</v>
       </c>
       <c r="H19" s="6">
@@ -4117,7 +4217,10 @@
         <v>96311.8</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="J19" s="18">
+        <v>44780</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
@@ -4131,11 +4234,11 @@
         <v>175.1</v>
       </c>
       <c r="F20" s="6">
-        <f>D20*[13]Main!$J$3*EUR</f>
+        <f>D20*[15]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
       <c r="G20" s="6">
-        <f>([13]Main!$J$5-[13]Main!$J$6)*EUR</f>
+        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
       <c r="H20" s="6">
@@ -4157,11 +4260,11 @@
         <v>255.99</v>
       </c>
       <c r="F21" s="6">
-        <f>D21*[14]Main!$J$3*AUD</f>
+        <f>D21*[16]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
       <c r="G21" s="6">
-        <f>[14]Main!$J$5-[14]Main!$J$6</f>
+        <f>[16]Main!$J$5-[16]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
       <c r="H21" s="6">
@@ -4183,11 +4286,11 @@
         <v>263.08999999999997</v>
       </c>
       <c r="F22" s="6">
-        <f>+D22*[15]Main!$M$3</f>
+        <f>+D22*[17]Main!$M$3</f>
         <v>67286.835779489993</v>
       </c>
       <c r="G22" s="6">
-        <f>+[15]Main!$M$5-[15]Main!$M$6</f>
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>8238.1</v>
       </c>
       <c r="H22" s="6">
@@ -4209,11 +4312,11 @@
         <v>10.46</v>
       </c>
       <c r="F23" s="6">
-        <f>D23*[16]Main!$M$3</f>
+        <f>D23*[18]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="G23" s="6">
-        <f>[16]Main!$M$5-[16]Main!$M$6</f>
+        <f>[18]Main!$M$5-[18]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="H23" s="6">
@@ -4375,11 +4478,11 @@
         <v>71.27</v>
       </c>
       <c r="F35" s="6">
-        <f>+D35*[17]Main!$K$3</f>
+        <f>+D35*[19]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="G35" s="6">
-        <f>+[17]Main!$K$5-[17]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="H35" s="6">
@@ -4525,11 +4628,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="F44" s="6">
-        <f>D44*[18]Main!$L$3</f>
+        <f>D44*[20]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="G44" s="6">
-        <f>[18]Main!$L$5-[18]Main!$L$6</f>
+        <f>[20]Main!$L$5-[20]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="H44" s="6">
@@ -4595,11 +4698,11 @@
         <v>219.38</v>
       </c>
       <c r="F49" s="6">
-        <f>D49*[19]Main!$K$3</f>
+        <f>D49*[21]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="G49" s="6">
-        <f>[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>[21]Main!$K$5-[21]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="H49" s="6">
@@ -4621,11 +4724,11 @@
         <v>57</v>
       </c>
       <c r="F50" s="6">
-        <f>+D50*[20]Main!$L$3</f>
+        <f>+D50*[22]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="G50" s="6">
-        <f>+[20]Main!$L$5-[20]Main!$L$6</f>
+        <f>+[22]Main!$L$5-[22]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="H50" s="6">
@@ -4643,11 +4746,11 @@
       <c r="C51" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>1721.48</v>
       </c>
       <c r="E51" s="6">
-        <f>+[21]Main!$K$3</f>
+        <f>+[23]Main!$K$3</f>
         <v>233</v>
       </c>
       <c r="F51" s="6">
@@ -4655,7 +4758,7 @@
         <v>4746.2735717200003</v>
       </c>
       <c r="G51" s="6">
-        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
+        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
         <v>-337</v>
       </c>
       <c r="H51" s="6">
@@ -4679,53 +4782,66 @@
       <c r="AA51" s="15"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>93</v>
+      <c r="B52" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D52" s="3">
-        <v>93.28</v>
+        <v>28.03</v>
+      </c>
+      <c r="E52" s="6">
+        <f>+[36]Main!$L$3</f>
+        <v>164.25427500000001</v>
+      </c>
+      <c r="F52" s="6">
+        <f>+E52*D52</f>
+        <v>4604.0473282500006</v>
+      </c>
+      <c r="G52" s="6">
+        <f>+[36]Main!$L$5-[36]Main!$L$6</f>
+        <v>465.44</v>
+      </c>
+      <c r="H52" s="6">
+        <f>+F52-G52</f>
+        <v>4138.607328250001</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" s="18">
+        <v>44780</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="3">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="3">
         <v>142.91</v>
       </c>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -4741,42 +4857,42 @@
       <c r="AA55" s="12"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -4793,10 +4909,10 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -4813,10 +4929,10 @@
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -4833,10 +4949,10 @@
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -4853,230 +4969,239 @@
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="3">
-        <v>11.04</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D64" s="3">
-        <v>44.14</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D65" s="3">
-        <v>35.26</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D66" s="3">
-        <v>82.53</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D67" s="3">
-        <v>24.78</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D68" s="3">
-        <v>4.72</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D69" s="3">
-        <v>24.53</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D70" s="3">
-        <v>23.02</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" s="3">
-        <v>29.12</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D72" s="3">
-        <v>33.17</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D73" s="3">
-        <v>53.21</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D74" s="3">
-        <v>46.23</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="7">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="D75" s="3">
+        <v>46.23</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="3">
-        <v>18.559999999999999</v>
+        <v>124</v>
+      </c>
+      <c r="D76" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D77" s="3">
-        <v>15.75</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="3">
-        <v>19.510000000000002</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D79" s="3">
-        <v>66.97</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D80" s="3">
-        <v>54.94</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D81" s="3">
-        <v>38.840000000000003</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D82" s="3">
-        <v>28.03</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
@@ -5226,11 +5351,11 @@
         <v>10.119999999999999</v>
       </c>
       <c r="F94" s="6">
-        <f>+D94*[22]Main!$N$3</f>
+        <f>+D94*[24]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
       <c r="G94" s="6">
-        <f>+[22]Main!$N$5-[22]Main!$N$6</f>
+        <f>+[24]Main!$N$5-[24]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
       <c r="H94" s="6">
@@ -5611,11 +5736,11 @@
         <v>15.65</v>
       </c>
       <c r="F126" s="6">
-        <f>D126*[23]Main!$L$3</f>
+        <f>D126*[25]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
       <c r="G126" s="6">
-        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
         <v>112.015</v>
       </c>
       <c r="H126" s="6">
@@ -5637,11 +5762,11 @@
         <v>16.93</v>
       </c>
       <c r="F127" s="6">
-        <f>+D127*[24]Main!$L$3</f>
+        <f>+D127*[26]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
       <c r="G127" s="6">
-        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
+        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
       <c r="H127" s="6">
@@ -5802,137 +5927,156 @@
       </c>
     </row>
     <row r="137" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>235</v>
+      <c r="B137" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="D137" s="3">
-        <v>10.31</v>
-      </c>
+        <v>3.95</v>
+      </c>
+      <c r="E137" s="6">
+        <f>+[37]Main!$N$3</f>
+        <v>9.4141049999999993</v>
+      </c>
+      <c r="F137" s="6">
+        <f>+D137*E137</f>
+        <v>37.185714749999995</v>
+      </c>
+      <c r="G137" s="6">
+        <f>+[37]Main!$N$5-[37]Main!$N$6</f>
+        <v>-7.4640000000000004</v>
+      </c>
+      <c r="H137" s="6">
+        <f>+F137-G137</f>
+        <v>44.649714749999994</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J137" s="18">
+        <v>44780</v>
+      </c>
+      <c r="P137" s="25"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
+      <c r="T137" s="25"/>
+      <c r="U137" s="25"/>
+      <c r="V137" s="25"/>
+      <c r="W137" s="25"/>
+      <c r="X137" s="25"/>
+      <c r="Y137" s="25"/>
+      <c r="Z137" s="25"/>
+      <c r="AA137" s="25"/>
     </row>
     <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" s="7">
-        <v>1.3</v>
+        <v>235</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D140" s="3">
         <v>3.35</v>
-      </c>
-    </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D140" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="F140" s="6">
-        <f>D140*[25]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="G140" s="6">
-        <f>[25]Main!$J$5-[25]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="H140" s="8">
-        <f t="shared" ref="H140:H141" si="4">+F140-G140</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B141" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D141" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="F141" s="6">
+        <f>D141*[27]Main!$J$3</f>
+        <v>725.62786605999997</v>
+      </c>
+      <c r="G141" s="6">
+        <f>[27]Main!$J$5-[27]Main!$J$6</f>
+        <v>197.79600000000002</v>
+      </c>
+      <c r="H141" s="8">
+        <f t="shared" ref="H141:H142" si="4">+F141-G141</f>
+        <v>527.83186605999992</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D142" s="3">
         <v>14.68</v>
       </c>
-      <c r="F141" s="6">
-        <f>D141*[26]Main!$L$3</f>
+      <c r="F142" s="6">
+        <f>D142*[28]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="G141" s="6">
-        <f>[26]Main!$L$5-[26]Main!$L$6</f>
+      <c r="G142" s="6">
+        <f>[28]Main!$L$5-[28]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="H141" s="8">
+      <c r="H142" s="8">
         <f t="shared" si="4"/>
         <v>309.38096075999994</v>
       </c>
-      <c r="I141" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D142" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F142" s="6">
-        <f>D142*[27]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="G142" s="8">
-        <f>+[27]Main!$J$5-[27]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="H142" s="8">
-        <f>+F142-G142</f>
-        <v>220.39615336000003</v>
-      </c>
       <c r="I142" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B143" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D143" s="3">
-        <v>7.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F143" s="6">
-        <f>D143*[28]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="G143" s="6">
-        <f>[28]Main!$M$5-[28]Main!$M$6</f>
-        <v>120.43700000000001</v>
+        <f>D143*[29]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G143" s="8">
+        <f>+[29]Main!$J$5-[29]Main!$J$6</f>
+        <v>92.317999999999998</v>
       </c>
       <c r="H143" s="8">
-        <f t="shared" ref="H143:H148" si="5">+F143-G143</f>
-        <v>218.02283246000002</v>
+        <f>+F143-G143</f>
+        <v>220.39615336000003</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>16</v>
@@ -5940,153 +6084,179 @@
     </row>
     <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B144" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D144" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="F144" s="6">
+        <f>D144*[30]Main!$M$3</f>
+        <v>338.45983246000003</v>
+      </c>
+      <c r="G144" s="6">
+        <f>[30]Main!$M$5-[30]Main!$M$6</f>
+        <v>120.43700000000001</v>
+      </c>
+      <c r="H144" s="8">
+        <f t="shared" ref="H144:H149" si="5">+F144-G144</f>
+        <v>218.02283246000002</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D145" s="7">
         <v>0.7</v>
       </c>
-      <c r="F144" s="6">
-        <f>D144*[29]Main!$M$3</f>
+      <c r="F145" s="6">
+        <f>D145*[31]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="G144" s="6">
-        <f>[29]Main!$M$5-[29]Main!$M$6</f>
+      <c r="G145" s="6">
+        <f>[31]Main!$M$5-[31]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="H144" s="8">
+      <c r="H145" s="8">
         <f t="shared" si="5"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="5" t="s">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D146" s="3">
         <v>1.98</v>
       </c>
-      <c r="F145" s="6">
-        <f>D145*[30]Main!$N$3</f>
+      <c r="F146" s="6">
+        <f>D146*[32]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="G145" s="6">
-        <f>[30]Main!$N$5-[30]Main!$N$6</f>
+      <c r="G146" s="6">
+        <f>[32]Main!$N$5-[32]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="H145" s="8">
+      <c r="H146" s="8">
         <f t="shared" si="5"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="5" t="s">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D147" s="3">
         <v>0.62</v>
       </c>
-      <c r="F146" s="6">
-        <f>D146*[31]Main!$L$3</f>
+      <c r="F147" s="6">
+        <f>D147*[33]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="G146" s="6">
-        <f>[31]Main!$L$5-[31]Main!$L$6</f>
+      <c r="G147" s="6">
+        <f>[33]Main!$L$5-[33]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="H146" s="8">
+      <c r="H147" s="8">
         <f t="shared" si="5"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="5" t="s">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D148" s="3">
         <v>6.12</v>
       </c>
-      <c r="F147" s="6">
-        <f>D147*[32]Main!$M$3</f>
+      <c r="F148" s="6">
+        <f>D148*[34]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="G147" s="6">
-        <f>[32]Main!$M$5-[32]Main!$M$6</f>
+      <c r="G148" s="6">
+        <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="H147" s="8">
+      <c r="H148" s="8">
         <f t="shared" si="5"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="5" t="s">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D149" s="3">
         <v>0.98</v>
       </c>
-      <c r="F148" s="6">
-        <f>D148*[33]Main!$M$3</f>
+      <c r="F149" s="6">
+        <f>D149*[35]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="G148" s="6">
-        <f>[33]Main!$M$5-[33]Main!$M$6</f>
+      <c r="G149" s="6">
+        <f>[35]Main!$M$5-[35]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="H148" s="8">
+      <c r="H149" s="8">
         <f t="shared" si="5"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D149" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D151" s="3">
         <v>5.55</v>
       </c>
     </row>
@@ -6120,15 +6290,15 @@
     <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="B36" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B142" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B145" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B141" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B146" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B143" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B148" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B140" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B147" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B144" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B143" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B146" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B142" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B147" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B144" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B149" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B141" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B148" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B145" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B18" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B49" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B50" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
@@ -6139,9 +6309,11 @@
     <hyperlink ref="B127" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
     <hyperlink ref="B51" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
     <hyperlink ref="B10" r:id="rId43" xr:uid="{F2359CF1-2AD9-4995-B3BE-132C87B2B53D}"/>
+    <hyperlink ref="B52" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="B137" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -6284,13 +6456,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F650EA-F83A-4483-B12E-DBBE9EC4FA2A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6299,25 +6471,39 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>303</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905AC5E-1996-43F9-A6A0-44168A70297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6CDA3-A590-45F9-B449-0FC739CCDEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="1830" windowWidth="26250" windowHeight="17190" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="-46845" yWindow="2400" windowWidth="26445" windowHeight="16230" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="334">
   <si>
     <t>Exarta</t>
   </si>
@@ -2221,6 +2222,49 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Consta"/>
+      <sheetName val="Vivitrol"/>
+      <sheetName val="Byetta LAR"/>
+      <sheetName val="Discontinued - ALKS27"/>
+      <sheetName val="Jansenn Contract"/>
+      <sheetName val="ALKS33"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>164.25427500000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>759.97699999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>294.53699999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2246,7 +2290,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2277,7 +2321,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2307,18 +2351,47 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>9.4141049999999993</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>11.249000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>18.713000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2356,70 +2429,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2536,17 +2545,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
@@ -2561,25 +2570,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2594,18 +2609,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2623,18 +2638,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2652,18 +2667,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2681,18 +2696,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>21.362773000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>55.28</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2706,39 +2721,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Consta"/>
-      <sheetName val="Vivitrol"/>
-      <sheetName val="Byetta LAR"/>
-      <sheetName val="Discontinued - ALKS27"/>
-      <sheetName val="Jansenn Contract"/>
-      <sheetName val="ALKS33"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>164.25427500000001</v>
+          <cell r="M3">
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>759.97699999999998</v>
+          <cell r="M5">
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>294.53699999999998</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2753,21 +2754,66 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>9.4141049999999993</v>
+          <cell r="M3">
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>11.249000000000001</v>
+          <cell r="M5">
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>18.713000000000001</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Dupixent"/>
+      <sheetName val="Eylea"/>
+      <sheetName val="Arcalyst"/>
+      <sheetName val="Zaltrap"/>
+      <sheetName val="VEGF Trap"/>
+      <sheetName val="REGN727"/>
+      <sheetName val="REGN88"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>109.51814600000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>13982.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1980.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3519,10 +3565,10 @@
   <dimension ref="B2:AB151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C140" sqref="C140"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4303,39 +4349,61 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="7">
+        <v>630</v>
+      </c>
+      <c r="E23" s="6">
+        <f>+[38]Main!$K$3</f>
+        <v>109.51814600000002</v>
+      </c>
+      <c r="F23" s="6">
+        <f>+D23*E23</f>
+        <v>68996.431980000008</v>
+      </c>
+      <c r="G23" s="6">
+        <f>+[38]Main!$K$5-[38]Main!$K$6</f>
+        <v>12001.599999999999</v>
+      </c>
+      <c r="H23" s="6">
+        <f>F23-G23</f>
+        <v>56994.83198000001</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J23" s="18">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>10.46</v>
       </c>
-      <c r="F23" s="6">
-        <f>D23*[18]Main!$M$3</f>
+      <c r="F24" s="6">
+        <f>D24*[18]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <f>[18]Main!$M$5-[18]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
-      <c r="H23" s="6">
-        <f>F23-G23</f>
+      <c r="H24" s="6">
+        <f>F24-G24</f>
         <v>31346.43945768</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3">
-        <v>580.95000000000005</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
@@ -4792,7 +4860,7 @@
         <v>28.03</v>
       </c>
       <c r="E52" s="6">
-        <f>+[36]Main!$L$3</f>
+        <f>+[24]Main!$L$3</f>
         <v>164.25427500000001</v>
       </c>
       <c r="F52" s="6">
@@ -4800,7 +4868,7 @@
         <v>4604.0473282500006</v>
       </c>
       <c r="G52" s="6">
-        <f>+[36]Main!$L$5-[36]Main!$L$6</f>
+        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
         <v>465.44</v>
       </c>
       <c r="H52" s="6">
@@ -5351,11 +5419,11 @@
         <v>10.119999999999999</v>
       </c>
       <c r="F94" s="6">
-        <f>+D94*[24]Main!$N$3</f>
+        <f>+D94*[25]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
       <c r="G94" s="6">
-        <f>+[24]Main!$N$5-[24]Main!$N$6</f>
+        <f>+[25]Main!$N$5-[25]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
       <c r="H94" s="6">
@@ -5736,11 +5804,11 @@
         <v>15.65</v>
       </c>
       <c r="F126" s="6">
-        <f>D126*[25]Main!$L$3</f>
+        <f>D126*[26]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
       <c r="G126" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
         <v>112.015</v>
       </c>
       <c r="H126" s="6">
@@ -5762,11 +5830,11 @@
         <v>16.93</v>
       </c>
       <c r="F127" s="6">
-        <f>+D127*[26]Main!$L$3</f>
+        <f>+D127*[27]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
       <c r="G127" s="6">
-        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
+        <f>+[27]Main!$L$5-[27]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
       <c r="H127" s="6">
@@ -5937,7 +6005,7 @@
         <v>3.95</v>
       </c>
       <c r="E137" s="6">
-        <f>+[37]Main!$N$3</f>
+        <f>+[28]Main!$N$3</f>
         <v>9.4141049999999993</v>
       </c>
       <c r="F137" s="6">
@@ -5945,7 +6013,7 @@
         <v>37.185714749999995</v>
       </c>
       <c r="G137" s="6">
-        <f>+[37]Main!$N$5-[37]Main!$N$6</f>
+        <f>+[28]Main!$N$5-[28]Main!$N$6</f>
         <v>-7.4640000000000004</v>
       </c>
       <c r="H137" s="6">
@@ -6015,11 +6083,11 @@
         <v>7.06</v>
       </c>
       <c r="F141" s="6">
-        <f>D141*[27]Main!$J$3</f>
+        <f>D141*[29]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="G141" s="6">
-        <f>[27]Main!$J$5-[27]Main!$J$6</f>
+        <f>[29]Main!$J$5-[29]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="H141" s="8">
@@ -6041,11 +6109,11 @@
         <v>14.68</v>
       </c>
       <c r="F142" s="6">
-        <f>D142*[28]Main!$L$3</f>
+        <f>D142*[30]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="G142" s="6">
-        <f>[28]Main!$L$5-[28]Main!$L$6</f>
+        <f>[30]Main!$L$5-[30]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="H142" s="8">
@@ -6067,11 +6135,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="F143" s="6">
-        <f>D143*[29]Main!$J$3</f>
+        <f>D143*[31]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="G143" s="8">
-        <f>+[29]Main!$J$5-[29]Main!$J$6</f>
+        <f>+[31]Main!$J$5-[31]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="H143" s="8">
@@ -6093,11 +6161,11 @@
         <v>7.57</v>
       </c>
       <c r="F144" s="6">
-        <f>D144*[30]Main!$M$3</f>
+        <f>D144*[32]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="G144" s="6">
-        <f>[30]Main!$M$5-[30]Main!$M$6</f>
+        <f>[32]Main!$M$5-[32]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="H144" s="8">
@@ -6119,11 +6187,11 @@
         <v>0.7</v>
       </c>
       <c r="F145" s="6">
-        <f>D145*[31]Main!$M$3</f>
+        <f>D145*[33]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="G145" s="6">
-        <f>[31]Main!$M$5-[31]Main!$M$6</f>
+        <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="H145" s="8">
@@ -6145,11 +6213,11 @@
         <v>1.98</v>
       </c>
       <c r="F146" s="6">
-        <f>D146*[32]Main!$N$3</f>
+        <f>D146*[34]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="G146" s="6">
-        <f>[32]Main!$N$5-[32]Main!$N$6</f>
+        <f>[34]Main!$N$5-[34]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="H146" s="8">
@@ -6171,11 +6239,11 @@
         <v>0.62</v>
       </c>
       <c r="F147" s="6">
-        <f>D147*[33]Main!$L$3</f>
+        <f>D147*[35]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="G147" s="6">
-        <f>[33]Main!$L$5-[33]Main!$L$6</f>
+        <f>[35]Main!$L$5-[35]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="H147" s="8">
@@ -6197,11 +6265,11 @@
         <v>6.12</v>
       </c>
       <c r="F148" s="6">
-        <f>D148*[34]Main!$M$3</f>
+        <f>D148*[36]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="G148" s="6">
-        <f>[34]Main!$M$5-[34]Main!$M$6</f>
+        <f>[36]Main!$M$5-[36]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="H148" s="8">
@@ -6223,11 +6291,11 @@
         <v>0.98</v>
       </c>
       <c r="F149" s="6">
-        <f>D149*[35]Main!$M$3</f>
+        <f>D149*[37]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="G149" s="6">
-        <f>[35]Main!$M$5-[35]Main!$M$6</f>
+        <f>[37]Main!$M$5-[37]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="H149" s="8">
@@ -6284,7 +6352,7 @@
     <hyperlink ref="B19" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
     <hyperlink ref="B35" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="B25" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
     <hyperlink ref="B26" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
     <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
@@ -6303,7 +6371,7 @@
     <hyperlink ref="B49" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B50" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
     <hyperlink ref="B44" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
-    <hyperlink ref="B23" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="B24" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
     <hyperlink ref="B126" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
     <hyperlink ref="B94" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
     <hyperlink ref="B127" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6CDA3-A590-45F9-B449-0FC739CCDEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791E97C-AFBF-4EA4-9813-CDE6B1C9F8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46845" yWindow="2400" windowWidth="26445" windowHeight="16230" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="-24450" yWindow="8085" windowWidth="23385" windowHeight="12405" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1954,6 +1954,51 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Dupixent"/>
+      <sheetName val="Eylea"/>
+      <sheetName val="Arcalyst"/>
+      <sheetName val="Zaltrap"/>
+      <sheetName val="VEGF Trap"/>
+      <sheetName val="REGN727"/>
+      <sheetName val="REGN88"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>109.51814600000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>13982.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1980.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1978,7 +2023,46 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Humira"/>
+      <sheetName val="Rinvoq"/>
+      <sheetName val="Skyrizi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="K3">
+            <v>1778</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>7832</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>73474</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2045,46 +2129,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Humira"/>
-      <sheetName val="Rinvoq"/>
-      <sheetName val="Skyrizi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="K3">
-            <v>1778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>7832</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>73474</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2115,7 +2160,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2154,7 +2199,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2187,7 +2232,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2211,49 +2256,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Consta"/>
-      <sheetName val="Vivitrol"/>
-      <sheetName val="Byetta LAR"/>
-      <sheetName val="Discontinued - ALKS27"/>
-      <sheetName val="Jansenn Contract"/>
-      <sheetName val="ALKS33"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>164.25427500000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>759.97699999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>294.53699999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2265,6 +2267,51 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Consta"/>
+      <sheetName val="Vivitrol"/>
+      <sheetName val="nemvaleukin"/>
+      <sheetName val="Byetta LAR"/>
+      <sheetName val="Discontinued - ALKS27"/>
+      <sheetName val="Jansenn Contract"/>
+      <sheetName val="ALKS33"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>164.25427500000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>759.97699999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>294.53699999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2290,7 +2337,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2321,7 +2368,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2351,18 +2398,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2386,49 +2433,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="CPP-115 Model"/>
-      <sheetName val="LEMS"/>
-      <sheetName val="Firdapse"/>
-      <sheetName val="Ampyra"/>
-      <sheetName val="CPP-115"/>
-      <sheetName val="CPP-109"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>102.780151</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>197.79600000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2541,6 +2545,49 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="CPP-115 Model"/>
+      <sheetName val="LEMS"/>
+      <sheetName val="Firdapse"/>
+      <sheetName val="Ampyra"/>
+      <sheetName val="CPP-115"/>
+      <sheetName val="CPP-109"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>102.780151</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>197.79600000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2565,7 +2612,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2595,35 +2642,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2639,17 +2657,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>184.19892899999999</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>67.233999999999995</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>126.736</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2667,18 +2685,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2696,18 +2714,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2725,18 +2743,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2755,12 +2773,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>21.362773000000001</v>
+            <v>20.500177000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>55.28</v>
+            <v>131.17699999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -2779,41 +2797,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Dupixent"/>
-      <sheetName val="Eylea"/>
-      <sheetName val="Arcalyst"/>
-      <sheetName val="Zaltrap"/>
-      <sheetName val="VEGF Trap"/>
-      <sheetName val="REGN727"/>
-      <sheetName val="REGN88"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>109.51814600000002</v>
+          <cell r="M3">
+            <v>21.362773000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>13982.3</v>
+          <cell r="M5">
+            <v>55.28</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>1980.7</v>
+          <cell r="M6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3568,7 +3570,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4358,7 +4360,7 @@
         <v>630</v>
       </c>
       <c r="E23" s="6">
-        <f>+[38]Main!$K$3</f>
+        <f>+[18]Main!$K$3</f>
         <v>109.51814600000002</v>
       </c>
       <c r="F23" s="6">
@@ -4366,7 +4368,7 @@
         <v>68996.431980000008</v>
       </c>
       <c r="G23" s="6">
-        <f>+[38]Main!$K$5-[38]Main!$K$6</f>
+        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
         <v>12001.599999999999</v>
       </c>
       <c r="H23" s="6">
@@ -4391,11 +4393,11 @@
         <v>10.46</v>
       </c>
       <c r="F24" s="6">
-        <f>D24*[18]Main!$M$3</f>
+        <f>D24*[19]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="G24" s="6">
-        <f>[18]Main!$M$5-[18]Main!$M$6</f>
+        <f>[19]Main!$M$5-[19]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="H24" s="6">
@@ -4546,11 +4548,11 @@
         <v>71.27</v>
       </c>
       <c r="F35" s="6">
-        <f>+D35*[19]Main!$K$3</f>
+        <f>+D35*[20]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="G35" s="6">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
+        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="H35" s="6">
@@ -4696,11 +4698,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="F44" s="6">
-        <f>D44*[20]Main!$L$3</f>
+        <f>D44*[21]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="G44" s="6">
-        <f>[20]Main!$L$5-[20]Main!$L$6</f>
+        <f>[21]Main!$L$5-[21]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="H44" s="6">
@@ -4766,11 +4768,11 @@
         <v>219.38</v>
       </c>
       <c r="F49" s="6">
-        <f>D49*[21]Main!$K$3</f>
+        <f>D49*[22]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
       <c r="G49" s="6">
-        <f>[21]Main!$K$5-[21]Main!$K$6</f>
+        <f>[22]Main!$K$5-[22]Main!$K$6</f>
         <v>3027</v>
       </c>
       <c r="H49" s="6">
@@ -4792,11 +4794,11 @@
         <v>57</v>
       </c>
       <c r="F50" s="6">
-        <f>+D50*[22]Main!$L$3</f>
+        <f>+D50*[23]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
       <c r="G50" s="6">
-        <f>+[22]Main!$L$5-[22]Main!$L$6</f>
+        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
         <v>776.13</v>
       </c>
       <c r="H50" s="6">
@@ -4818,7 +4820,7 @@
         <v>1721.48</v>
       </c>
       <c r="E51" s="6">
-        <f>+[23]Main!$K$3</f>
+        <f>+[24]Main!$K$3</f>
         <v>233</v>
       </c>
       <c r="F51" s="6">
@@ -4826,7 +4828,7 @@
         <v>4746.2735717200003</v>
       </c>
       <c r="G51" s="6">
-        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
+        <f>+[24]Main!$K$5-[24]Main!$K$6</f>
         <v>-337</v>
       </c>
       <c r="H51" s="6">
@@ -4860,7 +4862,7 @@
         <v>28.03</v>
       </c>
       <c r="E52" s="6">
-        <f>+[24]Main!$L$3</f>
+        <f>+[25]Main!$L$3</f>
         <v>164.25427500000001</v>
       </c>
       <c r="F52" s="6">
@@ -4868,7 +4870,7 @@
         <v>4604.0473282500006</v>
       </c>
       <c r="G52" s="6">
-        <f>+[24]Main!$L$5-[24]Main!$L$6</f>
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
         <v>465.44</v>
       </c>
       <c r="H52" s="6">
@@ -4879,7 +4881,7 @@
         <v>311</v>
       </c>
       <c r="J52" s="18">
-        <v>44780</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.2">
@@ -5419,11 +5421,11 @@
         <v>10.119999999999999</v>
       </c>
       <c r="F94" s="6">
-        <f>+D94*[25]Main!$N$3</f>
+        <f>+D94*[26]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
       <c r="G94" s="6">
-        <f>+[25]Main!$N$5-[25]Main!$N$6</f>
+        <f>+[26]Main!$N$5-[26]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
       <c r="H94" s="6">
@@ -5804,11 +5806,11 @@
         <v>15.65</v>
       </c>
       <c r="F126" s="6">
-        <f>D126*[26]Main!$L$3</f>
+        <f>D126*[27]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
       <c r="G126" s="6">
-        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
+        <f>+[27]Main!$L$5-[27]Main!$L$6</f>
         <v>112.015</v>
       </c>
       <c r="H126" s="6">
@@ -5830,11 +5832,11 @@
         <v>16.93</v>
       </c>
       <c r="F127" s="6">
-        <f>+D127*[27]Main!$L$3</f>
+        <f>+D127*[28]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
       <c r="G127" s="6">
-        <f>+[27]Main!$L$5-[27]Main!$L$6</f>
+        <f>+[28]Main!$L$5-[28]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
       <c r="H127" s="6">
@@ -6005,7 +6007,7 @@
         <v>3.95</v>
       </c>
       <c r="E137" s="6">
-        <f>+[28]Main!$N$3</f>
+        <f>+[29]Main!$N$3</f>
         <v>9.4141049999999993</v>
       </c>
       <c r="F137" s="6">
@@ -6013,7 +6015,7 @@
         <v>37.185714749999995</v>
       </c>
       <c r="G137" s="6">
-        <f>+[28]Main!$N$5-[28]Main!$N$6</f>
+        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
         <v>-7.4640000000000004</v>
       </c>
       <c r="H137" s="6">
@@ -6083,11 +6085,11 @@
         <v>7.06</v>
       </c>
       <c r="F141" s="6">
-        <f>D141*[29]Main!$J$3</f>
+        <f>D141*[30]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
       <c r="G141" s="6">
-        <f>[29]Main!$J$5-[29]Main!$J$6</f>
+        <f>[30]Main!$J$5-[30]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
       <c r="H141" s="8">
@@ -6109,11 +6111,11 @@
         <v>14.68</v>
       </c>
       <c r="F142" s="6">
-        <f>D142*[30]Main!$L$3</f>
+        <f>D142*[31]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
       <c r="G142" s="6">
-        <f>[30]Main!$L$5-[30]Main!$L$6</f>
+        <f>[31]Main!$L$5-[31]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
       <c r="H142" s="8">
@@ -6135,11 +6137,11 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="F143" s="6">
-        <f>D143*[31]Main!$J$3</f>
+        <f>D143*[32]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
       <c r="G143" s="8">
-        <f>+[31]Main!$J$5-[31]Main!$J$6</f>
+        <f>+[32]Main!$J$5-[32]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
       <c r="H143" s="8">
@@ -6161,11 +6163,11 @@
         <v>7.57</v>
       </c>
       <c r="F144" s="6">
-        <f>D144*[32]Main!$M$3</f>
+        <f>D144*[33]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
       <c r="G144" s="6">
-        <f>[32]Main!$M$5-[32]Main!$M$6</f>
+        <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
       <c r="H144" s="8">
@@ -6187,11 +6189,11 @@
         <v>0.7</v>
       </c>
       <c r="F145" s="6">
-        <f>D145*[33]Main!$M$3</f>
+        <f>D145*[34]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
       <c r="G145" s="6">
-        <f>[33]Main!$M$5-[33]Main!$M$6</f>
+        <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
       <c r="H145" s="8">
@@ -6213,11 +6215,11 @@
         <v>1.98</v>
       </c>
       <c r="F146" s="6">
-        <f>D146*[34]Main!$N$3</f>
+        <f>D146*[35]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
       <c r="G146" s="6">
-        <f>[34]Main!$N$5-[34]Main!$N$6</f>
+        <f>[35]Main!$N$5-[35]Main!$N$6</f>
         <v>15.942</v>
       </c>
       <c r="H146" s="8">
@@ -6239,11 +6241,11 @@
         <v>0.62</v>
       </c>
       <c r="F147" s="6">
-        <f>D147*[35]Main!$L$3</f>
+        <f>D147*[36]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
       <c r="G147" s="6">
-        <f>[35]Main!$L$5-[35]Main!$L$6</f>
+        <f>[36]Main!$L$5-[36]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
       <c r="H147" s="8">
@@ -6265,11 +6267,11 @@
         <v>6.12</v>
       </c>
       <c r="F148" s="6">
-        <f>D148*[36]Main!$M$3</f>
+        <f>D148*[37]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
       <c r="G148" s="6">
-        <f>[36]Main!$M$5-[36]Main!$M$6</f>
+        <f>[37]Main!$M$5-[37]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
       <c r="H148" s="8">
@@ -6291,11 +6293,11 @@
         <v>0.98</v>
       </c>
       <c r="F149" s="6">
-        <f>D149*[37]Main!$M$3</f>
+        <f>D149*[38]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
       <c r="G149" s="6">
-        <f>[37]Main!$M$5-[37]Main!$M$6</f>
+        <f>[38]Main!$M$5-[38]Main!$M$6</f>
         <v>55.28</v>
       </c>
       <c r="H149" s="8">

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791E97C-AFBF-4EA4-9813-CDE6B1C9F8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84667B32-E76C-4210-B656-2ECD1776AD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24450" yWindow="8085" windowWidth="23385" windowHeight="12405" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="345">
   <si>
     <t>Exarta</t>
   </si>
@@ -1088,6 +1088,39 @@
   </si>
   <si>
     <t>AVTX</t>
+  </si>
+  <si>
+    <t>1859, Inc.</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Series A</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Investors</t>
+  </si>
+  <si>
+    <t>Northpond Ventures, OMX Ventures</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Absci</t>
+  </si>
+  <si>
+    <t>ABSI</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1210,6 +1243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1630,6 +1664,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Advair"/>
@@ -1683,10 +1718,11 @@
       <sheetName val="Syncria"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="4">
           <cell r="K4">
-            <v>5068</v>
+            <v>4064</v>
           </cell>
         </row>
         <row r="6">
@@ -1700,7 +1736,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1750,6 +1785,7 @@
       <sheetData sheetId="48"/>
       <sheetData sheetId="49"/>
       <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3564,13 +3600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:AB151"/>
+  <dimension ref="B2:AB152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4196,9 +4232,13 @@
       <c r="D17" s="3">
         <v>41.27</v>
       </c>
+      <c r="E17" s="6">
+        <f>+[13]Main!$K$4</f>
+        <v>4064</v>
+      </c>
       <c r="F17" s="6">
-        <f>D17*[13]Main!$K$4/2</f>
-        <v>104578.18000000001</v>
+        <f>+D17*E17/2</f>
+        <v>83860.639999999999</v>
       </c>
       <c r="G17" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
@@ -4206,10 +4246,13 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>127534.20000000001</v>
+        <v>106816.66</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="J17" s="18">
+        <v>44792</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
@@ -4222,9 +4265,13 @@
       <c r="D18" s="6">
         <v>1683.8</v>
       </c>
+      <c r="E18" s="6">
+        <f>+[13]Main!$K$4</f>
+        <v>4064</v>
+      </c>
       <c r="F18" s="6">
-        <f>D18*[13]Main!$K$4/100*GBP</f>
-        <v>100976.8865672</v>
+        <f>+D18*E18/100*GBP</f>
+        <v>80972.783545600003</v>
       </c>
       <c r="G18" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
@@ -4232,10 +4279,14 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>123932.9065672</v>
+        <v>103928.80354560001</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="J18" s="18">
+        <f>+J17</f>
+        <v>44792</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
@@ -6328,6 +6379,17 @@
       </c>
       <c r="D151" s="3">
         <v>5.55</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D152" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6444,13 +6506,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6459,12 +6521,12 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6474,23 +6536,35 @@
       <c r="D2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>291</v>
       </c>
@@ -6501,19 +6575,42 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="27">
+        <v>44599</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84667B32-E76C-4210-B656-2ECD1776AD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D02FA24-3A98-46D8-A187-C4E1B60B2D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="52890" yWindow="1395" windowWidth="20310" windowHeight="17790" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="347">
   <si>
     <t>Exarta</t>
   </si>
@@ -1121,6 +1121,12 @@
   </si>
   <si>
     <t>ABSI</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>4502 JP</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1240,10 +1246,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3600,13 +3609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="B2:AB152"/>
+  <dimension ref="A2:AB153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3615,31 +3624,32 @@
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="3" customWidth="1"/>
-    <col min="6" max="15" width="9.140625" style="3"/>
+    <col min="5" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="3"/>
     <col min="16" max="27" width="9.140625" style="4"/>
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P2" s="26" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P2" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26" t="s">
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3650,16 +3660,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -3722,7 +3732,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3733,20 +3746,20 @@
         <v>169.99</v>
       </c>
       <c r="E4" s="6">
+        <f>D4*[1]Main!$R$3</f>
+        <v>447311.99266196002</v>
+      </c>
+      <c r="F4" s="6">
+        <f>+[1]Main!$R$5-[1]Main!$R$6</f>
+        <v>-2760</v>
+      </c>
+      <c r="G4" s="6">
+        <f>E4-F4</f>
+        <v>450071.99266196002</v>
+      </c>
+      <c r="H4" s="6">
         <f>+[1]Main!$R$3</f>
         <v>2631.4018040000001</v>
-      </c>
-      <c r="F4" s="6">
-        <f>D4*[1]Main!$R$3</f>
-        <v>447311.99266196002</v>
-      </c>
-      <c r="G4" s="6">
-        <f>+[1]Main!$R$5-[1]Main!$R$6</f>
-        <v>-2760</v>
-      </c>
-      <c r="H4" s="6">
-        <f>F4-G4</f>
-        <v>450071.99266196002</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
@@ -3760,7 +3773,10 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -3771,20 +3787,20 @@
         <v>138.28</v>
       </c>
       <c r="E5" s="6">
+        <f>+D5*[2]Main!$K$3</f>
+        <v>245861.84</v>
+      </c>
+      <c r="F5" s="6">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>-65642</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G14" si="0">E5-F5</f>
+        <v>311503.83999999997</v>
+      </c>
+      <c r="H5" s="6">
         <f>+[2]Main!$K$3</f>
         <v>1778</v>
-      </c>
-      <c r="F5" s="6">
-        <f>+D5*[2]Main!$K$3</f>
-        <v>245861.84</v>
-      </c>
-      <c r="G5" s="6">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>-65642</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H14" si="0">F5-G5</f>
-        <v>311503.83999999997</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>16</v>
@@ -3798,7 +3814,10 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -3809,20 +3828,20 @@
         <v>290.89999999999998</v>
       </c>
       <c r="E6" s="6">
+        <f>+D6*H6</f>
+        <v>276401.41571309994</v>
+      </c>
+      <c r="F6" s="6">
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
+        <v>-11213.199999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>287614.61571309995</v>
+      </c>
+      <c r="H6" s="6">
         <f>+[3]Main!$J$3</f>
         <v>950.15955899999994</v>
-      </c>
-      <c r="F6" s="6">
-        <f>+D6*E6</f>
-        <v>276401.41571309994</v>
-      </c>
-      <c r="G6" s="6">
-        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
-        <v>-11213.199999999999</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>287614.61571309995</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>16</v>
@@ -3851,7 +3870,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P6" s="24">
-        <f t="shared" ref="P6:U6" si="1">($H$6/$E$6)/V6</f>
+        <f t="shared" ref="P6:U6" si="1">($G$6/$H$6)/V6</f>
         <v>34.06702797542119</v>
       </c>
       <c r="Q6" s="24">
@@ -3902,7 +3921,10 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3913,20 +3935,20 @@
         <v>303.35000000000002</v>
       </c>
       <c r="E7" s="6">
+        <f>+H7*D7</f>
+        <v>242802.25005000003</v>
+      </c>
+      <c r="F7" s="6">
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <v>-18167</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>260969.25005000003</v>
+      </c>
+      <c r="H7" s="6">
         <f>+[4]Main!$K$3</f>
         <v>800.40300000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f>+E7*D7</f>
-        <v>242802.25005000003</v>
-      </c>
-      <c r="G7" s="6">
-        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
-        <v>-18167</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>260969.25005000003</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>23</v>
@@ -3943,7 +3965,10 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
@@ -3954,20 +3979,20 @@
         <v>46.53</v>
       </c>
       <c r="E8" s="6">
+        <f>D8*[5]Main!$L$3*1000</f>
+        <v>267919.74</v>
+      </c>
+      <c r="F8" s="6">
+        <f>([5]Main!$L$5-[5]Main!$L$6)*1000</f>
+        <v>8332.9999999999909</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>259586.74</v>
+      </c>
+      <c r="H8" s="6">
         <f>+[5]Main!$L$3*1000</f>
         <v>5758</v>
-      </c>
-      <c r="F8" s="6">
-        <f>D8*[5]Main!$L$3*1000</f>
-        <v>267919.74</v>
-      </c>
-      <c r="G8" s="6">
-        <f>([5]Main!$L$5-[5]Main!$L$6)*1000</f>
-        <v>8332.9999999999909</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>259586.74</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>311</v>
@@ -3981,7 +4006,10 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
@@ -3992,53 +4020,56 @@
         <v>106</v>
       </c>
       <c r="E9" s="6">
+        <f>+H9*D9</f>
+        <v>242029.80000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
+        <v>-665.40001913640151</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>242695.20001913642</v>
+      </c>
+      <c r="H9" s="6">
         <f>+[6]Main!$J$3</f>
         <v>2283.3000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f>+E9*D9</f>
-        <v>242029.80000000002</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="18">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="7">
+        <v>775</v>
+      </c>
+      <c r="E10" s="6">
+        <f>+D10*H10/DKK</f>
+        <v>241878.3061550869</v>
+      </c>
+      <c r="F10" s="6">
         <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
         <v>-665.40001913640151</v>
       </c>
-      <c r="H9" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>242695.20001913642</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="18">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="7">
-        <v>775</v>
-      </c>
-      <c r="E10" s="6">
+        <v>242543.70617422331</v>
+      </c>
+      <c r="H10" s="6">
         <f>+[6]Main!$J$3</f>
         <v>2283.3000000000002</v>
-      </c>
-      <c r="F10" s="6">
-        <f>+D10*E10/DKK</f>
-        <v>241878.3061550869</v>
-      </c>
-      <c r="G10" s="6">
-        <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
-        <v>-665.40001913640151</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>242543.70617422331</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>16</v>
@@ -4059,7 +4090,10 @@
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -4070,21 +4104,21 @@
         <v>84.62</v>
       </c>
       <c r="E11" s="6">
+        <f>+D11*H11</f>
+        <v>213987.48121550001</v>
+      </c>
+      <c r="F11" s="6">
+        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
+        <v>-22550</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>236537.48121550001</v>
+      </c>
+      <c r="H11" s="6">
         <f>+[7]Main!$J$3</f>
         <v>2528.8050250000001</v>
       </c>
-      <c r="F11" s="6">
-        <f>+D11*E11</f>
-        <v>213987.48121550001</v>
-      </c>
-      <c r="G11" s="6">
-        <f>+[7]Main!$J$5-[7]Main!$J$6</f>
-        <v>-22550</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>236537.48121550001</v>
-      </c>
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4126,10 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -4102,23 +4139,26 @@
       <c r="D12" s="3">
         <v>81.06</v>
       </c>
-      <c r="F12" s="6">
+      <c r="E12" s="6">
         <f>D12*[8]Main!$L$3</f>
         <v>179352.13207506001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="F12" s="6">
         <f>[8]Main!$L$5-[8]Main!$L$6</f>
         <v>-10678</v>
       </c>
-      <c r="H12" s="6">
-        <f>F12-G12</f>
+      <c r="G12" s="6">
+        <f>E12-F12</f>
         <v>190030.13207506001</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
@@ -4128,23 +4168,26 @@
       <c r="D13" s="3">
         <v>73.77</v>
       </c>
-      <c r="F13" s="6">
+      <c r="E13" s="6">
         <f>D13*[9]Main!$L$3</f>
         <v>157061.07127166999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="F13" s="6">
         <f>[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-30004</v>
       </c>
-      <c r="H13" s="6">
-        <f>F13-G13</f>
+      <c r="G13" s="6">
+        <f>E13-F13</f>
         <v>187065.07127166999</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -4154,15 +4197,15 @@
       <c r="D14" s="3">
         <v>246.73</v>
       </c>
-      <c r="F14" s="6">
+      <c r="E14" s="6">
         <f>D14*[10]Main!$K$3</f>
         <v>131753.82</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F14" s="6">
         <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-30310</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>162063.82</v>
       </c>
@@ -4170,7 +4213,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
@@ -4180,23 +4226,26 @@
       <c r="D15" s="7">
         <v>49.2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="E15" s="6">
         <f>D15*[11]Main!$L$3*2</f>
         <v>123482.16000000002</v>
       </c>
-      <c r="G15" s="6">
+      <c r="F15" s="6">
         <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
         <v>-10384.598400000001</v>
       </c>
-      <c r="H15" s="6">
-        <f>F15-G15</f>
+      <c r="G15" s="6">
+        <f t="shared" ref="G15:G24" si="2">E15-F15</f>
         <v>133866.75840000002</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -4206,23 +4255,26 @@
       <c r="D16" s="7">
         <v>66</v>
       </c>
-      <c r="F16" s="6">
+      <c r="E16" s="6">
         <f>D16*[12]Main!$L$3</f>
         <v>103026</v>
       </c>
-      <c r="G16" s="6">
+      <c r="F16" s="6">
         <f>[12]Main!$L$5-[12]Main!$L$6</f>
         <v>-25217</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" ref="H16:H20" si="2">F16-G16</f>
+      <c r="G16" s="6">
+        <f t="shared" si="2"/>
         <v>128243</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -4233,53 +4285,56 @@
         <v>41.27</v>
       </c>
       <c r="E17" s="6">
+        <f>+D17*H17/2</f>
+        <v>83860.639999999999</v>
+      </c>
+      <c r="F17" s="6">
+        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
+        <v>-22956.02</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>106816.66</v>
+      </c>
+      <c r="H17" s="6">
         <f>+[13]Main!$K$4</f>
         <v>4064</v>
       </c>
-      <c r="F17" s="6">
-        <f>+D17*E17/2</f>
-        <v>83860.639999999999</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="18">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1683.8</v>
+      </c>
+      <c r="E18" s="6">
+        <f>+D18*H18/100*GBP</f>
+        <v>80972.783545600003</v>
+      </c>
+      <c r="F18" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
-        <v>106816.66</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="18">
-        <v>44792</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1683.8</v>
-      </c>
-      <c r="E18" s="6">
+        <v>103928.80354560001</v>
+      </c>
+      <c r="H18" s="6">
         <f>+[13]Main!$K$4</f>
         <v>4064</v>
-      </c>
-      <c r="F18" s="6">
-        <f>+D18*E18/100*GBP</f>
-        <v>80972.783545600003</v>
-      </c>
-      <c r="G18" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
-        <v>-22956.02</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>103928.80354560001</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>16</v>
@@ -4289,7 +4344,10 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -4300,21 +4358,21 @@
         <v>60.9</v>
       </c>
       <c r="E19" s="6">
+        <f>+D19*H19</f>
+        <v>76855.8</v>
+      </c>
+      <c r="F19" s="6">
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <v>-19456</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>96311.8</v>
+      </c>
+      <c r="H19" s="6">
         <f>+[14]Main!$J$3</f>
         <v>1262</v>
       </c>
-      <c r="F19" s="6">
-        <f>+D19*E19</f>
-        <v>76855.8</v>
-      </c>
-      <c r="G19" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>-19456</v>
-      </c>
-      <c r="H19" s="6">
-        <f>F19-G19</f>
-        <v>96311.8</v>
-      </c>
       <c r="I19" s="3" t="s">
         <v>16</v>
       </c>
@@ -4322,7 +4380,10 @@
         <v>44780</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
@@ -4332,15 +4393,15 @@
       <c r="D20" s="7">
         <v>175.1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="E20" s="6">
         <f>D20*[15]Main!$J$3*EUR</f>
         <v>77446.648629173942</v>
       </c>
-      <c r="G20" s="6">
+      <c r="F20" s="6">
         <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
         <v>-9387.644400000001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>86834.293029173947</v>
       </c>
@@ -4348,7 +4409,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
@@ -4358,23 +4422,26 @@
       <c r="D21" s="3">
         <v>255.99</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E21" s="6">
         <f>D21*[16]Main!$J$3*AUD</f>
         <v>80031.808981488444</v>
       </c>
-      <c r="G21" s="6">
+      <c r="F21" s="6">
         <f>[16]Main!$J$5-[16]Main!$J$6</f>
         <v>-3998.1000000000004</v>
       </c>
-      <c r="H21" s="6">
-        <f>F21-G21</f>
+      <c r="G21" s="6">
+        <f t="shared" si="2"/>
         <v>84029.90898148845</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
@@ -4384,23 +4451,26 @@
       <c r="D22" s="3">
         <v>263.08999999999997</v>
       </c>
-      <c r="F22" s="6">
+      <c r="E22" s="6">
         <f>+D22*[17]Main!$M$3</f>
         <v>67286.835779489993</v>
       </c>
-      <c r="G22" s="6">
+      <c r="F22" s="6">
         <f>+[17]Main!$M$5-[17]Main!$M$6</f>
         <v>8238.1</v>
       </c>
-      <c r="H22" s="6">
-        <f>F22-G22</f>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
         <v>59048.735779489994</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
@@ -4411,21 +4481,21 @@
         <v>630</v>
       </c>
       <c r="E23" s="6">
+        <f>+D23*H23</f>
+        <v>68996.431980000008</v>
+      </c>
+      <c r="F23" s="6">
+        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
+        <v>12001.599999999999</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="2"/>
+        <v>56994.83198000001</v>
+      </c>
+      <c r="H23" s="6">
         <f>+[18]Main!$K$3</f>
         <v>109.51814600000002</v>
       </c>
-      <c r="F23" s="6">
-        <f>+D23*E23</f>
-        <v>68996.431980000008</v>
-      </c>
-      <c r="G23" s="6">
-        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
-        <v>12001.599999999999</v>
-      </c>
-      <c r="H23" s="6">
-        <f>F23-G23</f>
-        <v>56994.83198000001</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>311</v>
       </c>
@@ -4433,7 +4503,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
@@ -4443,23 +4513,26 @@
       <c r="D24" s="3">
         <v>10.46</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" s="6">
         <f>D24*[19]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
-      <c r="G24" s="6">
+      <c r="F24" s="6">
         <f>[19]Main!$M$5-[19]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
-      <c r="H24" s="6">
-        <f>F24-G24</f>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
         <v>31346.43945768</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
@@ -4470,7 +4543,10 @@
         <v>128.03</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
@@ -4481,7 +4557,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>59</v>
       </c>
@@ -4492,7 +4568,10 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
@@ -4503,165 +4582,177 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>63.83</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>4360</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="6"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>125.14</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <v>76.08</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="3">
         <v>71.27</v>
       </c>
-      <c r="F35" s="6">
-        <f>+D35*[20]Main!$K$3</f>
+      <c r="E36" s="6">
+        <f>+D36*[20]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
-      <c r="G35" s="6">
+      <c r="F36" s="6">
         <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>2721</v>
       </c>
-      <c r="H35" s="6">
-        <f>F35-G35</f>
+      <c r="G36" s="6">
+        <f>E36-F36</f>
         <v>13065.66213397</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>28.54</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>349.96</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B38" s="10" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B39" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -4676,313 +4767,319 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>165.45</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B41" s="10" t="s">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B42" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>39.35</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="10" t="s">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>132.13999999999999</v>
       </c>
-      <c r="F44" s="6">
-        <f>D44*[21]Main!$L$3</f>
+      <c r="E45" s="6">
+        <f>D45*[21]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
-      <c r="G44" s="6">
+      <c r="F45" s="6">
         <f>[21]Main!$L$5-[21]Main!$L$6</f>
         <v>5643.241</v>
       </c>
-      <c r="H44" s="6">
-        <f>F44-G44</f>
+      <c r="G45" s="6">
+        <f>E45-F45</f>
         <v>7896.2021132399987</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>1978</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>3060</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
         <v>11.57</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="3">
         <v>219.38</v>
       </c>
-      <c r="F49" s="6">
-        <f>D49*[22]Main!$K$3</f>
+      <c r="E50" s="6">
+        <f>D50*[22]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
-      <c r="G49" s="6">
+      <c r="F50" s="6">
         <f>[22]Main!$K$5-[22]Main!$K$6</f>
         <v>3027</v>
       </c>
-      <c r="H49" s="6">
-        <f>F49-G49</f>
+      <c r="G50" s="6">
+        <f>E50-F50</f>
         <v>7437.4260000000013</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="7">
         <v>57</v>
       </c>
-      <c r="F50" s="6">
-        <f>+D50*[23]Main!$L$3</f>
+      <c r="E51" s="6">
+        <f>+D51*[23]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
-      <c r="G50" s="6">
+      <c r="F51" s="6">
         <f>+[23]Main!$L$5-[23]Main!$L$6</f>
         <v>776.13</v>
       </c>
-      <c r="H50" s="6">
-        <f>+F50-G50</f>
+      <c r="G51" s="6">
+        <f>+E51-F51</f>
         <v>5295.6136259999994</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>1721.48</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
+        <f>+D52*H52/100*GBP</f>
+        <v>4746.2735717200003</v>
+      </c>
+      <c r="F52" s="6">
+        <f>+[24]Main!$K$5-[24]Main!$K$6</f>
+        <v>-337</v>
+      </c>
+      <c r="G52" s="6">
+        <f>+E52-F52</f>
+        <v>5083.2735717200003</v>
+      </c>
+      <c r="H52" s="6">
         <f>+[24]Main!$K$3</f>
         <v>233</v>
       </c>
-      <c r="F51" s="6">
-        <f>+D51*E51/100*GBP</f>
-        <v>4746.2735717200003</v>
-      </c>
-      <c r="G51" s="6">
-        <f>+[24]Main!$K$5-[24]Main!$K$6</f>
-        <v>-337</v>
-      </c>
-      <c r="H51" s="6">
-        <f>+F51-G51</f>
-        <v>5083.2735717200003</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>28.03</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
+        <f>+H53*D53</f>
+        <v>4604.0473282500006</v>
+      </c>
+      <c r="F53" s="6">
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <v>465.44</v>
+      </c>
+      <c r="G53" s="6">
+        <f>+E53-F53</f>
+        <v>4138.607328250001</v>
+      </c>
+      <c r="H53" s="6">
         <f>+[25]Main!$L$3</f>
         <v>164.25427500000001</v>
       </c>
-      <c r="F52" s="6">
-        <f>+E52*D52</f>
-        <v>4604.0473282500006</v>
-      </c>
-      <c r="G52" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
-        <v>465.44</v>
-      </c>
-      <c r="H52" s="6">
-        <f>+F52-G52</f>
-        <v>4138.607328250001</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J53" s="18">
         <v>44782</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="3">
-        <v>93.28</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="3">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>142.91</v>
       </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -4998,42 +5095,42 @@
       <c r="AA56" s="12"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -5050,10 +5147,10 @@
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -5070,10 +5167,10 @@
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -5090,10 +5187,10 @@
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -5110,885 +5207,879 @@
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B64" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="3">
-        <v>11.04</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D65" s="3">
-        <v>44.14</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="3">
-        <v>35.26</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D67" s="3">
-        <v>82.53</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D68" s="3">
-        <v>24.78</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D69" s="3">
-        <v>4.72</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D70" s="3">
-        <v>24.53</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D71" s="3">
-        <v>23.02</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D72" s="3">
-        <v>29.12</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D73" s="3">
-        <v>33.17</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="3">
-        <v>53.21</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D75" s="3">
-        <v>46.23</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="7">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="D76" s="3">
+        <v>46.23</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="3">
-        <v>18.559999999999999</v>
+        <v>124</v>
+      </c>
+      <c r="D77" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D78" s="3">
-        <v>15.75</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D79" s="3">
-        <v>19.510000000000002</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D80" s="3">
-        <v>66.97</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="3">
-        <v>54.94</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D82" s="3">
-        <v>38.840000000000003</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D83" s="3">
-        <v>83.92</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D84" s="3">
-        <v>60.72</v>
+        <v>83.92</v>
       </c>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="7">
-        <v>12.2</v>
+        <v>144</v>
+      </c>
+      <c r="D85" s="3">
+        <v>60.72</v>
       </c>
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>2.37</v>
       </c>
     </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B87" s="10" t="s">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B88" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="3">
         <v>4.26</v>
       </c>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
-      <c r="W87" s="19"/>
-      <c r="X87" s="19"/>
-      <c r="Y87" s="19"/>
-      <c r="Z87" s="19"/>
-      <c r="AA87" s="19"/>
-      <c r="AB87" s="1">
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="1">
         <v>2011</v>
-      </c>
-    </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="3">
-        <v>42.98</v>
       </c>
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D89" s="3">
-        <v>23.92</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D90" s="3">
-        <v>53.29</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D91" s="3">
-        <v>74.459999999999994</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D92" s="3">
-        <v>48.63</v>
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" s="3">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D94" s="3">
         <v>27.73</v>
       </c>
     </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B94" s="5" t="s">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D95" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="F94" s="6">
-        <f>+D94*[26]Main!$N$3</f>
+      <c r="E95" s="6">
+        <f>+D95*[26]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
-      <c r="G94" s="6">
+      <c r="F95" s="6">
         <f>+[26]Main!$N$5-[26]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
-      <c r="H94" s="6">
-        <f>+F94-G94</f>
+      <c r="G95" s="6">
+        <f>+E95-F95</f>
         <v>2282.2630120399995</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D95" s="3">
-        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D96" s="3">
-        <v>14.27</v>
+        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D97" s="3">
-        <v>7.36</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D98" s="3">
-        <v>9.35</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D99" s="3">
-        <v>43.98</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D100" s="3">
-        <v>5.18</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D101" s="3">
-        <v>53.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="3">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D103" s="3">
         <v>21.04</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B103" s="10" t="s">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B104" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="20"/>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="20"/>
-      <c r="AA103" s="20"/>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="7">
-        <v>20.7</v>
-      </c>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="20"/>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="3">
-        <v>18.579999999999998</v>
+        <v>180</v>
+      </c>
+      <c r="D105" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D106" s="3">
-        <v>16.12</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D107" s="3">
-        <v>28.41</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D108" s="3">
-        <v>33.86</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D109" s="3">
-        <v>38.35</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" s="3">
-        <v>9.6199999999999992</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D112" s="3">
         <v>25.49</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B112" s="10" t="s">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B113" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
-      <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="14"/>
-      <c r="W112" s="14"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="14"/>
-      <c r="Z112" s="14"/>
-      <c r="AA112" s="14"/>
-    </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D113" s="3">
-        <v>11.42</v>
-      </c>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="14"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="14"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="14"/>
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="14"/>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D114" s="3">
-        <v>26.64</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D115" s="3">
-        <v>30.48</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D116" s="3">
-        <v>12.98</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D117" s="3">
-        <v>10.96</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D118" s="3">
-        <v>2.42</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119" s="7">
-        <v>55.5</v>
+        <v>205</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2.42</v>
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D120" s="3">
-        <v>10.63</v>
+        <v>207</v>
+      </c>
+      <c r="D120" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D121" s="3">
-        <v>33.130000000000003</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D122" s="3">
-        <v>31.52</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D123" s="3">
-        <v>7.62</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D124" s="3">
-        <v>28.55</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D125" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D126" s="3">
         <v>27.02</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B126" s="5" t="s">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B127" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D127" s="3">
         <v>15.65</v>
       </c>
-      <c r="F126" s="6">
-        <f>D126*[27]Main!$L$3</f>
+      <c r="E127" s="6">
+        <f>D127*[27]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
-      <c r="G126" s="6">
+      <c r="F127" s="6">
         <f>+[27]Main!$L$5-[27]Main!$L$6</f>
         <v>112.015</v>
       </c>
-      <c r="H126" s="6">
-        <f>+F126-G126</f>
+      <c r="G127" s="6">
+        <f>+E127-F127</f>
         <v>1141.14095595</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B127" s="5" t="s">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B128" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D128" s="3">
         <v>16.93</v>
       </c>
-      <c r="F127" s="6">
-        <f>+D127*[28]Main!$L$3</f>
+      <c r="E128" s="6">
+        <f>+D128*[28]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
-      <c r="G127" s="6">
+      <c r="F128" s="6">
         <f>+[28]Main!$L$5-[28]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
-      <c r="H127" s="6">
-        <f t="shared" ref="H127" si="3">+F127-G127</f>
+      <c r="G128" s="6">
+        <f>+E128-F128</f>
         <v>1075.2886793099999</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J127" s="18">
+      <c r="J128" s="18">
         <v>44771</v>
       </c>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="16"/>
-      <c r="T127" s="16"/>
-      <c r="U127" s="16"/>
-      <c r="V127" s="16"/>
-      <c r="W127" s="16"/>
-      <c r="X127" s="16"/>
-      <c r="Y127" s="16"/>
-      <c r="Z127" s="16"/>
-      <c r="AA127" s="16"/>
-    </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D128" s="3">
-        <v>3.17</v>
-      </c>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16"/>
+      <c r="V128" s="16"/>
+      <c r="W128" s="16"/>
+      <c r="X128" s="16"/>
+      <c r="Y128" s="16"/>
+      <c r="Z128" s="16"/>
+      <c r="AA128" s="16"/>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D129" s="3">
-        <v>8.76</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="130" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" s="3">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D131" s="3">
         <v>18.010000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B131" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D131" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="F131" s="3">
-        <v>630</v>
-      </c>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="17"/>
-      <c r="S131" s="17"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="17"/>
     </row>
     <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D132" s="3">
-        <v>11.93</v>
-      </c>
-      <c r="F132" s="3">
-        <v>516</v>
+        <v>3.92</v>
+      </c>
+      <c r="E132" s="3">
+        <v>630</v>
       </c>
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
@@ -6004,391 +6095,417 @@
       <c r="AA132" s="17"/>
     </row>
     <row r="133" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>227</v>
+      <c r="B133" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D133" s="3">
-        <v>5.46</v>
-      </c>
+        <v>11.93</v>
+      </c>
+      <c r="E133" s="3">
+        <v>516</v>
+      </c>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="17"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="17"/>
     </row>
     <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D134" s="7">
-        <v>36.6</v>
+        <v>227</v>
+      </c>
+      <c r="D134" s="3">
+        <v>5.46</v>
       </c>
     </row>
     <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D135" s="7">
-        <v>40.24</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D136" s="7">
+        <v>40.24</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D137" s="3">
         <v>22.11</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B137" s="5" t="s">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D138" s="3">
         <v>3.95</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E138" s="6">
+        <f>+D138*H138</f>
+        <v>37.185714749999995</v>
+      </c>
+      <c r="F138" s="6">
+        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
+        <v>-7.4640000000000004</v>
+      </c>
+      <c r="G138" s="6">
+        <f>+E138-F138</f>
+        <v>44.649714749999994</v>
+      </c>
+      <c r="H138" s="6">
         <f>+[29]Main!$N$3</f>
         <v>9.4141049999999993</v>
       </c>
-      <c r="F137" s="6">
-        <f>+D137*E137</f>
-        <v>37.185714749999995</v>
-      </c>
-      <c r="G137" s="6">
-        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
-        <v>-7.4640000000000004</v>
-      </c>
-      <c r="H137" s="6">
-        <f>+F137-G137</f>
-        <v>44.649714749999994</v>
-      </c>
-      <c r="I137" s="3" t="s">
+      <c r="I138" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J137" s="18">
+      <c r="J138" s="18">
         <v>44780</v>
       </c>
-      <c r="P137" s="25"/>
-      <c r="Q137" s="25"/>
-      <c r="R137" s="25"/>
-      <c r="S137" s="25"/>
-      <c r="T137" s="25"/>
-      <c r="U137" s="25"/>
-      <c r="V137" s="25"/>
-      <c r="W137" s="25"/>
-      <c r="X137" s="25"/>
-      <c r="Y137" s="25"/>
-      <c r="Z137" s="25"/>
-      <c r="AA137" s="25"/>
-    </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D138" s="3">
-        <v>10.31</v>
-      </c>
+      <c r="P138" s="25"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="25"/>
+      <c r="U138" s="25"/>
+      <c r="V138" s="25"/>
+      <c r="W138" s="25"/>
+      <c r="X138" s="25"/>
+      <c r="Y138" s="25"/>
+      <c r="Z138" s="25"/>
+      <c r="AA138" s="25"/>
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D139" s="7">
-        <v>1.3</v>
+        <v>235</v>
+      </c>
+      <c r="D139" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D140" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D141" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B141" s="5" t="s">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D142" s="3">
         <v>7.06</v>
       </c>
-      <c r="F141" s="6">
-        <f>D141*[30]Main!$J$3</f>
+      <c r="E142" s="6">
+        <f>D142*[30]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="G141" s="6">
+      <c r="F142" s="6">
         <f>[30]Main!$J$5-[30]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="H141" s="8">
-        <f t="shared" ref="H141:H142" si="4">+F141-G141</f>
+      <c r="G142" s="8">
+        <f>+E142-F142</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="I141" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D143" s="3">
         <v>14.68</v>
       </c>
-      <c r="F142" s="6">
-        <f>D142*[31]Main!$L$3</f>
+      <c r="E143" s="6">
+        <f>D143*[31]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="G142" s="6">
+      <c r="F143" s="6">
         <f>[31]Main!$L$5-[31]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="H142" s="8">
-        <f t="shared" si="4"/>
+      <c r="G143" s="8">
+        <f>+E143-F143</f>
         <v>309.38096075999994</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B143" s="5" t="s">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B144" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D144" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="F143" s="6">
-        <f>D143*[32]Main!$J$3</f>
+      <c r="E144" s="6">
+        <f>D144*[32]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="G143" s="8">
+      <c r="F144" s="8">
         <f>+[32]Main!$J$5-[32]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="H143" s="8">
-        <f>+F143-G143</f>
+      <c r="G144" s="8">
+        <f>+E144-F144</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B144" s="5" t="s">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D145" s="3">
         <v>7.57</v>
       </c>
-      <c r="F144" s="6">
-        <f>D144*[33]Main!$M$3</f>
+      <c r="E145" s="6">
+        <f>D145*[33]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="G144" s="6">
+      <c r="F145" s="6">
         <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="H144" s="8">
-        <f t="shared" ref="H144:H149" si="5">+F144-G144</f>
+      <c r="G145" s="8">
+        <f t="shared" ref="G145:G150" si="3">+E145-F145</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="5" t="s">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D146" s="7">
         <v>0.7</v>
       </c>
-      <c r="F145" s="6">
-        <f>D145*[34]Main!$M$3</f>
+      <c r="E146" s="6">
+        <f>D146*[34]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="G145" s="6">
+      <c r="F146" s="6">
         <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="H145" s="8">
-        <f t="shared" si="5"/>
+      <c r="G146" s="8">
+        <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="5" t="s">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D147" s="3">
         <v>1.98</v>
       </c>
-      <c r="F146" s="6">
-        <f>D146*[35]Main!$N$3</f>
+      <c r="E147" s="6">
+        <f>D147*[35]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="G146" s="6">
+      <c r="F147" s="6">
         <f>[35]Main!$N$5-[35]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="H146" s="8">
-        <f t="shared" si="5"/>
+      <c r="G147" s="8">
+        <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="5" t="s">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D148" s="3">
         <v>0.62</v>
       </c>
-      <c r="F147" s="6">
-        <f>D147*[36]Main!$L$3</f>
+      <c r="E148" s="6">
+        <f>D148*[36]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="G147" s="6">
+      <c r="F148" s="6">
         <f>[36]Main!$L$5-[36]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="H147" s="8">
-        <f t="shared" si="5"/>
+      <c r="G148" s="8">
+        <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="5" t="s">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D149" s="3">
         <v>6.12</v>
       </c>
-      <c r="F148" s="6">
-        <f>D148*[37]Main!$M$3</f>
+      <c r="E149" s="6">
+        <f>D149*[37]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="G148" s="6">
+      <c r="F149" s="6">
         <f>[37]Main!$M$5-[37]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="H148" s="8">
-        <f t="shared" si="5"/>
+      <c r="G149" s="8">
+        <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="5" t="s">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B150" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D150" s="3">
         <v>0.98</v>
       </c>
-      <c r="F149" s="6">
-        <f>D149*[38]Main!$M$3</f>
+      <c r="E150" s="6">
+        <f>D150*[38]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="G149" s="6">
+      <c r="F150" s="6">
         <f>[38]Main!$M$5-[38]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="H149" s="8">
-        <f t="shared" si="5"/>
+      <c r="G150" s="8">
+        <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="I150" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D150" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D151" s="3">
-        <v>5.55</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D152" s="3">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D153" s="7">
         <v>4</v>
       </c>
     </row>
@@ -6415,37 +6532,38 @@
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="B19" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B35" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="B36" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="B25" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
     <hyperlink ref="B26" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
     <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B36" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="B37" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B143" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B146" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B142" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B147" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B144" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B149" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B141" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B148" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B145" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B144" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B147" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B143" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B148" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B145" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B150" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B142" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B149" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B146" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B18" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="B49" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
-    <hyperlink ref="B50" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="B50" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="B51" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="B24" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B126" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="B94" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="B127" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
-    <hyperlink ref="B51" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="B127" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B95" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="B128" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="B52" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
     <hyperlink ref="B10" r:id="rId43" xr:uid="{F2359CF1-2AD9-4995-B3BE-132C87B2B53D}"/>
-    <hyperlink ref="B52" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="B137" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="B53" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="B138" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="B29" r:id="rId46" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -6609,7 +6727,7 @@
       <c r="G10" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>44599</v>
       </c>
     </row>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D02FA24-3A98-46D8-A187-C4E1B60B2D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D8ED9-72B2-49E9-ACFB-BBA0C92CC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52890" yWindow="1395" windowWidth="20310" windowHeight="17790" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="61785" yWindow="4965" windowWidth="22650" windowHeight="14580" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="349">
   <si>
     <t>Exarta</t>
   </si>
@@ -1127,6 +1127,12 @@
   </si>
   <si>
     <t>4502 JP</t>
+  </si>
+  <si>
+    <t>Arcellx</t>
+  </si>
+  <si>
+    <t>ACLX</t>
   </si>
 </sst>
 </file>
@@ -1285,36 +1291,29 @@
       <sheetName val="Model"/>
       <sheetName val="Stelara"/>
       <sheetName val="Remicade"/>
+      <sheetName val="Imbruvica"/>
+      <sheetName val="Darzalex"/>
       <sheetName val="Ponvory"/>
+      <sheetName val="Xarelto"/>
+      <sheetName val="Tecvayli"/>
       <sheetName val="Invega"/>
+      <sheetName val="Sustenna"/>
+      <sheetName val="Simponi"/>
+      <sheetName val="Consta"/>
       <sheetName val="Procrit"/>
-      <sheetName val="Consta"/>
-      <sheetName val="Aciphex"/>
-      <sheetName val="Levaquin"/>
       <sheetName val="Velcade"/>
-      <sheetName val="Duragesic"/>
       <sheetName val="Topamax"/>
-      <sheetName val="Risperdal"/>
-      <sheetName val="telaprevir"/>
+      <sheetName val="Prezista"/>
+      <sheetName val="Intelence"/>
       <sheetName val="Concerta"/>
-      <sheetName val="Ultram"/>
-      <sheetName val="Natrecor"/>
-      <sheetName val="Intelence"/>
-      <sheetName val="Prezista"/>
       <sheetName val="Contraceptives"/>
-      <sheetName val="Simponi"/>
-      <sheetName val="Xarelto"/>
-      <sheetName val="Tapentadol"/>
       <sheetName val="riplivirine"/>
-      <sheetName val="Sustenna"/>
-      <sheetName val="Doripenem"/>
       <sheetName val="canagliflozin"/>
       <sheetName val="abiraterone"/>
-      <sheetName val="Comfyde"/>
       <sheetName val="Consumer"/>
+      <sheetName val="telaprevir"/>
       <sheetName val="Consumer Model"/>
       <sheetName val="MD&amp;D"/>
-      <sheetName val="Diagnostics"/>
       <sheetName val="DePuy"/>
       <sheetName val="DePuy Model"/>
       <sheetName val="LifeScan"/>
@@ -1322,73 +1321,86 @@
       <sheetName val="Cordis"/>
       <sheetName val="EndoSurgery"/>
       <sheetName val="Ethicon"/>
+      <sheetName val="Ultram"/>
       <sheetName val="Acquisitions"/>
+      <sheetName val="Levaquin"/>
+      <sheetName val="Aciphex"/>
+      <sheetName val="Doripenem"/>
+      <sheetName val="Tapentadol"/>
+      <sheetName val="Comfyde"/>
+      <sheetName val="Natrecor"/>
+      <sheetName val="Diagnostics"/>
+      <sheetName val="Risperdal"/>
+      <sheetName val="Duragesic"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="3">
-          <cell r="R3">
+          <cell r="Q3">
             <v>2631.4018040000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="R5">
+          <cell r="Q5">
             <v>30388</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="R6">
+          <cell r="Q6">
             <v>33148</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3609,13 +3621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="A2:AB153"/>
+  <dimension ref="A2:AB154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3746,11 +3758,11 @@
         <v>169.99</v>
       </c>
       <c r="E4" s="6">
-        <f>D4*[1]Main!$R$3</f>
+        <f>D4*[1]Main!$Q$3</f>
         <v>447311.99266196002</v>
       </c>
       <c r="F4" s="6">
-        <f>+[1]Main!$R$5-[1]Main!$R$6</f>
+        <f>+[1]Main!$Q$5-[1]Main!$Q$6</f>
         <v>-2760</v>
       </c>
       <c r="G4" s="6">
@@ -3758,14 +3770,14 @@
         <v>450071.99266196002</v>
       </c>
       <c r="H4" s="6">
-        <f>+[1]Main!$R$3</f>
+        <f>+[1]Main!$Q$3</f>
         <v>2631.4018040000001</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="18">
-        <v>44772</v>
+        <v>44804</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -6507,6 +6519,14 @@
       </c>
       <c r="D153" s="7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B154" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D8ED9-72B2-49E9-ACFB-BBA0C92CC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AF31C-F0C0-4AAA-A431-76FAEDC80D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61785" yWindow="4965" windowWidth="22650" windowHeight="14580" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="52920" yWindow="1605" windowWidth="22155" windowHeight="13350" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="349">
   <si>
     <t>Exarta</t>
   </si>
@@ -1334,12 +1334,12 @@
       <sheetName val="Duragesic"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="Q3">
@@ -1357,50 +1357,50 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3623,11 +3623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
   <dimension ref="A2:AB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3638,7 +3638,9 @@
     <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.85546875" style="3" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="3"/>
     <col min="16" max="27" width="9.140625" style="4"/>
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -4247,7 +4249,7 @@
         <v>-10384.598400000001</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G24" si="2">E15-F15</f>
+        <f t="shared" ref="G15:G23" si="2">E15-F15</f>
         <v>133866.75840000002</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -4516,29 +4518,17 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3">
-        <v>10.46</v>
-      </c>
-      <c r="E24" s="6">
-        <f>D24*[19]Main!$M$3</f>
-        <v>12680.93945768</v>
-      </c>
-      <c r="F24" s="6">
-        <f>[19]Main!$M$5-[19]Main!$M$6</f>
-        <v>-18665.5</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="2"/>
-        <v>31346.43945768</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>16</v>
+        <v>128.03</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -4546,13 +4536,13 @@
         <v>345</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3">
-        <v>128.03</v>
+        <v>58</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3311</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -4560,116 +4550,145 @@
         <v>345</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3311</v>
+        <v>64</v>
+      </c>
+      <c r="D26" s="3">
+        <v>13.12</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="3">
-        <v>137.09</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3">
-        <v>13.12</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>63</v>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="D29" s="3">
+        <v>125.14</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
+      <c r="B30" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="3">
-        <v>63.83</v>
-      </c>
+      <c r="A31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D32" s="6">
-        <v>4360</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B33" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>271</v>
+      </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
@@ -4688,231 +4707,226 @@
         <v>345</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3">
-        <v>125.14</v>
+        <v>165.45</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3">
+        <v>63.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D38" s="3">
         <v>76.08</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D39" s="3">
         <v>71.27</v>
       </c>
-      <c r="E36" s="6">
-        <f>+D36*[20]Main!$K$3</f>
+      <c r="E39" s="6">
+        <f>+D39*[20]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F39" s="6">
         <f>+[20]Main!$K$5-[20]Main!$K$6</f>
         <v>2721</v>
       </c>
-      <c r="G36" s="6">
-        <f>E36-F36</f>
+      <c r="G39" s="6">
+        <f>E39-F39</f>
         <v>13065.66213397</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D40" s="3">
         <v>28.54</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="3">
-        <v>349.96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D41" s="3">
-        <v>165.45</v>
+        <v>349.96</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
+      <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="E42" s="6">
+        <f>D42*[19]Main!$M$3</f>
+        <v>12680.93945768</v>
+      </c>
+      <c r="F42" s="6">
+        <f>[19]Main!$M$5-[19]Main!$M$6</f>
+        <v>-18665.5</v>
+      </c>
+      <c r="G42" s="6">
+        <f>E42-F42</f>
+        <v>31346.43945768</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3">
+        <v>137.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="3">
         <v>39.35</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="10" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="3">
         <v>132.13999999999999</v>
       </c>
-      <c r="E45" s="6">
-        <f>D45*[21]Main!$L$3</f>
+      <c r="E46" s="6">
+        <f>D46*[21]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <f>[21]Main!$L$5-[21]Main!$L$6</f>
         <v>5643.241</v>
       </c>
-      <c r="G45" s="6">
-        <f>E45-F45</f>
+      <c r="G46" s="6">
+        <f>E46-F46</f>
         <v>7896.2021132399987</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>1978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="6">
-        <v>3060</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
@@ -6552,13 +6566,13 @@
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="B19" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B36" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="B39" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B37" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
+    <hyperlink ref="B43" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="B40" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
     <hyperlink ref="B144" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
     <hyperlink ref="B147" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
     <hyperlink ref="B143" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
@@ -6571,8 +6585,8 @@
     <hyperlink ref="B18" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
     <hyperlink ref="B50" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="B51" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="B45" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
-    <hyperlink ref="B24" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="B46" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="B42" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
     <hyperlink ref="B127" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
     <hyperlink ref="B95" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
     <hyperlink ref="B128" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
@@ -6580,7 +6594,7 @@
     <hyperlink ref="B10" r:id="rId43" xr:uid="{F2359CF1-2AD9-4995-B3BE-132C87B2B53D}"/>
     <hyperlink ref="B53" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
     <hyperlink ref="B138" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
-    <hyperlink ref="B29" r:id="rId46" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
+    <hyperlink ref="B27" r:id="rId46" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AF31C-F0C0-4AAA-A431-76FAEDC80D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C79175-659D-4374-859E-0AC76C23A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52920" yWindow="1605" windowWidth="22155" windowHeight="13350" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="53265" yWindow="1950" windowWidth="25395" windowHeight="18930" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2056,74 +2056,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>1212.326908</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>752.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>19417.900000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Humira"/>
-      <sheetName val="Rinvoq"/>
-      <sheetName val="Skyrizi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="K3">
-            <v>1778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>7832</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>73474</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Jakafi"/>
       <sheetName val="NEJM letter"/>
@@ -2181,6 +2113,74 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Humira"/>
+      <sheetName val="Rinvoq"/>
+      <sheetName val="Skyrizi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="K3">
+            <v>1778</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>7832</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>73474</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.326908</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2999,9 +2999,9 @@
       <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="L3">
@@ -3019,40 +3019,40 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3126,7 +3126,7 @@
       <sheetName val="Crixivan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
@@ -3144,27 +3144,27 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3282,7 +3282,7 @@
       <sheetName val="brivanib"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="L3">
@@ -3300,25 +3300,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3624,17 +3624,17 @@
   <dimension ref="A2:AB154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
@@ -4787,11 +4787,11 @@
         <v>71.27</v>
       </c>
       <c r="E39" s="6">
-        <f>+D39*[20]Main!$K$3</f>
+        <f>+D39*[19]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="F39" s="6">
-        <f>+[20]Main!$K$5-[20]Main!$K$6</f>
+        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="G39" s="6">
@@ -4835,11 +4835,11 @@
         <v>10.46</v>
       </c>
       <c r="E42" s="6">
-        <f>D42*[19]Main!$M$3</f>
+        <f>D42*[20]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
       <c r="F42" s="6">
-        <f>[19]Main!$M$5-[19]Main!$M$6</f>
+        <f>[20]Main!$M$5-[20]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
       <c r="G42" s="6">

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C79175-659D-4374-859E-0AC76C23A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA86B51-E3CC-45A1-A4F6-0FAE09592FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53265" yWindow="1950" windowWidth="25395" windowHeight="18930" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="9300" yWindow="1200" windowWidth="24495" windowHeight="17940" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="359">
   <si>
     <t>Exarta</t>
   </si>
@@ -1133,6 +1133,36 @@
   </si>
   <si>
     <t>ACLX</t>
+  </si>
+  <si>
+    <t>SyntheticGestalt</t>
+  </si>
+  <si>
+    <t>11m</t>
+  </si>
+  <si>
+    <t>Neomorph</t>
+  </si>
+  <si>
+    <t>Moonlake Immunotherapeutics</t>
+  </si>
+  <si>
+    <t>IL-17 A/F mab</t>
+  </si>
+  <si>
+    <t>Iveric</t>
+  </si>
+  <si>
+    <t>ISEE</t>
+  </si>
+  <si>
+    <t>Ablynx</t>
+  </si>
+  <si>
+    <t>Centocor</t>
+  </si>
+  <si>
+    <t>Medarex</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1205,40 +1235,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1249,13 +1247,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1551,8 +1543,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="RX Rank"/>
-      <sheetName val="RX Alpha"/>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Lovenox"/>
@@ -1573,24 +1564,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="1">
         <row r="3">
-          <cell r="L3">
-            <v>1254.9000000000001</v>
+          <cell r="K3">
+            <v>1251</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>10098</v>
+          <cell r="K5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>20306</v>
+          <cell r="K6">
+            <v>12190</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -1606,7 +1597,6 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1616,6 +1606,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Crestor"/>
@@ -1639,43 +1630,44 @@
       <sheetName val="Failures"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="3">
           <cell r="L3">
-            <v>1561</v>
+            <v>1560</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>5823</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>31040</v>
+            <v>24689</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2999,9 +2991,9 @@
       <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="L3">
@@ -3019,40 +3011,40 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3126,7 +3118,7 @@
       <sheetName val="Crixivan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
@@ -3144,27 +3136,27 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3177,24 +3169,25 @@
       <sheetName val="IMS Dollars"/>
       <sheetName val="Sandoz"/>
       <sheetName val="IMS Alpha"/>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
-      <sheetName val="Diovan"/>
-      <sheetName val="Diovan Model"/>
+      <sheetName val="Cosentyx"/>
+      <sheetName val="Entresto"/>
+      <sheetName val="Lucentis"/>
+      <sheetName val="Gilenya"/>
+      <sheetName val="Exjade"/>
+      <sheetName val="Sandostatin"/>
       <sheetName val="Gleevec"/>
+      <sheetName val="Tekturna"/>
+      <sheetName val="Galvus"/>
+      <sheetName val="Tasigna"/>
+      <sheetName val="Xolair"/>
       <sheetName val="Zometa"/>
-      <sheetName val="Lucentis"/>
       <sheetName val="Femara"/>
-      <sheetName val="Sandostatin"/>
-      <sheetName val="Exjade"/>
-      <sheetName val="Tekturna"/>
-      <sheetName val="Lamisil"/>
+      <sheetName val="indacaterol"/>
       <sheetName val="Focalin"/>
       <sheetName val="Aclasta"/>
-      <sheetName val="indacaterol"/>
-      <sheetName val="Galvus"/>
-      <sheetName val="Tasigna"/>
-      <sheetName val="FTY720"/>
       <sheetName val="Exforge"/>
       <sheetName val="Lotrel"/>
       <sheetName val="Afinitor"/>
@@ -3202,30 +3195,30 @@
       <sheetName val="Consumer"/>
       <sheetName val="Vaccines"/>
       <sheetName val="Menveo"/>
-      <sheetName val="Xolair"/>
+      <sheetName val="Diovan"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="3">
-          <cell r="L3">
-            <v>2212.5849010000002</v>
+          <cell r="K3">
+            <v>2182.7885879999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
+          <cell r="K5">
             <v>0</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>10678</v>
+          <cell r="K6">
+            <v>9519</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -3250,6 +3243,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3259,7 +3253,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Master Pipeline"/>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Opdivo"/>
@@ -3282,43 +3276,43 @@
       <sheetName val="brivanib"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="L3">
-            <v>2129.0642710000002</v>
+          <cell r="K3">
+            <v>2135.2551579999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>14968</v>
+          <cell r="K5">
+            <v>13228</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>44972</v>
+          <cell r="K6">
+            <v>42060</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3621,13 +3615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="A2:AB154"/>
+  <dimension ref="A2:AB155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3646,22 +3640,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3756,7 +3750,7 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>169.99</v>
       </c>
       <c r="E4" s="6">
@@ -3778,14 +3772,14 @@
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="9">
         <v>44804</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3797,7 +3791,7 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>138.28</v>
       </c>
       <c r="E5" s="6">
@@ -3819,14 +3813,14 @@
       <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="9">
         <v>44771</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3860,74 +3854,74 @@
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="9">
         <v>44774</v>
       </c>
       <c r="K6" s="7">
         <f>+[3]Model!$DM$84</f>
         <v>193.79899328583781</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="10">
         <f>K6/D6-1</f>
         <v>-0.33379514167810986</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="10">
         <f>[3]Model!$DM$80</f>
         <v>0.01</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="10">
         <f>[3]Model!$DM$81</f>
         <v>-0.01</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="10">
         <f>[3]Model!$DM$82</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="12">
         <f t="shared" ref="P6:U6" si="1">($G$6/$H$6)/V6</f>
         <v>34.06702797542119</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="12">
         <f t="shared" si="1"/>
         <v>34.35232826787027</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="12">
         <f t="shared" si="1"/>
         <v>17.483163429324609</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="12">
         <f t="shared" si="1"/>
         <v>15.227617414114208</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="12">
         <f t="shared" si="1"/>
         <v>12.992954223035117</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="12">
         <f t="shared" si="1"/>
         <v>12.568938996312276</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="11">
         <f>+[3]Model!DC67</f>
         <v>8.8854650460225582</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="11">
         <f>+[3]Model!DD67</f>
         <v>8.8116701708569245</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="11">
         <f>+[3]Model!DE67</f>
         <v>17.313879580268342</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="11">
         <f>+[3]Model!DF67</f>
         <v>19.878447039056095</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="11">
         <f>+[3]Model!DG67</f>
         <v>23.297348786222955</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="11">
         <f>+[3]Model!DH67</f>
         <v>24.083288683817315</v>
       </c>
@@ -3945,7 +3939,7 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>303.35000000000002</v>
       </c>
       <c r="E7" s="6">
@@ -3967,14 +3961,14 @@
       <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="9">
         <v>44772</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
       <c r="AB7" s="1">
         <v>1896</v>
       </c>
@@ -4011,17 +4005,17 @@
       <c r="I8" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="9">
         <v>44770</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>345</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4052,18 +4046,18 @@
       <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="9">
         <v>44776</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>345</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="7">
@@ -4088,24 +4082,12 @@
       <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="9">
         <v>44776</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>345</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4136,12 +4118,12 @@
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="9">
         <v>44778</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>345</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4154,23 +4136,30 @@
         <v>81.06</v>
       </c>
       <c r="E12" s="6">
-        <f>D12*[8]Main!$L$3</f>
-        <v>179352.13207506001</v>
+        <f>+D12*H12</f>
+        <v>176936.84294328</v>
       </c>
       <c r="F12" s="6">
-        <f>[8]Main!$L$5-[8]Main!$L$6</f>
-        <v>-10678</v>
+        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+        <v>-9519</v>
       </c>
       <c r="G12" s="6">
         <f>E12-F12</f>
-        <v>190030.13207506001</v>
+        <v>186455.84294328</v>
+      </c>
+      <c r="H12" s="6">
+        <f>+[8]Main!$K$3</f>
+        <v>2182.7885879999999</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>16</v>
+        <v>311</v>
+      </c>
+      <c r="J12" s="9">
+        <v>44808</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>345</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4183,23 +4172,30 @@
         <v>73.77</v>
       </c>
       <c r="E13" s="6">
-        <f>D13*[9]Main!$L$3</f>
-        <v>157061.07127166999</v>
+        <f>+D13*H13</f>
+        <v>157517.77300565998</v>
       </c>
       <c r="F13" s="6">
-        <f>[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>-30004</v>
+        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
+        <v>-28832</v>
       </c>
       <c r="G13" s="6">
         <f>E13-F13</f>
-        <v>187065.07127166999</v>
+        <v>186349.77300565998</v>
+      </c>
+      <c r="H13" s="6">
+        <f>+[9]Main!$K$3</f>
+        <v>2135.2551579999999</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>311</v>
+      </c>
+      <c r="J13" s="9">
+        <v>44810</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4208,11 +4204,11 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>246.73</v>
       </c>
       <c r="E14" s="6">
-        <f>D14*[10]Main!$K$3</f>
+        <f>+D14*H14</f>
         <v>131753.82</v>
       </c>
       <c r="F14" s="6">
@@ -4223,12 +4219,19 @@
         <f t="shared" si="0"/>
         <v>162063.82</v>
       </c>
+      <c r="H14" s="6">
+        <f>+[10]Main!$K$3</f>
+        <v>534</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J14" s="9">
+        <v>44810</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>345</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4241,19 +4244,26 @@
         <v>49.2</v>
       </c>
       <c r="E15" s="6">
-        <f>D15*[11]Main!$L$3*2</f>
-        <v>123482.16000000002</v>
+        <f>D15*[11]Main!$K$3*2</f>
+        <v>123098.40000000001</v>
       </c>
       <c r="F15" s="6">
-        <f>([11]Main!$L$5-[11]Main!$L$6)*EUR</f>
-        <v>-10384.598400000001</v>
+        <f>([11]Main!$K$5-[11]Main!$K$6)*EUR</f>
+        <v>-12400.887000000001</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" ref="G15:G23" si="2">E15-F15</f>
-        <v>133866.75840000002</v>
+        <v>135499.28700000001</v>
+      </c>
+      <c r="H15" s="6">
+        <f>+[11]Main!$K$3</f>
+        <v>1251</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>23</v>
+        <v>311</v>
+      </c>
+      <c r="J15" s="9">
+        <v>44810</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -4270,23 +4280,30 @@
         <v>66</v>
       </c>
       <c r="E16" s="6">
-        <f>D16*[12]Main!$L$3</f>
-        <v>103026</v>
+        <f>+D16*H16</f>
+        <v>102960</v>
       </c>
       <c r="F16" s="6">
         <f>[12]Main!$L$5-[12]Main!$L$6</f>
-        <v>-25217</v>
+        <v>-24689</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>128243</v>
+        <v>127649</v>
+      </c>
+      <c r="H16" s="6">
+        <f>+[12]Main!$L$3</f>
+        <v>1560</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" s="9">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>345</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4317,12 +4334,12 @@
       <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="9">
         <v>44792</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>345</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4353,13 +4370,13 @@
       <c r="I18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="9">
         <f>+J17</f>
         <v>44792</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>345</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4390,12 +4407,12 @@
       <c r="I19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="9">
         <v>44780</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>345</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4423,8 +4440,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>345</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4452,17 +4469,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>263.08999999999997</v>
       </c>
       <c r="E22" s="6">
@@ -4481,8 +4498,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>345</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4513,12 +4530,12 @@
       <c r="I23" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="9">
         <v>44782</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>345</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4527,12 +4544,12 @@
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>128.03</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>345</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -4545,8 +4562,8 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>345</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -4559,8 +4576,8 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>345</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -4569,43 +4586,19 @@
       <c r="C27" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>265</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>345</v>
       </c>
@@ -4619,53 +4612,29 @@
         <v>125.14</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" t="s">
         <v>268</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>267</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>345</v>
       </c>
@@ -4679,30 +4648,18 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>271</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>345</v>
       </c>
@@ -4716,8 +4673,8 @@
         <v>165.45</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>345</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4730,532 +4687,428 @@
         <v>63.83</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>345</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" t="s">
         <v>273</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D42" s="6">
         <v>4360</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D43" s="3">
         <v>76.08</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D44" s="3">
         <v>71.27</v>
       </c>
-      <c r="E39" s="6">
-        <f>+D39*[19]Main!$K$3</f>
+      <c r="E44" s="6">
+        <f>+D44*[19]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F44" s="6">
         <f>+[19]Main!$K$5-[19]Main!$K$6</f>
         <v>2721</v>
       </c>
-      <c r="G39" s="6">
-        <f>E39-F39</f>
+      <c r="G44" s="6">
+        <f>E44-F44</f>
         <v>13065.66213397</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D45" s="3">
         <v>28.54</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D46" s="3">
         <v>349.96</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D47" s="3">
         <v>10.46</v>
       </c>
-      <c r="E42" s="6">
-        <f>D42*[20]Main!$M$3</f>
+      <c r="E47" s="6">
+        <f>D47*[20]Main!$M$3</f>
         <v>12680.93945768</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F47" s="6">
         <f>[20]Main!$M$5-[20]Main!$M$6</f>
         <v>-18665.5</v>
       </c>
-      <c r="G42" s="6">
-        <f>E42-F42</f>
+      <c r="G47" s="6">
+        <f>E47-F47</f>
         <v>31346.43945768</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D48" s="3">
         <v>137.09</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="3">
-        <v>39.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D49" s="3">
         <v>132.13999999999999</v>
       </c>
-      <c r="E46" s="6">
-        <f>D46*[21]Main!$L$3</f>
+      <c r="E49" s="6">
+        <f>D49*[21]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F49" s="6">
         <f>[21]Main!$L$5-[21]Main!$L$6</f>
         <v>5643.241</v>
       </c>
-      <c r="G46" s="6">
-        <f>E46-F46</f>
+      <c r="G49" s="6">
+        <f>E49-F49</f>
         <v>7896.2021132399987</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D50" s="3">
         <v>11.57</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D51" s="3">
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D52" s="3">
         <v>219.38</v>
       </c>
-      <c r="E50" s="6">
-        <f>D50*[22]Main!$K$3</f>
+      <c r="E52" s="6">
+        <f>D52*[22]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F52" s="6">
         <f>[22]Main!$K$5-[22]Main!$K$6</f>
         <v>3027</v>
       </c>
-      <c r="G50" s="6">
-        <f>E50-F50</f>
+      <c r="G52" s="6">
+        <f>E52-F52</f>
         <v>7437.4260000000013</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D53" s="7">
         <v>57</v>
       </c>
-      <c r="E51" s="6">
-        <f>+D51*[23]Main!$L$3</f>
+      <c r="E53" s="6">
+        <f>+D53*[23]Main!$L$3</f>
         <v>6071.7436259999995</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F53" s="6">
         <f>+[23]Main!$L$5-[23]Main!$L$6</f>
         <v>776.13</v>
       </c>
-      <c r="G51" s="6">
-        <f>+E51-F51</f>
+      <c r="G53" s="6">
+        <f>+E53-F53</f>
         <v>5295.6136259999994</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C54" t="s">
         <v>307</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D54" s="6">
         <v>1721.48</v>
       </c>
-      <c r="E52" s="6">
-        <f>+D52*H52/100*GBP</f>
+      <c r="E54" s="6">
+        <f>+D54*H54/100*GBP</f>
         <v>4746.2735717200003</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F54" s="6">
         <f>+[24]Main!$K$5-[24]Main!$K$6</f>
         <v>-337</v>
       </c>
-      <c r="G52" s="6">
-        <f>+E52-F52</f>
+      <c r="G54" s="6">
+        <f>+E54-F54</f>
         <v>5083.2735717200003</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H54" s="6">
         <f>+[24]Main!$K$3</f>
         <v>233</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D55" s="3">
         <v>28.03</v>
       </c>
-      <c r="E53" s="6">
-        <f>+H53*D53</f>
+      <c r="E55" s="6">
+        <f>+H55*D55</f>
         <v>4604.0473282500006</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F55" s="6">
         <f>+[25]Main!$L$5-[25]Main!$L$6</f>
         <v>465.44</v>
       </c>
-      <c r="G53" s="6">
-        <f>+E53-F53</f>
+      <c r="G55" s="6">
+        <f>+E55-F55</f>
         <v>4138.607328250001</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H55" s="6">
         <f>+[25]Main!$L$3</f>
         <v>164.25427500000001</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J55" s="9">
         <v>44782</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D56" s="3">
         <v>93.28</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D57" s="3">
         <v>142.91</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C58" t="s">
         <v>280</v>
       </c>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="3">
         <v>7.71</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" t="s">
         <v>286</v>
       </c>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>283</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" t="s">
         <v>284</v>
       </c>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B61" s="10" t="s">
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" t="s">
         <v>282</v>
       </c>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B62" s="10" t="s">
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>278</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" t="s">
         <v>279</v>
       </c>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5513,27 +5366,15 @@
       </c>
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B88" s="10" t="s">
+      <c r="B88" t="s">
         <v>317</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" t="s">
         <v>318</v>
       </c>
       <c r="D88" s="3">
         <v>4.26</v>
       </c>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
       <c r="AB88" s="1">
         <v>2011</v>
       </c>
@@ -5641,7 +5482,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>165</v>
       </c>
@@ -5652,7 +5493,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>167</v>
       </c>
@@ -5663,7 +5504,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>169</v>
       </c>
@@ -5674,7 +5515,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>171</v>
       </c>
@@ -5685,7 +5526,7 @@
         <v>43.98</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>173</v>
       </c>
@@ -5696,7 +5537,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>175</v>
       </c>
@@ -5707,7 +5548,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>177</v>
       </c>
@@ -5718,27 +5559,15 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B104" s="10" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>319</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" t="s">
         <v>320</v>
       </c>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="20"/>
-      <c r="W104" s="20"/>
-      <c r="X104" s="20"/>
-      <c r="Y104" s="20"/>
-      <c r="Z104" s="20"/>
-      <c r="AA104" s="20"/>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>179</v>
       </c>
@@ -5749,7 +5578,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>181</v>
       </c>
@@ -5760,7 +5589,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>183</v>
       </c>
@@ -5771,7 +5600,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>185</v>
       </c>
@@ -5782,7 +5611,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>187</v>
       </c>
@@ -5793,753 +5622,704 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B110" s="1" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D111" s="3">
         <v>38.35</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D112" s="3">
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D113" s="3">
         <v>25.49</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B113" s="10" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C114" t="s">
         <v>301</v>
       </c>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="14"/>
-      <c r="U113" s="14"/>
-      <c r="V113" s="14"/>
-      <c r="W113" s="14"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="14"/>
-      <c r="Z113" s="14"/>
-      <c r="AA113" s="14"/>
-    </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D115" s="3">
         <v>11.42</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D116" s="3">
         <v>26.64</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D117" s="3">
         <v>30.48</v>
       </c>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D118" s="3">
         <v>12.98</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D119" s="3">
         <v>10.96</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D120" s="3">
         <v>2.42</v>
       </c>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D121" s="7">
         <v>55.5</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D122" s="3">
         <v>10.63</v>
       </c>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <v>31.52</v>
       </c>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>7.62</v>
       </c>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D126" s="3">
         <v>28.55</v>
       </c>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D127" s="3">
         <v>27.02</v>
       </c>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B127" s="5" t="s">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C128" t="s">
         <v>298</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D128" s="3">
         <v>15.65</v>
       </c>
-      <c r="E127" s="6">
-        <f>D127*[27]Main!$L$3</f>
+      <c r="E128" s="6">
+        <f>D128*[27]Main!$L$3</f>
         <v>1253.1559559500001</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F128" s="6">
         <f>+[27]Main!$L$5-[27]Main!$L$6</f>
         <v>112.015</v>
       </c>
-      <c r="G127" s="6">
-        <f>+E127-F127</f>
+      <c r="G128" s="6">
+        <f>+E128-F128</f>
         <v>1141.14095595</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C129" t="s">
         <v>309</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D129" s="3">
         <v>16.93</v>
       </c>
-      <c r="E128" s="6">
-        <f>+D128*[28]Main!$L$3</f>
+      <c r="E129" s="6">
+        <f>+D129*[28]Main!$L$3</f>
         <v>1228.5485933099999</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F129" s="6">
         <f>+[28]Main!$L$5-[28]Main!$L$6</f>
         <v>153.25991400000001</v>
       </c>
-      <c r="G128" s="6">
-        <f>+E128-F128</f>
+      <c r="G129" s="6">
+        <f>+E129-F129</f>
         <v>1075.2886793099999</v>
       </c>
-      <c r="I128" s="3" t="s">
+      <c r="I129" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J128" s="18">
+      <c r="J129" s="9">
         <v>44771</v>
       </c>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="16"/>
-      <c r="Z128" s="16"/>
-      <c r="AA128" s="16"/>
-    </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D130" s="3">
         <v>3.17</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D131" s="3">
         <v>8.76</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D132" s="3">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B132" s="10" t="s">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>314</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C133" t="s">
         <v>315</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D133" s="3">
         <v>3.92</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E133" s="3">
         <v>630</v>
       </c>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
-      <c r="R132" s="17"/>
-      <c r="S132" s="17"/>
-      <c r="T132" s="17"/>
-      <c r="U132" s="17"/>
-      <c r="V132" s="17"/>
-      <c r="W132" s="17"/>
-      <c r="X132" s="17"/>
-      <c r="Y132" s="17"/>
-      <c r="Z132" s="17"/>
-      <c r="AA132" s="17"/>
-    </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B133" s="10" t="s">
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" t="s">
         <v>313</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D134" s="3">
         <v>11.93</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E134" s="3">
         <v>516</v>
       </c>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
-      <c r="R133" s="17"/>
-      <c r="S133" s="17"/>
-      <c r="T133" s="17"/>
-      <c r="U133" s="17"/>
-      <c r="V133" s="17"/>
-      <c r="W133" s="17"/>
-      <c r="X133" s="17"/>
-      <c r="Y133" s="17"/>
-      <c r="Z133" s="17"/>
-      <c r="AA133" s="17"/>
-    </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D135" s="3">
         <v>5.46</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D136" s="7">
         <v>36.6</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D137" s="7">
         <v>40.24</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D138" s="3">
         <v>22.11</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C139" t="s">
         <v>333</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D139" s="3">
         <v>3.95</v>
       </c>
-      <c r="E138" s="6">
-        <f>+D138*H138</f>
+      <c r="E139" s="6">
+        <f>+D139*H139</f>
         <v>37.185714749999995</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F139" s="6">
         <f>+[29]Main!$N$5-[29]Main!$N$6</f>
         <v>-7.4640000000000004</v>
       </c>
-      <c r="G138" s="6">
-        <f>+E138-F138</f>
+      <c r="G139" s="6">
+        <f>+E139-F139</f>
         <v>44.649714749999994</v>
       </c>
-      <c r="H138" s="6">
+      <c r="H139" s="6">
         <f>+[29]Main!$N$3</f>
         <v>9.4141049999999993</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="I139" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J138" s="18">
+      <c r="J139" s="9">
         <v>44780</v>
       </c>
-      <c r="P138" s="25"/>
-      <c r="Q138" s="25"/>
-      <c r="R138" s="25"/>
-      <c r="S138" s="25"/>
-      <c r="T138" s="25"/>
-      <c r="U138" s="25"/>
-      <c r="V138" s="25"/>
-      <c r="W138" s="25"/>
-      <c r="X138" s="25"/>
-      <c r="Y138" s="25"/>
-      <c r="Z138" s="25"/>
-      <c r="AA138" s="25"/>
-    </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B139" s="1" t="s">
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D140" s="3">
         <v>10.31</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D141" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D142" s="3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B142" s="5" t="s">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D143" s="3">
         <v>7.06</v>
       </c>
-      <c r="E142" s="6">
-        <f>D142*[30]Main!$J$3</f>
+      <c r="E143" s="6">
+        <f>D143*[30]Main!$J$3</f>
         <v>725.62786605999997</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F143" s="6">
         <f>[30]Main!$J$5-[30]Main!$J$6</f>
         <v>197.79600000000002</v>
       </c>
-      <c r="G142" s="8">
-        <f>+E142-F142</f>
+      <c r="G143" s="8">
+        <f>+E143-F143</f>
         <v>527.83186605999992</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B143" s="5" t="s">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D144" s="3">
         <v>14.68</v>
       </c>
-      <c r="E143" s="6">
-        <f>D143*[31]Main!$L$3</f>
+      <c r="E144" s="6">
+        <f>D144*[31]Main!$L$3</f>
         <v>587.26396075999992</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F144" s="6">
         <f>[31]Main!$L$5-[31]Main!$L$6</f>
         <v>277.88299999999998</v>
       </c>
-      <c r="G143" s="8">
-        <f>+E143-F143</f>
+      <c r="G144" s="8">
+        <f>+E144-F144</f>
         <v>309.38096075999994</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B144" s="5" t="s">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D145" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E144" s="6">
-        <f>D144*[32]Main!$J$3</f>
+      <c r="E145" s="6">
+        <f>D145*[32]Main!$J$3</f>
         <v>312.71415336000001</v>
       </c>
-      <c r="F144" s="8">
+      <c r="F145" s="8">
         <f>+[32]Main!$J$5-[32]Main!$J$6</f>
         <v>92.317999999999998</v>
       </c>
-      <c r="G144" s="8">
-        <f>+E144-F144</f>
+      <c r="G145" s="8">
+        <f>+E145-F145</f>
         <v>220.39615336000003</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="5" t="s">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D146" s="3">
         <v>7.57</v>
       </c>
-      <c r="E145" s="6">
-        <f>D145*[33]Main!$M$3</f>
+      <c r="E146" s="6">
+        <f>D146*[33]Main!$M$3</f>
         <v>338.45983246000003</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F146" s="6">
         <f>[33]Main!$M$5-[33]Main!$M$6</f>
         <v>120.43700000000001</v>
       </c>
-      <c r="G145" s="8">
-        <f t="shared" ref="G145:G150" si="3">+E145-F145</f>
+      <c r="G146" s="8">
+        <f t="shared" ref="G146:G151" si="3">+E146-F146</f>
         <v>218.02283246000002</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="5" t="s">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D147" s="7">
         <v>0.7</v>
       </c>
-      <c r="E146" s="6">
-        <f>D146*[34]Main!$M$3</f>
+      <c r="E147" s="6">
+        <f>D147*[34]Main!$M$3</f>
         <v>128.9392503</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F147" s="6">
         <f>[34]Main!$M$5-[34]Main!$M$6</f>
         <v>-59.50200000000001</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G147" s="8">
         <f t="shared" si="3"/>
         <v>188.44125030000001</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="5" t="s">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D148" s="3">
         <v>1.98</v>
       </c>
-      <c r="E147" s="6">
-        <f>D147*[35]Main!$N$3</f>
+      <c r="E148" s="6">
+        <f>D148*[35]Main!$N$3</f>
         <v>39.757463459999997</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F148" s="6">
         <f>[35]Main!$N$5-[35]Main!$N$6</f>
         <v>15.942</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G148" s="8">
         <f t="shared" si="3"/>
         <v>23.815463459999997</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="5" t="s">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D149" s="3">
         <v>0.62</v>
       </c>
-      <c r="E148" s="6">
-        <f>D148*[36]Main!$L$3</f>
+      <c r="E149" s="6">
+        <f>D149*[36]Main!$L$3</f>
         <v>30.1881658</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F149" s="6">
         <f>[36]Main!$L$5-[36]Main!$L$6</f>
         <v>13.262999999999998</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G149" s="8">
         <f t="shared" si="3"/>
         <v>16.925165800000002</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="5" t="s">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B150" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D150" s="3">
         <v>6.12</v>
       </c>
-      <c r="E149" s="6">
-        <f>D149*[37]Main!$M$3</f>
+      <c r="E150" s="6">
+        <f>D150*[37]Main!$M$3</f>
         <v>125.46108324000001</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F150" s="6">
         <f>[37]Main!$M$5-[37]Main!$M$6</f>
         <v>131.17699999999999</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G150" s="8">
         <f t="shared" si="3"/>
         <v>-5.7159167599999847</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="I150" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" s="5" t="s">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B151" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D151" s="3">
         <v>0.98</v>
       </c>
-      <c r="E150" s="6">
-        <f>D150*[38]Main!$M$3</f>
+      <c r="E151" s="6">
+        <f>D151*[38]Main!$M$3</f>
         <v>20.935517539999999</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F151" s="6">
         <f>[38]Main!$M$5-[38]Main!$M$6</f>
         <v>55.28</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G151" s="8">
         <f t="shared" si="3"/>
         <v>-34.344482460000002</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="I151" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D151" s="3">
-        <v>0.61</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D152" s="3">
-        <v>5.55</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D153" s="3">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C154" t="s">
         <v>344</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D154" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="10" t="s">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>347</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C155" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6566,34 +6346,34 @@
     <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="B19" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="B22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B39" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="B44" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="B24" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
     <hyperlink ref="B25" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="B43" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B40" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="B48" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="B45" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="B26" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B144" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B147" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B143" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B148" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B145" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B150" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B142" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B149" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B146" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="B145" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="B148" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="B144" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="B149" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="B146" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="B151" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="B143" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="B150" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="B147" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="B18" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="B50" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
-    <hyperlink ref="B51" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="B46" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
-    <hyperlink ref="B42" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B127" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="B52" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="B53" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="B47" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="B128" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
     <hyperlink ref="B95" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="B128" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
-    <hyperlink ref="B52" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="B129" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
     <hyperlink ref="B10" r:id="rId43" xr:uid="{F2359CF1-2AD9-4995-B3BE-132C87B2B53D}"/>
-    <hyperlink ref="B53" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="B138" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="B139" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
     <hyperlink ref="B27" r:id="rId46" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6658,27 +6438,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6701,22 +6481,22 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>291</v>
       </c>
@@ -6727,22 +6507,22 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>334</v>
       </c>
@@ -6761,8 +6541,32 @@
       <c r="G10" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="13">
         <v>44599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6775,13 +6579,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F650EA-F83A-4483-B12E-DBBE9EC4FA2A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6825,6 +6629,30 @@
         <v>331</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D25979DB-5EBB-4C30-9F58-BD318CF0CEE3}"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA86B51-E3CC-45A1-A4F6-0FAE09592FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16243105-8E6D-48CA-8964-F18BD2C60D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1200" windowWidth="24495" windowHeight="17940" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="77910" yWindow="750" windowWidth="25035" windowHeight="19590" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,10 @@
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
+    <externalReference r:id="rId45"/>
+    <externalReference r:id="rId46"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -86,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="364">
   <si>
     <t>Exarta</t>
   </si>
@@ -226,9 +230,6 @@
     <t>CSL</t>
   </si>
   <si>
-    <t>Q221</t>
-  </si>
-  <si>
     <t>Gilead</t>
   </si>
   <si>
@@ -1163,6 +1164,24 @@
   </si>
   <si>
     <t>Medarex</t>
+  </si>
+  <si>
+    <t>Cel-Sci</t>
+  </si>
+  <si>
+    <t>CVM</t>
+  </si>
+  <si>
+    <t>Roivant</t>
+  </si>
+  <si>
+    <t>RVNT</t>
+  </si>
+  <si>
+    <t>Cytodyn</t>
+  </si>
+  <si>
+    <t>CYDY</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1248,6 +1267,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1630,7 +1650,7 @@
       <sheetName val="Failures"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="L3">
@@ -1648,26 +1668,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1731,11 +1751,11 @@
       <sheetName val="Syncria"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="K4">
-            <v>4064</v>
+            <v>4025</v>
           </cell>
         </row>
         <row r="6">
@@ -1749,56 +1769,56 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1808,11 +1828,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Master Pipeline"/>
+      <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Biktarvy"/>
+      <sheetName val="Descovy"/>
+      <sheetName val="Genvoya"/>
+      <sheetName val="Veklury"/>
       <sheetName val="Stribild"/>
+      <sheetName val="Trodelvy"/>
       <sheetName val="Truvada"/>
       <sheetName val="Viread"/>
       <sheetName val="Ranexa"/>
@@ -1836,48 +1860,52 @@
       <sheetName val="Tamiflu"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
-            <v>1262</v>
+            <v>1253.3673940000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>6752</v>
+            <v>7000</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>26208</v>
+            <v>26216</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1892,19 +1920,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>434.77787799999999</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="J5">
-            <v>1403</v>
+            <v>1637.8999999999996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>10631</v>
+            <v>11803.1</v>
           </cell>
         </row>
       </sheetData>
@@ -1925,17 +1948,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>456.20380299999999</v>
+            <v>470.117188</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>1808.8</v>
+            <v>10436.4</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>5806.9000000000005</v>
+            <v>9657.7999999999993</v>
           </cell>
         </row>
       </sheetData>
@@ -1967,12 +1990,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>255.75596100000001</v>
+            <v>256</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>8238.1</v>
+            <v>9253.4</v>
           </cell>
         </row>
         <row r="6">
@@ -2015,35 +2038,167 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
+          <cell r="J3">
             <v>109.51814600000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
+          <cell r="J5">
             <v>13982.3</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
+          <cell r="J6">
             <v>1980.7</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>391.199544</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18059</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Humira"/>
+      <sheetName val="Rinvoq"/>
+      <sheetName val="Skyrizi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="K3">
+            <v>1768.096495</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>10205</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>72932</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.326908</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Comirnaty"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>242.68540100000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>9334.7999999999993</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1013.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2110,75 +2265,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Humira"/>
-      <sheetName val="Rinvoq"/>
-      <sheetName val="Skyrizi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="K3">
-            <v>1778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>7832</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>73474</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>1212.326908</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>752.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>19417.900000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2209,7 +2296,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2248,7 +2335,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2281,7 +2368,44 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Vtama"/>
+      <sheetName val="brepocitinib"/>
+      <sheetName val="IP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>695.87885900000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>2257.7559999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>417.024</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2310,7 +2434,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2355,7 +2479,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2381,107 +2505,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="sabizabulin"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>80.073863000000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>112.015</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Monkeypox"/>
-      <sheetName val="Model"/>
-      <sheetName val="Potential award"/>
-      <sheetName val="TPOXX"/>
-      <sheetName val="Legal"/>
-      <sheetName val="Pipeline"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>72.566367</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>153.25991400000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>9.4141049999999993</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>11.249000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>18.713000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2529,44 +2552,44 @@
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="67">
-          <cell r="DC67">
-            <v>8.8854650460225582</v>
-          </cell>
-          <cell r="DD67">
-            <v>8.8116701708569245</v>
-          </cell>
-          <cell r="DE67">
-            <v>17.313879580268342</v>
-          </cell>
-          <cell r="DF67">
-            <v>19.878447039056095</v>
-          </cell>
-          <cell r="DG67">
-            <v>23.297348786222955</v>
-          </cell>
-          <cell r="DH67">
-            <v>24.083288683817315</v>
+        <row r="66">
+          <cell r="DC66">
+            <v>10.453488289438305</v>
+          </cell>
+          <cell r="DD66">
+            <v>10.36667078924344</v>
+          </cell>
+          <cell r="DE66">
+            <v>20.384820100617208</v>
+          </cell>
+          <cell r="DF66">
+            <v>23.432667692629824</v>
+          </cell>
+          <cell r="DG66">
+            <v>27.490447248773627</v>
+          </cell>
+          <cell r="DH66">
+            <v>28.457013407039554</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="DM79">
+            <v>0.01</v>
           </cell>
         </row>
         <row r="80">
           <cell r="DM80">
-            <v>0.01</v>
+            <v>-0.01</v>
           </cell>
         </row>
         <row r="81">
           <cell r="DM81">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="DM82">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
-        <row r="84">
-          <cell r="DM84">
-            <v>193.79899328583781</v>
+        <row r="83">
+          <cell r="DM83">
+            <v>232.39058800375966</v>
           </cell>
         </row>
       </sheetData>
@@ -2594,6 +2617,107 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="sabizabulin"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.073863000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>112.015</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Monkeypox"/>
+      <sheetName val="Model"/>
+      <sheetName val="Potential award"/>
+      <sheetName val="TPOXX"/>
+      <sheetName val="Legal"/>
+      <sheetName val="Pipeline"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>72.566367</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>153.25991400000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>9.4141049999999993</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>11.249000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>18.713000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="CPP-115 Model"/>
       <sheetName val="LEMS"/>
@@ -2627,99 +2751,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2734,18 +2765,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
+          <cell r="K3">
+            <v>810.72042399999998</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
+          <cell r="K5">
+            <v>4.2309999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
+          <cell r="K6">
+            <v>42.215000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -2763,18 +2794,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2788,25 +2819,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2822,12 +2859,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>20.500177000000001</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>131.17699999999999</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -2851,17 +2888,46 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>21.362773000000001</v>
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>55.28</v>
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>0</v>
+            <v>126.736</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>20.079526999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>16.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2884,21 +2950,22 @@
       <sheetName val="MabThera"/>
       <sheetName val="Avastin"/>
       <sheetName val="Avastin Model"/>
+      <sheetName val="Polivy"/>
       <sheetName val="Herceptin"/>
       <sheetName val="Pegasys"/>
       <sheetName val="Xeloda"/>
       <sheetName val="Actemra"/>
       <sheetName val="Lucentis"/>
+      <sheetName val="Perjeta"/>
+      <sheetName val="Ocrevus"/>
+      <sheetName val="Kadcyla"/>
+      <sheetName val="Mircera"/>
       <sheetName val="Tarceva"/>
+      <sheetName val="Failures"/>
+      <sheetName val="dalcetrapib"/>
+      <sheetName val="aleglitazar"/>
       <sheetName val="R1626"/>
-      <sheetName val="pertuzumab"/>
-      <sheetName val="dalcetrapib"/>
       <sheetName val="taspoglutide"/>
-      <sheetName val="Mircera"/>
-      <sheetName val="aleglitazar"/>
-      <sheetName val="Failures"/>
-      <sheetName val="ocrelizumab"/>
-      <sheetName val="Kadcyla"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2942,6 +3009,94 @@
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>48.69059</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18.687999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>5.4249999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>21.362773000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>55.28</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2956,6 +3111,8 @@
       <sheetName val="Management"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Comirnaty"/>
+      <sheetName val="Ibrance"/>
       <sheetName val="Enbrel"/>
       <sheetName val="Prevnar"/>
       <sheetName val="Lyrica"/>
@@ -3045,6 +3202,8 @@
       <sheetData sheetId="35"/>
       <sheetData sheetId="36"/>
       <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3615,2769 +3774,3549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="A2:AB155"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="9.85546875" style="3" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="3"/>
-    <col min="16" max="27" width="9.140625" style="4"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="3" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="7.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="9.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" style="3"/>
+    <col min="17" max="28" width="9.140625" style="4"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="P2" s="14" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <f ca="1">RANDBETWEEN(1,B145)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K2" s="9">
+        <f>MIN(K4:K24)</f>
+        <v>44792</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="M3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2025</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2026</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2027</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2025</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>2026</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>2027</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2023</v>
-      </c>
-      <c r="R3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="S3" s="4">
-        <v>2025</v>
-      </c>
-      <c r="T3" s="4">
-        <v>2026</v>
-      </c>
-      <c r="U3" s="4">
-        <v>2027</v>
-      </c>
-      <c r="V3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="W3" s="4">
-        <v>2023</v>
-      </c>
-      <c r="X3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>2025</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>2026</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>2027</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>169.99</v>
       </c>
-      <c r="E4" s="6">
-        <f>D4*[1]Main!$Q$3</f>
+      <c r="F4" s="6">
+        <f>E4*[1]Main!$Q$3</f>
         <v>447311.99266196002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>+[1]Main!$Q$5-[1]Main!$Q$6</f>
         <v>-2760</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4-F4</f>
+      <c r="H4" s="6">
+        <f>F4-G4</f>
         <v>450071.99266196002</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <f>+[1]Main!$Q$3</f>
         <v>2631.4018040000001</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>44804</v>
       </c>
-      <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
-        <v>138.28</v>
-      </c>
-      <c r="E5" s="6">
-        <f>+D5*[2]Main!$K$3</f>
-        <v>245861.84</v>
+      <c r="E5" s="7">
+        <v>141.41999999999999</v>
       </c>
       <c r="F5" s="6">
+        <f>+E5*I5</f>
+        <v>250044.20632289999</v>
+      </c>
+      <c r="G5" s="6">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>-65642</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G14" si="0">E5-F5</f>
-        <v>311503.83999999997</v>
+        <v>-62727</v>
       </c>
       <c r="H5" s="6">
+        <f t="shared" ref="H5:H14" si="0">F5-G5</f>
+        <v>312771.20632290002</v>
+      </c>
+      <c r="I5" s="6">
         <f>+[2]Main!$K$3</f>
-        <v>1778</v>
-      </c>
-      <c r="I5" s="3" t="s">
+        <v>1768.096495</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9">
-        <v>44771</v>
-      </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9">
+        <v>44814</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <v>290.89999999999998</v>
       </c>
-      <c r="E6" s="6">
-        <f>+D6*H6</f>
+      <c r="F6" s="6">
+        <f>+E6*I6</f>
         <v>276401.41571309994</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>+[3]Main!$J$5-[3]Main!$J$6</f>
         <v>-11213.199999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>287614.61571309995</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <f>+[3]Main!$J$3</f>
         <v>950.15955899999994</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="9">
-        <v>44774</v>
-      </c>
-      <c r="K6" s="7">
-        <f>+[3]Model!$DM$84</f>
-        <v>193.79899328583781</v>
-      </c>
-      <c r="L6" s="10">
-        <f>K6/D6-1</f>
-        <v>-0.33379514167810986</v>
+      <c r="K6" s="9">
+        <v>44816</v>
+      </c>
+      <c r="L6" s="7">
+        <f>+[3]Model!$DM$83</f>
+        <v>232.39058800375966</v>
       </c>
       <c r="M6" s="10">
+        <f>L6/E6-1</f>
+        <v>-0.20113238912423625</v>
+      </c>
+      <c r="N6" s="10">
+        <f>[3]Model!$DM$79</f>
+        <v>0.01</v>
+      </c>
+      <c r="O6" s="10">
         <f>[3]Model!$DM$80</f>
-        <v>0.01</v>
-      </c>
-      <c r="N6" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="P6" s="10">
         <f>[3]Model!$DM$81</f>
-        <v>-0.01</v>
-      </c>
-      <c r="O6" s="10">
-        <f>[3]Model!$DM$82</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:U6" si="1">($G$6/$H$6)/V6</f>
-        <v>34.06702797542119</v>
-      </c>
       <c r="Q6" s="12">
+        <f t="shared" ref="Q6:V6" si="2">($H$6/$I$6)/W6</f>
+        <v>28.956973779108008</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="2"/>
+        <v>29.199479027689733</v>
+      </c>
+      <c r="S6" s="12">
+        <f t="shared" si="2"/>
+        <v>14.849352842133371</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" si="2"/>
+        <v>12.917922545911619</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" si="2"/>
+        <v>11.011148111130908</v>
+      </c>
+      <c r="V6" s="12">
+        <f t="shared" si="2"/>
+        <v>10.637145295879744</v>
+      </c>
+      <c r="W6" s="11">
+        <f>+[3]Model!DC66</f>
+        <v>10.453488289438305</v>
+      </c>
+      <c r="X6" s="11">
+        <f>+[3]Model!DD66</f>
+        <v>10.36667078924344</v>
+      </c>
+      <c r="Y6" s="11">
+        <f>+[3]Model!DE66</f>
+        <v>20.384820100617208</v>
+      </c>
+      <c r="Z6" s="11">
+        <f>+[3]Model!DF66</f>
+        <v>23.432667692629824</v>
+      </c>
+      <c r="AA6" s="11">
+        <f>+[3]Model!DG66</f>
+        <v>27.490447248773627</v>
+      </c>
+      <c r="AB6" s="11">
+        <f>+[3]Model!DH66</f>
+        <v>28.457013407039554</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="1"/>
-        <v>34.35232826787027</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="1"/>
-        <v>17.483163429324609</v>
-      </c>
-      <c r="S6" s="12">
-        <f t="shared" si="1"/>
-        <v>15.227617414114208</v>
-      </c>
-      <c r="T6" s="12">
-        <f t="shared" si="1"/>
-        <v>12.992954223035117</v>
-      </c>
-      <c r="U6" s="12">
-        <f t="shared" si="1"/>
-        <v>12.568938996312276</v>
-      </c>
-      <c r="V6" s="11">
-        <f>+[3]Model!DC67</f>
-        <v>8.8854650460225582</v>
-      </c>
-      <c r="W6" s="11">
-        <f>+[3]Model!DD67</f>
-        <v>8.8116701708569245</v>
-      </c>
-      <c r="X6" s="11">
-        <f>+[3]Model!DE67</f>
-        <v>17.313879580268342</v>
-      </c>
-      <c r="Y6" s="11">
-        <f>+[3]Model!DF67</f>
-        <v>19.878447039056095</v>
-      </c>
-      <c r="Z6" s="11">
-        <f>+[3]Model!DG67</f>
-        <v>23.297348786222955</v>
-      </c>
-      <c r="AA6" s="11">
-        <f>+[3]Model!DH67</f>
-        <v>24.083288683817315</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>303.35000000000002</v>
       </c>
-      <c r="E7" s="6">
-        <f>+H7*D7</f>
+      <c r="F7" s="6">
+        <f>+I7*E7</f>
         <v>242802.25005000003</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>+[4]Main!$K$5-[4]Main!$K$6</f>
         <v>-18167</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>260969.25005000003</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <f>+[4]Main!$K$3</f>
         <v>800.40300000000002</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="9">
-        <v>44772</v>
-      </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>44815</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="AB7" s="1">
+      <c r="P7" s="9"/>
+      <c r="AC7" s="1">
         <v>1896</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>46.53</v>
       </c>
-      <c r="E8" s="6">
-        <f>D8*[5]Main!$L$3*1000</f>
+      <c r="F8" s="6">
+        <f>+E8*I8</f>
         <v>267919.74</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>([5]Main!$L$5-[5]Main!$L$6)*1000</f>
         <v>8332.9999999999909</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>259586.74</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <f>+[5]Main!$L$3*1000</f>
         <v>5758</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J8" s="9">
-        <v>44770</v>
-      </c>
-      <c r="K8" s="9"/>
+      <c r="J8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" s="9">
+        <v>44814</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>106</v>
       </c>
-      <c r="E9" s="6">
-        <f>+H9*D9</f>
+      <c r="F9" s="6">
+        <f>+I9*E9</f>
         <v>242029.80000000002</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
         <v>-665.40001913640151</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>242695.20001913642</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <f>+[6]Main!$J$3</f>
         <v>2283.3000000000002</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="9">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="K9" s="9">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="7">
         <v>775</v>
       </c>
-      <c r="E10" s="6">
-        <f>+D10*H10/DKK</f>
+      <c r="F10" s="6">
+        <f>+E10*I10/DKK</f>
         <v>241878.3061550869</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>([6]Main!$J$5-[6]Main!$J$6)/DKK</f>
         <v>-665.40001913640151</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>242543.70617422331</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <f>+[6]Main!$J$3</f>
         <v>2283.3000000000002</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="9">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="K10" s="9">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3">
-        <v>84.62</v>
-      </c>
-      <c r="E11" s="6">
-        <f>+D11*H11</f>
-        <v>213987.48121550001</v>
+      <c r="E11" s="3">
+        <v>88.16</v>
       </c>
       <c r="F11" s="6">
+        <f>+E11*I11</f>
+        <v>222939.451004</v>
+      </c>
+      <c r="G11" s="6">
         <f>+[7]Main!$J$5-[7]Main!$J$6</f>
         <v>-22550</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>236537.48121550001</v>
-      </c>
-      <c r="H11" s="6">
+        <v>245489.451004</v>
+      </c>
+      <c r="I11" s="6">
         <f>+[7]Main!$J$3</f>
         <v>2528.8050250000001</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="9">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="K11" s="9">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>81.06</v>
       </c>
-      <c r="E12" s="6">
-        <f>+D12*H12</f>
+      <c r="F12" s="6">
+        <f>+E12*I12</f>
         <v>176936.84294328</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>-9519</v>
       </c>
-      <c r="G12" s="6">
-        <f>E12-F12</f>
+      <c r="H12" s="6">
+        <f>F12-G12</f>
         <v>186455.84294328</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <f>+[8]Main!$K$3</f>
         <v>2182.7885879999999</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="J12" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" s="9">
         <v>44808</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3">
-        <v>73.77</v>
-      </c>
-      <c r="E13" s="6">
-        <f>+D13*H13</f>
-        <v>157517.77300565998</v>
+      <c r="E13" s="3">
+        <v>75.03</v>
       </c>
       <c r="F13" s="6">
+        <f>+E13*I13</f>
+        <v>160208.19450474001</v>
+      </c>
+      <c r="G13" s="6">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>-28832</v>
       </c>
-      <c r="G13" s="6">
-        <f>E13-F13</f>
-        <v>186349.77300565998</v>
-      </c>
       <c r="H13" s="6">
+        <f>F13-G13</f>
+        <v>189040.19450474001</v>
+      </c>
+      <c r="I13" s="6">
         <f>+[9]Main!$K$3</f>
         <v>2135.2551579999999</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="J13" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K13" s="9">
         <v>44810</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>246.73</v>
       </c>
-      <c r="E14" s="6">
-        <f>+D14*H14</f>
+      <c r="F14" s="6">
+        <f>+E14*I14</f>
         <v>131753.82</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-30310</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>162063.82</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <f>+[10]Main!$K$3</f>
         <v>534</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
         <v>44810</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>49.2</v>
       </c>
-      <c r="E15" s="6">
-        <f>D15*[11]Main!$K$3*2</f>
+      <c r="F15" s="6">
+        <f>E15*[11]Main!$K$3*2</f>
         <v>123098.40000000001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <f>([11]Main!$K$5-[11]Main!$K$6)*EUR</f>
         <v>-12400.887000000001</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" ref="G15:G23" si="2">E15-F15</f>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15:H24" si="3">F15-G15</f>
         <v>135499.28700000001</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <f>+[11]Main!$K$3</f>
         <v>1251</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="J15" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="9">
         <v>44810</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="7">
         <v>66</v>
       </c>
-      <c r="E16" s="6">
-        <f>+D16*H16</f>
+      <c r="F16" s="6">
+        <f>+E16*I16</f>
         <v>102960</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>[12]Main!$L$5-[12]Main!$L$6</f>
         <v>-24689</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="2"/>
+      <c r="H16" s="6">
+        <f t="shared" si="3"/>
         <v>127649</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <f>+[12]Main!$L$3</f>
         <v>1560</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="J16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" s="9">
         <v>44812</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B19+1</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7">
+        <v>60.9</v>
+      </c>
+      <c r="F17" s="6">
+        <f>+E17*I17</f>
+        <v>76330.07429460001</v>
+      </c>
+      <c r="G17" s="6">
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <v>-19216</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="3"/>
+        <v>95546.07429460001</v>
+      </c>
+      <c r="I17" s="6">
+        <f>+[14]Main!$J$3</f>
+        <v>1253.3673940000001</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" s="9">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B16+1</f>
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3">
-        <v>41.27</v>
-      </c>
-      <c r="E17" s="6">
-        <f>+D17*H17/2</f>
-        <v>83860.639999999999</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E18" s="3">
+        <v>31.02</v>
+      </c>
+      <c r="F18" s="6">
+        <f>+E18*I18/2</f>
+        <v>62427.75</v>
+      </c>
+      <c r="G18" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>106816.66</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
+        <f>F18-G18</f>
+        <v>85383.77</v>
+      </c>
+      <c r="I18" s="6">
         <f>+[13]Main!$K$4</f>
-        <v>4064</v>
-      </c>
-      <c r="I17" s="3" t="s">
+        <v>4025</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="9">
+      <c r="K18" s="9">
         <v>44792</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B18+1</f>
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6">
-        <v>1683.8</v>
-      </c>
-      <c r="E18" s="6">
-        <f>+D18*H18/100*GBP</f>
-        <v>80972.783545600003</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E19" s="6">
+        <v>1332.8</v>
+      </c>
+      <c r="F19" s="6">
+        <f>+E19*I19/100*GBP</f>
+        <v>63478.365159999994</v>
+      </c>
+      <c r="G19" s="6">
         <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="2"/>
-        <v>103928.80354560001</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
+        <f>F19-G19</f>
+        <v>86434.385159999991</v>
+      </c>
+      <c r="I19" s="6">
         <f>+[13]Main!$K$4</f>
-        <v>4064</v>
-      </c>
-      <c r="I18" s="3" t="s">
+        <v>4025</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="9">
-        <f>+J17</f>
+      <c r="K19" s="9">
+        <f>+K18</f>
         <v>44792</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B17+1</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="7">
+        <v>175.1</v>
+      </c>
+      <c r="F20" s="6">
+        <f>+E20*I20</f>
+        <v>76168.5</v>
+      </c>
+      <c r="G20" s="6">
+        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
+        <v>-10341.057960000002</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="3"/>
+        <v>86509.557960000006</v>
+      </c>
+      <c r="I20" s="3">
+        <v>435</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20" s="9">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7">
+        <v>255.99</v>
+      </c>
+      <c r="F21" s="6">
+        <f>+E21*I21*AUD</f>
+        <v>82472.633374629047</v>
+      </c>
+      <c r="G21" s="6">
+        <f>[16]Main!$J$5-[16]Main!$J$6</f>
+        <v>778.60000000000036</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="3"/>
+        <v>81694.033374629042</v>
+      </c>
+      <c r="I21" s="6">
+        <f>+[16]Main!$J$3</f>
+        <v>470.117188</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K21" s="9">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7">
+        <v>288</v>
+      </c>
+      <c r="F22" s="6">
+        <f>+E22*[17]Main!$M$3</f>
+        <v>73728</v>
+      </c>
+      <c r="G22" s="6">
+        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
+        <v>9253.4</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="3"/>
+        <v>64474.6</v>
+      </c>
+      <c r="I22" s="6">
+        <f>+[17]Main!$M$3</f>
+        <v>256</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="9">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7">
+        <v>700</v>
+      </c>
+      <c r="F23" s="6">
+        <f>+E23*I23</f>
+        <v>76662.702200000014</v>
+      </c>
+      <c r="G23" s="6">
+        <f>+[18]Main!$J$5-[18]Main!$J$6</f>
+        <v>12001.599999999999</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="3"/>
+        <v>64661.102200000016</v>
+      </c>
+      <c r="I23" s="6">
+        <f>+[18]Main!$J$3</f>
+        <v>109.51814600000002</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K23" s="9">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="7">
+        <v>142</v>
+      </c>
+      <c r="F24" s="6">
+        <f>+E24*I24</f>
+        <v>55550.335248000003</v>
+      </c>
+      <c r="G24" s="6">
+        <f>+[19]Main!$L$5-[19]Main!$L$6</f>
+        <v>18059</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="3"/>
+        <v>37491.335248000003</v>
+      </c>
+      <c r="I24" s="6">
+        <f>+[19]Main!$L$3</f>
+        <v>391.199544</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" s="9">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="F25" s="6">
+        <f>E25*[20]Main!$M$3</f>
+        <v>12680.93945768</v>
+      </c>
+      <c r="G25" s="6">
+        <f>[20]Main!$M$5-[20]Main!$M$6</f>
+        <v>-18665.5</v>
+      </c>
+      <c r="H25" s="6">
+        <f>F25-G25</f>
+        <v>31346.43945768</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="7">
+        <v>150.91</v>
+      </c>
+      <c r="F26" s="6">
+        <f>+E26*I26</f>
+        <v>36623.653864910004</v>
+      </c>
+      <c r="G26" s="6">
+        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
+        <v>8320.9</v>
+      </c>
+      <c r="H26" s="6">
+        <f>+F26-G26</f>
+        <v>28302.753864910002</v>
+      </c>
+      <c r="I26" s="6">
+        <f>+[21]Main!$K$3</f>
+        <v>242.68540100000001</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K26" s="9">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7">
-        <v>60.9</v>
-      </c>
-      <c r="E19" s="6">
-        <f>+D19*H19</f>
-        <v>76855.8</v>
-      </c>
-      <c r="F19" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
-        <v>-19456</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="2"/>
-        <v>96311.8</v>
-      </c>
-      <c r="H19" s="6">
-        <f>+[14]Main!$J$3</f>
-        <v>1262</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="9">
-        <v>44780</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7">
-        <v>175.1</v>
-      </c>
-      <c r="E20" s="6">
-        <f>D20*[15]Main!$J$3*EUR</f>
-        <v>77446.648629173942</v>
-      </c>
-      <c r="F20" s="6">
-        <f>([15]Main!$J$5-[15]Main!$J$6)*EUR</f>
-        <v>-9387.644400000001</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="2"/>
-        <v>86834.293029173947</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3">
-        <v>255.99</v>
-      </c>
-      <c r="E21" s="6">
-        <f>D21*[16]Main!$J$3*AUD</f>
-        <v>80031.808981488444</v>
-      </c>
-      <c r="F21" s="6">
-        <f>[16]Main!$J$5-[16]Main!$J$6</f>
-        <v>-3998.1000000000004</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>84029.90898148845</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="7">
-        <v>263.08999999999997</v>
-      </c>
-      <c r="E22" s="6">
-        <f>+D22*[17]Main!$M$3</f>
-        <v>67286.835779489993</v>
-      </c>
-      <c r="F22" s="6">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
-        <v>8238.1</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="2"/>
-        <v>59048.735779489994</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="7">
-        <v>630</v>
-      </c>
-      <c r="E23" s="6">
-        <f>+D23*H23</f>
-        <v>68996.431980000008</v>
-      </c>
-      <c r="F23" s="6">
-        <f>+[18]Main!$K$5-[18]Main!$K$6</f>
-        <v>12001.599999999999</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="2"/>
-        <v>56994.83198000001</v>
-      </c>
-      <c r="H23" s="6">
-        <f>+[18]Main!$K$3</f>
-        <v>109.51814600000002</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J23" s="9">
-        <v>44782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="7">
-        <v>128.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="3">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>345</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" t="s">
         <v>264</v>
       </c>
-      <c r="C28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="3">
-        <v>125.14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B30" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B31" t="s">
-        <v>266</v>
+        <v>344</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E33" s="6">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="3">
+        <v>165.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="3">
+        <v>63.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="3">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="3">
+        <v>76.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="3">
+        <v>71.27</v>
+      </c>
+      <c r="F45" s="6">
+        <f>+E45*[22]Main!$K$3</f>
+        <v>15786.66213397</v>
+      </c>
+      <c r="G45" s="6">
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <v>2721</v>
+      </c>
+      <c r="H45" s="6">
+        <f>F45-G45</f>
+        <v>13065.66213397</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="3">
+        <v>349.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="7">
+        <v>137.09</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="7">
+        <v>132.13999999999999</v>
+      </c>
+      <c r="F49" s="6">
+        <f>E49*[23]Main!$L$3</f>
+        <v>13539.443113239999</v>
+      </c>
+      <c r="G49" s="6">
+        <f>[23]Main!$L$5-[23]Main!$L$6</f>
+        <v>5643.241</v>
+      </c>
+      <c r="H49" s="6">
+        <f>F49-G49</f>
+        <v>7896.2021132399987</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="6">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3">
-        <v>165.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="3">
-        <v>63.83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>345</v>
-      </c>
-      <c r="B38" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3">
-        <v>39.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B41" t="s">
-        <v>287</v>
-      </c>
-      <c r="C41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="6">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="3">
-        <v>76.08</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
+      <c r="D50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="3">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="3">
+        <v>145.13999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="7">
+        <v>219.38</v>
+      </c>
+      <c r="F52" s="6">
+        <f>E52*[24]Main!$K$3</f>
+        <v>10464.426000000001</v>
+      </c>
+      <c r="G52" s="6">
+        <f>[24]Main!$K$5-[24]Main!$K$6</f>
+        <v>3027</v>
+      </c>
+      <c r="H52" s="6">
+        <f>F52-G52</f>
+        <v>7437.4260000000013</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="7">
+        <v>57</v>
+      </c>
+      <c r="F53" s="6">
+        <f>+E53*[25]Main!$L$3</f>
+        <v>6071.7436259999995</v>
+      </c>
+      <c r="G53" s="6">
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <v>776.13</v>
+      </c>
+      <c r="H53" s="6">
+        <f>+F53-G53</f>
+        <v>5295.6136259999994</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C54" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3.42</v>
+      </c>
+      <c r="F54" s="6">
+        <f>+E54*I54</f>
+        <v>2379.9056977800001</v>
+      </c>
+      <c r="G54" s="6">
+        <f>+[26]Main!$K$5-[26]Main!$K$6</f>
+        <v>1840.732</v>
+      </c>
+      <c r="H54" s="6">
+        <f>+F54-G54</f>
+        <v>539.17369778000011</v>
+      </c>
+      <c r="I54" s="6">
+        <f>+[26]Main!$K$3</f>
+        <v>695.87885900000003</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K54" s="9">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D44" s="3">
-        <v>71.27</v>
-      </c>
-      <c r="E44" s="6">
-        <f>+D44*[19]Main!$K$3</f>
-        <v>15786.66213397</v>
-      </c>
-      <c r="F44" s="6">
-        <f>+[19]Main!$K$5-[19]Main!$K$6</f>
-        <v>2721</v>
-      </c>
-      <c r="G44" s="6">
-        <f>E44-F44</f>
-        <v>13065.66213397</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="3">
-        <v>28.54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="3">
-        <v>349.96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="3">
-        <v>10.46</v>
-      </c>
-      <c r="E47" s="6">
-        <f>D47*[20]Main!$M$3</f>
-        <v>12680.93945768</v>
-      </c>
-      <c r="F47" s="6">
-        <f>[20]Main!$M$5-[20]Main!$M$6</f>
-        <v>-18665.5</v>
-      </c>
-      <c r="G47" s="6">
-        <f>E47-F47</f>
-        <v>31346.43945768</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="3">
-        <v>137.09</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="3">
-        <v>132.13999999999999</v>
-      </c>
-      <c r="E49" s="6">
-        <f>D49*[21]Main!$L$3</f>
-        <v>13539.443113239999</v>
-      </c>
-      <c r="F49" s="6">
-        <f>[21]Main!$L$5-[21]Main!$L$6</f>
-        <v>5643.241</v>
-      </c>
-      <c r="G49" s="6">
-        <f>E49-F49</f>
-        <v>7896.2021132399987</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="3">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="3">
-        <v>145.13999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" t="s">
+        <v>306</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1721.48</v>
+      </c>
+      <c r="F55" s="6">
+        <f>+E55*I55/100*GBP</f>
+        <v>4746.2735717200003</v>
+      </c>
+      <c r="G55" s="6">
+        <f>+[27]Main!$K$5-[27]Main!$K$6</f>
+        <v>-337</v>
+      </c>
+      <c r="H55" s="6">
+        <f>+F55-G55</f>
+        <v>5083.2735717200003</v>
+      </c>
+      <c r="I55" s="6">
+        <f>+[27]Main!$K$3</f>
+        <v>233</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="3">
+        <v>28.03</v>
+      </c>
+      <c r="F56" s="6">
+        <f>+I56*E56</f>
+        <v>4604.0473282500006</v>
+      </c>
+      <c r="G56" s="6">
+        <f>+[28]Main!$L$5-[28]Main!$L$6</f>
+        <v>465.44</v>
+      </c>
+      <c r="H56" s="6">
+        <f>+F56-G56</f>
+        <v>4138.607328250001</v>
+      </c>
+      <c r="I56" s="6">
+        <f>+[28]Main!$L$3</f>
+        <v>164.25427500000001</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K56" s="9">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="3">
-        <v>219.38</v>
-      </c>
-      <c r="E52" s="6">
-        <f>D52*[22]Main!$K$3</f>
-        <v>10464.426000000001</v>
-      </c>
-      <c r="F52" s="6">
-        <f>[22]Main!$K$5-[22]Main!$K$6</f>
-        <v>3027</v>
-      </c>
-      <c r="G52" s="6">
-        <f>E52-F52</f>
-        <v>7437.4260000000013</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="D57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="3">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="3">
+        <v>142.91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="E53" s="6">
-        <f>+D53*[23]Main!$L$3</f>
-        <v>6071.7436259999995</v>
-      </c>
-      <c r="F53" s="6">
-        <f>+[23]Main!$L$5-[23]Main!$L$6</f>
-        <v>776.13</v>
-      </c>
-      <c r="G53" s="6">
-        <f>+E53-F53</f>
-        <v>5295.6136259999994</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C54" t="s">
-        <v>307</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1721.48</v>
-      </c>
-      <c r="E54" s="6">
-        <f>+D54*H54/100*GBP</f>
-        <v>4746.2735717200003</v>
-      </c>
-      <c r="F54" s="6">
-        <f>+[24]Main!$K$5-[24]Main!$K$6</f>
-        <v>-337</v>
-      </c>
-      <c r="G54" s="6">
-        <f>+E54-F54</f>
-        <v>5083.2735717200003</v>
-      </c>
-      <c r="H54" s="6">
-        <f>+[24]Main!$K$3</f>
-        <v>233</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="3">
-        <v>28.03</v>
-      </c>
-      <c r="E55" s="6">
-        <f>+H55*D55</f>
-        <v>4604.0473282500006</v>
-      </c>
-      <c r="F55" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
-        <v>465.44</v>
-      </c>
-      <c r="G55" s="6">
-        <f>+E55-F55</f>
-        <v>4138.607328250001</v>
-      </c>
-      <c r="H55" s="6">
-        <f>+[25]Main!$L$3</f>
-        <v>164.25427500000001</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J55" s="9">
-        <v>44782</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="3">
-        <v>93.28</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="3">
-        <v>142.91</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C58" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="E60" s="3">
         <v>7.71</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>283</v>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>281</v>
+      <c r="D61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="D62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" t="s">
         <v>278</v>
       </c>
-      <c r="C63" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" t="s">
         <v>262</v>
       </c>
-      <c r="C64" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="E66" s="3">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="3">
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="E67" s="3">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="3">
-        <v>44.14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E68" s="3">
+        <v>35.26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="3">
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E69" s="3">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <f t="shared" ref="B70:B133" si="4">B69+1</f>
+        <v>67</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="3">
-        <v>82.53</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E70" s="3">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="3">
-        <v>24.78</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E71" s="3">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="3">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="E72" s="3">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="3">
-        <v>24.53</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E73" s="3">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="3">
-        <v>23.02</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E74" s="3">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="3">
-        <v>29.12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E75" s="3">
+        <v>33.17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="3">
-        <v>33.17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E76" s="3">
+        <v>53.21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="3">
-        <v>53.21</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="E77" s="3">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D76" s="3">
-        <v>46.23</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E78" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="E79" s="3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D78" s="3">
-        <v>18.559999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E80" s="3">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="3">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E81" s="3">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="3">
-        <v>19.510000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E82" s="3">
+        <v>66.97</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="3">
-        <v>66.97</v>
-      </c>
-    </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E83" s="3">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="3">
-        <v>54.94</v>
-      </c>
-    </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="E84" s="3">
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E85" s="3">
+        <v>83.92</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D84" s="3">
-        <v>83.92</v>
-      </c>
-    </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E86" s="3">
+        <v>60.72</v>
+      </c>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D85" s="3">
-        <v>60.72</v>
-      </c>
-    </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E87" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="7">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="E88" s="3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>316</v>
+      </c>
+      <c r="D89" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="3">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>317</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="3">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="3">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="3">
+        <v>53.29</v>
+      </c>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" s="3">
+        <v>74.459999999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B94" s="1">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="3">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B95" s="1">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="3">
+        <v>27.73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B96" s="1">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="3">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F96" s="6">
+        <f>+E96*[29]Main!$N$3</f>
+        <v>3152.1980120399994</v>
+      </c>
+      <c r="G96" s="6">
+        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
+        <v>869.93499999999995</v>
+      </c>
+      <c r="H96" s="6">
+        <f>+F96-G96</f>
+        <v>2282.2630120399995</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="1">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="3">
+        <v>35.770000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="3">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99" s="3">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="1">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E100" s="3">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="1">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E103" s="3">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104" s="3">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="1">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
         <v>318</v>
       </c>
-      <c r="D88" s="3">
-        <v>4.26</v>
-      </c>
-      <c r="AB88" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="89" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" s="3">
-        <v>42.98</v>
-      </c>
-    </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="3">
-        <v>23.92</v>
-      </c>
-    </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D91" s="3">
-        <v>53.29</v>
-      </c>
-    </row>
-    <row r="92" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="3">
-        <v>74.459999999999994</v>
-      </c>
-    </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D93" s="3">
-        <v>48.63</v>
-      </c>
-    </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D94" s="3">
-        <v>27.73</v>
-      </c>
-    </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B95" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D95" s="3">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="E95" s="6">
-        <f>+D95*[26]Main!$N$3</f>
-        <v>3152.1980120399994</v>
-      </c>
-      <c r="F95" s="6">
-        <f>+[26]Main!$N$5-[26]Main!$N$6</f>
-        <v>869.93499999999995</v>
-      </c>
-      <c r="G95" s="6">
-        <f>+E95-F95</f>
-        <v>2282.2630120399995</v>
-      </c>
-      <c r="I95" s="3" t="s">
+      <c r="D105" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="1">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" s="7">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="1">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E107" s="3">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="1">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108" s="3">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="1">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" s="3">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="1">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" s="3">
+        <v>33.86</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>353</v>
+      </c>
+      <c r="D111" t="s">
+        <v>354</v>
+      </c>
+      <c r="E111" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" s="3">
+        <v>38.35</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="1">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" s="3">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="1">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>299</v>
+      </c>
+      <c r="D115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="1">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" s="3">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" s="3">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="1">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E118" s="3">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" s="3">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" s="3">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="1">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="1">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E122" s="7">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="1">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E123" s="3">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E124" s="3">
+        <v>33.130000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="1">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E125" s="3">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" s="3">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E127" s="3">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="3">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B129" s="1">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" t="s">
+        <v>297</v>
+      </c>
+      <c r="E129" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="F129" s="6">
+        <f>E129*[30]Main!$L$3</f>
+        <v>1253.1559559500001</v>
+      </c>
+      <c r="G129" s="6">
+        <f>+[30]Main!$L$5-[30]Main!$L$6</f>
+        <v>112.015</v>
+      </c>
+      <c r="H129" s="6">
+        <f>+F129-G129</f>
+        <v>1141.14095595</v>
+      </c>
+      <c r="J129" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D96" s="3">
-        <v>35.770000000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="3">
-        <v>14.27</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="3">
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="3">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D100" s="3">
-        <v>43.98</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D101" s="3">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D102" s="3">
-        <v>53.72</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="3">
-        <v>21.04</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>319</v>
-      </c>
-      <c r="C104" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" s="7">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" s="3">
-        <v>18.579999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="3">
-        <v>16.12</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" s="3">
-        <v>28.41</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D109" s="3">
-        <v>33.86</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>354</v>
-      </c>
-      <c r="C110" t="s">
-        <v>355</v>
-      </c>
-      <c r="D110" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D111" s="3">
-        <v>38.35</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D112" s="3">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D113" s="3">
-        <v>25.49</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>300</v>
-      </c>
-      <c r="C114" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" s="3">
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D116" s="3">
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D117" s="3">
-        <v>30.48</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D118" s="3">
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D119" s="3">
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D120" s="3">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D121" s="7">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="3">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D123" s="3">
-        <v>33.130000000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" s="3">
-        <v>31.52</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" s="3">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D126" s="3">
-        <v>28.55</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B130" s="1">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D130" t="s">
+        <v>308</v>
+      </c>
+      <c r="E130" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="F130" s="6">
+        <f>+E130*[31]Main!$L$3</f>
+        <v>1228.5485933099999</v>
+      </c>
+      <c r="G130" s="6">
+        <f>+[31]Main!$L$5-[31]Main!$L$6</f>
+        <v>153.25991400000001</v>
+      </c>
+      <c r="H130" s="6">
+        <f>+F130-G130</f>
+        <v>1075.2886793099999</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="9">
+        <v>44771</v>
+      </c>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B131" s="1">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D127" s="3">
-        <v>27.02</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C128" t="s">
-        <v>298</v>
-      </c>
-      <c r="D128" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="E128" s="6">
-        <f>D128*[27]Main!$L$3</f>
-        <v>1253.1559559500001</v>
-      </c>
-      <c r="F128" s="6">
-        <f>+[27]Main!$L$5-[27]Main!$L$6</f>
-        <v>112.015</v>
-      </c>
-      <c r="G128" s="6">
-        <f>+E128-F128</f>
-        <v>1141.14095595</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C129" t="s">
-        <v>309</v>
-      </c>
-      <c r="D129" s="3">
-        <v>16.93</v>
-      </c>
-      <c r="E129" s="6">
-        <f>+D129*[28]Main!$L$3</f>
-        <v>1228.5485933099999</v>
-      </c>
-      <c r="F129" s="6">
-        <f>+[28]Main!$L$5-[28]Main!$L$6</f>
-        <v>153.25991400000001</v>
-      </c>
-      <c r="G129" s="6">
-        <f>+E129-F129</f>
-        <v>1075.2886793099999</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="9">
-        <v>44771</v>
-      </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="E131" s="3">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D130" s="3">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="E132" s="3">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D131" s="3">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D132" s="3">
+      <c r="E133" s="3">
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>314</v>
-      </c>
-      <c r="C133" t="s">
-        <v>315</v>
-      </c>
-      <c r="D133" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="E133" s="3">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>312</v>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B134" s="1">
+        <f t="shared" ref="B134:B158" si="5">B133+1</f>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
         <v>313</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" t="s">
+        <v>314</v>
+      </c>
+      <c r="E134" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="F134" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E135" s="3">
         <v>11.93</v>
       </c>
-      <c r="E134" s="3">
+      <c r="F135" s="3">
         <v>516</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="E136" s="3">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D135" s="3">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="E137" s="7">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B138" s="1">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D136" s="7">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="E138" s="7">
+        <v>40.24</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B139" s="1">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D137" s="7">
-        <v>40.24</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="E139" s="3">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B140" s="1">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D140" t="s">
+        <v>332</v>
+      </c>
+      <c r="E140" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="F140" s="6">
+        <f>+E140*I140</f>
+        <v>37.185714749999995</v>
+      </c>
+      <c r="G140" s="6">
+        <f>+[32]Main!$N$5-[32]Main!$N$6</f>
+        <v>-7.4640000000000004</v>
+      </c>
+      <c r="H140" s="6">
+        <f>+F140-G140</f>
+        <v>44.649714749999994</v>
+      </c>
+      <c r="I140" s="6">
+        <f>+[32]Main!$N$3</f>
+        <v>9.4141049999999993</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K140" s="9">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D138" s="3">
-        <v>22.11</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C139" t="s">
-        <v>333</v>
-      </c>
-      <c r="D139" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="E139" s="6">
-        <f>+D139*H139</f>
-        <v>37.185714749999995</v>
-      </c>
-      <c r="F139" s="6">
-        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
-        <v>-7.4640000000000004</v>
-      </c>
-      <c r="G139" s="6">
-        <f>+E139-F139</f>
-        <v>44.649714749999994</v>
-      </c>
-      <c r="H139" s="6">
-        <f>+[29]Main!$N$3</f>
-        <v>9.4141049999999993</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="J139" s="9">
-        <v>44780</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="E141" s="3">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B142" s="1">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D140" s="3">
-        <v>10.31</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="E142" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B143" s="1">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D141" s="7">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="E143" s="3">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B144" s="1">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D142" s="3">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="5" t="s">
+      <c r="D144" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="E144" s="3">
+        <v>7.06</v>
+      </c>
+      <c r="F144" s="6">
+        <f>E144*[33]Main!$J$3</f>
+        <v>725.62786605999997</v>
+      </c>
+      <c r="G144" s="6">
+        <f>[33]Main!$J$5-[33]Main!$J$6</f>
+        <v>197.79600000000002</v>
+      </c>
+      <c r="H144" s="8">
+        <f>+F144-G144</f>
+        <v>527.83186605999992</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B145" s="1">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F145" s="6">
+        <f>+E145*I145</f>
+        <v>486.43225439999998</v>
+      </c>
+      <c r="G145" s="6">
+        <f>+[34]Main!$K$5-[34]Main!$K$6</f>
+        <v>-37.984000000000002</v>
+      </c>
+      <c r="H145" s="8">
+        <f t="shared" ref="H145" si="6">+F145-G145</f>
+        <v>524.41625439999996</v>
+      </c>
+      <c r="I145" s="6">
+        <f>+[34]Main!$K$3</f>
+        <v>810.72042399999998</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K145" s="9">
+        <v>44816</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B146" s="1">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D143" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="E143" s="6">
-        <f>D143*[30]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="F143" s="6">
-        <f>[30]Main!$J$5-[30]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="G143" s="8">
-        <f>+E143-F143</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="I143" s="3" t="s">
+      <c r="D146" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E146" s="3">
+        <v>14.68</v>
+      </c>
+      <c r="F146" s="6">
+        <f>E146*[35]Main!$L$3</f>
+        <v>587.26396075999992</v>
+      </c>
+      <c r="G146" s="6">
+        <f>[35]Main!$L$5-[35]Main!$L$6</f>
+        <v>277.88299999999998</v>
+      </c>
+      <c r="H146" s="8">
+        <f>+F146-G146</f>
+        <v>309.38096075999994</v>
+      </c>
+      <c r="J146" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C144" s="1" t="s">
+    <row r="147" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D144" s="3">
-        <v>14.68</v>
-      </c>
-      <c r="E144" s="6">
-        <f>D144*[31]Main!$L$3</f>
-        <v>587.26396075999992</v>
-      </c>
-      <c r="F144" s="6">
-        <f>[31]Main!$L$5-[31]Main!$L$6</f>
-        <v>277.88299999999998</v>
-      </c>
-      <c r="G144" s="8">
-        <f>+E144-F144</f>
-        <v>309.38096075999994</v>
-      </c>
-      <c r="I144" s="3" t="s">
+      <c r="D147" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E147" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F147" s="6">
+        <f>E147*[36]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G147" s="8">
+        <f>+[36]Main!$J$5-[36]Main!$J$6</f>
+        <v>92.317999999999998</v>
+      </c>
+      <c r="H147" s="8">
+        <f>+F147-G147</f>
+        <v>220.39615336000003</v>
+      </c>
+      <c r="J147" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C145" s="1" t="s">
+    <row r="148" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B148" s="1">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D145" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E145" s="6">
-        <f>D145*[32]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="F145" s="8">
-        <f>+[32]Main!$J$5-[32]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="G145" s="8">
-        <f>+E145-F145</f>
-        <v>220.39615336000003</v>
-      </c>
-      <c r="I145" s="3" t="s">
+      <c r="D148" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E148" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="F148" s="6">
+        <f>E148*[37]Main!$M$3</f>
+        <v>338.45983246000003</v>
+      </c>
+      <c r="G148" s="6">
+        <f>[37]Main!$M$5-[37]Main!$M$6</f>
+        <v>120.43700000000001</v>
+      </c>
+      <c r="H148" s="8">
+        <f t="shared" ref="H148:H153" si="7">+F148-G148</f>
+        <v>218.02283246000002</v>
+      </c>
+      <c r="J148" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C146" s="1" t="s">
+    <row r="149" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B149" s="1">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D146" s="3">
-        <v>7.57</v>
-      </c>
-      <c r="E146" s="6">
-        <f>D146*[33]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="F146" s="6">
-        <f>[33]Main!$M$5-[33]Main!$M$6</f>
-        <v>120.43700000000001</v>
-      </c>
-      <c r="G146" s="8">
-        <f t="shared" ref="G146:G151" si="3">+E146-F146</f>
-        <v>218.02283246000002</v>
-      </c>
-      <c r="I146" s="3" t="s">
+      <c r="D149" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F149" s="6">
+        <f>E149*[38]Main!$M$3</f>
+        <v>128.9392503</v>
+      </c>
+      <c r="G149" s="6">
+        <f>[38]Main!$M$5-[38]Main!$M$6</f>
+        <v>-59.50200000000001</v>
+      </c>
+      <c r="H149" s="8">
+        <f t="shared" si="7"/>
+        <v>188.44125030000001</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C147" s="1" t="s">
+    <row r="150" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B150" s="1">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D147" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="E147" s="6">
-        <f>D147*[34]Main!$M$3</f>
-        <v>128.9392503</v>
-      </c>
-      <c r="F147" s="6">
-        <f>[34]Main!$M$5-[34]Main!$M$6</f>
-        <v>-59.50200000000001</v>
-      </c>
-      <c r="G147" s="8">
-        <f t="shared" si="3"/>
-        <v>188.44125030000001</v>
-      </c>
-      <c r="I147" s="3" t="s">
+      <c r="D150" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="F150" s="6">
+        <f>E150*[39]Main!$N$3</f>
+        <v>39.757463459999997</v>
+      </c>
+      <c r="G150" s="6">
+        <f>[39]Main!$N$5-[39]Main!$N$6</f>
+        <v>15.942</v>
+      </c>
+      <c r="H150" s="8">
+        <f t="shared" si="7"/>
+        <v>23.815463459999997</v>
+      </c>
+      <c r="J150" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" s="1" t="s">
+    <row r="151" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D148" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="E148" s="6">
-        <f>D148*[35]Main!$N$3</f>
-        <v>39.757463459999997</v>
-      </c>
-      <c r="F148" s="6">
-        <f>[35]Main!$N$5-[35]Main!$N$6</f>
-        <v>15.942</v>
-      </c>
-      <c r="G148" s="8">
-        <f t="shared" si="3"/>
-        <v>23.815463459999997</v>
-      </c>
-      <c r="I148" s="3" t="s">
+      <c r="D151" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F151" s="6">
+        <f>E151*[40]Main!$L$3</f>
+        <v>30.1881658</v>
+      </c>
+      <c r="G151" s="6">
+        <f>[40]Main!$L$5-[40]Main!$L$6</f>
+        <v>13.262999999999998</v>
+      </c>
+      <c r="H151" s="8">
+        <f t="shared" si="7"/>
+        <v>16.925165800000002</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C149" s="1" t="s">
+    <row r="152" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B152" s="1">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D149" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="E149" s="6">
-        <f>D149*[36]Main!$L$3</f>
-        <v>30.1881658</v>
-      </c>
-      <c r="F149" s="6">
-        <f>[36]Main!$L$5-[36]Main!$L$6</f>
-        <v>13.262999999999998</v>
-      </c>
-      <c r="G149" s="8">
-        <f t="shared" si="3"/>
-        <v>16.925165800000002</v>
-      </c>
-      <c r="I149" s="3" t="s">
+      <c r="D152" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E152" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="F152" s="6">
+        <f>E152*[41]Main!$M$3</f>
+        <v>125.46108324000001</v>
+      </c>
+      <c r="G152" s="6">
+        <f>[41]Main!$M$5-[41]Main!$M$6</f>
+        <v>131.17699999999999</v>
+      </c>
+      <c r="H152" s="8">
+        <f t="shared" si="7"/>
+        <v>-5.7159167599999847</v>
+      </c>
+      <c r="J152" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="1" t="s">
+    <row r="153" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D150" s="3">
-        <v>6.12</v>
-      </c>
-      <c r="E150" s="6">
-        <f>D150*[37]Main!$M$3</f>
-        <v>125.46108324000001</v>
-      </c>
-      <c r="F150" s="6">
-        <f>[37]Main!$M$5-[37]Main!$M$6</f>
-        <v>131.17699999999999</v>
-      </c>
-      <c r="G150" s="8">
-        <f t="shared" si="3"/>
-        <v>-5.7159167599999847</v>
-      </c>
-      <c r="I150" s="3" t="s">
+      <c r="D153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F153" s="6">
+        <f>E153*[42]Main!$M$3</f>
+        <v>20.935517539999999</v>
+      </c>
+      <c r="G153" s="6">
+        <f>[42]Main!$M$5-[42]Main!$M$6</f>
+        <v>55.28</v>
+      </c>
+      <c r="H153" s="8">
+        <f t="shared" si="7"/>
+        <v>-34.344482460000002</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" s="1" t="s">
+    <row r="154" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D151" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="E151" s="6">
-        <f>D151*[38]Main!$M$3</f>
-        <v>20.935517539999999</v>
-      </c>
-      <c r="F151" s="6">
-        <f>[38]Main!$M$5-[38]Main!$M$6</f>
-        <v>55.28</v>
-      </c>
-      <c r="G151" s="8">
-        <f t="shared" si="3"/>
-        <v>-34.344482460000002</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B152" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="E154" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="155" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D152" s="3">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D153" s="3">
+      <c r="E155" s="3">
         <v>5.55</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="1" t="s">
+    <row r="156" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D156" t="s">
+        <v>359</v>
+      </c>
+      <c r="E156" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D157" t="s">
         <v>343</v>
       </c>
-      <c r="C154" t="s">
-        <v>344</v>
-      </c>
-      <c r="D154" s="7">
+      <c r="E157" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
+    <row r="158" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>346</v>
+      </c>
+      <c r="D158" t="s">
         <v>347</v>
       </c>
-      <c r="C155" t="s">
-        <v>348</v>
+      <c r="E158" s="3">
+        <v>20.18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:AB2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{31FFFB9E-A269-4EC0-9451-78F4F00A4890}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{C156021C-BE99-4BC0-AA7F-F8904621CB69}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{087C38CF-D4BE-425F-8F38-C4129E6AE209}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{60368EA6-8CB5-4BF4-AD11-2511F2B2CC10}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{686D20FF-3704-45CC-8366-56508FB00F00}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{8513C491-1620-4390-AB90-9384BB1A043B}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{83DA0EB3-074A-48C7-ADA5-0A0973E8354D}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{615921E7-8A8A-4F41-A8F3-1AF78A43F1AC}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{A38EC1E4-9170-422B-A9F5-3B6EB77DF40A}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{CCC45DFB-BF73-4A15-8527-F4C3C617F472}"/>
-    <hyperlink ref="B21" r:id="rId11" xr:uid="{FC86E1B4-4BA7-43A8-8FCA-CC27867A7922}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{F9D09B0D-FACB-4CCA-872E-286E56965815}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{5A59EF45-A9EA-44F3-BECB-EFED8413DCF6}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{316E9202-338F-4301-AEBE-A9FA398A76CC}"/>
-    <hyperlink ref="B5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="B44" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{6108C865-F45B-4849-97C5-0C40AD61A72B}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="B48" r:id="rId22" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="B45" r:id="rId23" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="B145" r:id="rId25" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="B148" r:id="rId26" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="B144" r:id="rId27" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="B149" r:id="rId28" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="B146" r:id="rId29" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="B151" r:id="rId30" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="B143" r:id="rId31" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="B150" r:id="rId32" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="B147" r:id="rId33" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
-    <hyperlink ref="B18" r:id="rId34" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="B52" r:id="rId35" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
-    <hyperlink ref="B53" r:id="rId36" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="B49" r:id="rId37" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
-    <hyperlink ref="B47" r:id="rId38" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="B128" r:id="rId39" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="B95" r:id="rId40" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="B129" r:id="rId41" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
-    <hyperlink ref="B54" r:id="rId42" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
-    <hyperlink ref="B10" r:id="rId43" xr:uid="{F2359CF1-2AD9-4995-B3BE-132C87B2B53D}"/>
-    <hyperlink ref="B55" r:id="rId44" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="B139" r:id="rId45" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
-    <hyperlink ref="B27" r:id="rId46" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{31FFFB9E-A269-4EC0-9451-78F4F00A4890}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{C156021C-BE99-4BC0-AA7F-F8904621CB69}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{087C38CF-D4BE-425F-8F38-C4129E6AE209}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{60368EA6-8CB5-4BF4-AD11-2511F2B2CC10}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{686D20FF-3704-45CC-8366-56508FB00F00}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{8513C491-1620-4390-AB90-9384BB1A043B}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{83DA0EB3-074A-48C7-ADA5-0A0973E8354D}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{615921E7-8A8A-4F41-A8F3-1AF78A43F1AC}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{A38EC1E4-9170-422B-A9F5-3B6EB77DF40A}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{CCC45DFB-BF73-4A15-8527-F4C3C617F472}"/>
+    <hyperlink ref="C21" r:id="rId11" xr:uid="{FC86E1B4-4BA7-43A8-8FCA-CC27867A7922}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{F9D09B0D-FACB-4CCA-872E-286E56965815}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{5A59EF45-A9EA-44F3-BECB-EFED8413DCF6}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{316E9202-338F-4301-AEBE-A9FA398A76CC}"/>
+    <hyperlink ref="C5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
+    <hyperlink ref="C45" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
+    <hyperlink ref="C27" r:id="rId20" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
+    <hyperlink ref="C48" r:id="rId21" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="C46" r:id="rId22" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
+    <hyperlink ref="C147" r:id="rId24" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="C150" r:id="rId25" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="C146" r:id="rId26" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="C151" r:id="rId27" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="C148" r:id="rId28" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="C153" r:id="rId29" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="C144" r:id="rId30" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="C152" r:id="rId31" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="C149" r:id="rId32" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="C19" r:id="rId33" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
+    <hyperlink ref="C52" r:id="rId34" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="C53" r:id="rId35" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="C49" r:id="rId36" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="C25" r:id="rId37" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="C129" r:id="rId38" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="C96" r:id="rId39" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="C130" r:id="rId40" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="C55" r:id="rId41" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="C56" r:id="rId42" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="C140" r:id="rId43" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="C29" r:id="rId44" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
+    <hyperlink ref="C24" r:id="rId45" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
+    <hyperlink ref="C26" r:id="rId46" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
+    <hyperlink ref="C54" r:id="rId47" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
+    <hyperlink ref="C10" r:id="rId48" xr:uid="{467EEBCD-6BD7-4E71-B2C9-FCF3DB57F059}"/>
+    <hyperlink ref="C145" r:id="rId49" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -6455,7 +7394,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6466,19 +7405,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" t="s">
         <v>337</v>
       </c>
-      <c r="G2" t="s">
-        <v>338</v>
-      </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6488,58 +7427,58 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H10" s="13">
         <v>44599</v>
@@ -6547,26 +7486,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" t="s">
         <v>349</v>
-      </c>
-      <c r="E11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13" t="s">
         <v>352</v>
-      </c>
-      <c r="I13" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6596,42 +7535,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" t="s">
         <v>304</v>
       </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -6639,7 +7578,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -6647,7 +7586,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16243105-8E6D-48CA-8964-F18BD2C60D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3004547-AE53-422B-8B12-9012266C0449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77910" yWindow="750" windowWidth="25035" windowHeight="19590" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="25440" yWindow="1050" windowWidth="16080" windowHeight="19590" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="386">
   <si>
     <t>Exarta</t>
   </si>
@@ -1182,6 +1182,72 @@
   </si>
   <si>
     <t>CYDY</t>
+  </si>
+  <si>
+    <t>Celltrion</t>
+  </si>
+  <si>
+    <t>068270 KS</t>
+  </si>
+  <si>
+    <t>Vifor</t>
+  </si>
+  <si>
+    <t>VIFN SW</t>
+  </si>
+  <si>
+    <t>Divi Labs</t>
+  </si>
+  <si>
+    <t>DIVI IN</t>
+  </si>
+  <si>
+    <t>CSPC</t>
+  </si>
+  <si>
+    <t>1093 HK</t>
+  </si>
+  <si>
+    <t>Yunnan Baiyao</t>
+  </si>
+  <si>
+    <t>000538 CH</t>
+  </si>
+  <si>
+    <t>Cipla</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>Recordati</t>
+  </si>
+  <si>
+    <t>REC IM</t>
+  </si>
+  <si>
+    <t>Ipsen</t>
+  </si>
+  <si>
+    <t>IPN</t>
+  </si>
+  <si>
+    <t>SK Bioscience</t>
+  </si>
+  <si>
+    <t>302440 KS</t>
+  </si>
+  <si>
+    <t>Shanghai Junshi</t>
+  </si>
+  <si>
+    <t>1877 HK</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>ORNBV FH</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1271,6 +1337,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1700,6 +1767,93 @@
       <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Biktarvy"/>
+      <sheetName val="Descovy"/>
+      <sheetName val="Genvoya"/>
+      <sheetName val="Veklury"/>
+      <sheetName val="Stribild"/>
+      <sheetName val="Trodelvy"/>
+      <sheetName val="Truvada"/>
+      <sheetName val="Viread"/>
+      <sheetName val="Ranexa"/>
+      <sheetName val="Atripla"/>
+      <sheetName val="Harvoni"/>
+      <sheetName val="IMS Monthly"/>
+      <sheetName val="IMS"/>
+      <sheetName val="Rx"/>
+      <sheetName val="HBV"/>
+      <sheetName val="darusentan"/>
+      <sheetName val="Letairis"/>
+      <sheetName val="Hepsera"/>
+      <sheetName val="HIV"/>
+      <sheetName val="GS 9137"/>
+      <sheetName val="GS 9132"/>
+      <sheetName val="GS9190"/>
+      <sheetName val="sofosbuvir"/>
+      <sheetName val="idelasilib"/>
+      <sheetName val="GS 9451"/>
+      <sheetName val="Cayston"/>
+      <sheetName val="Tamiflu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="J3">
+            <v>1253.3673940000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>7000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>26216</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="Advair"/>
       <sheetName val="Relovair"/>
       <sheetName val="Consumer"/>
@@ -1819,93 +1973,6 @@
       <sheetData sheetId="49" refreshError="1"/>
       <sheetData sheetId="50" refreshError="1"/>
       <sheetData sheetId="51" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Biktarvy"/>
-      <sheetName val="Descovy"/>
-      <sheetName val="Genvoya"/>
-      <sheetName val="Veklury"/>
-      <sheetName val="Stribild"/>
-      <sheetName val="Trodelvy"/>
-      <sheetName val="Truvada"/>
-      <sheetName val="Viread"/>
-      <sheetName val="Ranexa"/>
-      <sheetName val="Atripla"/>
-      <sheetName val="Harvoni"/>
-      <sheetName val="IMS Monthly"/>
-      <sheetName val="IMS"/>
-      <sheetName val="Rx"/>
-      <sheetName val="HBV"/>
-      <sheetName val="darusentan"/>
-      <sheetName val="Letairis"/>
-      <sheetName val="Hepsera"/>
-      <sheetName val="HIV"/>
-      <sheetName val="GS 9137"/>
-      <sheetName val="GS 9132"/>
-      <sheetName val="GS9190"/>
-      <sheetName val="sofosbuvir"/>
-      <sheetName val="idelasilib"/>
-      <sheetName val="GS 9451"/>
-      <sheetName val="Cayston"/>
-      <sheetName val="Tamiflu"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="J3">
-            <v>1253.3673940000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>7000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>26216</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3774,13 +3841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3801,14 +3868,14 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <f ca="1">RANDBETWEEN(1,B145)</f>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(1,B156)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K2" s="9">
         <f>MIN(K4:K24)</f>
-        <v>44792</v>
+        <v>44804</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>321</v>
@@ -4004,7 +4071,7 @@
         <v>344</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <f t="shared" ref="B6:B80" si="1">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -4545,7 +4612,7 @@
         <v>76330.07429460001</v>
       </c>
       <c r="G17" s="6">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <f>+[13]Main!$J$5-[13]Main!$J$6</f>
         <v>-19216</v>
       </c>
       <c r="H17" s="6">
@@ -4553,7 +4620,7 @@
         <v>95546.07429460001</v>
       </c>
       <c r="I17" s="6">
-        <f>+[14]Main!$J$3</f>
+        <f>+[13]Main!$J$3</f>
         <v>1253.3673940000001</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -4585,7 +4652,7 @@
         <v>62427.75</v>
       </c>
       <c r="G18" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
+        <f>([14]Main!$K$6-[14]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H18" s="6">
@@ -4593,14 +4660,14 @@
         <v>85383.77</v>
       </c>
       <c r="I18" s="6">
-        <f>+[13]Main!$K$4</f>
+        <f>+[14]Main!$K$4</f>
         <v>4025</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="9">
-        <v>44792</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4625,7 +4692,7 @@
         <v>63478.365159999994</v>
       </c>
       <c r="G19" s="6">
-        <f>([13]Main!$K$6-[13]Main!$K$7)*GBP</f>
+        <f>([14]Main!$K$6-[14]Main!$K$7)*GBP</f>
         <v>-22956.02</v>
       </c>
       <c r="H19" s="6">
@@ -4633,7 +4700,7 @@
         <v>86434.385159999991</v>
       </c>
       <c r="I19" s="6">
-        <f>+[13]Main!$K$4</f>
+        <f>+[14]Main!$K$4</f>
         <v>4025</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -4641,7 +4708,7 @@
       </c>
       <c r="K19" s="9">
         <f>+K18</f>
-        <v>44792</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -5196,44 +5263,27 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="3">
-        <v>76.08</v>
-      </c>
+      <c r="C44" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>50</v>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E45" s="3">
-        <v>71.27</v>
-      </c>
-      <c r="F45" s="6">
-        <f>+E45*[22]Main!$K$3</f>
-        <v>15786.66213397</v>
-      </c>
-      <c r="G45" s="6">
-        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
-        <v>2721</v>
-      </c>
-      <c r="H45" s="6">
-        <f>F45-G45</f>
-        <v>13065.66213397</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5242,13 +5292,28 @@
         <v>43</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E46" s="3">
-        <v>28.54</v>
+        <v>71.27</v>
+      </c>
+      <c r="F46" s="6">
+        <f>+E46*[22]Main!$K$3</f>
+        <v>15786.66213397</v>
+      </c>
+      <c r="G46" s="6">
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <v>2721</v>
+      </c>
+      <c r="H46" s="6">
+        <f>F46-G46</f>
+        <v>13065.66213397</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5256,14 +5321,14 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
+      <c r="C47" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47" s="3">
-        <v>349.96</v>
+        <v>28.54</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5271,14 +5336,14 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>58</v>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="7">
-        <v>137.09</v>
+        <v>65</v>
+      </c>
+      <c r="E48" s="3">
+        <v>349.96</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -5287,28 +5352,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E49" s="7">
-        <v>132.13999999999999</v>
-      </c>
-      <c r="F49" s="6">
-        <f>E49*[23]Main!$L$3</f>
-        <v>13539.443113239999</v>
-      </c>
-      <c r="G49" s="6">
-        <f>[23]Main!$L$5-[23]Main!$L$6</f>
-        <v>5643.241</v>
-      </c>
-      <c r="H49" s="6">
-        <f>F49-G49</f>
-        <v>7896.2021132399987</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+        <v>137.09</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
@@ -5316,14 +5366,29 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>86</v>
+      <c r="C50" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="3">
-        <v>11.57</v>
+        <v>81</v>
+      </c>
+      <c r="E50" s="7">
+        <v>132.13999999999999</v>
+      </c>
+      <c r="F50" s="6">
+        <f>E50*[23]Main!$L$3</f>
+        <v>13539.443113239999</v>
+      </c>
+      <c r="G50" s="6">
+        <f>[23]Main!$L$5-[23]Main!$L$6</f>
+        <v>5643.241</v>
+      </c>
+      <c r="H50" s="6">
+        <f>F50-G50</f>
+        <v>7896.2021132399987</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -5332,13 +5397,13 @@
         <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="3">
-        <v>145.13999999999999</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
@@ -5346,1916 +5411,2051 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="3">
+        <v>145.13999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <f>B80+1</f>
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="3">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f>B52+1</f>
+        <v>50</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E54" s="7">
         <v>219.38</v>
       </c>
-      <c r="F52" s="6">
-        <f>E52*[24]Main!$K$3</f>
+      <c r="F54" s="6">
+        <f>E54*[24]Main!$K$3</f>
         <v>10464.426000000001</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G54" s="6">
         <f>[24]Main!$K$5-[24]Main!$K$6</f>
         <v>3027</v>
       </c>
-      <c r="H52" s="6">
-        <f>F52-G52</f>
+      <c r="H54" s="6">
+        <f>F54-G54</f>
         <v>7437.4260000000013</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="7">
-        <v>57</v>
-      </c>
-      <c r="F53" s="6">
-        <f>+E53*[25]Main!$L$3</f>
-        <v>6071.7436259999995</v>
-      </c>
-      <c r="G53" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
-        <v>776.13</v>
-      </c>
-      <c r="H53" s="6">
-        <f>+F53-G53</f>
-        <v>5295.6136259999994</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D54" t="s">
-        <v>361</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3.42</v>
-      </c>
-      <c r="F54" s="6">
-        <f>+E54*I54</f>
-        <v>2379.9056977800001</v>
-      </c>
-      <c r="G54" s="6">
-        <f>+[26]Main!$K$5-[26]Main!$K$6</f>
-        <v>1840.732</v>
-      </c>
-      <c r="H54" s="6">
-        <f>+F54-G54</f>
-        <v>539.17369778000011</v>
-      </c>
-      <c r="I54" s="6">
-        <f>+[26]Main!$K$3</f>
-        <v>695.87885900000003</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K54" s="9">
-        <v>44816</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D55" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1721.48</v>
+        <v>136</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="7">
+        <v>57</v>
       </c>
       <c r="F55" s="6">
-        <f>+E55*I55/100*GBP</f>
-        <v>4746.2735717200003</v>
+        <f>+E55*[25]Main!$L$3</f>
+        <v>6071.7436259999995</v>
       </c>
       <c r="G55" s="6">
-        <f>+[27]Main!$K$5-[27]Main!$K$6</f>
-        <v>-337</v>
+        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
+        <v>776.13</v>
       </c>
       <c r="H55" s="6">
         <f>+F55-G55</f>
-        <v>5083.2735717200003</v>
-      </c>
-      <c r="I55" s="6">
-        <f>+[27]Main!$K$3</f>
-        <v>233</v>
+        <v>5295.6136259999994</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>139</v>
+        <v>360</v>
+      </c>
+      <c r="D56" t="s">
+        <v>361</v>
       </c>
       <c r="E56" s="3">
-        <v>28.03</v>
+        <v>3.42</v>
       </c>
       <c r="F56" s="6">
-        <f>+I56*E56</f>
-        <v>4604.0473282500006</v>
+        <f>+E56*I56</f>
+        <v>2379.9056977800001</v>
       </c>
       <c r="G56" s="6">
-        <f>+[28]Main!$L$5-[28]Main!$L$6</f>
-        <v>465.44</v>
+        <f>+[26]Main!$K$5-[26]Main!$K$6</f>
+        <v>1840.732</v>
       </c>
       <c r="H56" s="6">
         <f>+F56-G56</f>
-        <v>4138.607328250001</v>
+        <v>539.17369778000011</v>
       </c>
       <c r="I56" s="6">
-        <f>+[28]Main!$L$3</f>
-        <v>164.25427500000001</v>
+        <f>+[26]Main!$K$3</f>
+        <v>695.87885900000003</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>310</v>
       </c>
       <c r="K56" s="9">
-        <v>44782</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="3">
-        <v>93.28</v>
+        <v>53</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1721.48</v>
+      </c>
+      <c r="F57" s="6">
+        <f>+E57*I57/100*GBP</f>
+        <v>4746.2735717200003</v>
+      </c>
+      <c r="G57" s="6">
+        <f>+[27]Main!$K$5-[27]Main!$K$6</f>
+        <v>-337</v>
+      </c>
+      <c r="H57" s="6">
+        <f>+F57-G57</f>
+        <v>5083.2735717200003</v>
+      </c>
+      <c r="I57" s="6">
+        <f>+[27]Main!$K$3</f>
+        <v>233</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E58" s="3">
-        <v>142.91</v>
+        <v>28.03</v>
+      </c>
+      <c r="F58" s="6">
+        <f>+I58*E58</f>
+        <v>4604.0473282500006</v>
+      </c>
+      <c r="G58" s="6">
+        <f>+[28]Main!$L$5-[28]Main!$L$6</f>
+        <v>465.44</v>
+      </c>
+      <c r="H58" s="6">
+        <f>+F58-G58</f>
+        <v>4138.607328250001</v>
+      </c>
+      <c r="I58" s="6">
+        <f>+[28]Main!$L$3</f>
+        <v>164.25427500000001</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K58" s="9">
+        <v>44782</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>279</v>
-      </c>
-      <c r="D59" t="s">
-        <v>279</v>
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="3">
+        <v>93.28</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7.71</v>
+        <v>376</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>284</v>
-      </c>
-      <c r="D61" t="s">
-        <v>285</v>
+        <f>B59+1</f>
+        <v>56</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="3">
+        <v>142.91</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>280</v>
-      </c>
-      <c r="D63" t="s">
-        <v>281</v>
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7.71</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>277</v>
-      </c>
-      <c r="D64" t="s">
-        <v>278</v>
+        <v>59</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65" t="s">
-        <v>262</v>
+        <v>60</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="3">
-        <v>11.04</v>
+        <v>61</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="3">
-        <v>44.14</v>
+        <v>62</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="3">
-        <v>35.26</v>
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="3">
-        <v>82.53</v>
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>366</v>
+      </c>
+      <c r="D69" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <f t="shared" ref="B70:B133" si="4">B69+1</f>
-        <v>67</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="3">
-        <v>24.78</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>370</v>
+      </c>
+      <c r="D70" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" s="3">
-        <v>4.72</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" s="3">
-        <v>24.53</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="3">
-        <v>23.02</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="3">
-        <v>29.12</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75" s="3">
-        <v>33.17</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="3">
-        <v>53.21</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
-        <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="3">
-        <v>46.23</v>
+        <f>B75+1</f>
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
-        <f t="shared" si="4"/>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="7">
-        <v>70</v>
+        <v>99</v>
+      </c>
+      <c r="E78" s="3">
+        <v>11.04</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
-        <f t="shared" si="4"/>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E79" s="3">
-        <v>18.559999999999999</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="3">
+        <v>35.26</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <f>B53+1</f>
+        <v>76</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="3">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <f t="shared" ref="B82:B144" si="4">B81+1</f>
         <v>77</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" s="3">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B81" s="1">
+      <c r="C82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="3">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="3">
-        <v>19.510000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B82" s="1">
+      <c r="C83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="3">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="3">
-        <v>66.97</v>
-      </c>
-    </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B83" s="1">
+      <c r="C84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="3">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="3">
-        <v>54.94</v>
-      </c>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B84" s="1">
+      <c r="C85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="3">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="3">
-        <v>38.840000000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B85" s="1">
+      <c r="C86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="3">
+        <v>33.17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" s="3">
-        <v>83.92</v>
-      </c>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B86" s="1">
+      <c r="C87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="3">
+        <v>53.21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E86" s="3">
-        <v>60.72</v>
-      </c>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B87" s="1">
+      <c r="C88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="3">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E87" s="7">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B88" s="1">
+      <c r="C89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="3">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B89" s="1">
+      <c r="C90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="C89" t="s">
-        <v>316</v>
-      </c>
-      <c r="D89" t="s">
-        <v>317</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4.26</v>
-      </c>
-      <c r="AC89" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B90" s="1">
+      <c r="C91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="3">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="3">
-        <v>42.98</v>
-      </c>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B91" s="1">
+      <c r="C92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="3">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="3">
-        <v>23.92</v>
-      </c>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B92" s="1">
+      <c r="C93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="3">
+        <v>66.97</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E92" s="3">
-        <v>53.29</v>
-      </c>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B93" s="1">
+      <c r="C94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="3">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="3">
-        <v>74.459999999999994</v>
-      </c>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B94" s="1">
+      <c r="C95" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="3">
+        <v>38.840000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="1">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E94" s="3">
-        <v>48.63</v>
-      </c>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B95" s="1">
+      <c r="C96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="3">
+        <v>83.92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B97" s="1">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E95" s="3">
-        <v>27.73</v>
-      </c>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B96" s="1">
+      <c r="C97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="3">
+        <v>60.72</v>
+      </c>
+    </row>
+    <row r="98" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B98" s="1">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B100" s="1">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="AC100" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B101" s="1">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="3">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B102" s="1">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="3">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B103" s="1">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="3">
+        <v>53.29</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B104" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="3">
+        <v>74.459999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B105" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E105" s="3">
+        <v>48.63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B106" s="1">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="3">
+        <v>27.73</v>
+      </c>
+    </row>
+    <row r="107" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B107" s="1">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E107" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="F96" s="6">
-        <f>+E96*[29]Main!$N$3</f>
+      <c r="F107" s="6">
+        <f>+E107*[29]Main!$N$3</f>
         <v>3152.1980120399994</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G107" s="6">
         <f>+[29]Main!$N$5-[29]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
-      <c r="H96" s="6">
-        <f>+F96-G96</f>
+      <c r="H107" s="6">
+        <f>+F107-G107</f>
         <v>2282.2630120399995</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="1">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E97" s="3">
-        <v>35.770000000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="1">
-        <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" s="3">
-        <v>14.27</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="1">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E99" s="3">
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="1">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E100" s="3">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="1">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" s="3">
-        <v>43.98</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E102" s="3">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="1">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E103" s="3">
-        <v>53.72</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="1">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E104" s="3">
-        <v>21.04</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="1">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="C105" t="s">
-        <v>318</v>
-      </c>
-      <c r="D105" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="1">
+    <row r="108" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B108" s="1">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E106" s="7">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="1">
+      <c r="C108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="3">
+        <v>35.770000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B109" s="1">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E107" s="3">
-        <v>18.579999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="1">
+      <c r="C109" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="3">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="110" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B110" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E108" s="3">
-        <v>16.12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="1">
+      <c r="C110" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="111" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E109" s="3">
-        <v>28.41</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="1">
+      <c r="C111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="3">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="112" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E110" s="3">
-        <v>33.86</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="1">
-        <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="C111" t="s">
-        <v>353</v>
-      </c>
-      <c r="D111" t="s">
-        <v>354</v>
-      </c>
-      <c r="E111" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="1">
-        <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E112" s="3">
-        <v>38.35</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E113" s="3">
-        <v>9.6199999999999992</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E114" s="3">
-        <v>25.49</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="C115" t="s">
-        <v>299</v>
-      </c>
-      <c r="D115" t="s">
-        <v>300</v>
+        <v>110</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" s="3">
+        <v>21.04</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E116" s="3">
-        <v>11.42</v>
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E117" s="3">
-        <v>26.64</v>
+        <v>179</v>
+      </c>
+      <c r="E117" s="7">
+        <v>20.7</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E118" s="3">
-        <v>30.48</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <f t="shared" si="4"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E119" s="3">
-        <v>12.98</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E120" s="3">
-        <v>10.96</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E121" s="3">
-        <v>2.42</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>206</v>
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>353</v>
+      </c>
+      <c r="D122" t="s">
+        <v>354</v>
       </c>
       <c r="E122" s="7">
-        <v>55.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E123" s="3">
-        <v>10.63</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E124" s="3">
-        <v>33.130000000000003</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E125" s="3">
-        <v>31.52</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <f t="shared" si="4"/>
-        <v>123</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E126" s="3">
-        <v>7.62</v>
+        <v>121</v>
+      </c>
+      <c r="C126" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E127" s="3">
-        <v>28.55</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E128" s="3">
-        <v>27.02</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D129" t="s">
-        <v>297</v>
+        <v>124</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E129" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="F129" s="6">
-        <f>E129*[30]Main!$L$3</f>
-        <v>1253.1559559500001</v>
-      </c>
-      <c r="G129" s="6">
-        <f>+[30]Main!$L$5-[30]Main!$L$6</f>
-        <v>112.015</v>
-      </c>
-      <c r="H129" s="6">
-        <f>+F129-G129</f>
-        <v>1141.14095595</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>16</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D130" t="s">
-        <v>308</v>
+        <v>125</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E130" s="3">
-        <v>16.93</v>
-      </c>
-      <c r="F130" s="6">
-        <f>+E130*[31]Main!$L$3</f>
-        <v>1228.5485933099999</v>
-      </c>
-      <c r="G130" s="6">
-        <f>+[31]Main!$L$5-[31]Main!$L$6</f>
-        <v>153.25991400000001</v>
-      </c>
-      <c r="H130" s="6">
-        <f>+F130-G130</f>
-        <v>1075.2886793099999</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="9">
-        <v>44771</v>
-      </c>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
+        <v>12.98</v>
+      </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E131" s="3">
-        <v>3.17</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="E132" s="3">
-        <v>8.76</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E133" s="3">
-        <v>18.010000000000002</v>
+        <v>206</v>
+      </c>
+      <c r="E133" s="7">
+        <v>55.5</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
-        <f t="shared" ref="B134:B158" si="5">B133+1</f>
-        <v>131</v>
-      </c>
-      <c r="C134" t="s">
-        <v>313</v>
-      </c>
-      <c r="D134" t="s">
-        <v>314</v>
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="E134" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="F134" s="3">
-        <v>630</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
-        <f t="shared" si="5"/>
-        <v>132</v>
-      </c>
-      <c r="C135" t="s">
-        <v>311</v>
-      </c>
-      <c r="D135" t="s">
-        <v>312</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E135" s="3">
-        <v>11.93</v>
-      </c>
-      <c r="F135" s="3">
-        <v>516</v>
+        <v>33.130000000000003</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
-        <f t="shared" si="5"/>
-        <v>133</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E136" s="3">
-        <v>5.46</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
-        <f t="shared" si="5"/>
-        <v>134</v>
+        <f t="shared" si="4"/>
+        <v>132</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E137" s="7">
-        <v>36.6</v>
+        <v>214</v>
+      </c>
+      <c r="E137" s="3">
+        <v>7.62</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>133</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E138" s="7">
-        <v>40.24</v>
+        <v>216</v>
+      </c>
+      <c r="E138" s="3">
+        <v>28.55</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
-        <f t="shared" si="5"/>
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>134</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E139" s="3">
-        <v>22.11</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
-        <f t="shared" si="5"/>
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="E140" s="3">
-        <v>3.95</v>
+        <v>15.65</v>
       </c>
       <c r="F140" s="6">
-        <f>+E140*I140</f>
-        <v>37.185714749999995</v>
+        <f>E140*[30]Main!$L$3</f>
+        <v>1253.1559559500001</v>
       </c>
       <c r="G140" s="6">
-        <f>+[32]Main!$N$5-[32]Main!$N$6</f>
-        <v>-7.4640000000000004</v>
+        <f>+[30]Main!$L$5-[30]Main!$L$6</f>
+        <v>112.015</v>
       </c>
       <c r="H140" s="6">
         <f>+F140-G140</f>
-        <v>44.649714749999994</v>
-      </c>
-      <c r="I140" s="6">
-        <f>+[32]Main!$N$3</f>
-        <v>9.4141049999999993</v>
+        <v>1141.14095595</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K140" s="9">
-        <v>44780</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
-        <f t="shared" si="5"/>
-        <v>138</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>234</v>
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" t="s">
+        <v>308</v>
       </c>
       <c r="E141" s="3">
-        <v>10.31</v>
-      </c>
+        <v>16.93</v>
+      </c>
+      <c r="F141" s="6">
+        <f>+E141*[31]Main!$L$3</f>
+        <v>1228.5485933099999</v>
+      </c>
+      <c r="G141" s="6">
+        <f>+[31]Main!$L$5-[31]Main!$L$6</f>
+        <v>153.25991400000001</v>
+      </c>
+      <c r="H141" s="6">
+        <f>+F141-G141</f>
+        <v>1075.2886793099999</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" s="9">
+        <v>44771</v>
+      </c>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
-        <f t="shared" si="5"/>
-        <v>139</v>
+        <f t="shared" si="4"/>
+        <v>137</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E142" s="7">
-        <v>1.3</v>
+        <v>220</v>
+      </c>
+      <c r="E142" s="3">
+        <v>3.17</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
-        <f t="shared" si="5"/>
-        <v>140</v>
+        <f t="shared" si="4"/>
+        <v>138</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E143" s="3">
-        <v>3.35</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
-        <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>239</v>
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E144" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="F144" s="6">
-        <f>E144*[33]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="G144" s="6">
-        <f>[33]Main!$J$5-[33]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="H144" s="8">
-        <f>+F144-G144</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>16</v>
+        <v>18.010000000000002</v>
       </c>
     </row>
     <row r="145" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
-        <f t="shared" si="5"/>
-        <v>142</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E145" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F145" s="6">
-        <f>+E145*I145</f>
-        <v>486.43225439999998</v>
-      </c>
-      <c r="G145" s="6">
-        <f>+[34]Main!$K$5-[34]Main!$K$6</f>
-        <v>-37.984000000000002</v>
-      </c>
-      <c r="H145" s="8">
-        <f t="shared" ref="H145" si="6">+F145-G145</f>
-        <v>524.41625439999996</v>
-      </c>
-      <c r="I145" s="6">
-        <f>+[34]Main!$K$3</f>
-        <v>810.72042399999998</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K145" s="9">
-        <v>44816</v>
-      </c>
-      <c r="AC145" s="1">
-        <v>2002</v>
+        <f t="shared" ref="B145:B169" si="5">B144+1</f>
+        <v>140</v>
+      </c>
+      <c r="C145" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" t="s">
+        <v>314</v>
+      </c>
+      <c r="E145" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="F145" s="3">
+        <v>630</v>
       </c>
     </row>
     <row r="146" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <f t="shared" si="5"/>
-        <v>143</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>242</v>
+        <v>141</v>
+      </c>
+      <c r="C146" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" t="s">
+        <v>312</v>
       </c>
       <c r="E146" s="3">
-        <v>14.68</v>
-      </c>
-      <c r="F146" s="6">
-        <f>E146*[35]Main!$L$3</f>
-        <v>587.26396075999992</v>
-      </c>
-      <c r="G146" s="6">
-        <f>[35]Main!$L$5-[35]Main!$L$6</f>
-        <v>277.88299999999998</v>
-      </c>
-      <c r="H146" s="8">
-        <f>+F146-G146</f>
-        <v>309.38096075999994</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>16</v>
+        <v>11.93</v>
+      </c>
+      <c r="F146" s="3">
+        <v>516</v>
       </c>
     </row>
     <row r="147" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>243</v>
+        <v>142</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E147" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F147" s="6">
-        <f>E147*[36]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="G147" s="8">
-        <f>+[36]Main!$J$5-[36]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="H147" s="8">
-        <f>+F147-G147</f>
-        <v>220.39615336000003</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>16</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="148" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <f t="shared" si="5"/>
-        <v>145</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>245</v>
+        <v>143</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E148" s="3">
-        <v>7.57</v>
-      </c>
-      <c r="F148" s="6">
-        <f>E148*[37]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="G148" s="6">
-        <f>[37]Main!$M$5-[37]Main!$M$6</f>
-        <v>120.43700000000001</v>
-      </c>
-      <c r="H148" s="8">
-        <f t="shared" ref="H148:H153" si="7">+F148-G148</f>
-        <v>218.02283246000002</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>16</v>
+        <v>228</v>
+      </c>
+      <c r="E148" s="7">
+        <v>36.6</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <f t="shared" si="5"/>
-        <v>146</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>247</v>
+        <v>144</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E149" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F149" s="6">
-        <f>E149*[38]Main!$M$3</f>
-        <v>128.9392503</v>
-      </c>
-      <c r="G149" s="6">
-        <f>[38]Main!$M$5-[38]Main!$M$6</f>
-        <v>-59.50200000000001</v>
-      </c>
-      <c r="H149" s="8">
-        <f t="shared" si="7"/>
-        <v>188.44125030000001</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>16</v>
+        <v>40.24</v>
       </c>
     </row>
     <row r="150" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <f t="shared" si="5"/>
-        <v>147</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>249</v>
+        <v>145</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E150" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="F150" s="6">
-        <f>E150*[39]Main!$N$3</f>
-        <v>39.757463459999997</v>
-      </c>
-      <c r="G150" s="6">
-        <f>[39]Main!$N$5-[39]Main!$N$6</f>
-        <v>15.942</v>
-      </c>
-      <c r="H150" s="8">
-        <f t="shared" si="7"/>
-        <v>23.815463459999997</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>16</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="151" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
         <f t="shared" si="5"/>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>252</v>
+        <v>331</v>
+      </c>
+      <c r="D151" t="s">
+        <v>332</v>
       </c>
       <c r="E151" s="3">
-        <v>0.62</v>
+        <v>3.95</v>
       </c>
       <c r="F151" s="6">
-        <f>E151*[40]Main!$L$3</f>
-        <v>30.1881658</v>
+        <f>+E151*I151</f>
+        <v>37.185714749999995</v>
       </c>
       <c r="G151" s="6">
-        <f>[40]Main!$L$5-[40]Main!$L$6</f>
-        <v>13.262999999999998</v>
-      </c>
-      <c r="H151" s="8">
-        <f t="shared" si="7"/>
-        <v>16.925165800000002</v>
+        <f>+[32]Main!$N$5-[32]Main!$N$6</f>
+        <v>-7.4640000000000004</v>
+      </c>
+      <c r="H151" s="6">
+        <f>+F151-G151</f>
+        <v>44.649714749999994</v>
+      </c>
+      <c r="I151" s="6">
+        <f>+[32]Main!$N$3</f>
+        <v>9.4141049999999993</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
+      </c>
+      <c r="K151" s="9">
+        <v>44780</v>
       </c>
     </row>
     <row r="152" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
         <f t="shared" si="5"/>
-        <v>149</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>253</v>
+        <v>147</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E152" s="3">
-        <v>6.12</v>
-      </c>
-      <c r="F152" s="6">
-        <f>E152*[41]Main!$M$3</f>
-        <v>125.46108324000001</v>
-      </c>
-      <c r="G152" s="6">
-        <f>[41]Main!$M$5-[41]Main!$M$6</f>
-        <v>131.17699999999999</v>
-      </c>
-      <c r="H152" s="8">
-        <f t="shared" si="7"/>
-        <v>-5.7159167599999847</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>16</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="153" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>255</v>
+        <v>148</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E153" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="F153" s="6">
-        <f>E153*[42]Main!$M$3</f>
-        <v>20.935517539999999</v>
-      </c>
-      <c r="G153" s="6">
-        <f>[42]Main!$M$5-[42]Main!$M$6</f>
-        <v>55.28</v>
-      </c>
-      <c r="H153" s="8">
-        <f t="shared" si="7"/>
-        <v>-34.344482460000002</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>16</v>
+        <v>236</v>
+      </c>
+      <c r="E153" s="7">
+        <v>1.3</v>
       </c>
     </row>
     <row r="154" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <f t="shared" si="5"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E154" s="3">
-        <v>0.61</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <f t="shared" si="5"/>
-        <v>152</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>259</v>
+        <v>150</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E155" s="3">
-        <v>5.55</v>
+        <v>7.06</v>
+      </c>
+      <c r="F155" s="6">
+        <f>E155*[33]Main!$J$3</f>
+        <v>725.62786605999997</v>
+      </c>
+      <c r="G155" s="6">
+        <f>[33]Main!$J$5-[33]Main!$J$6</f>
+        <v>197.79600000000002</v>
+      </c>
+      <c r="H155" s="8">
+        <f>+F155-G155</f>
+        <v>527.83186605999992</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <f t="shared" si="5"/>
-        <v>153</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D156" t="s">
-        <v>359</v>
+        <v>151</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="E156" s="7">
-        <v>4.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="F156" s="6">
+        <f>+E156*I156</f>
+        <v>486.43225439999998</v>
+      </c>
+      <c r="G156" s="6">
+        <f>+[34]Main!$K$5-[34]Main!$K$6</f>
+        <v>-37.984000000000002</v>
+      </c>
+      <c r="H156" s="8">
+        <f t="shared" ref="H156" si="6">+F156-G156</f>
+        <v>524.41625439999996</v>
+      </c>
+      <c r="I156" s="6">
+        <f>+[34]Main!$K$3</f>
+        <v>810.72042399999998</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K156" s="9">
+        <v>44816</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>2002</v>
       </c>
     </row>
     <row r="157" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <f t="shared" si="5"/>
-        <v>154</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D157" t="s">
-        <v>343</v>
-      </c>
-      <c r="E157" s="7">
-        <v>4</v>
+        <v>152</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E157" s="3">
+        <v>14.68</v>
+      </c>
+      <c r="F157" s="6">
+        <f>E157*[35]Main!$L$3</f>
+        <v>587.26396075999992</v>
+      </c>
+      <c r="G157" s="6">
+        <f>[35]Main!$L$5-[35]Main!$L$6</f>
+        <v>277.88299999999998</v>
+      </c>
+      <c r="H157" s="8">
+        <f>+F157-G157</f>
+        <v>309.38096075999994</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E158" s="3">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F158" s="6">
+        <f>E158*[36]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G158" s="8">
+        <f>+[36]Main!$J$5-[36]Main!$J$6</f>
+        <v>92.317999999999998</v>
+      </c>
+      <c r="H158" s="8">
+        <f>+F158-G158</f>
+        <v>220.39615336000003</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E159" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="F159" s="6">
+        <f>E159*[37]Main!$M$3</f>
+        <v>338.45983246000003</v>
+      </c>
+      <c r="G159" s="6">
+        <f>[37]Main!$M$5-[37]Main!$M$6</f>
+        <v>120.43700000000001</v>
+      </c>
+      <c r="H159" s="8">
+        <f t="shared" ref="H159:H164" si="7">+F159-G159</f>
+        <v>218.02283246000002</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B160" s="1">
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F160" s="6">
+        <f>E160*[38]Main!$M$3</f>
+        <v>128.9392503</v>
+      </c>
+      <c r="G160" s="6">
+        <f>[38]Main!$M$5-[38]Main!$M$6</f>
+        <v>-59.50200000000001</v>
+      </c>
+      <c r="H160" s="8">
+        <f t="shared" si="7"/>
+        <v>188.44125030000001</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="F161" s="6">
+        <f>E161*[39]Main!$N$3</f>
+        <v>39.757463459999997</v>
+      </c>
+      <c r="G161" s="6">
+        <f>[39]Main!$N$5-[39]Main!$N$6</f>
+        <v>15.942</v>
+      </c>
+      <c r="H161" s="8">
+        <f t="shared" si="7"/>
+        <v>23.815463459999997</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B162" s="1">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F162" s="6">
+        <f>E162*[40]Main!$L$3</f>
+        <v>30.1881658</v>
+      </c>
+      <c r="G162" s="6">
+        <f>[40]Main!$L$5-[40]Main!$L$6</f>
+        <v>13.262999999999998</v>
+      </c>
+      <c r="H162" s="8">
+        <f t="shared" si="7"/>
+        <v>16.925165800000002</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B163" s="1">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E163" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="F163" s="6">
+        <f>E163*[41]Main!$M$3</f>
+        <v>125.46108324000001</v>
+      </c>
+      <c r="G163" s="6">
+        <f>[41]Main!$M$5-[41]Main!$M$6</f>
+        <v>131.17699999999999</v>
+      </c>
+      <c r="H163" s="8">
+        <f t="shared" si="7"/>
+        <v>-5.7159167599999847</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B164" s="1">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F164" s="6">
+        <f>E164*[42]Main!$M$3</f>
+        <v>20.935517539999999</v>
+      </c>
+      <c r="G164" s="6">
+        <f>[42]Main!$M$5-[42]Main!$M$6</f>
+        <v>55.28</v>
+      </c>
+      <c r="H164" s="8">
+        <f t="shared" si="7"/>
+        <v>-34.344482460000002</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B165" s="1">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B166" s="1">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E166" s="3">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B167" s="1">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" t="s">
+        <v>359</v>
+      </c>
+      <c r="E167" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D168" t="s">
+        <v>343</v>
+      </c>
+      <c r="E168" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B169" s="1">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="C169" t="s">
         <v>346</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D169" t="s">
         <v>347</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E169" s="3">
         <v>20.18</v>
       </c>
     </row>
@@ -7282,38 +7482,38 @@
     <hyperlink ref="C5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
     <hyperlink ref="C22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
-    <hyperlink ref="C45" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
+    <hyperlink ref="C46" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="C23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="C27" r:id="rId20" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
-    <hyperlink ref="C48" r:id="rId21" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
-    <hyperlink ref="C46" r:id="rId22" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
+    <hyperlink ref="C49" r:id="rId21" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
+    <hyperlink ref="C47" r:id="rId22" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
     <hyperlink ref="C28" r:id="rId23" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="C147" r:id="rId24" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="C150" r:id="rId25" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="C146" r:id="rId26" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="C151" r:id="rId27" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="C148" r:id="rId28" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="C153" r:id="rId29" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="C144" r:id="rId30" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="C152" r:id="rId31" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="C149" r:id="rId32" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="C158" r:id="rId24" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="C161" r:id="rId25" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="C157" r:id="rId26" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="C162" r:id="rId27" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="C159" r:id="rId28" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="C164" r:id="rId29" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="C155" r:id="rId30" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="C163" r:id="rId31" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="C160" r:id="rId32" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="C19" r:id="rId33" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="C52" r:id="rId34" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
-    <hyperlink ref="C53" r:id="rId35" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="C49" r:id="rId36" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="C54" r:id="rId34" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="C55" r:id="rId35" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="C50" r:id="rId36" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="C25" r:id="rId37" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="C129" r:id="rId38" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="C96" r:id="rId39" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="C130" r:id="rId40" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
-    <hyperlink ref="C55" r:id="rId41" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
-    <hyperlink ref="C56" r:id="rId42" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="C140" r:id="rId43" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="C140" r:id="rId38" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="C107" r:id="rId39" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="C141" r:id="rId40" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="C57" r:id="rId41" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="C58" r:id="rId42" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="C151" r:id="rId43" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
     <hyperlink ref="C29" r:id="rId44" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
     <hyperlink ref="C24" r:id="rId45" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
     <hyperlink ref="C26" r:id="rId46" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
-    <hyperlink ref="C54" r:id="rId47" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
+    <hyperlink ref="C56" r:id="rId47" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
     <hyperlink ref="C10" r:id="rId48" xr:uid="{467EEBCD-6BD7-4E71-B2C9-FCF3DB57F059}"/>
-    <hyperlink ref="C145" r:id="rId49" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
+    <hyperlink ref="C156" r:id="rId49" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3004547-AE53-422B-8B12-9012266C0449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1174BDF-E346-4444-80F4-498F9C114AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25440" yWindow="1050" windowWidth="16080" windowHeight="19590" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="13920" yWindow="1440" windowWidth="31890" windowHeight="19365" activeTab="2" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,10 @@
     <externalReference r:id="rId44"/>
     <externalReference r:id="rId45"/>
     <externalReference r:id="rId46"/>
+    <externalReference r:id="rId47"/>
+    <externalReference r:id="rId48"/>
+    <externalReference r:id="rId49"/>
+    <externalReference r:id="rId50"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -69,6 +73,7 @@
     <definedName name="DKKUSD">#REF!</definedName>
     <definedName name="EUR">FX!$C$4</definedName>
     <definedName name="GBP">FX!$C$6</definedName>
+    <definedName name="JPY">FX!$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="397">
   <si>
     <t>Exarta</t>
   </si>
@@ -1248,6 +1253,39 @@
   </si>
   <si>
     <t>ORNBV FH</t>
+  </si>
+  <si>
+    <t>USD/JPY</t>
+  </si>
+  <si>
+    <t>Springworks</t>
+  </si>
+  <si>
+    <t>SWTX</t>
+  </si>
+  <si>
+    <t>CanSino</t>
+  </si>
+  <si>
+    <t>6185 HK</t>
+  </si>
+  <si>
+    <t>Bharat</t>
+  </si>
+  <si>
+    <t>BIBCL</t>
+  </si>
+  <si>
+    <t>Shanghai Fosun</t>
+  </si>
+  <si>
+    <t>600196 CH</t>
+  </si>
+  <si>
+    <t>2196 HK</t>
+  </si>
+  <si>
+    <t>Meissa Vaccines</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1337,7 +1375,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1397,7 +1434,7 @@
       <sheetName val="DePuy Model"/>
       <sheetName val="LifeScan"/>
       <sheetName val="Vision"/>
-      <sheetName val="Cordis"/>
+      <sheetName val="Interventional"/>
       <sheetName val="EndoSurgery"/>
       <sheetName val="Ethicon"/>
       <sheetName val="Ultram"/>
@@ -1796,7 +1833,7 @@
       <sheetName val="Tamiflu"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="J3">
@@ -1814,34 +1851,34 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1854,20 +1891,21 @@
       <sheetName val="Master"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Triumeq"/>
       <sheetName val="Advair"/>
+      <sheetName val="Zejula"/>
       <sheetName val="Relovair"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Avandia"/>
       <sheetName val="Valtrex"/>
       <sheetName val="Serevent"/>
-      <sheetName val="Votrient"/>
       <sheetName val="Avodart"/>
       <sheetName val="Flovent"/>
+      <sheetName val="Consumer"/>
       <sheetName val="Tykerb"/>
       <sheetName val="Imitrex"/>
       <sheetName val="Lamictal"/>
       <sheetName val="Trexima"/>
       <sheetName val="Combivir"/>
+      <sheetName val="Votrient"/>
       <sheetName val="Allermist"/>
       <sheetName val="Avandaryl"/>
       <sheetName val="Trizivir"/>
@@ -1897,82 +1935,83 @@
       <sheetName val="Pandemrix"/>
       <sheetName val="MenHibrix"/>
       <sheetName val="Rotarix"/>
-      <sheetName val="darapladib"/>
       <sheetName val="Synflorix"/>
       <sheetName val="GSK572"/>
       <sheetName val="mepolizumab"/>
       <sheetName val="denosumab"/>
       <sheetName val="Syncria"/>
+      <sheetName val="Avandia"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="4">
-          <cell r="K4">
+          <cell r="J4">
             <v>4025</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
+          <cell r="J6">
             <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="K7">
+          <cell r="J7">
             <v>19400</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2036,6 +2075,55 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Prevacid"/>
+      <sheetName val="Lupron"/>
+      <sheetName val="Dexilant"/>
+      <sheetName val="SYR-322"/>
+      <sheetName val="475"/>
+      <sheetName val="Velcade"/>
+      <sheetName val="Actos"/>
+      <sheetName val="literature"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="K4">
+            <v>1545.7056210000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1046141</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>5111117</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2088,7 +2176,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2120,45 +2208,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>391.199544</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>18059</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2208,31 +2265,64 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1212.326908</v>
+          <cell r="L3">
+            <v>391.199544</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>752.4</v>
+          <cell r="L5">
+            <v>18059</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>19417.900000000001</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.5809400000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2265,7 +2355,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2332,7 +2422,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2363,7 +2453,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2402,7 +2492,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2435,7 +2525,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2472,7 +2562,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2501,7 +2591,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2541,37 +2631,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>311.48201699999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>869.93499999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2684,22 +2743,22 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="sabizabulin"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>80.073863000000003</v>
+          <cell r="N3">
+            <v>311.48201699999998</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>112.015</v>
+          <cell r="N5">
+            <v>869.93499999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="N6">
             <v>0</v>
           </cell>
         </row>
@@ -2711,6 +2770,97 @@
 </file>
 
 <file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>70.354594000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>1178.8610000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="nirogacestat"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>58.068182</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>566.44900000000007</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="sabizabulin"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.073863000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>112.015</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2751,7 +2901,36 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>121.89977399999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>601.89099999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0.30099999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2780,7 +2959,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2823,7 +3002,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2844,128 +3023,6 @@
         <row r="6">
           <cell r="K6">
             <v>42.215000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>184.19892899999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>67.233999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -2983,18 +3040,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3087,25 +3144,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3121,12 +3184,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>20.500177000000001</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>131.17699999999999</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -3141,6 +3204,122 @@
 </file>
 
 <file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>184.19892899999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>67.233999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>126.736</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>20.079526999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>16.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0.69799999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>48.69059</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18.687999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>5.4249999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3841,13 +4020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3868,14 +4047,14 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <f ca="1">RANDBETWEEN(1,B156)</f>
-        <v>93</v>
+        <f ca="1">RANDBETWEEN(1,B160)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K2" s="9">
-        <f>MIN(K4:K24)</f>
-        <v>44804</v>
+        <f>MIN(K4:K31)</f>
+        <v>44808</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>321</v>
@@ -4013,7 +4192,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="9">
-        <v>44804</v>
+        <v>44828</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -4071,7 +4250,7 @@
         <v>344</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B80" si="1">B5+1</f>
+        <f t="shared" ref="B6:B72" si="1">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -4536,7 +4715,7 @@
         <v>-12400.887000000001</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H24" si="3">F15-G15</f>
+        <f t="shared" ref="H15:H26" si="3">F15-G15</f>
         <v>135499.28700000001</v>
       </c>
       <c r="I15" s="6">
@@ -4595,8 +4774,8 @@
         <v>344</v>
       </c>
       <c r="B17" s="1">
-        <f>B19+1</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>46</v>
@@ -4635,8 +4814,8 @@
         <v>344</v>
       </c>
       <c r="B18" s="1">
-        <f>B16+1</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
@@ -4652,19 +4831,19 @@
         <v>62427.75</v>
       </c>
       <c r="G18" s="6">
-        <f>([14]Main!$K$6-[14]Main!$K$7)*GBP</f>
-        <v>-22956.02</v>
+        <f>+[14]Main!$J$6-[14]Main!$J$7</f>
+        <v>-19400</v>
       </c>
       <c r="H18" s="6">
         <f>F18-G18</f>
-        <v>85383.77</v>
+        <v>81827.75</v>
       </c>
       <c r="I18" s="6">
-        <f>+[14]Main!$K$4</f>
+        <f>+[14]Main!$J$4</f>
         <v>4025</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="K18" s="9">
         <v>44821</v>
@@ -4675,8 +4854,8 @@
         <v>344</v>
       </c>
       <c r="B19" s="1">
-        <f>B18+1</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>40</v>
@@ -4692,19 +4871,19 @@
         <v>63478.365159999994</v>
       </c>
       <c r="G19" s="6">
-        <f>([14]Main!$K$6-[14]Main!$K$7)*GBP</f>
-        <v>-22956.02</v>
+        <f>+[14]Main!$J$6-[14]Main!$J$7</f>
+        <v>-19400</v>
       </c>
       <c r="H19" s="6">
         <f>F19-G19</f>
-        <v>86434.385159999991</v>
+        <v>82878.365159999987</v>
       </c>
       <c r="I19" s="6">
-        <f>+[14]Main!$K$4</f>
+        <f>+I18</f>
         <v>4025</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="K19" s="9">
         <f>+K18</f>
@@ -4716,7 +4895,7 @@
         <v>344</v>
       </c>
       <c r="B20" s="1">
-        <f>B17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -4799,35 +4978,35 @@
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="7">
-        <v>288</v>
+        <v>63</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13.12</v>
       </c>
       <c r="F22" s="6">
-        <f>+E22*[17]Main!$M$3</f>
-        <v>73728</v>
+        <f>+E22*2*I22</f>
+        <v>40559.315495039998</v>
       </c>
       <c r="G22" s="6">
-        <f>+[17]Main!$M$5-[17]Main!$M$6</f>
-        <v>9253.4</v>
+        <f>([17]Main!$K$6-[17]Main!$K$7)/JPY</f>
+        <v>-28305.661165656984</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
-        <v>64474.6</v>
+        <f>+F22-G22</f>
+        <v>68864.976660696979</v>
       </c>
       <c r="I22" s="6">
-        <f>+[17]Main!$M$3</f>
-        <v>256</v>
+        <f>+[17]Main!$K$4</f>
+        <v>1545.7056210000001</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="K22" s="9">
-        <v>44813</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4839,35 +5018,35 @@
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="7">
-        <v>700</v>
+        <v>345</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3842</v>
       </c>
       <c r="F23" s="6">
-        <f>+E23*I23</f>
-        <v>76662.702200000014</v>
+        <f>+E23*I23/JPY</f>
+        <v>41352.280453185704</v>
       </c>
       <c r="G23" s="6">
-        <f>+[18]Main!$J$5-[18]Main!$J$6</f>
-        <v>12001.599999999999</v>
+        <f>([17]Main!$K$6-[17]Main!$K$7)/JPY</f>
+        <v>-28305.661165656984</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
-        <v>64661.102200000016</v>
+        <f>+F23-G23</f>
+        <v>69657.941618842684</v>
       </c>
       <c r="I23" s="6">
-        <f>+[18]Main!$J$3</f>
-        <v>109.51814600000002</v>
+        <f>+[17]Main!$K$4</f>
+        <v>1545.7056210000001</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>310</v>
       </c>
       <c r="K23" s="9">
-        <v>44820</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4878,110 +5057,120 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>54</v>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E24" s="7">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c r="F24" s="6">
-        <f>+E24*I24</f>
-        <v>55550.335248000003</v>
+        <f>+E24*[18]Main!$M$3</f>
+        <v>73728</v>
       </c>
       <c r="G24" s="6">
-        <f>+[19]Main!$L$5-[19]Main!$L$6</f>
-        <v>18059</v>
+        <f>+[18]Main!$M$5-[18]Main!$M$6</f>
+        <v>9253.4</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="3"/>
-        <v>37491.335248000003</v>
+        <v>64474.6</v>
       </c>
       <c r="I24" s="6">
-        <f>+[19]Main!$L$3</f>
-        <v>391.199544</v>
+        <f>+[18]Main!$M$3</f>
+        <v>256</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="K24" s="9">
-        <v>44814</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>344</v>
+      </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10.46</v>
+        <v>53</v>
+      </c>
+      <c r="E25" s="7">
+        <v>700</v>
       </c>
       <c r="F25" s="6">
-        <f>E25*[20]Main!$M$3</f>
-        <v>12680.93945768</v>
+        <f>+E25*I25</f>
+        <v>76662.702200000014</v>
       </c>
       <c r="G25" s="6">
-        <f>[20]Main!$M$5-[20]Main!$M$6</f>
-        <v>-18665.5</v>
+        <f>+[19]Main!$J$5-[19]Main!$J$6</f>
+        <v>12001.599999999999</v>
       </c>
       <c r="H25" s="6">
-        <f>F25-G25</f>
-        <v>31346.43945768</v>
+        <f t="shared" si="3"/>
+        <v>64661.102200000016</v>
+      </c>
+      <c r="I25" s="6">
+        <f>+[19]Main!$J$3</f>
+        <v>109.51814600000002</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
+      </c>
+      <c r="K25" s="9">
+        <v>44820</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>344</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
+      <c r="C26" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E26" s="7">
-        <v>150.91</v>
+        <v>142</v>
       </c>
       <c r="F26" s="6">
         <f>+E26*I26</f>
-        <v>36623.653864910004</v>
+        <v>55550.335248000003</v>
       </c>
       <c r="G26" s="6">
-        <f>+[21]Main!$K$5-[21]Main!$K$6</f>
-        <v>8320.9</v>
+        <f>+[20]Main!$L$5-[20]Main!$L$6</f>
+        <v>18059</v>
       </c>
       <c r="H26" s="6">
-        <f>+F26-G26</f>
-        <v>28302.753864910002</v>
+        <f t="shared" si="3"/>
+        <v>37491.335248000003</v>
       </c>
       <c r="I26" s="6">
-        <f>+[21]Main!$K$3</f>
-        <v>242.68540100000001</v>
+        <f>+[20]Main!$L$3</f>
+        <v>391.199544</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>310</v>
       </c>
       <c r="K26" s="9">
-        <v>44815</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B27" s="1">
@@ -4989,17 +5178,39 @@
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3311</v>
+        <v>77</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8.69</v>
+      </c>
+      <c r="F27" s="6">
+        <f>E27*[21]Main!$M$3</f>
+        <v>10537.3283686</v>
+      </c>
+      <c r="G27" s="6">
+        <f>[21]Main!$M$5-[21]Main!$M$6</f>
+        <v>-18665.5</v>
+      </c>
+      <c r="H27" s="6">
+        <f>F27-G27</f>
+        <v>29202.8283686</v>
+      </c>
+      <c r="I27" s="6">
+        <f>+[21]Main!$M$3</f>
+        <v>1212.5809400000001</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K27" s="9">
+        <v>44828</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B28" s="1">
@@ -5007,13 +5218,35 @@
         <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="3">
-        <v>13.12</v>
+        <v>75</v>
+      </c>
+      <c r="E28" s="7">
+        <v>150.91</v>
+      </c>
+      <c r="F28" s="6">
+        <f>+E28*I28</f>
+        <v>36623.653864910004</v>
+      </c>
+      <c r="G28" s="6">
+        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <v>8320.9</v>
+      </c>
+      <c r="H28" s="6">
+        <f>+F28-G28</f>
+        <v>28302.753864910002</v>
+      </c>
+      <c r="I28" s="6">
+        <f>+[22]Main!$K$3</f>
+        <v>242.68540100000001</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" s="9">
+        <v>44815</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5025,10 +5258,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>345</v>
+        <v>57</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3311</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5123,7 +5359,7 @@
       <c r="D35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="7">
         <v>165.45</v>
       </c>
     </row>
@@ -5263,10 +5499,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" t="s">
         <v>365</v>
       </c>
       <c r="E44" s="6"/>
@@ -5301,11 +5537,11 @@
         <v>71.27</v>
       </c>
       <c r="F46" s="6">
-        <f>+E46*[22]Main!$K$3</f>
+        <f>+E46*[23]Main!$K$3</f>
         <v>15786.66213397</v>
       </c>
       <c r="G46" s="6">
-        <f>+[22]Main!$K$5-[22]Main!$K$6</f>
+        <f>+[23]Main!$K$5-[23]Main!$K$6</f>
         <v>2721</v>
       </c>
       <c r="H46" s="6">
@@ -5346,7 +5582,7 @@
         <v>349.96</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5361,7 +5597,7 @@
         <v>137.09</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5376,11 +5612,11 @@
         <v>132.13999999999999</v>
       </c>
       <c r="F50" s="6">
-        <f>E50*[23]Main!$L$3</f>
+        <f>E50*[24]Main!$L$3</f>
         <v>13539.443113239999</v>
       </c>
       <c r="G50" s="6">
-        <f>[23]Main!$L$5-[23]Main!$L$6</f>
+        <f>[24]Main!$L$5-[24]Main!$L$6</f>
         <v>5643.241</v>
       </c>
       <c r="H50" s="6">
@@ -5391,7 +5627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5406,7 +5642,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5421,1814 +5657,1813 @@
         <v>145.13999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="B53" s="1">
-        <f>B80+1</f>
-        <v>75</v>
-      </c>
-      <c r="C53" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="3">
         <v>82.53</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
-        <f>B52+1</f>
-        <v>50</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="7">
-        <v>219.38</v>
-      </c>
-      <c r="F54" s="6">
-        <f>E54*[24]Main!$K$3</f>
-        <v>10464.426000000001</v>
-      </c>
-      <c r="G54" s="6">
-        <f>[24]Main!$K$5-[24]Main!$K$6</f>
-        <v>3027</v>
-      </c>
-      <c r="H54" s="6">
-        <f>F54-G54</f>
-        <v>7437.4260000000013</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E55" s="7">
-        <v>57</v>
+        <v>219.38</v>
       </c>
       <c r="F55" s="6">
-        <f>+E55*[25]Main!$L$3</f>
-        <v>6071.7436259999995</v>
+        <f>E55*[25]Main!$K$3</f>
+        <v>10464.426000000001</v>
       </c>
       <c r="G55" s="6">
-        <f>+[25]Main!$L$5-[25]Main!$L$6</f>
-        <v>776.13</v>
+        <f>[25]Main!$K$5-[25]Main!$K$6</f>
+        <v>3027</v>
       </c>
       <c r="H55" s="6">
-        <f>+F55-G55</f>
-        <v>5295.6136259999994</v>
+        <f>F55-G55</f>
+        <v>7437.4260000000013</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D56" t="s">
-        <v>361</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3.42</v>
+        <v>136</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="7">
+        <v>57</v>
       </c>
       <c r="F56" s="6">
-        <f>+E56*I56</f>
-        <v>2379.9056977800001</v>
+        <f>+E56*[26]Main!$L$3</f>
+        <v>6071.7436259999995</v>
       </c>
       <c r="G56" s="6">
-        <f>+[26]Main!$K$5-[26]Main!$K$6</f>
-        <v>1840.732</v>
+        <f>+[26]Main!$L$5-[26]Main!$L$6</f>
+        <v>776.13</v>
       </c>
       <c r="H56" s="6">
         <f>+F56-G56</f>
-        <v>539.17369778000011</v>
-      </c>
-      <c r="I56" s="6">
-        <f>+[26]Main!$K$3</f>
-        <v>695.87885900000003</v>
+        <v>5295.6136259999994</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K56" s="9">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1721.48</v>
+        <v>361</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3.42</v>
       </c>
       <c r="F57" s="6">
-        <f>+E57*I57/100*GBP</f>
-        <v>4746.2735717200003</v>
+        <f>+E57*I57</f>
+        <v>2379.9056977800001</v>
       </c>
       <c r="G57" s="6">
         <f>+[27]Main!$K$5-[27]Main!$K$6</f>
-        <v>-337</v>
+        <v>1840.732</v>
       </c>
       <c r="H57" s="6">
         <f>+F57-G57</f>
-        <v>5083.2735717200003</v>
+        <v>539.17369778000011</v>
       </c>
       <c r="I57" s="6">
         <f>+[27]Main!$K$3</f>
-        <v>233</v>
+        <v>695.87885900000003</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="K57" s="9">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="3">
-        <v>28.03</v>
+        <v>305</v>
+      </c>
+      <c r="D58" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1721.48</v>
       </c>
       <c r="F58" s="6">
-        <f>+I58*E58</f>
-        <v>4604.0473282500006</v>
+        <f>+E58*I58/100*GBP</f>
+        <v>4746.2735717200003</v>
       </c>
       <c r="G58" s="6">
-        <f>+[28]Main!$L$5-[28]Main!$L$6</f>
-        <v>465.44</v>
+        <f>+[28]Main!$K$5-[28]Main!$K$6</f>
+        <v>-337</v>
       </c>
       <c r="H58" s="6">
         <f>+F58-G58</f>
-        <v>4138.607328250001</v>
+        <v>5083.2735717200003</v>
       </c>
       <c r="I58" s="6">
-        <f>+[28]Main!$L$3</f>
-        <v>164.25427500000001</v>
+        <f>+[28]Main!$K$3</f>
+        <v>233</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K58" s="9">
-        <v>44782</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E59" s="3">
-        <v>93.28</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+        <v>28.03</v>
+      </c>
+      <c r="F59" s="6">
+        <f>+I59*E59</f>
+        <v>4604.0473282500006</v>
+      </c>
+      <c r="G59" s="6">
+        <f>+[29]Main!$L$5-[29]Main!$L$6</f>
+        <v>465.44</v>
+      </c>
+      <c r="H59" s="6">
+        <f>+F59-G59</f>
+        <v>4138.607328250001</v>
+      </c>
+      <c r="I59" s="6">
+        <f>+[29]Main!$L$3</f>
+        <v>164.25427500000001</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K59" s="9">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="3">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D61" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <f>B59+1</f>
-        <v>56</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="3">
-        <v>142.91</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C62" t="s">
-        <v>279</v>
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="3">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="D63" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>381</v>
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="3">
+        <v>142.91</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>383</v>
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>385</v>
+        <v>63</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7.71</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>379</v>
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D69" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="D71" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" ref="B73:B136" si="4">B72+1</f>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="D73" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f>B53+1</f>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
-        <f>B75+1</f>
-        <v>71</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="3">
-        <v>11.04</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="3">
-        <v>44.14</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E80" s="3">
-        <v>35.26</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
-        <f>B53+1</f>
-        <v>76</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="3">
-        <v>24.78</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="7">
+        <v>43.5</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
-        <f t="shared" ref="B82:B144" si="4">B81+1</f>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E82" s="3">
-        <v>4.72</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E83" s="3">
-        <v>24.53</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E84" s="3">
-        <v>23.02</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E85" s="3">
-        <v>29.12</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E86" s="3">
-        <v>33.17</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E87" s="3">
-        <v>53.21</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E88" s="3">
-        <v>46.23</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="7">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="E89" s="3">
+        <v>33.17</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E90" s="3">
-        <v>18.559999999999999</v>
+        <v>53.21</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E91" s="3">
-        <v>15.75</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="3">
-        <v>19.510000000000002</v>
+        <v>123</v>
+      </c>
+      <c r="E92" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E93" s="3">
-        <v>66.97</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E94" s="3">
-        <v>54.94</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E95" s="3">
-        <v>38.840000000000003</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E96" s="3">
-        <v>83.92</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E97" s="3">
-        <v>60.72</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" s="7">
-        <v>12.2</v>
+        <v>135</v>
+      </c>
+      <c r="E98" s="3">
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E99" s="3">
-        <v>2.37</v>
+        <v>83.92</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="C100" t="s">
-        <v>316</v>
-      </c>
-      <c r="D100" t="s">
-        <v>317</v>
+        <v>75</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E100" s="3">
-        <v>4.26</v>
-      </c>
-      <c r="AC100" s="1">
-        <v>2011</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E101" s="3">
-        <v>42.98</v>
+        <v>145</v>
+      </c>
+      <c r="E101" s="7">
+        <v>12.2</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E102" s="3">
-        <v>23.92</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>153</v>
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103" t="s">
+        <v>317</v>
       </c>
       <c r="E103" s="3">
-        <v>53.29</v>
+        <v>4.26</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E104" s="3">
-        <v>74.459999999999994</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="105" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E105" s="3">
-        <v>48.63</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="106" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E106" s="3">
-        <v>27.73</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="107" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>160</v>
+        <v>82</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E107" s="3">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="F107" s="6">
-        <f>+E107*[29]Main!$N$3</f>
-        <v>3152.1980120399994</v>
-      </c>
-      <c r="G107" s="6">
-        <f>+[29]Main!$N$5-[29]Main!$N$6</f>
-        <v>869.93499999999995</v>
-      </c>
-      <c r="H107" s="6">
-        <f>+F107-G107</f>
-        <v>2282.2630120399995</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>16</v>
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="108" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E108" s="3">
-        <v>35.770000000000003</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="109" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E109" s="3">
-        <v>14.27</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="110" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>166</v>
+        <v>85</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E110" s="3">
-        <v>7.36</v>
+        <v>9.18</v>
+      </c>
+      <c r="F110" s="6">
+        <f>+E110*[30]Main!$N$3</f>
+        <v>2859.4049160599998</v>
+      </c>
+      <c r="G110" s="6">
+        <f>+[30]Main!$N$5-[30]Main!$N$6</f>
+        <v>869.93499999999995</v>
+      </c>
+      <c r="H110" s="6">
+        <f>+F110-G110</f>
+        <v>1989.4699160599998</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>168</v>
+        <v>86</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E111" s="3">
-        <v>9.35</v>
+        <v>163</v>
+      </c>
+      <c r="E111" s="7">
+        <v>46.19</v>
+      </c>
+      <c r="F111" s="6">
+        <f>+E111*I111</f>
+        <v>3249.6786968599999</v>
+      </c>
+      <c r="G111" s="6">
+        <f>+[31]Main!$K$5-[31]Main!$K$6</f>
+        <v>1178.8610000000001</v>
+      </c>
+      <c r="H111" s="6">
+        <f>+F111-G111</f>
+        <v>2070.8176968600001</v>
+      </c>
+      <c r="I111" s="6">
+        <f>+[31]Main!$K$3</f>
+        <v>70.354594000000006</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K111" s="9">
+        <v>44827</v>
       </c>
     </row>
     <row r="112" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>171</v>
+        <v>87</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D112" t="s">
+        <v>388</v>
       </c>
       <c r="E112" s="3">
-        <v>43.98</v>
+        <v>24.73</v>
+      </c>
+      <c r="F112" s="6">
+        <f>+E112*I112</f>
+        <v>1436.0261408599999</v>
+      </c>
+      <c r="G112" s="6">
+        <f>+[32]Main!$J$5-[32]Main!$J$6</f>
+        <v>566.44900000000007</v>
+      </c>
+      <c r="H112" s="6">
+        <f>+F112-G112</f>
+        <v>869.57714085999987</v>
+      </c>
+      <c r="I112" s="6">
+        <f>+[32]Main!$J$3</f>
+        <v>58.068182</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K112" s="9">
+        <v>44824</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E113" s="3">
-        <v>5.18</v>
+        <v>165</v>
+      </c>
+      <c r="E113" s="7">
+        <v>7.5</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <f t="shared" si="4"/>
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E114" s="3">
-        <v>53.72</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E115" s="3">
-        <v>21.04</v>
+        <v>169</v>
+      </c>
+      <c r="E115" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="C116" t="s">
-        <v>318</v>
-      </c>
-      <c r="D116" t="s">
-        <v>319</v>
+        <v>91</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" s="3">
+        <v>42.45</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E117" s="7">
-        <v>20.7</v>
+        <v>173</v>
+      </c>
+      <c r="E117" s="3">
+        <v>4.49</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E118" s="3">
-        <v>18.579999999999998</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E119" s="3">
-        <v>16.12</v>
+        <v>177</v>
+      </c>
+      <c r="E119" s="7">
+        <v>21.6</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>185</v>
+        <v>95</v>
+      </c>
+      <c r="C120" t="s">
+        <v>318</v>
+      </c>
+      <c r="D120" t="s">
+        <v>319</v>
       </c>
       <c r="E120" s="3">
-        <v>28.41</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <f t="shared" si="4"/>
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" s="3">
-        <v>33.86</v>
+        <v>179</v>
+      </c>
+      <c r="E121" s="7">
+        <v>25.03</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="C122" t="s">
-        <v>353</v>
-      </c>
-      <c r="D122" t="s">
-        <v>354</v>
-      </c>
-      <c r="E122" s="7">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="3">
+        <v>21.35</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E123" s="3">
-        <v>38.35</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E124" s="3">
-        <v>9.6199999999999992</v>
+        <v>48.73</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E125" s="3">
-        <v>25.49</v>
+        <v>37.96</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="D126" t="s">
-        <v>300</v>
+        <v>354</v>
+      </c>
+      <c r="E126" s="7">
+        <v>14.86</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E127" s="3">
-        <v>11.42</v>
+        <v>41.59</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E128" s="3">
-        <v>26.64</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E129" s="3">
-        <v>30.48</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>200</v>
+        <v>105</v>
+      </c>
+      <c r="C130" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" t="s">
+        <v>300</v>
       </c>
       <c r="E130" s="3">
-        <v>12.98</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E131" s="3">
-        <v>10.96</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E132" s="3">
-        <v>2.42</v>
+        <v>67.849999999999994</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E133" s="7">
-        <v>55.5</v>
+        <v>198</v>
+      </c>
+      <c r="E133" s="3">
+        <v>35.54</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E134" s="3">
-        <v>10.63</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E135" s="3">
-        <v>33.130000000000003</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E136" s="3">
-        <v>31.52</v>
+        <v>206</v>
+      </c>
+      <c r="E136" s="7">
+        <v>67.05</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
-        <f t="shared" si="4"/>
-        <v>132</v>
+        <f t="shared" ref="B137:B174" si="5">B136+1</f>
+        <v>112</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E137" s="3">
-        <v>7.62</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
-        <f t="shared" si="4"/>
-        <v>133</v>
+        <f t="shared" si="5"/>
+        <v>113</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E138" s="3">
-        <v>28.55</v>
+        <v>43.48</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
-        <f t="shared" si="4"/>
-        <v>134</v>
+        <f t="shared" si="5"/>
+        <v>114</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E139" s="3">
-        <v>27.02</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D140" t="s">
-        <v>297</v>
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E140" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="F140" s="6">
-        <f>E140*[30]Main!$L$3</f>
-        <v>1253.1559559500001</v>
-      </c>
-      <c r="G140" s="6">
-        <f>+[30]Main!$L$5-[30]Main!$L$6</f>
-        <v>112.015</v>
-      </c>
-      <c r="H140" s="6">
-        <f>+F140-G140</f>
-        <v>1141.14095595</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>16</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
-        <f t="shared" si="4"/>
-        <v>136</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D141" t="s">
-        <v>308</v>
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="E141" s="3">
-        <v>16.93</v>
-      </c>
-      <c r="F141" s="6">
-        <f>+E141*[31]Main!$L$3</f>
-        <v>1228.5485933099999</v>
-      </c>
-      <c r="G141" s="6">
-        <f>+[31]Main!$L$5-[31]Main!$L$6</f>
-        <v>153.25991400000001</v>
-      </c>
-      <c r="H141" s="6">
-        <f>+F141-G141</f>
-        <v>1075.2886793099999</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K141" s="9">
-        <v>44771</v>
-      </c>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
+        <v>20.68</v>
+      </c>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
-        <f t="shared" si="4"/>
-        <v>137</v>
+        <f t="shared" si="5"/>
+        <v>117</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E142" s="3">
-        <v>3.17</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>222</v>
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D143" t="s">
+        <v>297</v>
       </c>
       <c r="E143" s="3">
-        <v>8.76</v>
+        <v>15.65</v>
+      </c>
+      <c r="F143" s="6">
+        <f>E143*[33]Main!$L$3</f>
+        <v>1253.1559559500001</v>
+      </c>
+      <c r="G143" s="6">
+        <f>+[33]Main!$L$5-[33]Main!$L$6</f>
+        <v>112.015</v>
+      </c>
+      <c r="H143" s="6">
+        <f>+F143-G143</f>
+        <v>1141.14095595</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>224</v>
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D144" t="s">
+        <v>308</v>
       </c>
       <c r="E144" s="3">
-        <v>18.010000000000002</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F144" s="6">
+        <f>+E144*[34]Main!$L$3</f>
+        <v>798.23003700000004</v>
+      </c>
+      <c r="G144" s="6">
+        <f>+[34]Main!$L$5-[34]Main!$L$6</f>
+        <v>153.25991400000001</v>
+      </c>
+      <c r="H144" s="6">
+        <f>+F144-G144</f>
+        <v>644.97012300000006</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="9">
+        <v>44771</v>
+      </c>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
     </row>
     <row r="145" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
-        <f t="shared" ref="B145:B169" si="5">B144+1</f>
-        <v>140</v>
-      </c>
-      <c r="C145" t="s">
-        <v>313</v>
-      </c>
-      <c r="D145" t="s">
-        <v>314</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E145" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="F145" s="3">
-        <v>630</v>
+        <v>7.36</v>
+      </c>
+      <c r="F145" s="6">
+        <f>+E145*I145</f>
+        <v>897.18233664000002</v>
+      </c>
+      <c r="G145" s="6">
+        <f>+[35]Main!$J$5-[35]Main!$J$6</f>
+        <v>601.58999999999992</v>
+      </c>
+      <c r="H145" s="6">
+        <f>+F145-G145</f>
+        <v>295.5923366400001</v>
+      </c>
+      <c r="I145" s="6">
+        <f>+[35]Main!$J$3</f>
+        <v>121.89977399999999</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K145" s="9">
+        <v>44827</v>
       </c>
     </row>
     <row r="146" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <f t="shared" si="5"/>
-        <v>141</v>
-      </c>
-      <c r="C146" t="s">
-        <v>311</v>
-      </c>
-      <c r="D146" t="s">
-        <v>312</v>
+        <v>121</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E146" s="3">
-        <v>11.93</v>
-      </c>
-      <c r="F146" s="3">
-        <v>516</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="147" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <f t="shared" si="5"/>
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E147" s="3">
-        <v>5.46</v>
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="148" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <f t="shared" si="5"/>
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E148" s="7">
-        <v>36.6</v>
+        <v>224</v>
+      </c>
+      <c r="E148" s="3">
+        <v>18.309999999999999</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <f t="shared" si="5"/>
-        <v>144</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E149" s="7">
-        <v>40.24</v>
+        <v>124</v>
+      </c>
+      <c r="C149" t="s">
+        <v>313</v>
+      </c>
+      <c r="D149" t="s">
+        <v>314</v>
+      </c>
+      <c r="E149" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="F149" s="3">
+        <v>630</v>
       </c>
     </row>
     <row r="150" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <f t="shared" si="5"/>
-        <v>145</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>232</v>
+        <v>125</v>
+      </c>
+      <c r="C150" t="s">
+        <v>311</v>
+      </c>
+      <c r="D150" t="s">
+        <v>312</v>
       </c>
       <c r="E150" s="3">
-        <v>22.11</v>
+        <v>12.42</v>
+      </c>
+      <c r="F150" s="3">
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
         <f t="shared" si="5"/>
-        <v>146</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D151" t="s">
-        <v>332</v>
+        <v>126</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E151" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="F151" s="6">
-        <f>+E151*I151</f>
-        <v>37.185714749999995</v>
-      </c>
-      <c r="G151" s="6">
-        <f>+[32]Main!$N$5-[32]Main!$N$6</f>
-        <v>-7.4640000000000004</v>
-      </c>
-      <c r="H151" s="6">
-        <f>+F151-G151</f>
-        <v>44.649714749999994</v>
-      </c>
-      <c r="I151" s="6">
-        <f>+[32]Main!$N$3</f>
-        <v>9.4141049999999993</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K151" s="9">
-        <v>44780</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="152" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
         <f t="shared" si="5"/>
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E152" s="3">
-        <v>10.31</v>
+        <v>228</v>
+      </c>
+      <c r="E152" s="7">
+        <v>31.39</v>
       </c>
     </row>
     <row r="153" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
         <f t="shared" si="5"/>
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E153" s="7">
-        <v>1.3</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="154" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <f t="shared" si="5"/>
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E154" s="3">
-        <v>3.35</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>240</v>
+        <v>331</v>
+      </c>
+      <c r="D155" t="s">
+        <v>332</v>
       </c>
       <c r="E155" s="3">
-        <v>7.06</v>
+        <v>3.23</v>
       </c>
       <c r="F155" s="6">
-        <f>E155*[33]Main!$J$3</f>
-        <v>725.62786605999997</v>
+        <f>+E155*I155</f>
+        <v>30.407559149999997</v>
       </c>
       <c r="G155" s="6">
-        <f>[33]Main!$J$5-[33]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="H155" s="8">
+        <f>+[36]Main!$N$5-[36]Main!$N$6</f>
+        <v>-7.4640000000000004</v>
+      </c>
+      <c r="H155" s="6">
         <f>+F155-G155</f>
-        <v>527.83186605999992</v>
+        <v>37.871559149999996</v>
+      </c>
+      <c r="I155" s="6">
+        <f>+[36]Main!$N$3</f>
+        <v>9.4141049999999993</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
+      </c>
+      <c r="K155" s="9">
+        <v>44780</v>
       </c>
     </row>
     <row r="156" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <f t="shared" si="5"/>
-        <v>151</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>362</v>
+        <v>131</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E156" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F156" s="6">
-        <f>+E156*I156</f>
-        <v>486.43225439999998</v>
-      </c>
-      <c r="G156" s="6">
-        <f>+[34]Main!$K$5-[34]Main!$K$6</f>
-        <v>-37.984000000000002</v>
-      </c>
-      <c r="H156" s="8">
-        <f t="shared" ref="H156" si="6">+F156-G156</f>
-        <v>524.41625439999996</v>
-      </c>
-      <c r="I156" s="6">
-        <f>+[34]Main!$K$3</f>
-        <v>810.72042399999998</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K156" s="9">
-        <v>44816</v>
-      </c>
-      <c r="AC156" s="1">
-        <v>2002</v>
+        <v>234</v>
+      </c>
+      <c r="E156" s="3">
+        <v>10.31</v>
       </c>
     </row>
     <row r="157" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <f t="shared" si="5"/>
-        <v>152</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>241</v>
+        <v>132</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E157" s="3">
-        <v>14.68</v>
-      </c>
-      <c r="F157" s="6">
-        <f>E157*[35]Main!$L$3</f>
-        <v>587.26396075999992</v>
-      </c>
-      <c r="G157" s="6">
-        <f>[35]Main!$L$5-[35]Main!$L$6</f>
-        <v>277.88299999999998</v>
-      </c>
-      <c r="H157" s="8">
-        <f>+F157-G157</f>
-        <v>309.38096075999994</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>16</v>
+        <v>236</v>
+      </c>
+      <c r="E157" s="7">
+        <v>1.3</v>
       </c>
     </row>
     <row r="158" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <f t="shared" si="5"/>
-        <v>153</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>243</v>
+        <v>133</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E158" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F158" s="6">
-        <f>E158*[36]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="G158" s="8">
-        <f>+[36]Main!$J$5-[36]Main!$J$6</f>
-        <v>92.317999999999998</v>
-      </c>
-      <c r="H158" s="8">
-        <f>+F158-G158</f>
-        <v>220.39615336000003</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>16</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="159" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E159" s="3">
-        <v>7.57</v>
+        <v>7.06</v>
       </c>
       <c r="F159" s="6">
-        <f>E159*[37]Main!$M$3</f>
-        <v>338.45983246000003</v>
+        <f>E159*[37]Main!$J$3</f>
+        <v>725.62786605999997</v>
       </c>
       <c r="G159" s="6">
-        <f>[37]Main!$M$5-[37]Main!$M$6</f>
-        <v>120.43700000000001</v>
+        <f>[37]Main!$J$5-[37]Main!$J$6</f>
+        <v>197.79600000000002</v>
       </c>
       <c r="H159" s="8">
-        <f t="shared" ref="H159:H164" si="7">+F159-G159</f>
-        <v>218.02283246000002</v>
+        <f>+F159-G159</f>
+        <v>527.83186605999992</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>16</v>
@@ -7237,58 +7472,68 @@
     <row r="160" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>248</v>
+        <v>363</v>
       </c>
       <c r="E160" s="7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F160" s="6">
-        <f>E160*[38]Main!$M$3</f>
-        <v>128.9392503</v>
+        <f>+E160*I160</f>
+        <v>486.43225439999998</v>
       </c>
       <c r="G160" s="6">
-        <f>[38]Main!$M$5-[38]Main!$M$6</f>
-        <v>-59.50200000000001</v>
+        <f>+[38]Main!$K$5-[38]Main!$K$6</f>
+        <v>-37.984000000000002</v>
       </c>
       <c r="H160" s="8">
-        <f t="shared" si="7"/>
-        <v>188.44125030000001</v>
+        <f t="shared" ref="H160" si="6">+F160-G160</f>
+        <v>524.41625439999996</v>
+      </c>
+      <c r="I160" s="6">
+        <f>+[38]Main!$K$3</f>
+        <v>810.72042399999998</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>16</v>
+        <v>310</v>
+      </c>
+      <c r="K160" s="9">
+        <v>44816</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>2002</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E161" s="3">
-        <v>1.98</v>
+        <v>14.68</v>
       </c>
       <c r="F161" s="6">
-        <f>E161*[39]Main!$N$3</f>
-        <v>39.757463459999997</v>
+        <f>E161*[39]Main!$L$3</f>
+        <v>587.26396075999992</v>
       </c>
       <c r="G161" s="6">
-        <f>[39]Main!$N$5-[39]Main!$N$6</f>
-        <v>15.942</v>
+        <f>[39]Main!$L$5-[39]Main!$L$6</f>
+        <v>277.88299999999998</v>
       </c>
       <c r="H161" s="8">
-        <f t="shared" si="7"/>
-        <v>23.815463459999997</v>
+        <f>+F161-G161</f>
+        <v>309.38096075999994</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>16</v>
@@ -7297,28 +7542,28 @@
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <f t="shared" si="5"/>
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E162" s="3">
-        <v>0.62</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F162" s="6">
-        <f>E162*[40]Main!$L$3</f>
-        <v>30.1881658</v>
-      </c>
-      <c r="G162" s="6">
-        <f>[40]Main!$L$5-[40]Main!$L$6</f>
-        <v>13.262999999999998</v>
+        <f>E162*[40]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G162" s="8">
+        <f>+[40]Main!$J$5-[40]Main!$J$6</f>
+        <v>92.317999999999998</v>
       </c>
       <c r="H162" s="8">
-        <f t="shared" si="7"/>
-        <v>16.925165800000002</v>
+        <f>+F162-G162</f>
+        <v>220.39615336000003</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>16</v>
@@ -7327,28 +7572,28 @@
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <f t="shared" si="5"/>
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E163" s="3">
-        <v>6.12</v>
+        <v>7.57</v>
       </c>
       <c r="F163" s="6">
         <f>E163*[41]Main!$M$3</f>
-        <v>125.46108324000001</v>
+        <v>338.45983246000003</v>
       </c>
       <c r="G163" s="6">
         <f>[41]Main!$M$5-[41]Main!$M$6</f>
-        <v>131.17699999999999</v>
+        <v>120.43700000000001</v>
       </c>
       <c r="H163" s="8">
-        <f t="shared" si="7"/>
-        <v>-5.7159167599999847</v>
+        <f t="shared" ref="H163:H168" si="7">+F163-G163</f>
+        <v>218.02283246000002</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>16</v>
@@ -7357,28 +7602,28 @@
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E164" s="3">
-        <v>0.98</v>
+        <v>248</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0.7</v>
       </c>
       <c r="F164" s="6">
         <f>E164*[42]Main!$M$3</f>
-        <v>20.935517539999999</v>
+        <v>128.9392503</v>
       </c>
       <c r="G164" s="6">
         <f>[42]Main!$M$5-[42]Main!$M$6</f>
-        <v>55.28</v>
+        <v>-59.50200000000001</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="7"/>
-        <v>-34.344482460000002</v>
+        <v>188.44125030000001</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>16</v>
@@ -7387,76 +7632,211 @@
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>257</v>
+        <v>140</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E165" s="3">
-        <v>0.61</v>
+        <v>1.98</v>
+      </c>
+      <c r="F165" s="6">
+        <f>E165*[43]Main!$N$3</f>
+        <v>39.757463459999997</v>
+      </c>
+      <c r="G165" s="6">
+        <f>[43]Main!$N$5-[43]Main!$N$6</f>
+        <v>15.942</v>
+      </c>
+      <c r="H165" s="8">
+        <f t="shared" si="7"/>
+        <v>23.815463459999997</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <f t="shared" si="5"/>
-        <v>161</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>259</v>
+        <v>141</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E166" s="3">
-        <v>5.55</v>
+        <v>0.62</v>
+      </c>
+      <c r="F166" s="6">
+        <f>E166*[44]Main!$L$3</f>
+        <v>30.1881658</v>
+      </c>
+      <c r="G166" s="6">
+        <f>[44]Main!$L$5-[44]Main!$L$6</f>
+        <v>13.262999999999998</v>
+      </c>
+      <c r="H166" s="8">
+        <f t="shared" si="7"/>
+        <v>16.925165800000002</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D167" t="s">
-        <v>359</v>
-      </c>
-      <c r="E167" s="7">
-        <v>4.2</v>
+        <v>142</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E167" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="F167" s="6">
+        <f>E167*[45]Main!$M$3</f>
+        <v>125.46108324000001</v>
+      </c>
+      <c r="G167" s="6">
+        <f>[45]Main!$M$5-[45]Main!$M$6</f>
+        <v>131.17699999999999</v>
+      </c>
+      <c r="H167" s="8">
+        <f t="shared" si="7"/>
+        <v>-5.7159167599999847</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <f t="shared" si="5"/>
-        <v>163</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D168" t="s">
-        <v>343</v>
-      </c>
-      <c r="E168" s="7">
-        <v>4</v>
+        <v>143</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F168" s="6">
+        <f>E168*[46]Main!$M$3</f>
+        <v>20.935517539999999</v>
+      </c>
+      <c r="G168" s="6">
+        <f>[46]Main!$M$5-[46]Main!$M$6</f>
+        <v>55.28</v>
+      </c>
+      <c r="H168" s="8">
+        <f t="shared" si="7"/>
+        <v>-34.344482460000002</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <f t="shared" si="5"/>
-        <v>164</v>
-      </c>
-      <c r="C169" t="s">
+        <v>144</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B170" s="1">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E170" s="3">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D171" t="s">
+        <v>359</v>
+      </c>
+      <c r="E171" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" s="1">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D172" t="s">
+        <v>343</v>
+      </c>
+      <c r="E172" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" s="1">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C173" t="s">
         <v>346</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D173" t="s">
         <v>347</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E173" s="3">
         <v>20.18</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" s="1">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E174" s="3">
+        <v>25.85</v>
       </c>
     </row>
   </sheetData>
@@ -7481,48 +7861,51 @@
     <hyperlink ref="C18" r:id="rId14" xr:uid="{316E9202-338F-4301-AEBE-A9FA398A76CC}"/>
     <hyperlink ref="C5" r:id="rId15" xr:uid="{0888F4DA-9569-4326-990C-43015A33BD61}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{C2959A9B-7367-43D7-934F-562A915DC4DD}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{A069369A-FB97-4A4A-A581-321FA79E4250}"/>
     <hyperlink ref="C46" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
-    <hyperlink ref="C27" r:id="rId20" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
+    <hyperlink ref="C29" r:id="rId20" xr:uid="{FBD4E7AC-5982-43A1-83EA-3F3AB2E91655}"/>
     <hyperlink ref="C49" r:id="rId21" xr:uid="{53091BB6-5763-4DDE-A659-5638BD3CADCA}"/>
     <hyperlink ref="C47" r:id="rId22" xr:uid="{10922C8B-4C13-4E76-B998-3ADD8CC60E47}"/>
-    <hyperlink ref="C28" r:id="rId23" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="C158" r:id="rId24" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="C161" r:id="rId25" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="C157" r:id="rId26" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="C162" r:id="rId27" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="C159" r:id="rId28" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="C164" r:id="rId29" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="C155" r:id="rId30" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="C163" r:id="rId31" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="C160" r:id="rId32" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
-    <hyperlink ref="C19" r:id="rId33" xr:uid="{DD499110-DFB7-4D1A-B234-8AA2514ADD29}"/>
-    <hyperlink ref="C54" r:id="rId34" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
-    <hyperlink ref="C55" r:id="rId35" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
-    <hyperlink ref="C50" r:id="rId36" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
-    <hyperlink ref="C25" r:id="rId37" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="C140" r:id="rId38" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
-    <hyperlink ref="C107" r:id="rId39" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="C141" r:id="rId40" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
-    <hyperlink ref="C57" r:id="rId41" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
-    <hyperlink ref="C58" r:id="rId42" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="C151" r:id="rId43" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
-    <hyperlink ref="C29" r:id="rId44" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
-    <hyperlink ref="C24" r:id="rId45" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
-    <hyperlink ref="C26" r:id="rId46" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
-    <hyperlink ref="C56" r:id="rId47" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
-    <hyperlink ref="C10" r:id="rId48" xr:uid="{467EEBCD-6BD7-4E71-B2C9-FCF3DB57F059}"/>
-    <hyperlink ref="C156" r:id="rId49" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
+    <hyperlink ref="C22" r:id="rId23" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
+    <hyperlink ref="C162" r:id="rId24" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="C165" r:id="rId25" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="C161" r:id="rId26" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="C166" r:id="rId27" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="C163" r:id="rId28" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="C168" r:id="rId29" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="C159" r:id="rId30" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="C167" r:id="rId31" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="C164" r:id="rId32" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="C55" r:id="rId33" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
+    <hyperlink ref="C56" r:id="rId34" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
+    <hyperlink ref="C50" r:id="rId35" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
+    <hyperlink ref="C27" r:id="rId36" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
+    <hyperlink ref="C143" r:id="rId37" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="C110" r:id="rId38" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
+    <hyperlink ref="C144" r:id="rId39" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="C58" r:id="rId40" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
+    <hyperlink ref="C59" r:id="rId41" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="C155" r:id="rId42" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="C23" r:id="rId43" xr:uid="{98C5B53F-658C-427A-AF31-B4D604AF2D15}"/>
+    <hyperlink ref="C26" r:id="rId44" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
+    <hyperlink ref="C28" r:id="rId45" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
+    <hyperlink ref="C57" r:id="rId46" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
+    <hyperlink ref="C10" r:id="rId47" xr:uid="{467EEBCD-6BD7-4E71-B2C9-FCF3DB57F059}"/>
+    <hyperlink ref="C160" r:id="rId48" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
+    <hyperlink ref="C19" r:id="rId49" xr:uid="{994E2867-C411-41E7-8332-43A0B3B0CC2B}"/>
+    <hyperlink ref="C112" r:id="rId50" xr:uid="{51C9506E-5D60-43F8-BADA-7F72A25DAFF6}"/>
+    <hyperlink ref="C111" r:id="rId51" xr:uid="{9E4325F2-98CF-4735-96D0-66A9DC5A8E86}"/>
+    <hyperlink ref="C145" r:id="rId52" xr:uid="{6D062383-838D-42C7-BFCD-E5C9DC258548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCF0B2B-B27D-4DF2-80CD-010154B4E660}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -7570,6 +7953,14 @@
         <v>1.1833</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7">
+        <v>143.61000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7577,13 +7968,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7706,6 +8097,11 @@
       </c>
       <c r="I13" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1174BDF-E346-4444-80F4-498F9C114AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E632F36A-3254-4699-847A-6B68A9BB650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="1440" windowWidth="31890" windowHeight="19365" activeTab="2" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="28605" yWindow="1440" windowWidth="22515" windowHeight="19365" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,7 @@
     <externalReference r:id="rId48"/>
     <externalReference r:id="rId49"/>
     <externalReference r:id="rId50"/>
+    <externalReference r:id="rId51"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="404">
   <si>
     <t>Exarta</t>
   </si>
@@ -1286,6 +1287,27 @@
   </si>
   <si>
     <t>Meissa Vaccines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Vivoryon</t>
+  </si>
+  <si>
+    <t>VVY</t>
+  </si>
+  <si>
+    <t>Wren Therapeutics</t>
+  </si>
+  <si>
+    <t>2019?</t>
+  </si>
+  <si>
+    <t>18m GBP</t>
+  </si>
+  <si>
+    <t>Alzheimer's amyloid aggregation inhibitor</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1375,6 +1397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2270,17 +2293,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>391.199544</v>
+          <cell r="J3">
+            <v>1644.5904210000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18059</v>
+          <cell r="J5">
+            <v>594550</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
+          <cell r="J6">
             <v>0</v>
           </cell>
         </row>
@@ -2301,18 +2324,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>1212.5809400000001</v>
+          <cell r="L3">
+            <v>391.199544</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>752.4</v>
+          <cell r="L5">
+            <v>18059</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>19417.900000000001</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2328,6 +2351,37 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1212.5809400000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>752.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>19417.900000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="Comirnaty"/>
     </sheetNames>
     <sheetDataSet>
@@ -2355,7 +2409,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2422,7 +2476,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2453,7 +2507,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2492,7 +2546,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2525,7 +2579,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2562,7 +2616,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2586,51 +2640,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Consta"/>
-      <sheetName val="Vivitrol"/>
-      <sheetName val="nemvaleukin"/>
-      <sheetName val="Byetta LAR"/>
-      <sheetName val="Discontinued - ALKS27"/>
-      <sheetName val="Jansenn Contract"/>
-      <sheetName val="ALKS33"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>164.25427500000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>759.97699999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>294.53699999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2744,26 +2753,40 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Consta"/>
+      <sheetName val="Vivitrol"/>
+      <sheetName val="nemvaleukin"/>
+      <sheetName val="Byetta LAR"/>
+      <sheetName val="Discontinued - ALKS27"/>
+      <sheetName val="Jansenn Contract"/>
+      <sheetName val="ALKS33"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>311.48201699999998</v>
+          <cell r="L3">
+            <v>164.25427500000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>869.93499999999995</v>
+          <cell r="L5">
+            <v>759.97699999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0</v>
+          <cell r="L6">
+            <v>294.53699999999998</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2774,6 +2797,37 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>311.48201699999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>869.93499999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2798,7 +2852,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2829,7 +2883,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2860,7 +2914,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2901,7 +2955,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2930,7 +2984,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2959,7 +3013,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3002,7 +3056,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3023,35 +3077,6 @@
         <row r="6">
           <cell r="K6">
             <v>42.215000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>40.004356999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>277.88299999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3144,31 +3169,25 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Yutrepia"/>
-      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>64.344476</v>
+          <cell r="L3">
+            <v>40.004356999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>111.794</v>
+          <cell r="L5">
+            <v>277.88299999999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>19.475999999999999</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3179,25 +3198,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Yutrepia"/>
+      <sheetName val="Generic"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
+          <cell r="J3">
+            <v>64.344476</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
+          <cell r="J5">
+            <v>111.794</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="J6">
+            <v>19.475999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3213,17 +3238,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>184.19892899999999</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>67.233999999999995</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>126.736</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3241,18 +3266,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -3270,18 +3295,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -3299,18 +3324,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -3320,6 +3345,35 @@
 </file>
 
 <file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4020,13 +4074,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4048,13 +4102,13 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <f ca="1">RANDBETWEEN(1,B160)</f>
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K2" s="9">
         <f>MIN(K4:K31)</f>
-        <v>44808</v>
+        <v>44810</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>321</v>
@@ -4606,7 +4660,7 @@
         <v>310</v>
       </c>
       <c r="K12" s="9">
-        <v>44808</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -4715,7 +4769,7 @@
         <v>-12400.887000000001</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H26" si="3">F15-G15</f>
+        <f